--- a/source/glyph_data.xlsx
+++ b/source/glyph_data.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2216" uniqueCount="1898">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2272" uniqueCount="1954">
   <si>
     <t>USV</t>
   </si>
@@ -5742,6 +5742,174 @@
   </si>
   <si>
     <t>uni00A0</t>
+  </si>
+  <si>
+    <t>1E7E0</t>
+  </si>
+  <si>
+    <t>u1E7E0</t>
+  </si>
+  <si>
+    <t>1E7E1</t>
+  </si>
+  <si>
+    <t>u1E7E1</t>
+  </si>
+  <si>
+    <t>1E7E2</t>
+  </si>
+  <si>
+    <t>u1E7E2</t>
+  </si>
+  <si>
+    <t>1E7E3</t>
+  </si>
+  <si>
+    <t>u1E7E3</t>
+  </si>
+  <si>
+    <t>1E7E4</t>
+  </si>
+  <si>
+    <t>u1E7E4</t>
+  </si>
+  <si>
+    <t>1E7E5</t>
+  </si>
+  <si>
+    <t>u1E7E5</t>
+  </si>
+  <si>
+    <t>1E7E6</t>
+  </si>
+  <si>
+    <t>u1E7E6</t>
+  </si>
+  <si>
+    <t>1E7E8</t>
+  </si>
+  <si>
+    <t>u1E7E8</t>
+  </si>
+  <si>
+    <t>1E7E9</t>
+  </si>
+  <si>
+    <t>u1E7E9</t>
+  </si>
+  <si>
+    <t>1E7EA</t>
+  </si>
+  <si>
+    <t>u1E7EA</t>
+  </si>
+  <si>
+    <t>1E7EB</t>
+  </si>
+  <si>
+    <t>u1E7EB</t>
+  </si>
+  <si>
+    <t>1E7ED</t>
+  </si>
+  <si>
+    <t>u1E7ED</t>
+  </si>
+  <si>
+    <t>1E7EE</t>
+  </si>
+  <si>
+    <t>u1E7EE</t>
+  </si>
+  <si>
+    <t>1E7F0</t>
+  </si>
+  <si>
+    <t>u1E7F0</t>
+  </si>
+  <si>
+    <t>1E7F1</t>
+  </si>
+  <si>
+    <t>u1E7F1</t>
+  </si>
+  <si>
+    <t>1E7F2</t>
+  </si>
+  <si>
+    <t>u1E7F2</t>
+  </si>
+  <si>
+    <t>1E7F3</t>
+  </si>
+  <si>
+    <t>u1E7F3</t>
+  </si>
+  <si>
+    <t>1E7F4</t>
+  </si>
+  <si>
+    <t>u1E7F4</t>
+  </si>
+  <si>
+    <t>1E7F5</t>
+  </si>
+  <si>
+    <t>u1E7F5</t>
+  </si>
+  <si>
+    <t>1E7F6</t>
+  </si>
+  <si>
+    <t>u1E7F6</t>
+  </si>
+  <si>
+    <t>1E7F7</t>
+  </si>
+  <si>
+    <t>u1E7F7</t>
+  </si>
+  <si>
+    <t>1E7F8</t>
+  </si>
+  <si>
+    <t>u1E7F8</t>
+  </si>
+  <si>
+    <t>1E7F9</t>
+  </si>
+  <si>
+    <t>u1E7F9</t>
+  </si>
+  <si>
+    <t>1E7FA</t>
+  </si>
+  <si>
+    <t>u1E7FA</t>
+  </si>
+  <si>
+    <t>1E7FB</t>
+  </si>
+  <si>
+    <t>u1E7FB</t>
+  </si>
+  <si>
+    <t>1E7FC</t>
+  </si>
+  <si>
+    <t>u1E7FC</t>
+  </si>
+  <si>
+    <t>1E7FD</t>
+  </si>
+  <si>
+    <t>u1E7FD</t>
+  </si>
+  <si>
+    <t>1E7FE</t>
+  </si>
+  <si>
+    <t>u1E7FE</t>
   </si>
 </sst>
 </file>
@@ -6067,10 +6235,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1030"/>
+  <dimension ref="A1:I1058"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="B118" sqref="B118"/>
+    <sheetView tabSelected="1" topLeftCell="A1036" workbookViewId="0">
+      <selection activeCell="D1038" sqref="D1038"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18583,7 +18751,7 @@
         <v>2073</v>
       </c>
     </row>
-    <row r="1025" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1025" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1025" t="s">
         <v>1798</v>
       </c>
@@ -18591,7 +18759,7 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="1026" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1026" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1026" t="s">
         <v>1799</v>
       </c>
@@ -18599,7 +18767,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="1027" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1027" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1027" t="s">
         <v>1800</v>
       </c>
@@ -18607,7 +18775,7 @@
         <v>2076</v>
       </c>
     </row>
-    <row r="1028" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1028" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1028" t="s">
         <v>1801</v>
       </c>
@@ -18615,7 +18783,7 @@
         <v>2077</v>
       </c>
     </row>
-    <row r="1029" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1029" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1029" t="s">
         <v>1802</v>
       </c>
@@ -18623,13 +18791,349 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="1030" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1030" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1030" t="s">
         <v>1803</v>
       </c>
       <c r="C1030">
         <v>2079</v>
       </c>
+    </row>
+    <row r="1031" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1031" t="s">
+        <v>1898</v>
+      </c>
+      <c r="B1031" t="s">
+        <v>1899</v>
+      </c>
+      <c r="C1031">
+        <v>3001</v>
+      </c>
+      <c r="H1031"/>
+    </row>
+    <row r="1032" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1032" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B1032" t="s">
+        <v>1901</v>
+      </c>
+      <c r="C1032">
+        <v>3002</v>
+      </c>
+      <c r="H1032"/>
+    </row>
+    <row r="1033" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1033" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B1033" t="s">
+        <v>1903</v>
+      </c>
+      <c r="C1033">
+        <v>3003</v>
+      </c>
+      <c r="H1033"/>
+    </row>
+    <row r="1034" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1034" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B1034" t="s">
+        <v>1905</v>
+      </c>
+      <c r="C1034">
+        <v>3004</v>
+      </c>
+      <c r="H1034"/>
+    </row>
+    <row r="1035" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1035" t="s">
+        <v>1906</v>
+      </c>
+      <c r="B1035" t="s">
+        <v>1907</v>
+      </c>
+      <c r="C1035">
+        <v>3005</v>
+      </c>
+      <c r="H1035"/>
+    </row>
+    <row r="1036" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1036" t="s">
+        <v>1908</v>
+      </c>
+      <c r="B1036" t="s">
+        <v>1909</v>
+      </c>
+      <c r="C1036">
+        <v>3006</v>
+      </c>
+      <c r="H1036"/>
+    </row>
+    <row r="1037" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1037" t="s">
+        <v>1910</v>
+      </c>
+      <c r="B1037" t="s">
+        <v>1911</v>
+      </c>
+      <c r="C1037">
+        <v>3007</v>
+      </c>
+      <c r="H1037"/>
+    </row>
+    <row r="1038" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1038" t="s">
+        <v>1912</v>
+      </c>
+      <c r="B1038" t="s">
+        <v>1913</v>
+      </c>
+      <c r="C1038">
+        <v>3008</v>
+      </c>
+      <c r="H1038"/>
+    </row>
+    <row r="1039" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1039" t="s">
+        <v>1914</v>
+      </c>
+      <c r="B1039" t="s">
+        <v>1915</v>
+      </c>
+      <c r="C1039">
+        <v>3009</v>
+      </c>
+      <c r="H1039"/>
+    </row>
+    <row r="1040" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1040" t="s">
+        <v>1916</v>
+      </c>
+      <c r="B1040" t="s">
+        <v>1917</v>
+      </c>
+      <c r="C1040">
+        <v>3010</v>
+      </c>
+      <c r="H1040"/>
+    </row>
+    <row r="1041" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1041" t="s">
+        <v>1918</v>
+      </c>
+      <c r="B1041" t="s">
+        <v>1919</v>
+      </c>
+      <c r="C1041">
+        <v>3011</v>
+      </c>
+      <c r="H1041"/>
+    </row>
+    <row r="1042" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1042" t="s">
+        <v>1920</v>
+      </c>
+      <c r="B1042" t="s">
+        <v>1921</v>
+      </c>
+      <c r="C1042">
+        <v>3012</v>
+      </c>
+      <c r="H1042"/>
+    </row>
+    <row r="1043" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1043" t="s">
+        <v>1922</v>
+      </c>
+      <c r="B1043" t="s">
+        <v>1923</v>
+      </c>
+      <c r="C1043">
+        <v>3013</v>
+      </c>
+      <c r="H1043"/>
+    </row>
+    <row r="1044" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1044" t="s">
+        <v>1924</v>
+      </c>
+      <c r="B1044" t="s">
+        <v>1925</v>
+      </c>
+      <c r="C1044">
+        <v>3014</v>
+      </c>
+      <c r="H1044"/>
+    </row>
+    <row r="1045" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1045" t="s">
+        <v>1926</v>
+      </c>
+      <c r="B1045" t="s">
+        <v>1927</v>
+      </c>
+      <c r="C1045">
+        <v>3015</v>
+      </c>
+      <c r="H1045"/>
+    </row>
+    <row r="1046" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1046" t="s">
+        <v>1928</v>
+      </c>
+      <c r="B1046" t="s">
+        <v>1929</v>
+      </c>
+      <c r="C1046">
+        <v>3016</v>
+      </c>
+      <c r="H1046"/>
+    </row>
+    <row r="1047" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1047" t="s">
+        <v>1930</v>
+      </c>
+      <c r="B1047" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C1047">
+        <v>3017</v>
+      </c>
+      <c r="H1047"/>
+    </row>
+    <row r="1048" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1048" t="s">
+        <v>1932</v>
+      </c>
+      <c r="B1048" t="s">
+        <v>1933</v>
+      </c>
+      <c r="C1048">
+        <v>3018</v>
+      </c>
+      <c r="H1048"/>
+    </row>
+    <row r="1049" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1049" t="s">
+        <v>1934</v>
+      </c>
+      <c r="B1049" t="s">
+        <v>1935</v>
+      </c>
+      <c r="C1049">
+        <v>3019</v>
+      </c>
+      <c r="H1049"/>
+    </row>
+    <row r="1050" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1050" t="s">
+        <v>1936</v>
+      </c>
+      <c r="B1050" t="s">
+        <v>1937</v>
+      </c>
+      <c r="C1050">
+        <v>3020</v>
+      </c>
+      <c r="H1050"/>
+    </row>
+    <row r="1051" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1051" t="s">
+        <v>1938</v>
+      </c>
+      <c r="B1051" t="s">
+        <v>1939</v>
+      </c>
+      <c r="C1051">
+        <v>3021</v>
+      </c>
+      <c r="H1051"/>
+    </row>
+    <row r="1052" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1052" t="s">
+        <v>1940</v>
+      </c>
+      <c r="B1052" t="s">
+        <v>1941</v>
+      </c>
+      <c r="C1052">
+        <v>3022</v>
+      </c>
+      <c r="H1052"/>
+    </row>
+    <row r="1053" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1053" t="s">
+        <v>1942</v>
+      </c>
+      <c r="B1053" t="s">
+        <v>1943</v>
+      </c>
+      <c r="C1053">
+        <v>3023</v>
+      </c>
+      <c r="H1053"/>
+    </row>
+    <row r="1054" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1054" t="s">
+        <v>1944</v>
+      </c>
+      <c r="B1054" t="s">
+        <v>1945</v>
+      </c>
+      <c r="C1054">
+        <v>3024</v>
+      </c>
+      <c r="H1054"/>
+    </row>
+    <row r="1055" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1055" t="s">
+        <v>1946</v>
+      </c>
+      <c r="B1055" t="s">
+        <v>1947</v>
+      </c>
+      <c r="C1055">
+        <v>3025</v>
+      </c>
+      <c r="H1055"/>
+    </row>
+    <row r="1056" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1056" t="s">
+        <v>1948</v>
+      </c>
+      <c r="B1056" t="s">
+        <v>1949</v>
+      </c>
+      <c r="C1056">
+        <v>3026</v>
+      </c>
+      <c r="H1056"/>
+    </row>
+    <row r="1057" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1057" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B1057" t="s">
+        <v>1951</v>
+      </c>
+      <c r="C1057">
+        <v>3027</v>
+      </c>
+      <c r="H1057"/>
+    </row>
+    <row r="1058" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1058" t="s">
+        <v>1952</v>
+      </c>
+      <c r="B1058" t="s">
+        <v>1953</v>
+      </c>
+      <c r="C1058">
+        <v>3028</v>
+      </c>
+      <c r="H1058"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:I1">

--- a/source/glyph_data.xlsx
+++ b/source/glyph_data.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3370" uniqueCount="1975">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3410" uniqueCount="1976">
   <si>
     <t>USV</t>
   </si>
@@ -5973,6 +5973,9 @@
   </si>
   <si>
     <t>DesignerOrder</t>
+  </si>
+  <si>
+    <t>cv02</t>
   </si>
 </sst>
 </file>
@@ -6300,7 +6303,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1078"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A672" workbookViewId="0">
+      <selection activeCell="F682" sqref="F682"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -16615,7 +16620,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="657" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
         <v>1158</v>
       </c>
@@ -16629,7 +16634,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="658" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
         <v>1160</v>
       </c>
@@ -16643,7 +16648,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="659" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
         <v>1162</v>
       </c>
@@ -16657,7 +16662,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="660" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
         <v>1164</v>
       </c>
@@ -16671,7 +16676,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="661" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
         <v>1166</v>
       </c>
@@ -16684,8 +16689,11 @@
       <c r="D661">
         <v>659</v>
       </c>
-    </row>
-    <row r="662" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G661" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="662" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
         <v>1168</v>
       </c>
@@ -16698,8 +16706,11 @@
       <c r="D662">
         <v>660</v>
       </c>
-    </row>
-    <row r="663" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G662" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="663" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
         <v>1170</v>
       </c>
@@ -16712,8 +16723,11 @@
       <c r="D663">
         <v>661</v>
       </c>
-    </row>
-    <row r="664" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G663" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="664" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
         <v>1172</v>
       </c>
@@ -16726,8 +16740,11 @@
       <c r="D664">
         <v>662</v>
       </c>
-    </row>
-    <row r="665" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G664" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="665" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
         <v>1174</v>
       </c>
@@ -16740,8 +16757,11 @@
       <c r="D665">
         <v>663</v>
       </c>
-    </row>
-    <row r="666" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G665" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="666" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
         <v>1176</v>
       </c>
@@ -16754,8 +16774,11 @@
       <c r="D666">
         <v>664</v>
       </c>
-    </row>
-    <row r="667" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G666" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="667" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
         <v>1178</v>
       </c>
@@ -16768,8 +16791,11 @@
       <c r="D667">
         <v>665</v>
       </c>
-    </row>
-    <row r="668" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G667" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="668" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
         <v>1180</v>
       </c>
@@ -16782,8 +16808,11 @@
       <c r="D668">
         <v>666</v>
       </c>
-    </row>
-    <row r="669" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G668" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="669" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
         <v>1182</v>
       </c>
@@ -16796,8 +16825,11 @@
       <c r="D669">
         <v>667</v>
       </c>
-    </row>
-    <row r="670" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G669" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="670" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
         <v>1184</v>
       </c>
@@ -16810,8 +16842,11 @@
       <c r="D670">
         <v>668</v>
       </c>
-    </row>
-    <row r="671" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G670" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="671" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
         <v>1186</v>
       </c>
@@ -16824,8 +16859,11 @@
       <c r="D671">
         <v>669</v>
       </c>
-    </row>
-    <row r="672" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G671" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="672" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
         <v>1188</v>
       </c>
@@ -16838,8 +16876,11 @@
       <c r="D672">
         <v>670</v>
       </c>
-    </row>
-    <row r="673" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G672" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="673" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
         <v>1190</v>
       </c>
@@ -16852,8 +16893,11 @@
       <c r="D673">
         <v>671</v>
       </c>
-    </row>
-    <row r="674" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G673" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="674" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
         <v>1192</v>
       </c>
@@ -16866,8 +16910,11 @@
       <c r="D674">
         <v>672</v>
       </c>
-    </row>
-    <row r="675" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G674" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="675" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
         <v>1194</v>
       </c>
@@ -16880,8 +16927,11 @@
       <c r="D675">
         <v>673</v>
       </c>
-    </row>
-    <row r="676" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G675" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="676" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
         <v>1196</v>
       </c>
@@ -16894,8 +16944,11 @@
       <c r="D676">
         <v>674</v>
       </c>
-    </row>
-    <row r="677" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G676" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="677" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
         <v>1198</v>
       </c>
@@ -16908,8 +16961,11 @@
       <c r="D677">
         <v>675</v>
       </c>
-    </row>
-    <row r="678" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G677" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="678" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
         <v>1200</v>
       </c>
@@ -16922,8 +16978,11 @@
       <c r="D678">
         <v>676</v>
       </c>
-    </row>
-    <row r="679" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G678" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="679" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
         <v>1202</v>
       </c>
@@ -16936,8 +16995,11 @@
       <c r="D679">
         <v>677</v>
       </c>
-    </row>
-    <row r="680" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G679" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="680" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
         <v>1204</v>
       </c>
@@ -16950,8 +17012,11 @@
       <c r="D680">
         <v>678</v>
       </c>
-    </row>
-    <row r="681" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G680" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="681" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
         <v>1953</v>
       </c>
@@ -16961,8 +17026,11 @@
       <c r="D681">
         <v>679</v>
       </c>
-    </row>
-    <row r="682" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G681" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="682" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
         <v>1954</v>
       </c>
@@ -16972,8 +17040,11 @@
       <c r="D682">
         <v>680</v>
       </c>
-    </row>
-    <row r="683" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G682" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="683" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
         <v>1955</v>
       </c>
@@ -16983,8 +17054,11 @@
       <c r="D683">
         <v>681</v>
       </c>
-    </row>
-    <row r="684" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G683" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="684" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
         <v>1956</v>
       </c>
@@ -16994,8 +17068,11 @@
       <c r="D684">
         <v>682</v>
       </c>
-    </row>
-    <row r="685" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G684" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="685" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
         <v>1957</v>
       </c>
@@ -17005,8 +17082,11 @@
       <c r="D685">
         <v>683</v>
       </c>
-    </row>
-    <row r="686" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G685" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="686" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
         <v>1958</v>
       </c>
@@ -17016,8 +17096,11 @@
       <c r="D686">
         <v>684</v>
       </c>
-    </row>
-    <row r="687" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G686" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="687" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
         <v>1959</v>
       </c>
@@ -17027,8 +17110,11 @@
       <c r="D687">
         <v>685</v>
       </c>
-    </row>
-    <row r="688" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G687" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="688" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
         <v>1960</v>
       </c>
@@ -17037,6 +17123,9 @@
       </c>
       <c r="D688">
         <v>686</v>
+      </c>
+      <c r="G688" t="s">
+        <v>1975</v>
       </c>
     </row>
     <row r="689" spans="1:9" x14ac:dyDescent="0.25">
@@ -17049,6 +17138,9 @@
       <c r="D689">
         <v>687</v>
       </c>
+      <c r="G689" t="s">
+        <v>1975</v>
+      </c>
     </row>
     <row r="690" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
@@ -17060,6 +17152,9 @@
       <c r="D690">
         <v>688</v>
       </c>
+      <c r="G690" t="s">
+        <v>1975</v>
+      </c>
     </row>
     <row r="691" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
@@ -17071,6 +17166,9 @@
       <c r="D691">
         <v>689</v>
       </c>
+      <c r="G691" t="s">
+        <v>1975</v>
+      </c>
     </row>
     <row r="692" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
@@ -17082,6 +17180,9 @@
       <c r="D692">
         <v>690</v>
       </c>
+      <c r="G692" t="s">
+        <v>1975</v>
+      </c>
     </row>
     <row r="693" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
@@ -17093,6 +17194,9 @@
       <c r="D693">
         <v>691</v>
       </c>
+      <c r="G693" t="s">
+        <v>1975</v>
+      </c>
     </row>
     <row r="694" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
@@ -17104,6 +17208,9 @@
       <c r="D694">
         <v>692</v>
       </c>
+      <c r="G694" t="s">
+        <v>1975</v>
+      </c>
     </row>
     <row r="695" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
@@ -17115,6 +17222,9 @@
       <c r="D695">
         <v>693</v>
       </c>
+      <c r="G695" t="s">
+        <v>1975</v>
+      </c>
     </row>
     <row r="696" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
@@ -17126,6 +17236,9 @@
       <c r="D696">
         <v>694</v>
       </c>
+      <c r="G696" t="s">
+        <v>1975</v>
+      </c>
     </row>
     <row r="697" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
@@ -17137,6 +17250,9 @@
       <c r="D697">
         <v>695</v>
       </c>
+      <c r="G697" t="s">
+        <v>1975</v>
+      </c>
     </row>
     <row r="698" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
@@ -17148,6 +17264,9 @@
       <c r="D698">
         <v>696</v>
       </c>
+      <c r="G698" t="s">
+        <v>1975</v>
+      </c>
     </row>
     <row r="699" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
@@ -17159,6 +17278,9 @@
       <c r="D699">
         <v>697</v>
       </c>
+      <c r="G699" t="s">
+        <v>1975</v>
+      </c>
     </row>
     <row r="700" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
@@ -17169,6 +17291,9 @@
       </c>
       <c r="D700">
         <v>698</v>
+      </c>
+      <c r="G700" t="s">
+        <v>1975</v>
       </c>
     </row>
     <row r="701" spans="1:9" x14ac:dyDescent="0.25">

--- a/source/glyph_data.xlsx
+++ b/source/glyph_data.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">glyph_data!$A$1:$J$1</definedName>
-    <definedName name="glyph_data" localSheetId="0">glyph_data!$A$1:$J$1050</definedName>
+    <definedName name="glyph_data" localSheetId="0">glyph_data!$A$1:$J$1130</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3410" uniqueCount="1976">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3660" uniqueCount="2061">
   <si>
     <t>USV</t>
   </si>
@@ -5976,6 +5976,261 @@
   </si>
   <si>
     <t>cv02</t>
+  </si>
+  <si>
+    <t>uni1369.isol</t>
+  </si>
+  <si>
+    <t>uni136A.isol</t>
+  </si>
+  <si>
+    <t>uni136B.isol</t>
+  </si>
+  <si>
+    <t>uni136C.isol</t>
+  </si>
+  <si>
+    <t>uni136D.isol</t>
+  </si>
+  <si>
+    <t>uni136E.isol</t>
+  </si>
+  <si>
+    <t>uni136F.isol</t>
+  </si>
+  <si>
+    <t>uni1370.isol</t>
+  </si>
+  <si>
+    <t>uni1371.isol</t>
+  </si>
+  <si>
+    <t>uni1372.isol</t>
+  </si>
+  <si>
+    <t>uni1373.isol</t>
+  </si>
+  <si>
+    <t>uni1374.isol</t>
+  </si>
+  <si>
+    <t>uni1375.isol</t>
+  </si>
+  <si>
+    <t>uni1376.isol</t>
+  </si>
+  <si>
+    <t>uni1377.isol</t>
+  </si>
+  <si>
+    <t>uni1378.isol</t>
+  </si>
+  <si>
+    <t>uni1379.isol</t>
+  </si>
+  <si>
+    <t>uni137A.isol</t>
+  </si>
+  <si>
+    <t>uni137B.isol</t>
+  </si>
+  <si>
+    <t>uni137C.isol</t>
+  </si>
+  <si>
+    <t>uni1369.init</t>
+  </si>
+  <si>
+    <t>uni136A.init</t>
+  </si>
+  <si>
+    <t>uni136B.init</t>
+  </si>
+  <si>
+    <t>uni136C.init</t>
+  </si>
+  <si>
+    <t>uni136D.init</t>
+  </si>
+  <si>
+    <t>uni136E.init</t>
+  </si>
+  <si>
+    <t>uni136F.init</t>
+  </si>
+  <si>
+    <t>uni1370.init</t>
+  </si>
+  <si>
+    <t>uni1371.init</t>
+  </si>
+  <si>
+    <t>uni1372.init</t>
+  </si>
+  <si>
+    <t>uni1373.init</t>
+  </si>
+  <si>
+    <t>uni1374.init</t>
+  </si>
+  <si>
+    <t>uni1375.init</t>
+  </si>
+  <si>
+    <t>uni1376.init</t>
+  </si>
+  <si>
+    <t>uni1377.init</t>
+  </si>
+  <si>
+    <t>uni1378.init</t>
+  </si>
+  <si>
+    <t>uni1379.init</t>
+  </si>
+  <si>
+    <t>uni137A.init</t>
+  </si>
+  <si>
+    <t>uni137B.init</t>
+  </si>
+  <si>
+    <t>uni137C.init</t>
+  </si>
+  <si>
+    <t>uni1369.medi</t>
+  </si>
+  <si>
+    <t>uni136A.medi</t>
+  </si>
+  <si>
+    <t>uni136B.medi</t>
+  </si>
+  <si>
+    <t>uni136C.medi</t>
+  </si>
+  <si>
+    <t>uni136D.medi</t>
+  </si>
+  <si>
+    <t>uni136E.medi</t>
+  </si>
+  <si>
+    <t>uni136F.medi</t>
+  </si>
+  <si>
+    <t>uni1370.medi</t>
+  </si>
+  <si>
+    <t>uni1371.medi</t>
+  </si>
+  <si>
+    <t>uni1372.medi</t>
+  </si>
+  <si>
+    <t>uni1373.medi</t>
+  </si>
+  <si>
+    <t>uni1374.medi</t>
+  </si>
+  <si>
+    <t>uni1375.medi</t>
+  </si>
+  <si>
+    <t>uni1376.medi</t>
+  </si>
+  <si>
+    <t>uni1377.medi</t>
+  </si>
+  <si>
+    <t>uni1378.medi</t>
+  </si>
+  <si>
+    <t>uni1379.medi</t>
+  </si>
+  <si>
+    <t>uni137A.medi</t>
+  </si>
+  <si>
+    <t>uni137B.medi</t>
+  </si>
+  <si>
+    <t>uni137C.medi</t>
+  </si>
+  <si>
+    <t>uni1369.fina</t>
+  </si>
+  <si>
+    <t>uni136A.fina</t>
+  </si>
+  <si>
+    <t>uni136B.fina</t>
+  </si>
+  <si>
+    <t>uni136C.fina</t>
+  </si>
+  <si>
+    <t>uni136D.fina</t>
+  </si>
+  <si>
+    <t>uni136E.fina</t>
+  </si>
+  <si>
+    <t>uni136F.fina</t>
+  </si>
+  <si>
+    <t>uni1370.fina</t>
+  </si>
+  <si>
+    <t>uni1371.fina</t>
+  </si>
+  <si>
+    <t>uni1372.fina</t>
+  </si>
+  <si>
+    <t>uni1373.fina</t>
+  </si>
+  <si>
+    <t>uni1374.fina</t>
+  </si>
+  <si>
+    <t>uni1375.fina</t>
+  </si>
+  <si>
+    <t>uni1376.fina</t>
+  </si>
+  <si>
+    <t>uni1377.fina</t>
+  </si>
+  <si>
+    <t>uni1378.fina</t>
+  </si>
+  <si>
+    <t>uni1379.fina</t>
+  </si>
+  <si>
+    <t>uni137A.fina</t>
+  </si>
+  <si>
+    <t>uni137B.fina</t>
+  </si>
+  <si>
+    <t>uni137C.fina</t>
+  </si>
+  <si>
+    <t>numeral</t>
+  </si>
+  <si>
+    <t>numeralnarrow</t>
+  </si>
+  <si>
+    <t>numeral.init</t>
+  </si>
+  <si>
+    <t>numeral.medi</t>
+  </si>
+  <si>
+    <t>numeral.fina</t>
   </si>
 </sst>
 </file>
@@ -6301,10 +6556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1078"/>
+  <dimension ref="A1:J1163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A672" workbookViewId="0">
-      <selection activeCell="F682" sqref="F682"/>
+    <sheetView tabSelected="1" topLeftCell="A1145" workbookViewId="0">
+      <selection activeCell="J1163" sqref="J1163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16620,7 +16875,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="657" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
         <v>1158</v>
       </c>
@@ -16634,7 +16889,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="658" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
         <v>1160</v>
       </c>
@@ -16648,7 +16903,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="659" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
         <v>1162</v>
       </c>
@@ -16662,7 +16917,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="660" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
         <v>1164</v>
       </c>
@@ -16676,1251 +16931,1239 @@
         <v>658</v>
       </c>
     </row>
-    <row r="661" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
-        <v>1166</v>
+        <v>1206</v>
       </c>
       <c r="B661" t="s">
-        <v>1166</v>
+        <v>1206</v>
       </c>
       <c r="C661" s="2" t="s">
-        <v>1165</v>
+        <v>1205</v>
       </c>
       <c r="D661">
         <v>659</v>
       </c>
-      <c r="G661" t="s">
-        <v>1975</v>
-      </c>
-    </row>
-    <row r="662" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="662" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
-        <v>1168</v>
+        <v>1208</v>
       </c>
       <c r="B662" t="s">
-        <v>1168</v>
+        <v>1208</v>
       </c>
       <c r="C662" s="2" t="s">
-        <v>1167</v>
+        <v>1207</v>
       </c>
       <c r="D662">
         <v>660</v>
       </c>
       <c r="G662" t="s">
-        <v>1975</v>
-      </c>
-    </row>
-    <row r="663" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1209</v>
+      </c>
+      <c r="H662">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="663" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
-        <v>1170</v>
+        <v>1210</v>
       </c>
       <c r="B663" t="s">
-        <v>1170</v>
-      </c>
-      <c r="C663" s="2" t="s">
-        <v>1169</v>
+        <v>1210</v>
       </c>
       <c r="D663">
         <v>661</v>
       </c>
+      <c r="E663" t="s">
+        <v>553</v>
+      </c>
+      <c r="F663" t="s">
+        <v>554</v>
+      </c>
       <c r="G663" t="s">
-        <v>1975</v>
-      </c>
-    </row>
-    <row r="664" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1209</v>
+      </c>
+      <c r="H663">
+        <v>1</v>
+      </c>
+      <c r="I663" s="1">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="664" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
-        <v>1172</v>
+        <v>1211</v>
       </c>
       <c r="B664" t="s">
-        <v>1172</v>
-      </c>
-      <c r="C664" s="2" t="s">
-        <v>1171</v>
+        <v>1211</v>
       </c>
       <c r="D664">
         <v>662</v>
       </c>
       <c r="G664" t="s">
-        <v>1975</v>
-      </c>
-    </row>
-    <row r="665" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1209</v>
+      </c>
+      <c r="H664">
+        <v>2</v>
+      </c>
+      <c r="I664" s="1">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="665" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
-        <v>1174</v>
+        <v>1212</v>
       </c>
       <c r="B665" t="s">
-        <v>1174</v>
-      </c>
-      <c r="C665" s="2" t="s">
-        <v>1173</v>
+        <v>1212</v>
       </c>
       <c r="D665">
         <v>663</v>
       </c>
-      <c r="G665" t="s">
-        <v>1975</v>
-      </c>
-    </row>
-    <row r="666" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J665" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="666" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
-        <v>1176</v>
+        <v>1214</v>
       </c>
       <c r="B666" t="s">
-        <v>1176</v>
-      </c>
-      <c r="C666" s="2" t="s">
-        <v>1175</v>
+        <v>1214</v>
       </c>
       <c r="D666">
         <v>664</v>
       </c>
-      <c r="G666" t="s">
-        <v>1975</v>
-      </c>
-    </row>
-    <row r="667" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J666" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="667" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
-        <v>1178</v>
+        <v>1217</v>
       </c>
       <c r="B667" t="s">
-        <v>1178</v>
+        <v>1217</v>
       </c>
       <c r="C667" s="2" t="s">
-        <v>1177</v>
+        <v>1216</v>
       </c>
       <c r="D667">
         <v>665</v>
       </c>
-      <c r="G667" t="s">
-        <v>1975</v>
-      </c>
-    </row>
-    <row r="668" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="668" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
-        <v>1180</v>
+        <v>1219</v>
       </c>
       <c r="B668" t="s">
-        <v>1180</v>
+        <v>1219</v>
       </c>
       <c r="C668" s="2" t="s">
-        <v>1179</v>
+        <v>1218</v>
       </c>
       <c r="D668">
         <v>666</v>
       </c>
       <c r="G668" t="s">
-        <v>1975</v>
-      </c>
-    </row>
-    <row r="669" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1220</v>
+      </c>
+      <c r="H668">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="669" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
-        <v>1182</v>
+        <v>1221</v>
       </c>
       <c r="B669" t="s">
-        <v>1182</v>
-      </c>
-      <c r="C669" s="2" t="s">
-        <v>1181</v>
+        <v>1221</v>
       </c>
       <c r="D669">
         <v>667</v>
       </c>
       <c r="G669" t="s">
-        <v>1975</v>
-      </c>
-    </row>
-    <row r="670" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1220</v>
+      </c>
+      <c r="H669">
+        <v>1</v>
+      </c>
+      <c r="I669" s="1">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="670" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
-        <v>1184</v>
+        <v>1222</v>
       </c>
       <c r="B670" t="s">
-        <v>1184</v>
-      </c>
-      <c r="C670" s="2" t="s">
-        <v>1183</v>
+        <v>1222</v>
       </c>
       <c r="D670">
         <v>668</v>
       </c>
       <c r="G670" t="s">
-        <v>1975</v>
-      </c>
-    </row>
-    <row r="671" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1220</v>
+      </c>
+      <c r="H670">
+        <v>2</v>
+      </c>
+      <c r="I670" s="1">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="671" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
-        <v>1186</v>
+        <v>1223</v>
       </c>
       <c r="B671" t="s">
-        <v>1186</v>
-      </c>
-      <c r="C671" s="2" t="s">
-        <v>1185</v>
+        <v>1223</v>
       </c>
       <c r="D671">
         <v>669</v>
       </c>
-      <c r="G671" t="s">
-        <v>1975</v>
-      </c>
-    </row>
-    <row r="672" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J671" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="672" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
-        <v>1188</v>
+        <v>1226</v>
       </c>
       <c r="B672" t="s">
-        <v>1188</v>
+        <v>1226</v>
       </c>
       <c r="C672" s="2" t="s">
-        <v>1187</v>
+        <v>1225</v>
       </c>
       <c r="D672">
         <v>670</v>
       </c>
-      <c r="G672" t="s">
-        <v>1975</v>
-      </c>
-    </row>
-    <row r="673" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="673" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
-        <v>1190</v>
+        <v>1228</v>
       </c>
       <c r="B673" t="s">
-        <v>1190</v>
+        <v>1228</v>
       </c>
       <c r="C673" s="2" t="s">
-        <v>1189</v>
+        <v>1227</v>
       </c>
       <c r="D673">
         <v>671</v>
       </c>
       <c r="G673" t="s">
-        <v>1975</v>
-      </c>
-    </row>
-    <row r="674" spans="1:7" x14ac:dyDescent="0.25">
+        <v>551</v>
+      </c>
+      <c r="H673">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="674" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
-        <v>1192</v>
+        <v>1229</v>
       </c>
       <c r="B674" t="s">
-        <v>1192</v>
-      </c>
-      <c r="C674" s="2" t="s">
-        <v>1191</v>
+        <v>1229</v>
       </c>
       <c r="D674">
         <v>672</v>
       </c>
+      <c r="E674" t="s">
+        <v>553</v>
+      </c>
+      <c r="F674" t="s">
+        <v>554</v>
+      </c>
       <c r="G674" t="s">
-        <v>1975</v>
-      </c>
-    </row>
-    <row r="675" spans="1:7" x14ac:dyDescent="0.25">
+        <v>551</v>
+      </c>
+      <c r="H674">
+        <v>1</v>
+      </c>
+      <c r="I674" s="1">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="675" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
-        <v>1194</v>
+        <v>1231</v>
       </c>
       <c r="B675" t="s">
-        <v>1194</v>
+        <v>1231</v>
       </c>
       <c r="C675" s="2" t="s">
-        <v>1193</v>
+        <v>1230</v>
       </c>
       <c r="D675">
         <v>673</v>
       </c>
-      <c r="G675" t="s">
-        <v>1975</v>
-      </c>
-    </row>
-    <row r="676" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="676" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
-        <v>1196</v>
+        <v>1233</v>
       </c>
       <c r="B676" t="s">
-        <v>1196</v>
+        <v>1233</v>
       </c>
       <c r="C676" s="2" t="s">
-        <v>1195</v>
+        <v>1232</v>
       </c>
       <c r="D676">
         <v>674</v>
       </c>
       <c r="G676" t="s">
-        <v>1975</v>
-      </c>
-    </row>
-    <row r="677" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1234</v>
+      </c>
+      <c r="H676">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="677" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
-        <v>1198</v>
+        <v>1235</v>
       </c>
       <c r="B677" t="s">
-        <v>1198</v>
-      </c>
-      <c r="C677" s="2" t="s">
-        <v>1197</v>
+        <v>1235</v>
       </c>
       <c r="D677">
         <v>675</v>
       </c>
       <c r="G677" t="s">
-        <v>1975</v>
-      </c>
-    </row>
-    <row r="678" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1234</v>
+      </c>
+      <c r="H677">
+        <v>1</v>
+      </c>
+      <c r="I677" s="1">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="678" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
-        <v>1200</v>
+        <v>1236</v>
       </c>
       <c r="B678" t="s">
-        <v>1200</v>
-      </c>
-      <c r="C678" s="2" t="s">
-        <v>1199</v>
+        <v>1236</v>
       </c>
       <c r="D678">
         <v>676</v>
       </c>
-      <c r="G678" t="s">
-        <v>1975</v>
-      </c>
-    </row>
-    <row r="679" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J678" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="679" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
-        <v>1202</v>
+        <v>1239</v>
       </c>
       <c r="B679" t="s">
-        <v>1202</v>
+        <v>1239</v>
       </c>
       <c r="C679" s="2" t="s">
-        <v>1201</v>
+        <v>1238</v>
       </c>
       <c r="D679">
         <v>677</v>
       </c>
-      <c r="G679" t="s">
-        <v>1975</v>
-      </c>
-    </row>
-    <row r="680" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="680" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
-        <v>1204</v>
+        <v>1241</v>
       </c>
       <c r="B680" t="s">
-        <v>1204</v>
+        <v>1241</v>
       </c>
       <c r="C680" s="2" t="s">
-        <v>1203</v>
+        <v>1240</v>
       </c>
       <c r="D680">
         <v>678</v>
       </c>
-      <c r="G680" t="s">
-        <v>1975</v>
-      </c>
-    </row>
-    <row r="681" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="681" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
-        <v>1953</v>
+        <v>1243</v>
       </c>
       <c r="B681" t="s">
-        <v>1953</v>
+        <v>1243</v>
+      </c>
+      <c r="C681" s="2" t="s">
+        <v>1242</v>
       </c>
       <c r="D681">
         <v>679</v>
       </c>
       <c r="G681" t="s">
-        <v>1975</v>
-      </c>
-    </row>
-    <row r="682" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1244</v>
+      </c>
+      <c r="H681">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="682" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
-        <v>1954</v>
+        <v>1245</v>
       </c>
       <c r="B682" t="s">
-        <v>1954</v>
+        <v>1245</v>
       </c>
       <c r="D682">
         <v>680</v>
       </c>
       <c r="G682" t="s">
-        <v>1975</v>
-      </c>
-    </row>
-    <row r="683" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1244</v>
+      </c>
+      <c r="H682">
+        <v>1</v>
+      </c>
+      <c r="I682" s="1" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="683" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
-        <v>1955</v>
+        <v>1247</v>
       </c>
       <c r="B683" t="s">
-        <v>1955</v>
+        <v>1247</v>
+      </c>
+      <c r="C683" s="2" t="s">
+        <v>1246</v>
       </c>
       <c r="D683">
         <v>681</v>
       </c>
       <c r="G683" t="s">
-        <v>1975</v>
-      </c>
-    </row>
-    <row r="684" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1248</v>
+      </c>
+      <c r="H683">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="684" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
-        <v>1956</v>
+        <v>1249</v>
       </c>
       <c r="B684" t="s">
-        <v>1956</v>
+        <v>1249</v>
       </c>
       <c r="D684">
         <v>682</v>
       </c>
       <c r="G684" t="s">
-        <v>1975</v>
-      </c>
-    </row>
-    <row r="685" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1248</v>
+      </c>
+      <c r="H684">
+        <v>1</v>
+      </c>
+      <c r="I684" s="1" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="685" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
-        <v>1957</v>
+        <v>1250</v>
       </c>
       <c r="B685" t="s">
-        <v>1957</v>
+        <v>1250</v>
       </c>
       <c r="D685">
         <v>683</v>
       </c>
-      <c r="G685" t="s">
-        <v>1975</v>
-      </c>
-    </row>
-    <row r="686" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J685" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="686" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
-        <v>1958</v>
+        <v>1253</v>
       </c>
       <c r="B686" t="s">
-        <v>1958</v>
+        <v>1253</v>
+      </c>
+      <c r="C686" s="2" t="s">
+        <v>1252</v>
       </c>
       <c r="D686">
         <v>684</v>
       </c>
-      <c r="G686" t="s">
-        <v>1975</v>
-      </c>
-    </row>
-    <row r="687" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="687" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
-        <v>1959</v>
+        <v>1255</v>
       </c>
       <c r="B687" t="s">
-        <v>1959</v>
+        <v>1255</v>
+      </c>
+      <c r="C687" s="2" t="s">
+        <v>1254</v>
       </c>
       <c r="D687">
         <v>685</v>
       </c>
       <c r="G687" t="s">
-        <v>1975</v>
-      </c>
-    </row>
-    <row r="688" spans="1:7" x14ac:dyDescent="0.25">
+        <v>551</v>
+      </c>
+      <c r="H687">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="688" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
-        <v>1960</v>
+        <v>1256</v>
       </c>
       <c r="B688" t="s">
-        <v>1960</v>
+        <v>1256</v>
       </c>
       <c r="D688">
         <v>686</v>
       </c>
+      <c r="E688" t="s">
+        <v>553</v>
+      </c>
+      <c r="F688" t="s">
+        <v>554</v>
+      </c>
       <c r="G688" t="s">
-        <v>1975</v>
-      </c>
-    </row>
-    <row r="689" spans="1:9" x14ac:dyDescent="0.25">
+        <v>551</v>
+      </c>
+      <c r="H688">
+        <v>1</v>
+      </c>
+      <c r="I688" s="1" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="689" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
-        <v>1961</v>
+        <v>1258</v>
       </c>
       <c r="B689" t="s">
-        <v>1961</v>
+        <v>1258</v>
+      </c>
+      <c r="C689" s="2" t="s">
+        <v>1257</v>
       </c>
       <c r="D689">
         <v>687</v>
       </c>
-      <c r="G689" t="s">
-        <v>1975</v>
-      </c>
-    </row>
-    <row r="690" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="690" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
-        <v>1962</v>
+        <v>1260</v>
       </c>
       <c r="B690" t="s">
-        <v>1962</v>
+        <v>1260</v>
+      </c>
+      <c r="C690" s="2" t="s">
+        <v>1259</v>
       </c>
       <c r="D690">
         <v>688</v>
       </c>
       <c r="G690" t="s">
-        <v>1975</v>
-      </c>
-    </row>
-    <row r="691" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1261</v>
+      </c>
+      <c r="H690">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="691" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
-        <v>1963</v>
+        <v>1262</v>
       </c>
       <c r="B691" t="s">
-        <v>1963</v>
+        <v>1262</v>
       </c>
       <c r="D691">
         <v>689</v>
       </c>
       <c r="G691" t="s">
-        <v>1975</v>
-      </c>
-    </row>
-    <row r="692" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1261</v>
+      </c>
+      <c r="H691">
+        <v>1</v>
+      </c>
+      <c r="I691" s="1" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="692" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
-        <v>1964</v>
+        <v>1263</v>
       </c>
       <c r="B692" t="s">
-        <v>1964</v>
+        <v>1263</v>
       </c>
       <c r="D692">
         <v>690</v>
       </c>
-      <c r="G692" t="s">
-        <v>1975</v>
-      </c>
-    </row>
-    <row r="693" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J692" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="693" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
-        <v>1965</v>
+        <v>1266</v>
       </c>
       <c r="B693" t="s">
-        <v>1965</v>
+        <v>1266</v>
+      </c>
+      <c r="C693" s="2" t="s">
+        <v>1265</v>
       </c>
       <c r="D693">
         <v>691</v>
       </c>
-      <c r="G693" t="s">
-        <v>1975</v>
-      </c>
-    </row>
-    <row r="694" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="694" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
-        <v>1966</v>
+        <v>1268</v>
       </c>
       <c r="B694" t="s">
-        <v>1966</v>
+        <v>1268</v>
+      </c>
+      <c r="C694" s="2" t="s">
+        <v>1267</v>
       </c>
       <c r="D694">
         <v>692</v>
       </c>
-      <c r="G694" t="s">
-        <v>1975</v>
-      </c>
-    </row>
-    <row r="695" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="695" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
-        <v>1967</v>
+        <v>1270</v>
       </c>
       <c r="B695" t="s">
-        <v>1967</v>
+        <v>1270</v>
+      </c>
+      <c r="C695" s="2" t="s">
+        <v>1269</v>
       </c>
       <c r="D695">
         <v>693</v>
       </c>
-      <c r="G695" t="s">
-        <v>1975</v>
-      </c>
-    </row>
-    <row r="696" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="696" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
-        <v>1968</v>
+        <v>1272</v>
       </c>
       <c r="B696" t="s">
-        <v>1968</v>
+        <v>1272</v>
+      </c>
+      <c r="C696" s="2" t="s">
+        <v>1271</v>
       </c>
       <c r="D696">
         <v>694</v>
       </c>
-      <c r="G696" t="s">
-        <v>1975</v>
-      </c>
-    </row>
-    <row r="697" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="697" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
-        <v>1969</v>
+        <v>1274</v>
       </c>
       <c r="B697" t="s">
-        <v>1969</v>
+        <v>1274</v>
+      </c>
+      <c r="C697" s="2" t="s">
+        <v>1273</v>
       </c>
       <c r="D697">
         <v>695</v>
       </c>
-      <c r="G697" t="s">
-        <v>1975</v>
-      </c>
-    </row>
-    <row r="698" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="698" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
-        <v>1970</v>
+        <v>1276</v>
       </c>
       <c r="B698" t="s">
-        <v>1970</v>
+        <v>1276</v>
+      </c>
+      <c r="C698" s="2" t="s">
+        <v>1275</v>
       </c>
       <c r="D698">
         <v>696</v>
       </c>
-      <c r="G698" t="s">
-        <v>1975</v>
-      </c>
-    </row>
-    <row r="699" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="699" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
-        <v>1971</v>
+        <v>1278</v>
       </c>
       <c r="B699" t="s">
-        <v>1971</v>
+        <v>1278</v>
+      </c>
+      <c r="C699" s="2" t="s">
+        <v>1277</v>
       </c>
       <c r="D699">
         <v>697</v>
       </c>
-      <c r="G699" t="s">
-        <v>1975</v>
-      </c>
-    </row>
-    <row r="700" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="700" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
-        <v>1972</v>
+        <v>1280</v>
       </c>
       <c r="B700" t="s">
-        <v>1972</v>
+        <v>1280</v>
+      </c>
+      <c r="C700" s="2" t="s">
+        <v>1279</v>
       </c>
       <c r="D700">
         <v>698</v>
       </c>
-      <c r="G700" t="s">
-        <v>1975</v>
-      </c>
-    </row>
-    <row r="701" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="701" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
-        <v>1206</v>
+        <v>1282</v>
       </c>
       <c r="B701" t="s">
-        <v>1206</v>
+        <v>1282</v>
       </c>
       <c r="C701" s="2" t="s">
-        <v>1205</v>
+        <v>1281</v>
       </c>
       <c r="D701">
         <v>699</v>
       </c>
     </row>
-    <row r="702" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
-        <v>1208</v>
+        <v>1284</v>
       </c>
       <c r="B702" t="s">
-        <v>1208</v>
+        <v>1284</v>
       </c>
       <c r="C702" s="2" t="s">
-        <v>1207</v>
+        <v>1283</v>
       </c>
       <c r="D702">
         <v>700</v>
       </c>
-      <c r="G702" t="s">
-        <v>1209</v>
-      </c>
-      <c r="H702">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="703" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="703" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
-        <v>1210</v>
+        <v>1286</v>
       </c>
       <c r="B703" t="s">
-        <v>1210</v>
+        <v>1286</v>
+      </c>
+      <c r="C703" s="2" t="s">
+        <v>1285</v>
       </c>
       <c r="D703">
         <v>701</v>
       </c>
-      <c r="E703" t="s">
-        <v>553</v>
-      </c>
-      <c r="F703" t="s">
-        <v>554</v>
-      </c>
-      <c r="G703" t="s">
-        <v>1209</v>
-      </c>
-      <c r="H703">
-        <v>1</v>
-      </c>
-      <c r="I703" s="1">
-        <v>1381</v>
-      </c>
-    </row>
-    <row r="704" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="704" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
-        <v>1211</v>
+        <v>1288</v>
       </c>
       <c r="B704" t="s">
-        <v>1211</v>
+        <v>1288</v>
+      </c>
+      <c r="C704" s="2" t="s">
+        <v>1287</v>
       </c>
       <c r="D704">
         <v>702</v>
       </c>
-      <c r="G704" t="s">
-        <v>1209</v>
-      </c>
-      <c r="H704">
-        <v>2</v>
-      </c>
-      <c r="I704" s="1">
-        <v>1381</v>
-      </c>
-    </row>
-    <row r="705" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="705" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
-        <v>1212</v>
+        <v>1290</v>
       </c>
       <c r="B705" t="s">
-        <v>1212</v>
+        <v>1290</v>
+      </c>
+      <c r="C705" s="2" t="s">
+        <v>1289</v>
       </c>
       <c r="D705">
         <v>703</v>
       </c>
-      <c r="J705" t="s">
-        <v>1213</v>
-      </c>
-    </row>
-    <row r="706" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="706" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
-        <v>1214</v>
+        <v>1292</v>
       </c>
       <c r="B706" t="s">
-        <v>1214</v>
+        <v>1292</v>
+      </c>
+      <c r="C706" s="2" t="s">
+        <v>1291</v>
       </c>
       <c r="D706">
         <v>704</v>
       </c>
-      <c r="J706" t="s">
-        <v>1215</v>
-      </c>
-    </row>
-    <row r="707" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="707" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
-        <v>1217</v>
+        <v>1294</v>
       </c>
       <c r="B707" t="s">
-        <v>1217</v>
+        <v>1294</v>
       </c>
       <c r="C707" s="2" t="s">
-        <v>1216</v>
+        <v>1293</v>
       </c>
       <c r="D707">
         <v>705</v>
       </c>
     </row>
-    <row r="708" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
-        <v>1219</v>
+        <v>1296</v>
       </c>
       <c r="B708" t="s">
-        <v>1219</v>
+        <v>1296</v>
       </c>
       <c r="C708" s="2" t="s">
-        <v>1218</v>
+        <v>1295</v>
       </c>
       <c r="D708">
         <v>706</v>
       </c>
-      <c r="G708" t="s">
-        <v>1220</v>
-      </c>
-      <c r="H708">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="709" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="709" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
-        <v>1221</v>
+        <v>1298</v>
       </c>
       <c r="B709" t="s">
-        <v>1221</v>
+        <v>1298</v>
+      </c>
+      <c r="C709" s="2" t="s">
+        <v>1297</v>
       </c>
       <c r="D709">
         <v>707</v>
       </c>
-      <c r="G709" t="s">
-        <v>1220</v>
-      </c>
-      <c r="H709">
-        <v>1</v>
-      </c>
-      <c r="I709" s="1">
-        <v>1383</v>
-      </c>
-    </row>
-    <row r="710" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="710" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
-        <v>1222</v>
+        <v>1300</v>
       </c>
       <c r="B710" t="s">
-        <v>1222</v>
+        <v>1300</v>
+      </c>
+      <c r="C710" s="2" t="s">
+        <v>1299</v>
       </c>
       <c r="D710">
         <v>708</v>
       </c>
-      <c r="G710" t="s">
-        <v>1220</v>
-      </c>
-      <c r="H710">
-        <v>2</v>
-      </c>
-      <c r="I710" s="1">
-        <v>1383</v>
-      </c>
-    </row>
-    <row r="711" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="711" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
-        <v>1223</v>
+        <v>1302</v>
       </c>
       <c r="B711" t="s">
-        <v>1223</v>
+        <v>1302</v>
+      </c>
+      <c r="C711" s="2" t="s">
+        <v>1301</v>
       </c>
       <c r="D711">
         <v>709</v>
       </c>
-      <c r="J711" t="s">
-        <v>1224</v>
-      </c>
-    </row>
-    <row r="712" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="712" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
-        <v>1226</v>
+        <v>1304</v>
       </c>
       <c r="B712" t="s">
-        <v>1226</v>
+        <v>1304</v>
       </c>
       <c r="C712" s="2" t="s">
-        <v>1225</v>
+        <v>1303</v>
       </c>
       <c r="D712">
         <v>710</v>
       </c>
     </row>
-    <row r="713" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
-        <v>1228</v>
+        <v>1306</v>
       </c>
       <c r="B713" t="s">
-        <v>1228</v>
+        <v>1306</v>
       </c>
       <c r="C713" s="2" t="s">
-        <v>1227</v>
+        <v>1305</v>
       </c>
       <c r="D713">
         <v>711</v>
       </c>
-      <c r="G713" t="s">
-        <v>551</v>
-      </c>
-      <c r="H713">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="714" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="714" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
-        <v>1229</v>
+        <v>1308</v>
       </c>
       <c r="B714" t="s">
-        <v>1229</v>
+        <v>1308</v>
+      </c>
+      <c r="C714" s="2" t="s">
+        <v>1307</v>
       </c>
       <c r="D714">
         <v>712</v>
       </c>
-      <c r="E714" t="s">
-        <v>553</v>
-      </c>
-      <c r="F714" t="s">
-        <v>554</v>
-      </c>
-      <c r="G714" t="s">
-        <v>551</v>
-      </c>
-      <c r="H714">
-        <v>1</v>
-      </c>
-      <c r="I714" s="1">
-        <v>1385</v>
-      </c>
-    </row>
-    <row r="715" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="715" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
-        <v>1231</v>
+        <v>1310</v>
       </c>
       <c r="B715" t="s">
-        <v>1231</v>
+        <v>1310</v>
       </c>
       <c r="C715" s="2" t="s">
-        <v>1230</v>
+        <v>1309</v>
       </c>
       <c r="D715">
         <v>713</v>
       </c>
     </row>
-    <row r="716" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
-        <v>1233</v>
+        <v>1312</v>
       </c>
       <c r="B716" t="s">
-        <v>1233</v>
+        <v>1312</v>
       </c>
       <c r="C716" s="2" t="s">
-        <v>1232</v>
+        <v>1311</v>
       </c>
       <c r="D716">
         <v>714</v>
       </c>
-      <c r="G716" t="s">
-        <v>1234</v>
-      </c>
-      <c r="H716">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="717" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="717" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
-        <v>1235</v>
+        <v>1314</v>
       </c>
       <c r="B717" t="s">
-        <v>1235</v>
+        <v>1314</v>
+      </c>
+      <c r="C717" s="2" t="s">
+        <v>1313</v>
       </c>
       <c r="D717">
         <v>715</v>
       </c>
-      <c r="G717" t="s">
-        <v>1234</v>
-      </c>
-      <c r="H717">
-        <v>1</v>
-      </c>
-      <c r="I717" s="1">
-        <v>1387</v>
-      </c>
-    </row>
-    <row r="718" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="718" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
-        <v>1236</v>
+        <v>1316</v>
       </c>
       <c r="B718" t="s">
-        <v>1236</v>
+        <v>1316</v>
+      </c>
+      <c r="C718" s="2" t="s">
+        <v>1315</v>
       </c>
       <c r="D718">
         <v>716</v>
       </c>
-      <c r="J718" t="s">
-        <v>1237</v>
-      </c>
-    </row>
-    <row r="719" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="719" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
-        <v>1239</v>
+        <v>1318</v>
       </c>
       <c r="B719" t="s">
-        <v>1239</v>
+        <v>1318</v>
       </c>
       <c r="C719" s="2" t="s">
-        <v>1238</v>
+        <v>1317</v>
       </c>
       <c r="D719">
         <v>717</v>
       </c>
     </row>
-    <row r="720" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
-        <v>1241</v>
+        <v>1320</v>
       </c>
       <c r="B720" t="s">
-        <v>1241</v>
+        <v>1320</v>
       </c>
       <c r="C720" s="2" t="s">
-        <v>1240</v>
+        <v>1319</v>
       </c>
       <c r="D720">
         <v>718</v>
       </c>
     </row>
-    <row r="721" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
-        <v>1243</v>
+        <v>1322</v>
       </c>
       <c r="B721" t="s">
-        <v>1243</v>
+        <v>1322</v>
       </c>
       <c r="C721" s="2" t="s">
-        <v>1242</v>
+        <v>1321</v>
       </c>
       <c r="D721">
         <v>719</v>
       </c>
-      <c r="G721" t="s">
-        <v>1244</v>
-      </c>
-      <c r="H721">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="722" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="722" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
-        <v>1245</v>
+        <v>1324</v>
       </c>
       <c r="B722" t="s">
-        <v>1245</v>
+        <v>1324</v>
+      </c>
+      <c r="C722" s="2" t="s">
+        <v>1323</v>
       </c>
       <c r="D722">
         <v>720</v>
       </c>
       <c r="G722" t="s">
-        <v>1244</v>
+        <v>1325</v>
       </c>
       <c r="H722">
-        <v>1</v>
-      </c>
-      <c r="I722" s="1" t="s">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="723" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="723" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
-        <v>1247</v>
+        <v>1326</v>
       </c>
       <c r="B723" t="s">
-        <v>1247</v>
-      </c>
-      <c r="C723" s="2" t="s">
-        <v>1246</v>
+        <v>1326</v>
       </c>
       <c r="D723">
         <v>721</v>
       </c>
       <c r="G723" t="s">
-        <v>1248</v>
+        <v>1325</v>
       </c>
       <c r="H723">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="724" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I723" s="1" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="724" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
-        <v>1249</v>
+        <v>1328</v>
       </c>
       <c r="B724" t="s">
-        <v>1249</v>
+        <v>1328</v>
+      </c>
+      <c r="C724" s="2" t="s">
+        <v>1327</v>
       </c>
       <c r="D724">
         <v>722</v>
       </c>
       <c r="G724" t="s">
-        <v>1248</v>
+        <v>1325</v>
       </c>
       <c r="H724">
-        <v>1</v>
-      </c>
-      <c r="I724" s="1" t="s">
-        <v>1246</v>
-      </c>
-    </row>
-    <row r="725" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="725" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
-        <v>1250</v>
+        <v>1329</v>
       </c>
       <c r="B725" t="s">
-        <v>1250</v>
+        <v>1329</v>
       </c>
       <c r="D725">
         <v>723</v>
       </c>
-      <c r="J725" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="726" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G725" t="s">
+        <v>1325</v>
+      </c>
+      <c r="H725">
+        <v>1</v>
+      </c>
+      <c r="I725" s="1" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="726" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
-        <v>1253</v>
+        <v>1331</v>
       </c>
       <c r="B726" t="s">
-        <v>1253</v>
+        <v>1331</v>
       </c>
       <c r="C726" s="2" t="s">
-        <v>1252</v>
+        <v>1330</v>
       </c>
       <c r="D726">
         <v>724</v>
       </c>
-    </row>
-    <row r="727" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G726" t="s">
+        <v>1325</v>
+      </c>
+      <c r="H726">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="727" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
-        <v>1255</v>
+        <v>1332</v>
       </c>
       <c r="B727" t="s">
-        <v>1255</v>
-      </c>
-      <c r="C727" s="2" t="s">
-        <v>1254</v>
+        <v>1332</v>
       </c>
       <c r="D727">
         <v>725</v>
       </c>
       <c r="G727" t="s">
-        <v>551</v>
+        <v>1325</v>
       </c>
       <c r="H727">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="728" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I727" s="1" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="728" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
-        <v>1256</v>
+        <v>1334</v>
       </c>
       <c r="B728" t="s">
-        <v>1256</v>
+        <v>1334</v>
+      </c>
+      <c r="C728" s="2" t="s">
+        <v>1333</v>
       </c>
       <c r="D728">
         <v>726</v>
       </c>
-      <c r="E728" t="s">
-        <v>553</v>
-      </c>
-      <c r="F728" t="s">
-        <v>554</v>
-      </c>
       <c r="G728" t="s">
-        <v>551</v>
+        <v>1325</v>
       </c>
       <c r="H728">
-        <v>1</v>
-      </c>
-      <c r="I728" s="1" t="s">
-        <v>1254</v>
-      </c>
-    </row>
-    <row r="729" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="729" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
-        <v>1258</v>
+        <v>1335</v>
       </c>
       <c r="B729" t="s">
-        <v>1258</v>
-      </c>
-      <c r="C729" s="2" t="s">
-        <v>1257</v>
+        <v>1335</v>
       </c>
       <c r="D729">
         <v>727</v>
       </c>
-    </row>
-    <row r="730" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G729" t="s">
+        <v>1325</v>
+      </c>
+      <c r="H729">
+        <v>1</v>
+      </c>
+      <c r="I729" s="1" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="730" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
-        <v>1260</v>
+        <v>1337</v>
       </c>
       <c r="B730" t="s">
-        <v>1260</v>
+        <v>1337</v>
       </c>
       <c r="C730" s="2" t="s">
-        <v>1259</v>
+        <v>1336</v>
       </c>
       <c r="D730">
         <v>728</v>
       </c>
-      <c r="G730" t="s">
-        <v>1261</v>
-      </c>
-      <c r="H730">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="731" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="731" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
-        <v>1262</v>
+        <v>1339</v>
       </c>
       <c r="B731" t="s">
-        <v>1262</v>
+        <v>1339</v>
+      </c>
+      <c r="C731" s="2" t="s">
+        <v>1338</v>
       </c>
       <c r="D731">
         <v>729</v>
       </c>
-      <c r="G731" t="s">
-        <v>1261</v>
-      </c>
-      <c r="H731">
-        <v>1</v>
-      </c>
-      <c r="I731" s="1" t="s">
-        <v>1259</v>
-      </c>
-    </row>
-    <row r="732" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="732" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
-        <v>1263</v>
+        <v>1341</v>
       </c>
       <c r="B732" t="s">
-        <v>1263</v>
+        <v>1341</v>
+      </c>
+      <c r="C732" s="2" t="s">
+        <v>1340</v>
       </c>
       <c r="D732">
         <v>730</v>
       </c>
-      <c r="J732" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="733" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="733" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
-        <v>1266</v>
+        <v>1343</v>
       </c>
       <c r="B733" t="s">
-        <v>1266</v>
+        <v>1343</v>
       </c>
       <c r="C733" s="2" t="s">
-        <v>1265</v>
+        <v>1342</v>
       </c>
       <c r="D733">
         <v>731</v>
       </c>
     </row>
-    <row r="734" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
-        <v>1268</v>
+        <v>1345</v>
       </c>
       <c r="B734" t="s">
-        <v>1268</v>
+        <v>1345</v>
       </c>
       <c r="C734" s="2" t="s">
-        <v>1267</v>
+        <v>1344</v>
       </c>
       <c r="D734">
         <v>732</v>
       </c>
     </row>
-    <row r="735" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
-        <v>1270</v>
+        <v>1347</v>
       </c>
       <c r="B735" t="s">
-        <v>1270</v>
+        <v>1347</v>
       </c>
       <c r="C735" s="2" t="s">
-        <v>1269</v>
+        <v>1346</v>
       </c>
       <c r="D735">
         <v>733</v>
       </c>
     </row>
-    <row r="736" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
-        <v>1272</v>
+        <v>1349</v>
       </c>
       <c r="B736" t="s">
-        <v>1272</v>
+        <v>1349</v>
       </c>
       <c r="C736" s="2" t="s">
-        <v>1271</v>
+        <v>1348</v>
       </c>
       <c r="D736">
         <v>734</v>
@@ -17928,13 +18171,13 @@
     </row>
     <row r="737" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
-        <v>1274</v>
+        <v>1351</v>
       </c>
       <c r="B737" t="s">
-        <v>1274</v>
+        <v>1351</v>
       </c>
       <c r="C737" s="2" t="s">
-        <v>1273</v>
+        <v>1350</v>
       </c>
       <c r="D737">
         <v>735</v>
@@ -17942,13 +18185,13 @@
     </row>
     <row r="738" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
-        <v>1276</v>
+        <v>1353</v>
       </c>
       <c r="B738" t="s">
-        <v>1276</v>
+        <v>1353</v>
       </c>
       <c r="C738" s="2" t="s">
-        <v>1275</v>
+        <v>1352</v>
       </c>
       <c r="D738">
         <v>736</v>
@@ -17956,13 +18199,13 @@
     </row>
     <row r="739" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
-        <v>1278</v>
+        <v>1355</v>
       </c>
       <c r="B739" t="s">
-        <v>1278</v>
+        <v>1355</v>
       </c>
       <c r="C739" s="2" t="s">
-        <v>1277</v>
+        <v>1354</v>
       </c>
       <c r="D739">
         <v>737</v>
@@ -17970,13 +18213,13 @@
     </row>
     <row r="740" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
-        <v>1280</v>
+        <v>1357</v>
       </c>
       <c r="B740" t="s">
-        <v>1280</v>
+        <v>1357</v>
       </c>
       <c r="C740" s="2" t="s">
-        <v>1279</v>
+        <v>1356</v>
       </c>
       <c r="D740">
         <v>738</v>
@@ -17984,13 +18227,13 @@
     </row>
     <row r="741" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
-        <v>1282</v>
+        <v>1359</v>
       </c>
       <c r="B741" t="s">
-        <v>1282</v>
+        <v>1359</v>
       </c>
       <c r="C741" s="2" t="s">
-        <v>1281</v>
+        <v>1358</v>
       </c>
       <c r="D741">
         <v>739</v>
@@ -17998,13 +18241,13 @@
     </row>
     <row r="742" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
-        <v>1284</v>
+        <v>1361</v>
       </c>
       <c r="B742" t="s">
-        <v>1284</v>
+        <v>1361</v>
       </c>
       <c r="C742" s="2" t="s">
-        <v>1283</v>
+        <v>1360</v>
       </c>
       <c r="D742">
         <v>740</v>
@@ -18012,13 +18255,13 @@
     </row>
     <row r="743" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
-        <v>1286</v>
+        <v>1363</v>
       </c>
       <c r="B743" t="s">
-        <v>1286</v>
+        <v>1363</v>
       </c>
       <c r="C743" s="2" t="s">
-        <v>1285</v>
+        <v>1362</v>
       </c>
       <c r="D743">
         <v>741</v>
@@ -18026,13 +18269,13 @@
     </row>
     <row r="744" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
-        <v>1288</v>
+        <v>1365</v>
       </c>
       <c r="B744" t="s">
-        <v>1288</v>
+        <v>1365</v>
       </c>
       <c r="C744" s="2" t="s">
-        <v>1287</v>
+        <v>1364</v>
       </c>
       <c r="D744">
         <v>742</v>
@@ -18040,13 +18283,13 @@
     </row>
     <row r="745" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
-        <v>1290</v>
+        <v>1367</v>
       </c>
       <c r="B745" t="s">
-        <v>1290</v>
+        <v>1367</v>
       </c>
       <c r="C745" s="2" t="s">
-        <v>1289</v>
+        <v>1366</v>
       </c>
       <c r="D745">
         <v>743</v>
@@ -18054,13 +18297,13 @@
     </row>
     <row r="746" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A746" t="s">
-        <v>1292</v>
+        <v>1369</v>
       </c>
       <c r="B746" t="s">
-        <v>1292</v>
+        <v>1369</v>
       </c>
       <c r="C746" s="2" t="s">
-        <v>1291</v>
+        <v>1368</v>
       </c>
       <c r="D746">
         <v>744</v>
@@ -18068,13 +18311,13 @@
     </row>
     <row r="747" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A747" t="s">
-        <v>1294</v>
+        <v>1371</v>
       </c>
       <c r="B747" t="s">
-        <v>1294</v>
+        <v>1371</v>
       </c>
       <c r="C747" s="2" t="s">
-        <v>1293</v>
+        <v>1370</v>
       </c>
       <c r="D747">
         <v>745</v>
@@ -18082,13 +18325,13 @@
     </row>
     <row r="748" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
-        <v>1296</v>
+        <v>1373</v>
       </c>
       <c r="B748" t="s">
-        <v>1296</v>
+        <v>1373</v>
       </c>
       <c r="C748" s="2" t="s">
-        <v>1295</v>
+        <v>1372</v>
       </c>
       <c r="D748">
         <v>746</v>
@@ -18096,13 +18339,13 @@
     </row>
     <row r="749" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
-        <v>1298</v>
+        <v>1375</v>
       </c>
       <c r="B749" t="s">
-        <v>1298</v>
+        <v>1375</v>
       </c>
       <c r="C749" s="2" t="s">
-        <v>1297</v>
+        <v>1374</v>
       </c>
       <c r="D749">
         <v>747</v>
@@ -18110,13 +18353,13 @@
     </row>
     <row r="750" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A750" t="s">
-        <v>1300</v>
+        <v>1377</v>
       </c>
       <c r="B750" t="s">
-        <v>1300</v>
+        <v>1377</v>
       </c>
       <c r="C750" s="2" t="s">
-        <v>1299</v>
+        <v>1376</v>
       </c>
       <c r="D750">
         <v>748</v>
@@ -18124,13 +18367,13 @@
     </row>
     <row r="751" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
-        <v>1302</v>
+        <v>1379</v>
       </c>
       <c r="B751" t="s">
-        <v>1302</v>
+        <v>1379</v>
       </c>
       <c r="C751" s="2" t="s">
-        <v>1301</v>
+        <v>1378</v>
       </c>
       <c r="D751">
         <v>749</v>
@@ -18138,509 +18381,461 @@
     </row>
     <row r="752" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A752" t="s">
-        <v>1304</v>
+        <v>1381</v>
       </c>
       <c r="B752" t="s">
-        <v>1304</v>
+        <v>1381</v>
       </c>
       <c r="C752" s="2" t="s">
-        <v>1303</v>
+        <v>1380</v>
       </c>
       <c r="D752">
         <v>750</v>
       </c>
     </row>
-    <row r="753" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A753" t="s">
-        <v>1306</v>
+        <v>1383</v>
       </c>
       <c r="B753" t="s">
-        <v>1306</v>
+        <v>1383</v>
       </c>
       <c r="C753" s="2" t="s">
-        <v>1305</v>
+        <v>1382</v>
       </c>
       <c r="D753">
         <v>751</v>
       </c>
     </row>
-    <row r="754" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
-        <v>1308</v>
+        <v>1385</v>
       </c>
       <c r="B754" t="s">
-        <v>1308</v>
+        <v>1385</v>
       </c>
       <c r="C754" s="2" t="s">
-        <v>1307</v>
+        <v>1384</v>
       </c>
       <c r="D754">
         <v>752</v>
       </c>
     </row>
-    <row r="755" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
-        <v>1310</v>
+        <v>1387</v>
       </c>
       <c r="B755" t="s">
-        <v>1310</v>
+        <v>1387</v>
       </c>
       <c r="C755" s="2" t="s">
-        <v>1309</v>
+        <v>1386</v>
       </c>
       <c r="D755">
         <v>753</v>
       </c>
     </row>
-    <row r="756" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
-        <v>1312</v>
+        <v>1389</v>
       </c>
       <c r="B756" t="s">
-        <v>1312</v>
+        <v>1389</v>
       </c>
       <c r="C756" s="2" t="s">
-        <v>1311</v>
+        <v>1388</v>
       </c>
       <c r="D756">
         <v>754</v>
       </c>
     </row>
-    <row r="757" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
-        <v>1314</v>
+        <v>1391</v>
       </c>
       <c r="B757" t="s">
-        <v>1314</v>
+        <v>1391</v>
       </c>
       <c r="C757" s="2" t="s">
-        <v>1313</v>
+        <v>1390</v>
       </c>
       <c r="D757">
         <v>755</v>
       </c>
     </row>
-    <row r="758" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
-        <v>1316</v>
+        <v>1393</v>
       </c>
       <c r="B758" t="s">
-        <v>1316</v>
+        <v>1393</v>
       </c>
       <c r="C758" s="2" t="s">
-        <v>1315</v>
+        <v>1392</v>
       </c>
       <c r="D758">
         <v>756</v>
       </c>
     </row>
-    <row r="759" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
-        <v>1318</v>
+        <v>1395</v>
       </c>
       <c r="B759" t="s">
-        <v>1318</v>
+        <v>1395</v>
       </c>
       <c r="C759" s="2" t="s">
-        <v>1317</v>
+        <v>1394</v>
       </c>
       <c r="D759">
         <v>757</v>
       </c>
     </row>
-    <row r="760" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
-        <v>1320</v>
+        <v>1397</v>
       </c>
       <c r="B760" t="s">
-        <v>1320</v>
+        <v>1397</v>
       </c>
       <c r="C760" s="2" t="s">
-        <v>1319</v>
+        <v>1396</v>
       </c>
       <c r="D760">
         <v>758</v>
       </c>
     </row>
-    <row r="761" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A761" t="s">
-        <v>1322</v>
+        <v>1399</v>
       </c>
       <c r="B761" t="s">
-        <v>1322</v>
+        <v>1399</v>
       </c>
       <c r="C761" s="2" t="s">
-        <v>1321</v>
+        <v>1398</v>
       </c>
       <c r="D761">
         <v>759</v>
       </c>
     </row>
-    <row r="762" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A762" t="s">
-        <v>1324</v>
+        <v>1401</v>
       </c>
       <c r="B762" t="s">
-        <v>1324</v>
+        <v>1401</v>
       </c>
       <c r="C762" s="2" t="s">
-        <v>1323</v>
+        <v>1400</v>
       </c>
       <c r="D762">
         <v>760</v>
       </c>
-      <c r="G762" t="s">
-        <v>1325</v>
-      </c>
-      <c r="H762">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="763" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="763" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A763" t="s">
-        <v>1326</v>
+        <v>1403</v>
       </c>
       <c r="B763" t="s">
-        <v>1326</v>
+        <v>1403</v>
+      </c>
+      <c r="C763" s="2" t="s">
+        <v>1402</v>
       </c>
       <c r="D763">
         <v>761</v>
       </c>
-      <c r="G763" t="s">
-        <v>1325</v>
-      </c>
-      <c r="H763">
-        <v>1</v>
-      </c>
-      <c r="I763" s="1" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="764" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="764" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
-        <v>1328</v>
+        <v>1405</v>
       </c>
       <c r="B764" t="s">
-        <v>1328</v>
+        <v>1405</v>
       </c>
       <c r="C764" s="2" t="s">
-        <v>1327</v>
+        <v>1404</v>
       </c>
       <c r="D764">
         <v>762</v>
       </c>
-      <c r="G764" t="s">
-        <v>1325</v>
-      </c>
-      <c r="H764">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="765" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="765" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A765" t="s">
-        <v>1329</v>
+        <v>1407</v>
       </c>
       <c r="B765" t="s">
-        <v>1329</v>
+        <v>1407</v>
+      </c>
+      <c r="C765" s="2" t="s">
+        <v>1406</v>
       </c>
       <c r="D765">
         <v>763</v>
       </c>
-      <c r="G765" t="s">
-        <v>1325</v>
-      </c>
-      <c r="H765">
-        <v>1</v>
-      </c>
-      <c r="I765" s="1" t="s">
-        <v>1327</v>
-      </c>
-    </row>
-    <row r="766" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="766" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A766" t="s">
-        <v>1331</v>
+        <v>1409</v>
       </c>
       <c r="B766" t="s">
-        <v>1331</v>
+        <v>1409</v>
       </c>
       <c r="C766" s="2" t="s">
-        <v>1330</v>
+        <v>1408</v>
       </c>
       <c r="D766">
         <v>764</v>
       </c>
-      <c r="G766" t="s">
-        <v>1325</v>
-      </c>
-      <c r="H766">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="767" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="767" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A767" t="s">
-        <v>1332</v>
+        <v>1411</v>
       </c>
       <c r="B767" t="s">
-        <v>1332</v>
+        <v>1411</v>
+      </c>
+      <c r="C767" s="2" t="s">
+        <v>1410</v>
       </c>
       <c r="D767">
         <v>765</v>
       </c>
-      <c r="G767" t="s">
-        <v>1325</v>
-      </c>
-      <c r="H767">
-        <v>1</v>
-      </c>
-      <c r="I767" s="1" t="s">
-        <v>1330</v>
-      </c>
-    </row>
-    <row r="768" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="768" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A768" t="s">
-        <v>1334</v>
+        <v>1413</v>
       </c>
       <c r="B768" t="s">
-        <v>1334</v>
+        <v>1413</v>
       </c>
       <c r="C768" s="2" t="s">
-        <v>1333</v>
+        <v>1412</v>
       </c>
       <c r="D768">
         <v>766</v>
       </c>
-      <c r="G768" t="s">
-        <v>1325</v>
-      </c>
-      <c r="H768">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="769" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="769" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A769" t="s">
-        <v>1335</v>
+        <v>1415</v>
       </c>
       <c r="B769" t="s">
-        <v>1335</v>
+        <v>1415</v>
+      </c>
+      <c r="C769" s="2" t="s">
+        <v>1414</v>
       </c>
       <c r="D769">
         <v>767</v>
       </c>
-      <c r="G769" t="s">
-        <v>1325</v>
-      </c>
-      <c r="H769">
-        <v>1</v>
-      </c>
-      <c r="I769" s="1" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="770" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="770" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A770" t="s">
-        <v>1337</v>
+        <v>1417</v>
       </c>
       <c r="B770" t="s">
-        <v>1337</v>
+        <v>1417</v>
       </c>
       <c r="C770" s="2" t="s">
-        <v>1336</v>
+        <v>1416</v>
       </c>
       <c r="D770">
         <v>768</v>
       </c>
     </row>
-    <row r="771" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A771" t="s">
-        <v>1339</v>
+        <v>1419</v>
       </c>
       <c r="B771" t="s">
-        <v>1339</v>
+        <v>1419</v>
       </c>
       <c r="C771" s="2" t="s">
-        <v>1338</v>
+        <v>1418</v>
       </c>
       <c r="D771">
         <v>769</v>
       </c>
     </row>
-    <row r="772" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A772" t="s">
-        <v>1341</v>
+        <v>1421</v>
       </c>
       <c r="B772" t="s">
-        <v>1341</v>
+        <v>1421</v>
       </c>
       <c r="C772" s="2" t="s">
-        <v>1340</v>
+        <v>1420</v>
       </c>
       <c r="D772">
         <v>770</v>
       </c>
     </row>
-    <row r="773" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
-        <v>1343</v>
+        <v>1423</v>
       </c>
       <c r="B773" t="s">
-        <v>1343</v>
+        <v>1423</v>
       </c>
       <c r="C773" s="2" t="s">
-        <v>1342</v>
+        <v>1422</v>
       </c>
       <c r="D773">
         <v>771</v>
       </c>
     </row>
-    <row r="774" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A774" t="s">
-        <v>1345</v>
+        <v>1425</v>
       </c>
       <c r="B774" t="s">
-        <v>1345</v>
+        <v>1425</v>
       </c>
       <c r="C774" s="2" t="s">
-        <v>1344</v>
+        <v>1424</v>
       </c>
       <c r="D774">
         <v>772</v>
       </c>
     </row>
-    <row r="775" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A775" t="s">
-        <v>1347</v>
+        <v>1427</v>
       </c>
       <c r="B775" t="s">
-        <v>1347</v>
+        <v>1427</v>
       </c>
       <c r="C775" s="2" t="s">
-        <v>1346</v>
+        <v>1426</v>
       </c>
       <c r="D775">
         <v>773</v>
       </c>
     </row>
-    <row r="776" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A776" t="s">
-        <v>1349</v>
+        <v>1429</v>
       </c>
       <c r="B776" t="s">
-        <v>1349</v>
+        <v>1429</v>
       </c>
       <c r="C776" s="2" t="s">
-        <v>1348</v>
+        <v>1428</v>
       </c>
       <c r="D776">
         <v>774</v>
       </c>
     </row>
-    <row r="777" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A777" t="s">
-        <v>1351</v>
+        <v>1431</v>
       </c>
       <c r="B777" t="s">
-        <v>1351</v>
+        <v>1431</v>
       </c>
       <c r="C777" s="2" t="s">
-        <v>1350</v>
+        <v>1430</v>
       </c>
       <c r="D777">
         <v>775</v>
       </c>
     </row>
-    <row r="778" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A778" t="s">
-        <v>1353</v>
+        <v>1433</v>
       </c>
       <c r="B778" t="s">
-        <v>1353</v>
+        <v>1433</v>
       </c>
       <c r="C778" s="2" t="s">
-        <v>1352</v>
+        <v>1432</v>
       </c>
       <c r="D778">
         <v>776</v>
       </c>
     </row>
-    <row r="779" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A779" t="s">
-        <v>1355</v>
+        <v>1435</v>
       </c>
       <c r="B779" t="s">
-        <v>1355</v>
+        <v>1435</v>
       </c>
       <c r="C779" s="2" t="s">
-        <v>1354</v>
+        <v>1434</v>
       </c>
       <c r="D779">
         <v>777</v>
       </c>
     </row>
-    <row r="780" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A780" t="s">
-        <v>1357</v>
+        <v>1437</v>
       </c>
       <c r="B780" t="s">
-        <v>1357</v>
+        <v>1437</v>
       </c>
       <c r="C780" s="2" t="s">
-        <v>1356</v>
+        <v>1436</v>
       </c>
       <c r="D780">
         <v>778</v>
       </c>
     </row>
-    <row r="781" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A781" t="s">
-        <v>1359</v>
+        <v>1439</v>
       </c>
       <c r="B781" t="s">
-        <v>1359</v>
+        <v>1439</v>
       </c>
       <c r="C781" s="2" t="s">
-        <v>1358</v>
+        <v>1438</v>
       </c>
       <c r="D781">
         <v>779</v>
       </c>
     </row>
-    <row r="782" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A782" t="s">
-        <v>1361</v>
+        <v>1441</v>
       </c>
       <c r="B782" t="s">
-        <v>1361</v>
+        <v>1441</v>
       </c>
       <c r="C782" s="2" t="s">
-        <v>1360</v>
+        <v>1440</v>
       </c>
       <c r="D782">
         <v>780</v>
       </c>
     </row>
-    <row r="783" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A783" t="s">
-        <v>1363</v>
+        <v>1443</v>
       </c>
       <c r="B783" t="s">
-        <v>1363</v>
+        <v>1443</v>
       </c>
       <c r="C783" s="2" t="s">
-        <v>1362</v>
+        <v>1442</v>
       </c>
       <c r="D783">
         <v>781</v>
       </c>
     </row>
-    <row r="784" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A784" t="s">
-        <v>1365</v>
+        <v>1445</v>
       </c>
       <c r="B784" t="s">
-        <v>1365</v>
+        <v>1445</v>
       </c>
       <c r="C784" s="2" t="s">
-        <v>1364</v>
+        <v>1444</v>
       </c>
       <c r="D784">
         <v>782</v>
@@ -18648,13 +18843,13 @@
     </row>
     <row r="785" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A785" t="s">
-        <v>1367</v>
+        <v>1447</v>
       </c>
       <c r="B785" t="s">
-        <v>1367</v>
+        <v>1447</v>
       </c>
       <c r="C785" s="2" t="s">
-        <v>1366</v>
+        <v>1446</v>
       </c>
       <c r="D785">
         <v>783</v>
@@ -18662,13 +18857,13 @@
     </row>
     <row r="786" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A786" t="s">
-        <v>1369</v>
+        <v>1449</v>
       </c>
       <c r="B786" t="s">
-        <v>1369</v>
+        <v>1449</v>
       </c>
       <c r="C786" s="2" t="s">
-        <v>1368</v>
+        <v>1448</v>
       </c>
       <c r="D786">
         <v>784</v>
@@ -18676,13 +18871,13 @@
     </row>
     <row r="787" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A787" t="s">
-        <v>1371</v>
+        <v>1451</v>
       </c>
       <c r="B787" t="s">
-        <v>1371</v>
+        <v>1451</v>
       </c>
       <c r="C787" s="2" t="s">
-        <v>1370</v>
+        <v>1450</v>
       </c>
       <c r="D787">
         <v>785</v>
@@ -18690,13 +18885,13 @@
     </row>
     <row r="788" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A788" t="s">
-        <v>1373</v>
+        <v>1453</v>
       </c>
       <c r="B788" t="s">
-        <v>1373</v>
+        <v>1453</v>
       </c>
       <c r="C788" s="2" t="s">
-        <v>1372</v>
+        <v>1452</v>
       </c>
       <c r="D788">
         <v>786</v>
@@ -18704,13 +18899,13 @@
     </row>
     <row r="789" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A789" t="s">
-        <v>1375</v>
+        <v>1455</v>
       </c>
       <c r="B789" t="s">
-        <v>1375</v>
+        <v>1455</v>
       </c>
       <c r="C789" s="2" t="s">
-        <v>1374</v>
+        <v>1454</v>
       </c>
       <c r="D789">
         <v>787</v>
@@ -18718,13 +18913,13 @@
     </row>
     <row r="790" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A790" t="s">
-        <v>1377</v>
+        <v>1457</v>
       </c>
       <c r="B790" t="s">
-        <v>1377</v>
+        <v>1457</v>
       </c>
       <c r="C790" s="2" t="s">
-        <v>1376</v>
+        <v>1456</v>
       </c>
       <c r="D790">
         <v>788</v>
@@ -18732,13 +18927,13 @@
     </row>
     <row r="791" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A791" t="s">
-        <v>1379</v>
+        <v>1459</v>
       </c>
       <c r="B791" t="s">
-        <v>1379</v>
+        <v>1459</v>
       </c>
       <c r="C791" s="2" t="s">
-        <v>1378</v>
+        <v>1458</v>
       </c>
       <c r="D791">
         <v>789</v>
@@ -18746,13 +18941,13 @@
     </row>
     <row r="792" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A792" t="s">
-        <v>1381</v>
+        <v>1461</v>
       </c>
       <c r="B792" t="s">
-        <v>1381</v>
+        <v>1461</v>
       </c>
       <c r="C792" s="2" t="s">
-        <v>1380</v>
+        <v>1460</v>
       </c>
       <c r="D792">
         <v>790</v>
@@ -18760,13 +18955,13 @@
     </row>
     <row r="793" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A793" t="s">
-        <v>1383</v>
+        <v>1463</v>
       </c>
       <c r="B793" t="s">
-        <v>1383</v>
+        <v>1463</v>
       </c>
       <c r="C793" s="2" t="s">
-        <v>1382</v>
+        <v>1462</v>
       </c>
       <c r="D793">
         <v>791</v>
@@ -18774,13 +18969,13 @@
     </row>
     <row r="794" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A794" t="s">
-        <v>1385</v>
+        <v>1465</v>
       </c>
       <c r="B794" t="s">
-        <v>1385</v>
+        <v>1465</v>
       </c>
       <c r="C794" s="2" t="s">
-        <v>1384</v>
+        <v>1464</v>
       </c>
       <c r="D794">
         <v>792</v>
@@ -18788,13 +18983,13 @@
     </row>
     <row r="795" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A795" t="s">
-        <v>1387</v>
+        <v>1467</v>
       </c>
       <c r="B795" t="s">
-        <v>1387</v>
+        <v>1467</v>
       </c>
       <c r="C795" s="2" t="s">
-        <v>1386</v>
+        <v>1466</v>
       </c>
       <c r="D795">
         <v>793</v>
@@ -18802,13 +18997,13 @@
     </row>
     <row r="796" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A796" t="s">
-        <v>1389</v>
+        <v>1469</v>
       </c>
       <c r="B796" t="s">
-        <v>1389</v>
+        <v>1469</v>
       </c>
       <c r="C796" s="2" t="s">
-        <v>1388</v>
+        <v>1468</v>
       </c>
       <c r="D796">
         <v>794</v>
@@ -18816,13 +19011,13 @@
     </row>
     <row r="797" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A797" t="s">
-        <v>1391</v>
+        <v>1471</v>
       </c>
       <c r="B797" t="s">
-        <v>1391</v>
+        <v>1471</v>
       </c>
       <c r="C797" s="2" t="s">
-        <v>1390</v>
+        <v>1470</v>
       </c>
       <c r="D797">
         <v>795</v>
@@ -18830,13 +19025,13 @@
     </row>
     <row r="798" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A798" t="s">
-        <v>1393</v>
+        <v>1473</v>
       </c>
       <c r="B798" t="s">
-        <v>1393</v>
+        <v>1473</v>
       </c>
       <c r="C798" s="2" t="s">
-        <v>1392</v>
+        <v>1472</v>
       </c>
       <c r="D798">
         <v>796</v>
@@ -18844,13 +19039,13 @@
     </row>
     <row r="799" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A799" t="s">
-        <v>1395</v>
+        <v>1475</v>
       </c>
       <c r="B799" t="s">
-        <v>1395</v>
+        <v>1475</v>
       </c>
       <c r="C799" s="2" t="s">
-        <v>1394</v>
+        <v>1474</v>
       </c>
       <c r="D799">
         <v>797</v>
@@ -18858,13 +19053,13 @@
     </row>
     <row r="800" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A800" t="s">
-        <v>1397</v>
+        <v>1477</v>
       </c>
       <c r="B800" t="s">
-        <v>1397</v>
+        <v>1477</v>
       </c>
       <c r="C800" s="2" t="s">
-        <v>1396</v>
+        <v>1476</v>
       </c>
       <c r="D800">
         <v>798</v>
@@ -18872,13 +19067,13 @@
     </row>
     <row r="801" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A801" t="s">
-        <v>1399</v>
+        <v>1479</v>
       </c>
       <c r="B801" t="s">
-        <v>1399</v>
+        <v>1479</v>
       </c>
       <c r="C801" s="2" t="s">
-        <v>1398</v>
+        <v>1478</v>
       </c>
       <c r="D801">
         <v>799</v>
@@ -18886,13 +19081,13 @@
     </row>
     <row r="802" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A802" t="s">
-        <v>1401</v>
+        <v>1481</v>
       </c>
       <c r="B802" t="s">
-        <v>1401</v>
+        <v>1481</v>
       </c>
       <c r="C802" s="2" t="s">
-        <v>1400</v>
+        <v>1480</v>
       </c>
       <c r="D802">
         <v>800</v>
@@ -18900,13 +19095,13 @@
     </row>
     <row r="803" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A803" t="s">
-        <v>1403</v>
+        <v>1483</v>
       </c>
       <c r="B803" t="s">
-        <v>1403</v>
+        <v>1483</v>
       </c>
       <c r="C803" s="2" t="s">
-        <v>1402</v>
+        <v>1482</v>
       </c>
       <c r="D803">
         <v>801</v>
@@ -18914,13 +19109,13 @@
     </row>
     <row r="804" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A804" t="s">
-        <v>1405</v>
+        <v>1485</v>
       </c>
       <c r="B804" t="s">
-        <v>1405</v>
+        <v>1485</v>
       </c>
       <c r="C804" s="2" t="s">
-        <v>1404</v>
+        <v>1484</v>
       </c>
       <c r="D804">
         <v>802</v>
@@ -18928,13 +19123,13 @@
     </row>
     <row r="805" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A805" t="s">
-        <v>1407</v>
+        <v>1487</v>
       </c>
       <c r="B805" t="s">
-        <v>1407</v>
+        <v>1487</v>
       </c>
       <c r="C805" s="2" t="s">
-        <v>1406</v>
+        <v>1486</v>
       </c>
       <c r="D805">
         <v>803</v>
@@ -18942,13 +19137,13 @@
     </row>
     <row r="806" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A806" t="s">
-        <v>1409</v>
+        <v>1489</v>
       </c>
       <c r="B806" t="s">
-        <v>1409</v>
+        <v>1489</v>
       </c>
       <c r="C806" s="2" t="s">
-        <v>1408</v>
+        <v>1488</v>
       </c>
       <c r="D806">
         <v>804</v>
@@ -18956,13 +19151,13 @@
     </row>
     <row r="807" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A807" t="s">
-        <v>1411</v>
+        <v>1491</v>
       </c>
       <c r="B807" t="s">
-        <v>1411</v>
+        <v>1491</v>
       </c>
       <c r="C807" s="2" t="s">
-        <v>1410</v>
+        <v>1490</v>
       </c>
       <c r="D807">
         <v>805</v>
@@ -18970,13 +19165,13 @@
     </row>
     <row r="808" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A808" t="s">
-        <v>1413</v>
+        <v>1493</v>
       </c>
       <c r="B808" t="s">
-        <v>1413</v>
+        <v>1493</v>
       </c>
       <c r="C808" s="2" t="s">
-        <v>1412</v>
+        <v>1492</v>
       </c>
       <c r="D808">
         <v>806</v>
@@ -18984,13 +19179,13 @@
     </row>
     <row r="809" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A809" t="s">
-        <v>1415</v>
+        <v>1495</v>
       </c>
       <c r="B809" t="s">
-        <v>1415</v>
+        <v>1495</v>
       </c>
       <c r="C809" s="2" t="s">
-        <v>1414</v>
+        <v>1494</v>
       </c>
       <c r="D809">
         <v>807</v>
@@ -18998,13 +19193,13 @@
     </row>
     <row r="810" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A810" t="s">
-        <v>1417</v>
+        <v>1497</v>
       </c>
       <c r="B810" t="s">
-        <v>1417</v>
+        <v>1497</v>
       </c>
       <c r="C810" s="2" t="s">
-        <v>1416</v>
+        <v>1496</v>
       </c>
       <c r="D810">
         <v>808</v>
@@ -19012,13 +19207,13 @@
     </row>
     <row r="811" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A811" t="s">
-        <v>1419</v>
+        <v>1499</v>
       </c>
       <c r="B811" t="s">
-        <v>1419</v>
+        <v>1499</v>
       </c>
       <c r="C811" s="2" t="s">
-        <v>1418</v>
+        <v>1498</v>
       </c>
       <c r="D811">
         <v>809</v>
@@ -19026,13 +19221,13 @@
     </row>
     <row r="812" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A812" t="s">
-        <v>1421</v>
+        <v>1501</v>
       </c>
       <c r="B812" t="s">
-        <v>1421</v>
+        <v>1501</v>
       </c>
       <c r="C812" s="2" t="s">
-        <v>1420</v>
+        <v>1500</v>
       </c>
       <c r="D812">
         <v>810</v>
@@ -19040,13 +19235,13 @@
     </row>
     <row r="813" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A813" t="s">
-        <v>1423</v>
+        <v>1503</v>
       </c>
       <c r="B813" t="s">
-        <v>1423</v>
+        <v>1503</v>
       </c>
       <c r="C813" s="2" t="s">
-        <v>1422</v>
+        <v>1502</v>
       </c>
       <c r="D813">
         <v>811</v>
@@ -19054,13 +19249,13 @@
     </row>
     <row r="814" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A814" t="s">
-        <v>1425</v>
+        <v>1505</v>
       </c>
       <c r="B814" t="s">
-        <v>1425</v>
+        <v>1505</v>
       </c>
       <c r="C814" s="2" t="s">
-        <v>1424</v>
+        <v>1504</v>
       </c>
       <c r="D814">
         <v>812</v>
@@ -19068,13 +19263,13 @@
     </row>
     <row r="815" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A815" t="s">
-        <v>1427</v>
+        <v>1507</v>
       </c>
       <c r="B815" t="s">
-        <v>1427</v>
+        <v>1507</v>
       </c>
       <c r="C815" s="2" t="s">
-        <v>1426</v>
+        <v>1506</v>
       </c>
       <c r="D815">
         <v>813</v>
@@ -19082,13 +19277,13 @@
     </row>
     <row r="816" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A816" t="s">
-        <v>1429</v>
+        <v>1509</v>
       </c>
       <c r="B816" t="s">
-        <v>1429</v>
+        <v>1509</v>
       </c>
       <c r="C816" s="2" t="s">
-        <v>1428</v>
+        <v>1508</v>
       </c>
       <c r="D816">
         <v>814</v>
@@ -19096,13 +19291,13 @@
     </row>
     <row r="817" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A817" t="s">
-        <v>1431</v>
+        <v>1511</v>
       </c>
       <c r="B817" t="s">
-        <v>1431</v>
+        <v>1511</v>
       </c>
       <c r="C817" s="2" t="s">
-        <v>1430</v>
+        <v>1510</v>
       </c>
       <c r="D817">
         <v>815</v>
@@ -19110,13 +19305,13 @@
     </row>
     <row r="818" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A818" t="s">
-        <v>1433</v>
+        <v>1513</v>
       </c>
       <c r="B818" t="s">
-        <v>1433</v>
+        <v>1513</v>
       </c>
       <c r="C818" s="2" t="s">
-        <v>1432</v>
+        <v>1512</v>
       </c>
       <c r="D818">
         <v>816</v>
@@ -19124,13 +19319,13 @@
     </row>
     <row r="819" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A819" t="s">
-        <v>1435</v>
+        <v>1515</v>
       </c>
       <c r="B819" t="s">
-        <v>1435</v>
+        <v>1515</v>
       </c>
       <c r="C819" s="2" t="s">
-        <v>1434</v>
+        <v>1514</v>
       </c>
       <c r="D819">
         <v>817</v>
@@ -19138,13 +19333,13 @@
     </row>
     <row r="820" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A820" t="s">
-        <v>1437</v>
+        <v>1517</v>
       </c>
       <c r="B820" t="s">
-        <v>1437</v>
+        <v>1517</v>
       </c>
       <c r="C820" s="2" t="s">
-        <v>1436</v>
+        <v>1516</v>
       </c>
       <c r="D820">
         <v>818</v>
@@ -19152,13 +19347,13 @@
     </row>
     <row r="821" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A821" t="s">
-        <v>1439</v>
+        <v>1519</v>
       </c>
       <c r="B821" t="s">
-        <v>1439</v>
+        <v>1519</v>
       </c>
       <c r="C821" s="2" t="s">
-        <v>1438</v>
+        <v>1518</v>
       </c>
       <c r="D821">
         <v>819</v>
@@ -19166,13 +19361,13 @@
     </row>
     <row r="822" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A822" t="s">
-        <v>1441</v>
+        <v>1521</v>
       </c>
       <c r="B822" t="s">
-        <v>1441</v>
+        <v>1521</v>
       </c>
       <c r="C822" s="2" t="s">
-        <v>1440</v>
+        <v>1520</v>
       </c>
       <c r="D822">
         <v>820</v>
@@ -19180,13 +19375,13 @@
     </row>
     <row r="823" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A823" t="s">
-        <v>1443</v>
+        <v>1523</v>
       </c>
       <c r="B823" t="s">
-        <v>1443</v>
+        <v>1523</v>
       </c>
       <c r="C823" s="2" t="s">
-        <v>1442</v>
+        <v>1522</v>
       </c>
       <c r="D823">
         <v>821</v>
@@ -19194,13 +19389,13 @@
     </row>
     <row r="824" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A824" t="s">
-        <v>1445</v>
+        <v>1525</v>
       </c>
       <c r="B824" t="s">
-        <v>1445</v>
+        <v>1525</v>
       </c>
       <c r="C824" s="2" t="s">
-        <v>1444</v>
+        <v>1524</v>
       </c>
       <c r="D824">
         <v>822</v>
@@ -19208,13 +19403,13 @@
     </row>
     <row r="825" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A825" t="s">
-        <v>1447</v>
+        <v>1527</v>
       </c>
       <c r="B825" t="s">
-        <v>1447</v>
+        <v>1527</v>
       </c>
       <c r="C825" s="2" t="s">
-        <v>1446</v>
+        <v>1526</v>
       </c>
       <c r="D825">
         <v>823</v>
@@ -19222,13 +19417,13 @@
     </row>
     <row r="826" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A826" t="s">
-        <v>1449</v>
+        <v>1529</v>
       </c>
       <c r="B826" t="s">
-        <v>1449</v>
+        <v>1529</v>
       </c>
       <c r="C826" s="2" t="s">
-        <v>1448</v>
+        <v>1528</v>
       </c>
       <c r="D826">
         <v>824</v>
@@ -19236,13 +19431,13 @@
     </row>
     <row r="827" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A827" t="s">
-        <v>1451</v>
+        <v>1531</v>
       </c>
       <c r="B827" t="s">
-        <v>1451</v>
+        <v>1531</v>
       </c>
       <c r="C827" s="2" t="s">
-        <v>1450</v>
+        <v>1530</v>
       </c>
       <c r="D827">
         <v>825</v>
@@ -19250,13 +19445,13 @@
     </row>
     <row r="828" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A828" t="s">
-        <v>1453</v>
+        <v>1533</v>
       </c>
       <c r="B828" t="s">
-        <v>1453</v>
+        <v>1533</v>
       </c>
       <c r="C828" s="2" t="s">
-        <v>1452</v>
+        <v>1532</v>
       </c>
       <c r="D828">
         <v>826</v>
@@ -19264,13 +19459,13 @@
     </row>
     <row r="829" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A829" t="s">
-        <v>1455</v>
+        <v>1535</v>
       </c>
       <c r="B829" t="s">
-        <v>1455</v>
+        <v>1535</v>
       </c>
       <c r="C829" s="2" t="s">
-        <v>1454</v>
+        <v>1534</v>
       </c>
       <c r="D829">
         <v>827</v>
@@ -19278,13 +19473,13 @@
     </row>
     <row r="830" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A830" t="s">
-        <v>1457</v>
+        <v>1537</v>
       </c>
       <c r="B830" t="s">
-        <v>1457</v>
+        <v>1537</v>
       </c>
       <c r="C830" s="2" t="s">
-        <v>1456</v>
+        <v>1536</v>
       </c>
       <c r="D830">
         <v>828</v>
@@ -19292,13 +19487,13 @@
     </row>
     <row r="831" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A831" t="s">
-        <v>1459</v>
+        <v>1539</v>
       </c>
       <c r="B831" t="s">
-        <v>1459</v>
+        <v>1539</v>
       </c>
       <c r="C831" s="2" t="s">
-        <v>1458</v>
+        <v>1538</v>
       </c>
       <c r="D831">
         <v>829</v>
@@ -19306,713 +19501,836 @@
     </row>
     <row r="832" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A832" t="s">
-        <v>1461</v>
+        <v>1541</v>
       </c>
       <c r="B832" t="s">
-        <v>1461</v>
+        <v>1541</v>
       </c>
       <c r="C832" s="2" t="s">
-        <v>1460</v>
+        <v>1540</v>
       </c>
       <c r="D832">
         <v>830</v>
       </c>
     </row>
-    <row r="833" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A833" t="s">
-        <v>1463</v>
+        <v>1543</v>
       </c>
       <c r="B833" t="s">
-        <v>1463</v>
+        <v>1543</v>
       </c>
       <c r="C833" s="2" t="s">
-        <v>1462</v>
+        <v>1542</v>
       </c>
       <c r="D833">
         <v>831</v>
       </c>
     </row>
-    <row r="834" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A834" t="s">
-        <v>1465</v>
+        <v>1545</v>
       </c>
       <c r="B834" t="s">
-        <v>1465</v>
+        <v>1545</v>
       </c>
       <c r="C834" s="2" t="s">
-        <v>1464</v>
+        <v>1544</v>
       </c>
       <c r="D834">
         <v>832</v>
       </c>
     </row>
-    <row r="835" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A835" t="s">
-        <v>1467</v>
+        <v>1547</v>
       </c>
       <c r="B835" t="s">
-        <v>1467</v>
+        <v>1547</v>
       </c>
       <c r="C835" s="2" t="s">
-        <v>1466</v>
+        <v>1546</v>
       </c>
       <c r="D835">
         <v>833</v>
       </c>
     </row>
-    <row r="836" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A836" t="s">
-        <v>1469</v>
+        <v>1549</v>
       </c>
       <c r="B836" t="s">
-        <v>1469</v>
+        <v>1549</v>
       </c>
       <c r="C836" s="2" t="s">
-        <v>1468</v>
+        <v>1548</v>
       </c>
       <c r="D836">
         <v>834</v>
       </c>
     </row>
-    <row r="837" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A837" t="s">
-        <v>1471</v>
+        <v>1551</v>
       </c>
       <c r="B837" t="s">
-        <v>1471</v>
+        <v>1551</v>
       </c>
       <c r="C837" s="2" t="s">
-        <v>1470</v>
+        <v>1550</v>
       </c>
       <c r="D837">
         <v>835</v>
       </c>
     </row>
-    <row r="838" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A838" t="s">
-        <v>1473</v>
+        <v>1553</v>
       </c>
       <c r="B838" t="s">
-        <v>1473</v>
+        <v>1553</v>
       </c>
       <c r="C838" s="2" t="s">
-        <v>1472</v>
+        <v>1552</v>
       </c>
       <c r="D838">
         <v>836</v>
       </c>
     </row>
-    <row r="839" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A839" t="s">
-        <v>1475</v>
+        <v>1555</v>
       </c>
       <c r="B839" t="s">
-        <v>1475</v>
+        <v>1555</v>
       </c>
       <c r="C839" s="2" t="s">
-        <v>1474</v>
+        <v>1554</v>
       </c>
       <c r="D839">
         <v>837</v>
       </c>
     </row>
-    <row r="840" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A840" t="s">
-        <v>1477</v>
+        <v>1557</v>
       </c>
       <c r="B840" t="s">
-        <v>1477</v>
+        <v>1557</v>
       </c>
       <c r="C840" s="2" t="s">
-        <v>1476</v>
+        <v>1556</v>
       </c>
       <c r="D840">
         <v>838</v>
       </c>
     </row>
-    <row r="841" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A841" t="s">
-        <v>1479</v>
+        <v>1559</v>
       </c>
       <c r="B841" t="s">
-        <v>1479</v>
+        <v>1559</v>
       </c>
       <c r="C841" s="2" t="s">
-        <v>1478</v>
+        <v>1558</v>
       </c>
       <c r="D841">
         <v>839</v>
       </c>
     </row>
-    <row r="842" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A842" t="s">
-        <v>1481</v>
+        <v>1561</v>
       </c>
       <c r="B842" t="s">
-        <v>1481</v>
+        <v>1561</v>
       </c>
       <c r="C842" s="2" t="s">
-        <v>1480</v>
+        <v>1560</v>
       </c>
       <c r="D842">
         <v>840</v>
       </c>
-    </row>
-    <row r="843" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G842" t="s">
+        <v>14</v>
+      </c>
+      <c r="H842">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="843" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A843" t="s">
-        <v>1483</v>
+        <v>1562</v>
       </c>
       <c r="B843" t="s">
-        <v>1483</v>
-      </c>
-      <c r="C843" s="2" t="s">
-        <v>1482</v>
+        <v>1562</v>
       </c>
       <c r="D843">
         <v>841</v>
       </c>
-    </row>
-    <row r="844" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G843" t="s">
+        <v>14</v>
+      </c>
+      <c r="H843">
+        <v>1</v>
+      </c>
+      <c r="I843" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="844" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A844" t="s">
-        <v>1485</v>
+        <v>1564</v>
       </c>
       <c r="B844" t="s">
-        <v>1485</v>
+        <v>1564</v>
       </c>
       <c r="C844" s="2" t="s">
-        <v>1484</v>
+        <v>1563</v>
       </c>
       <c r="D844">
         <v>842</v>
       </c>
-    </row>
-    <row r="845" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G844" t="s">
+        <v>14</v>
+      </c>
+      <c r="H844">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="845" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A845" t="s">
-        <v>1487</v>
+        <v>1565</v>
       </c>
       <c r="B845" t="s">
-        <v>1487</v>
-      </c>
-      <c r="C845" s="2" t="s">
-        <v>1486</v>
+        <v>1565</v>
       </c>
       <c r="D845">
         <v>843</v>
       </c>
-    </row>
-    <row r="846" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G845" t="s">
+        <v>14</v>
+      </c>
+      <c r="H845">
+        <v>1</v>
+      </c>
+      <c r="I845" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="846" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A846" t="s">
-        <v>1489</v>
+        <v>1567</v>
       </c>
       <c r="B846" t="s">
-        <v>1489</v>
+        <v>1567</v>
       </c>
       <c r="C846" s="2" t="s">
-        <v>1488</v>
+        <v>1566</v>
       </c>
       <c r="D846">
         <v>844</v>
       </c>
     </row>
-    <row r="847" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A847" t="s">
-        <v>1491</v>
+        <v>1569</v>
       </c>
       <c r="B847" t="s">
-        <v>1491</v>
+        <v>1569</v>
       </c>
       <c r="C847" s="2" t="s">
-        <v>1490</v>
+        <v>1568</v>
       </c>
       <c r="D847">
         <v>845</v>
       </c>
-    </row>
-    <row r="848" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G847" t="s">
+        <v>14</v>
+      </c>
+      <c r="H847">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="848" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A848" t="s">
-        <v>1493</v>
+        <v>1570</v>
       </c>
       <c r="B848" t="s">
-        <v>1493</v>
-      </c>
-      <c r="C848" s="2" t="s">
-        <v>1492</v>
+        <v>1570</v>
       </c>
       <c r="D848">
         <v>846</v>
       </c>
-    </row>
-    <row r="849" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G848" t="s">
+        <v>14</v>
+      </c>
+      <c r="H848">
+        <v>1</v>
+      </c>
+      <c r="I848" s="1" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="849" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A849" t="s">
-        <v>1495</v>
+        <v>1572</v>
       </c>
       <c r="B849" t="s">
-        <v>1495</v>
+        <v>1572</v>
       </c>
       <c r="C849" s="2" t="s">
-        <v>1494</v>
+        <v>1571</v>
       </c>
       <c r="D849">
         <v>847</v>
       </c>
-    </row>
-    <row r="850" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G849" t="s">
+        <v>14</v>
+      </c>
+      <c r="H849">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="850" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A850" t="s">
-        <v>1497</v>
+        <v>1573</v>
       </c>
       <c r="B850" t="s">
-        <v>1497</v>
-      </c>
-      <c r="C850" s="2" t="s">
-        <v>1496</v>
+        <v>1573</v>
       </c>
       <c r="D850">
         <v>848</v>
       </c>
-    </row>
-    <row r="851" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G850" t="s">
+        <v>14</v>
+      </c>
+      <c r="H850">
+        <v>1</v>
+      </c>
+      <c r="I850" s="1" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="851" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A851" t="s">
-        <v>1499</v>
+        <v>1575</v>
       </c>
       <c r="B851" t="s">
-        <v>1499</v>
+        <v>1575</v>
       </c>
       <c r="C851" s="2" t="s">
-        <v>1498</v>
+        <v>1574</v>
       </c>
       <c r="D851">
         <v>849</v>
       </c>
     </row>
-    <row r="852" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A852" t="s">
-        <v>1501</v>
+        <v>1577</v>
       </c>
       <c r="B852" t="s">
-        <v>1501</v>
+        <v>1577</v>
       </c>
       <c r="C852" s="2" t="s">
-        <v>1500</v>
+        <v>1576</v>
       </c>
       <c r="D852">
         <v>850</v>
       </c>
     </row>
-    <row r="853" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A853" t="s">
-        <v>1503</v>
+        <v>1579</v>
       </c>
       <c r="B853" t="s">
-        <v>1503</v>
+        <v>1579</v>
       </c>
       <c r="C853" s="2" t="s">
-        <v>1502</v>
+        <v>1578</v>
       </c>
       <c r="D853">
         <v>851</v>
       </c>
     </row>
-    <row r="854" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A854" t="s">
-        <v>1505</v>
+        <v>1581</v>
       </c>
       <c r="B854" t="s">
-        <v>1505</v>
+        <v>1581</v>
       </c>
       <c r="C854" s="2" t="s">
-        <v>1504</v>
+        <v>1580</v>
       </c>
       <c r="D854">
         <v>852</v>
       </c>
     </row>
-    <row r="855" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A855" t="s">
-        <v>1507</v>
+        <v>1583</v>
       </c>
       <c r="B855" t="s">
-        <v>1507</v>
+        <v>1583</v>
       </c>
       <c r="C855" s="2" t="s">
-        <v>1506</v>
+        <v>1582</v>
       </c>
       <c r="D855">
         <v>853</v>
       </c>
     </row>
-    <row r="856" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A856" t="s">
-        <v>1509</v>
+        <v>1585</v>
       </c>
       <c r="B856" t="s">
-        <v>1509</v>
+        <v>1585</v>
       </c>
       <c r="C856" s="2" t="s">
-        <v>1508</v>
+        <v>1584</v>
       </c>
       <c r="D856">
         <v>854</v>
       </c>
     </row>
-    <row r="857" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A857" t="s">
-        <v>1511</v>
+        <v>1587</v>
       </c>
       <c r="B857" t="s">
-        <v>1511</v>
+        <v>1587</v>
       </c>
       <c r="C857" s="2" t="s">
-        <v>1510</v>
+        <v>1586</v>
       </c>
       <c r="D857">
         <v>855</v>
       </c>
     </row>
-    <row r="858" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A858" t="s">
-        <v>1513</v>
+        <v>1589</v>
       </c>
       <c r="B858" t="s">
-        <v>1513</v>
+        <v>1589</v>
       </c>
       <c r="C858" s="2" t="s">
-        <v>1512</v>
+        <v>1588</v>
       </c>
       <c r="D858">
         <v>856</v>
       </c>
     </row>
-    <row r="859" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A859" t="s">
-        <v>1515</v>
+        <v>1591</v>
       </c>
       <c r="B859" t="s">
-        <v>1515</v>
+        <v>1591</v>
       </c>
       <c r="C859" s="2" t="s">
-        <v>1514</v>
+        <v>1590</v>
       </c>
       <c r="D859">
         <v>857</v>
       </c>
     </row>
-    <row r="860" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A860" t="s">
-        <v>1517</v>
+        <v>1593</v>
       </c>
       <c r="B860" t="s">
-        <v>1517</v>
+        <v>1593</v>
       </c>
       <c r="C860" s="2" t="s">
-        <v>1516</v>
+        <v>1592</v>
       </c>
       <c r="D860">
         <v>858</v>
       </c>
     </row>
-    <row r="861" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A861" t="s">
-        <v>1519</v>
+        <v>1595</v>
       </c>
       <c r="B861" t="s">
-        <v>1519</v>
+        <v>1595</v>
       </c>
       <c r="C861" s="2" t="s">
-        <v>1518</v>
+        <v>1594</v>
       </c>
       <c r="D861">
         <v>859</v>
       </c>
     </row>
-    <row r="862" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A862" t="s">
-        <v>1521</v>
+        <v>1597</v>
       </c>
       <c r="B862" t="s">
-        <v>1521</v>
+        <v>1597</v>
       </c>
       <c r="C862" s="2" t="s">
-        <v>1520</v>
+        <v>1596</v>
       </c>
       <c r="D862">
         <v>860</v>
       </c>
     </row>
-    <row r="863" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A863" t="s">
-        <v>1523</v>
+        <v>1599</v>
       </c>
       <c r="B863" t="s">
-        <v>1523</v>
+        <v>1599</v>
       </c>
       <c r="C863" s="2" t="s">
-        <v>1522</v>
+        <v>1598</v>
       </c>
       <c r="D863">
         <v>861</v>
       </c>
     </row>
-    <row r="864" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A864" t="s">
-        <v>1525</v>
+        <v>1601</v>
       </c>
       <c r="B864" t="s">
-        <v>1525</v>
+        <v>1601</v>
       </c>
       <c r="C864" s="2" t="s">
-        <v>1524</v>
+        <v>1600</v>
       </c>
       <c r="D864">
         <v>862</v>
       </c>
     </row>
-    <row r="865" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A865" t="s">
-        <v>1527</v>
+        <v>1603</v>
       </c>
       <c r="B865" t="s">
-        <v>1527</v>
+        <v>1603</v>
       </c>
       <c r="C865" s="2" t="s">
-        <v>1526</v>
+        <v>1602</v>
       </c>
       <c r="D865">
         <v>863</v>
       </c>
     </row>
-    <row r="866" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A866" t="s">
-        <v>1529</v>
+        <v>1605</v>
       </c>
       <c r="B866" t="s">
-        <v>1529</v>
+        <v>1605</v>
       </c>
       <c r="C866" s="2" t="s">
-        <v>1528</v>
+        <v>1604</v>
       </c>
       <c r="D866">
         <v>864</v>
       </c>
-    </row>
-    <row r="867" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G866" t="s">
+        <v>14</v>
+      </c>
+      <c r="H866">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="867" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A867" t="s">
-        <v>1531</v>
+        <v>1606</v>
       </c>
       <c r="B867" t="s">
-        <v>1531</v>
-      </c>
-      <c r="C867" s="2" t="s">
-        <v>1530</v>
+        <v>1606</v>
       </c>
       <c r="D867">
         <v>865</v>
       </c>
-    </row>
-    <row r="868" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G867" t="s">
+        <v>14</v>
+      </c>
+      <c r="H867">
+        <v>1</v>
+      </c>
+      <c r="I867" s="1">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="868" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A868" t="s">
-        <v>1533</v>
+        <v>1608</v>
       </c>
       <c r="B868" t="s">
-        <v>1533</v>
+        <v>1608</v>
       </c>
       <c r="C868" s="2" t="s">
-        <v>1532</v>
+        <v>1607</v>
       </c>
       <c r="D868">
         <v>866</v>
       </c>
-    </row>
-    <row r="869" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G868" t="s">
+        <v>14</v>
+      </c>
+      <c r="H868">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="869" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A869" t="s">
-        <v>1535</v>
+        <v>1609</v>
       </c>
       <c r="B869" t="s">
-        <v>1535</v>
-      </c>
-      <c r="C869" s="2" t="s">
-        <v>1534</v>
+        <v>1609</v>
       </c>
       <c r="D869">
         <v>867</v>
       </c>
-    </row>
-    <row r="870" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G869" t="s">
+        <v>14</v>
+      </c>
+      <c r="H869">
+        <v>1</v>
+      </c>
+      <c r="I869" s="1" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="870" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A870" t="s">
-        <v>1537</v>
+        <v>1611</v>
       </c>
       <c r="B870" t="s">
-        <v>1537</v>
+        <v>1611</v>
       </c>
       <c r="C870" s="2" t="s">
-        <v>1536</v>
+        <v>1610</v>
       </c>
       <c r="D870">
         <v>868</v>
       </c>
     </row>
-    <row r="871" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A871" t="s">
-        <v>1539</v>
+        <v>1613</v>
       </c>
       <c r="B871" t="s">
-        <v>1539</v>
+        <v>1613</v>
       </c>
       <c r="C871" s="2" t="s">
-        <v>1538</v>
+        <v>1612</v>
       </c>
       <c r="D871">
         <v>869</v>
       </c>
     </row>
-    <row r="872" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A872" t="s">
-        <v>1541</v>
+        <v>1615</v>
       </c>
       <c r="B872" t="s">
-        <v>1541</v>
+        <v>1615</v>
       </c>
       <c r="C872" s="2" t="s">
-        <v>1540</v>
+        <v>1614</v>
       </c>
       <c r="D872">
         <v>870</v>
       </c>
     </row>
-    <row r="873" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A873" t="s">
-        <v>1543</v>
+        <v>1617</v>
       </c>
       <c r="B873" t="s">
-        <v>1543</v>
+        <v>1617</v>
       </c>
       <c r="C873" s="2" t="s">
-        <v>1542</v>
+        <v>1616</v>
       </c>
       <c r="D873">
         <v>871</v>
       </c>
-    </row>
-    <row r="874" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G873" t="s">
+        <v>14</v>
+      </c>
+      <c r="H873">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="874" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A874" t="s">
-        <v>1545</v>
+        <v>1620</v>
       </c>
       <c r="B874" t="s">
-        <v>1545</v>
+        <v>1620</v>
       </c>
       <c r="C874" s="2" t="s">
-        <v>1544</v>
+        <v>1619</v>
       </c>
       <c r="D874">
         <v>872</v>
       </c>
-    </row>
-    <row r="875" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G874" t="s">
+        <v>14</v>
+      </c>
+      <c r="H874">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="875" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A875" t="s">
-        <v>1547</v>
+        <v>1623</v>
       </c>
       <c r="B875" t="s">
-        <v>1547</v>
+        <v>1623</v>
       </c>
       <c r="C875" s="2" t="s">
-        <v>1546</v>
+        <v>1622</v>
       </c>
       <c r="D875">
         <v>873</v>
       </c>
-    </row>
-    <row r="876" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G875" t="s">
+        <v>14</v>
+      </c>
+      <c r="H875">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="876" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A876" t="s">
-        <v>1549</v>
+        <v>1626</v>
       </c>
       <c r="B876" t="s">
-        <v>1549</v>
+        <v>1626</v>
       </c>
       <c r="C876" s="2" t="s">
-        <v>1548</v>
+        <v>1625</v>
       </c>
       <c r="D876">
         <v>874</v>
       </c>
-    </row>
-    <row r="877" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G876" t="s">
+        <v>14</v>
+      </c>
+      <c r="H876">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="877" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A877" t="s">
-        <v>1551</v>
+        <v>1629</v>
       </c>
       <c r="B877" t="s">
-        <v>1551</v>
+        <v>1629</v>
       </c>
       <c r="C877" s="2" t="s">
-        <v>1550</v>
+        <v>1628</v>
       </c>
       <c r="D877">
         <v>875</v>
       </c>
-    </row>
-    <row r="878" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G877" t="s">
+        <v>14</v>
+      </c>
+      <c r="H877">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="878" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A878" t="s">
-        <v>1553</v>
+        <v>1632</v>
       </c>
       <c r="B878" t="s">
-        <v>1553</v>
+        <v>1632</v>
       </c>
       <c r="C878" s="2" t="s">
-        <v>1552</v>
+        <v>1631</v>
       </c>
       <c r="D878">
         <v>876</v>
       </c>
-    </row>
-    <row r="879" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G878" t="s">
+        <v>14</v>
+      </c>
+      <c r="H878">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="879" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A879" t="s">
-        <v>1555</v>
+        <v>1635</v>
       </c>
       <c r="B879" t="s">
-        <v>1555</v>
+        <v>1635</v>
       </c>
       <c r="C879" s="2" t="s">
-        <v>1554</v>
+        <v>1634</v>
       </c>
       <c r="D879">
         <v>877</v>
       </c>
-    </row>
-    <row r="880" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G879" t="s">
+        <v>14</v>
+      </c>
+      <c r="H879">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="880" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A880" t="s">
-        <v>1557</v>
+        <v>1618</v>
       </c>
       <c r="B880" t="s">
-        <v>1557</v>
-      </c>
-      <c r="C880" s="2" t="s">
-        <v>1556</v>
+        <v>1618</v>
       </c>
       <c r="D880">
         <v>878</v>
       </c>
+      <c r="G880" t="s">
+        <v>14</v>
+      </c>
+      <c r="H880">
+        <v>1</v>
+      </c>
+      <c r="I880" s="1">
+        <v>2070</v>
+      </c>
     </row>
     <row r="881" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A881" t="s">
-        <v>1559</v>
+        <v>1621</v>
       </c>
       <c r="B881" t="s">
-        <v>1559</v>
-      </c>
-      <c r="C881" s="2" t="s">
-        <v>1558</v>
+        <v>1621</v>
       </c>
       <c r="D881">
         <v>879</v>
       </c>
+      <c r="G881" t="s">
+        <v>14</v>
+      </c>
+      <c r="H881">
+        <v>1</v>
+      </c>
+      <c r="I881" s="1">
+        <v>2074</v>
+      </c>
     </row>
     <row r="882" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A882" t="s">
-        <v>1561</v>
+        <v>1624</v>
       </c>
       <c r="B882" t="s">
-        <v>1561</v>
-      </c>
-      <c r="C882" s="2" t="s">
-        <v>1560</v>
+        <v>1624</v>
       </c>
       <c r="D882">
         <v>880</v>
@@ -20021,15 +20339,18 @@
         <v>14</v>
       </c>
       <c r="H882">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I882" s="1">
+        <v>2075</v>
       </c>
     </row>
     <row r="883" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A883" t="s">
-        <v>1562</v>
+        <v>1627</v>
       </c>
       <c r="B883" t="s">
-        <v>1562</v>
+        <v>1627</v>
       </c>
       <c r="D883">
         <v>881</v>
@@ -20041,18 +20362,15 @@
         <v>1</v>
       </c>
       <c r="I883" s="1">
-        <v>2018</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="884" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A884" t="s">
-        <v>1564</v>
+        <v>1630</v>
       </c>
       <c r="B884" t="s">
-        <v>1564</v>
-      </c>
-      <c r="C884" s="2" t="s">
-        <v>1563</v>
+        <v>1630</v>
       </c>
       <c r="D884">
         <v>882</v>
@@ -20061,15 +20379,18 @@
         <v>14</v>
       </c>
       <c r="H884">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I884" s="1">
+        <v>2077</v>
       </c>
     </row>
     <row r="885" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A885" t="s">
-        <v>1565</v>
+        <v>1633</v>
       </c>
       <c r="B885" t="s">
-        <v>1565</v>
+        <v>1633</v>
       </c>
       <c r="D885">
         <v>883</v>
@@ -20081,32 +20402,38 @@
         <v>1</v>
       </c>
       <c r="I885" s="1">
-        <v>2019</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="886" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A886" t="s">
-        <v>1567</v>
+        <v>1636</v>
       </c>
       <c r="B886" t="s">
-        <v>1567</v>
-      </c>
-      <c r="C886" s="2" t="s">
-        <v>1566</v>
+        <v>1636</v>
       </c>
       <c r="D886">
         <v>884</v>
       </c>
+      <c r="G886" t="s">
+        <v>14</v>
+      </c>
+      <c r="H886">
+        <v>1</v>
+      </c>
+      <c r="I886" s="1">
+        <v>2079</v>
+      </c>
     </row>
     <row r="887" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A887" t="s">
-        <v>1569</v>
+        <v>1638</v>
       </c>
       <c r="B887" t="s">
-        <v>1569</v>
+        <v>1638</v>
       </c>
       <c r="C887" s="2" t="s">
-        <v>1568</v>
+        <v>1637</v>
       </c>
       <c r="D887">
         <v>885</v>
@@ -20120,10 +20447,10 @@
     </row>
     <row r="888" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A888" t="s">
-        <v>1570</v>
+        <v>1639</v>
       </c>
       <c r="B888" t="s">
-        <v>1570</v>
+        <v>1639</v>
       </c>
       <c r="D888">
         <v>886</v>
@@ -20135,58 +20462,46 @@
         <v>1</v>
       </c>
       <c r="I888" s="1" t="s">
-        <v>1568</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="889" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A889" t="s">
-        <v>1572</v>
+        <v>1641</v>
       </c>
       <c r="B889" t="s">
-        <v>1572</v>
+        <v>1641</v>
       </c>
       <c r="C889" s="2" t="s">
-        <v>1571</v>
+        <v>1640</v>
       </c>
       <c r="D889">
         <v>887</v>
       </c>
-      <c r="G889" t="s">
-        <v>14</v>
-      </c>
-      <c r="H889">
-        <v>0</v>
-      </c>
     </row>
     <row r="890" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A890" t="s">
-        <v>1573</v>
+        <v>1643</v>
       </c>
       <c r="B890" t="s">
-        <v>1573</v>
+        <v>1643</v>
+      </c>
+      <c r="C890" s="2" t="s">
+        <v>1642</v>
       </c>
       <c r="D890">
         <v>888</v>
       </c>
-      <c r="G890" t="s">
-        <v>14</v>
-      </c>
-      <c r="H890">
-        <v>1</v>
-      </c>
-      <c r="I890" s="1" t="s">
-        <v>1571</v>
-      </c>
     </row>
     <row r="891" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A891" t="s">
-        <v>1575</v>
+        <v>1645</v>
       </c>
       <c r="B891" t="s">
-        <v>1575</v>
+        <v>1645</v>
       </c>
       <c r="C891" s="2" t="s">
-        <v>1574</v>
+        <v>1644</v>
       </c>
       <c r="D891">
         <v>889</v>
@@ -20194,13 +20509,13 @@
     </row>
     <row r="892" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A892" t="s">
-        <v>1577</v>
+        <v>1647</v>
       </c>
       <c r="B892" t="s">
-        <v>1577</v>
+        <v>1647</v>
       </c>
       <c r="C892" s="2" t="s">
-        <v>1576</v>
+        <v>1646</v>
       </c>
       <c r="D892">
         <v>890</v>
@@ -20208,13 +20523,13 @@
     </row>
     <row r="893" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A893" t="s">
-        <v>1579</v>
+        <v>1649</v>
       </c>
       <c r="B893" t="s">
-        <v>1579</v>
+        <v>1649</v>
       </c>
       <c r="C893" s="2" t="s">
-        <v>1578</v>
+        <v>1648</v>
       </c>
       <c r="D893">
         <v>891</v>
@@ -20222,13 +20537,13 @@
     </row>
     <row r="894" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A894" t="s">
-        <v>1581</v>
+        <v>1651</v>
       </c>
       <c r="B894" t="s">
-        <v>1581</v>
+        <v>1651</v>
       </c>
       <c r="C894" s="2" t="s">
-        <v>1580</v>
+        <v>1650</v>
       </c>
       <c r="D894">
         <v>892</v>
@@ -20236,13 +20551,13 @@
     </row>
     <row r="895" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A895" t="s">
-        <v>1583</v>
+        <v>1653</v>
       </c>
       <c r="B895" t="s">
-        <v>1583</v>
+        <v>1653</v>
       </c>
       <c r="C895" s="2" t="s">
-        <v>1582</v>
+        <v>1652</v>
       </c>
       <c r="D895">
         <v>893</v>
@@ -20250,2474 +20565,3589 @@
     </row>
     <row r="896" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A896" t="s">
-        <v>1585</v>
+        <v>1655</v>
       </c>
       <c r="B896" t="s">
-        <v>1585</v>
+        <v>1655</v>
       </c>
       <c r="C896" s="2" t="s">
-        <v>1584</v>
+        <v>1654</v>
       </c>
       <c r="D896">
         <v>894</v>
       </c>
     </row>
-    <row r="897" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A897" t="s">
-        <v>1587</v>
+        <v>1657</v>
       </c>
       <c r="B897" t="s">
-        <v>1587</v>
+        <v>1657</v>
       </c>
       <c r="C897" s="2" t="s">
-        <v>1586</v>
+        <v>1656</v>
       </c>
       <c r="D897">
         <v>895</v>
       </c>
     </row>
-    <row r="898" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A898" t="s">
-        <v>1589</v>
+        <v>1659</v>
       </c>
       <c r="B898" t="s">
-        <v>1589</v>
+        <v>1659</v>
       </c>
       <c r="C898" s="2" t="s">
-        <v>1588</v>
+        <v>1658</v>
       </c>
       <c r="D898">
         <v>896</v>
       </c>
     </row>
-    <row r="899" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A899" t="s">
-        <v>1591</v>
+        <v>1661</v>
       </c>
       <c r="B899" t="s">
-        <v>1591</v>
+        <v>1661</v>
       </c>
       <c r="C899" s="2" t="s">
-        <v>1590</v>
+        <v>1660</v>
       </c>
       <c r="D899">
         <v>897</v>
       </c>
     </row>
-    <row r="900" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A900" t="s">
-        <v>1593</v>
+        <v>1663</v>
       </c>
       <c r="B900" t="s">
-        <v>1593</v>
+        <v>1663</v>
       </c>
       <c r="C900" s="2" t="s">
-        <v>1592</v>
+        <v>1662</v>
       </c>
       <c r="D900">
         <v>898</v>
       </c>
     </row>
-    <row r="901" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A901" t="s">
-        <v>1595</v>
+        <v>1665</v>
       </c>
       <c r="B901" t="s">
-        <v>1595</v>
+        <v>1665</v>
       </c>
       <c r="C901" s="2" t="s">
-        <v>1594</v>
+        <v>1664</v>
       </c>
       <c r="D901">
         <v>899</v>
       </c>
     </row>
-    <row r="902" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A902" t="s">
-        <v>1597</v>
+        <v>1669</v>
       </c>
       <c r="B902" t="s">
-        <v>1597</v>
+        <v>1669</v>
       </c>
       <c r="C902" s="2" t="s">
-        <v>1596</v>
+        <v>1668</v>
       </c>
       <c r="D902">
         <v>900</v>
       </c>
     </row>
-    <row r="903" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A903" t="s">
-        <v>1599</v>
+        <v>1671</v>
       </c>
       <c r="B903" t="s">
-        <v>1599</v>
+        <v>1671</v>
       </c>
       <c r="C903" s="2" t="s">
-        <v>1598</v>
+        <v>1670</v>
       </c>
       <c r="D903">
         <v>901</v>
       </c>
     </row>
-    <row r="904" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A904" t="s">
-        <v>1601</v>
+        <v>1673</v>
       </c>
       <c r="B904" t="s">
-        <v>1601</v>
+        <v>1673</v>
       </c>
       <c r="C904" s="2" t="s">
-        <v>1600</v>
+        <v>1672</v>
       </c>
       <c r="D904">
         <v>902</v>
       </c>
     </row>
-    <row r="905" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A905" t="s">
-        <v>1603</v>
+        <v>1675</v>
       </c>
       <c r="B905" t="s">
-        <v>1603</v>
+        <v>1675</v>
       </c>
       <c r="C905" s="2" t="s">
-        <v>1602</v>
+        <v>1674</v>
       </c>
       <c r="D905">
         <v>903</v>
       </c>
     </row>
-    <row r="906" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A906" t="s">
-        <v>1605</v>
+        <v>1667</v>
       </c>
       <c r="B906" t="s">
-        <v>1605</v>
+        <v>1667</v>
       </c>
       <c r="C906" s="2" t="s">
-        <v>1604</v>
+        <v>1666</v>
       </c>
       <c r="D906">
         <v>904</v>
       </c>
-      <c r="G906" t="s">
-        <v>14</v>
-      </c>
-      <c r="H906">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="907" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="907" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A907" t="s">
-        <v>1606</v>
+        <v>1677</v>
       </c>
       <c r="B907" t="s">
-        <v>1606</v>
+        <v>1677</v>
+      </c>
+      <c r="C907" s="2" t="s">
+        <v>1676</v>
       </c>
       <c r="D907">
         <v>905</v>
       </c>
-      <c r="G907" t="s">
-        <v>14</v>
-      </c>
-      <c r="H907">
-        <v>1</v>
-      </c>
-      <c r="I907" s="1">
-        <v>2039</v>
-      </c>
-    </row>
-    <row r="908" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="908" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A908" t="s">
-        <v>1608</v>
+        <v>1679</v>
       </c>
       <c r="B908" t="s">
-        <v>1608</v>
+        <v>1679</v>
       </c>
       <c r="C908" s="2" t="s">
-        <v>1607</v>
+        <v>1678</v>
       </c>
       <c r="D908">
         <v>906</v>
       </c>
-      <c r="G908" t="s">
-        <v>14</v>
-      </c>
-      <c r="H908">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="909" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="909" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A909" t="s">
-        <v>1609</v>
+        <v>1681</v>
       </c>
       <c r="B909" t="s">
-        <v>1609</v>
+        <v>1681</v>
+      </c>
+      <c r="C909" s="2" t="s">
+        <v>1680</v>
       </c>
       <c r="D909">
         <v>907</v>
       </c>
-      <c r="G909" t="s">
-        <v>14</v>
-      </c>
-      <c r="H909">
-        <v>1</v>
-      </c>
-      <c r="I909" s="1" t="s">
-        <v>1607</v>
-      </c>
-    </row>
-    <row r="910" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="910" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A910" t="s">
-        <v>1611</v>
+        <v>1683</v>
       </c>
       <c r="B910" t="s">
-        <v>1611</v>
+        <v>1683</v>
       </c>
       <c r="C910" s="2" t="s">
-        <v>1610</v>
+        <v>1682</v>
       </c>
       <c r="D910">
         <v>908</v>
       </c>
     </row>
-    <row r="911" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A911" t="s">
-        <v>1613</v>
+        <v>1685</v>
       </c>
       <c r="B911" t="s">
-        <v>1613</v>
+        <v>1685</v>
       </c>
       <c r="C911" s="2" t="s">
-        <v>1612</v>
+        <v>1684</v>
       </c>
       <c r="D911">
         <v>909</v>
       </c>
     </row>
-    <row r="912" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A912" t="s">
-        <v>1615</v>
+        <v>1687</v>
       </c>
       <c r="B912" t="s">
-        <v>1615</v>
+        <v>1687</v>
       </c>
       <c r="C912" s="2" t="s">
-        <v>1614</v>
+        <v>1686</v>
       </c>
       <c r="D912">
         <v>910</v>
       </c>
     </row>
-    <row r="913" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A913" t="s">
-        <v>1617</v>
+        <v>1689</v>
       </c>
       <c r="B913" t="s">
-        <v>1617</v>
+        <v>1689</v>
       </c>
       <c r="C913" s="2" t="s">
-        <v>1616</v>
+        <v>1688</v>
       </c>
       <c r="D913">
         <v>911</v>
       </c>
-      <c r="G913" t="s">
-        <v>14</v>
-      </c>
-      <c r="H913">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="914" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="914" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A914" t="s">
-        <v>1620</v>
+        <v>1691</v>
       </c>
       <c r="B914" t="s">
-        <v>1620</v>
+        <v>1691</v>
       </c>
       <c r="C914" s="2" t="s">
-        <v>1619</v>
+        <v>1690</v>
       </c>
       <c r="D914">
         <v>912</v>
       </c>
-      <c r="G914" t="s">
-        <v>14</v>
-      </c>
-      <c r="H914">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="915" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="915" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A915" t="s">
-        <v>1623</v>
+        <v>1693</v>
       </c>
       <c r="B915" t="s">
-        <v>1623</v>
+        <v>1693</v>
       </c>
       <c r="C915" s="2" t="s">
-        <v>1622</v>
+        <v>1692</v>
       </c>
       <c r="D915">
         <v>913</v>
       </c>
-      <c r="G915" t="s">
-        <v>14</v>
-      </c>
-      <c r="H915">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="916" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="916" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A916" t="s">
-        <v>1626</v>
+        <v>1695</v>
       </c>
       <c r="B916" t="s">
-        <v>1626</v>
+        <v>1695</v>
       </c>
       <c r="C916" s="2" t="s">
-        <v>1625</v>
+        <v>1694</v>
       </c>
       <c r="D916">
         <v>914</v>
       </c>
-      <c r="G916" t="s">
-        <v>14</v>
-      </c>
-      <c r="H916">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="917" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="917" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A917" t="s">
-        <v>1629</v>
+        <v>1697</v>
       </c>
       <c r="B917" t="s">
-        <v>1629</v>
+        <v>1697</v>
       </c>
       <c r="C917" s="2" t="s">
-        <v>1628</v>
+        <v>1696</v>
       </c>
       <c r="D917">
         <v>915</v>
       </c>
-      <c r="G917" t="s">
-        <v>14</v>
-      </c>
-      <c r="H917">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="918" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="918" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A918" t="s">
-        <v>1632</v>
+        <v>1699</v>
       </c>
       <c r="B918" t="s">
-        <v>1632</v>
+        <v>1699</v>
       </c>
       <c r="C918" s="2" t="s">
-        <v>1631</v>
+        <v>1698</v>
       </c>
       <c r="D918">
         <v>916</v>
       </c>
-      <c r="G918" t="s">
-        <v>14</v>
-      </c>
-      <c r="H918">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="919" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="919" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A919" t="s">
-        <v>1635</v>
+        <v>1701</v>
       </c>
       <c r="B919" t="s">
-        <v>1635</v>
+        <v>1701</v>
       </c>
       <c r="C919" s="2" t="s">
-        <v>1634</v>
+        <v>1700</v>
       </c>
       <c r="D919">
         <v>917</v>
       </c>
-      <c r="G919" t="s">
-        <v>14</v>
-      </c>
-      <c r="H919">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="920" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="920" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A920" t="s">
-        <v>1618</v>
+        <v>1703</v>
       </c>
       <c r="B920" t="s">
-        <v>1618</v>
+        <v>1703</v>
+      </c>
+      <c r="C920" s="2" t="s">
+        <v>1702</v>
       </c>
       <c r="D920">
         <v>918</v>
       </c>
-      <c r="G920" t="s">
-        <v>14</v>
-      </c>
-      <c r="H920">
-        <v>1</v>
-      </c>
-      <c r="I920" s="1">
-        <v>2070</v>
-      </c>
-    </row>
-    <row r="921" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="921" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A921" t="s">
-        <v>1621</v>
+        <v>1705</v>
       </c>
       <c r="B921" t="s">
-        <v>1621</v>
+        <v>1705</v>
+      </c>
+      <c r="C921" s="2" t="s">
+        <v>1704</v>
       </c>
       <c r="D921">
         <v>919</v>
       </c>
-      <c r="G921" t="s">
-        <v>14</v>
-      </c>
-      <c r="H921">
-        <v>1</v>
-      </c>
-      <c r="I921" s="1">
-        <v>2074</v>
-      </c>
-    </row>
-    <row r="922" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="922" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A922" t="s">
-        <v>1624</v>
+        <v>1707</v>
       </c>
       <c r="B922" t="s">
-        <v>1624</v>
+        <v>1707</v>
+      </c>
+      <c r="C922" s="2" t="s">
+        <v>1706</v>
       </c>
       <c r="D922">
         <v>920</v>
       </c>
-      <c r="G922" t="s">
-        <v>14</v>
-      </c>
-      <c r="H922">
-        <v>1</v>
-      </c>
-      <c r="I922" s="1">
-        <v>2075</v>
-      </c>
-    </row>
-    <row r="923" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="923" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A923" t="s">
-        <v>1627</v>
+        <v>1709</v>
       </c>
       <c r="B923" t="s">
-        <v>1627</v>
+        <v>1709</v>
+      </c>
+      <c r="C923" s="2" t="s">
+        <v>1708</v>
       </c>
       <c r="D923">
         <v>921</v>
       </c>
-      <c r="G923" t="s">
-        <v>14</v>
-      </c>
-      <c r="H923">
-        <v>1</v>
-      </c>
-      <c r="I923" s="1">
-        <v>2076</v>
-      </c>
-    </row>
-    <row r="924" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="924" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A924" t="s">
-        <v>1630</v>
+        <v>1711</v>
       </c>
       <c r="B924" t="s">
-        <v>1630</v>
+        <v>1711</v>
+      </c>
+      <c r="C924" s="2" t="s">
+        <v>1710</v>
       </c>
       <c r="D924">
         <v>922</v>
       </c>
-      <c r="G924" t="s">
-        <v>14</v>
-      </c>
-      <c r="H924">
-        <v>1</v>
-      </c>
-      <c r="I924" s="1">
-        <v>2077</v>
-      </c>
-    </row>
-    <row r="925" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="925" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A925" t="s">
-        <v>1633</v>
+        <v>1713</v>
       </c>
       <c r="B925" t="s">
-        <v>1633</v>
+        <v>1713</v>
+      </c>
+      <c r="C925" s="2" t="s">
+        <v>1712</v>
       </c>
       <c r="D925">
         <v>923</v>
       </c>
-      <c r="G925" t="s">
-        <v>14</v>
-      </c>
-      <c r="H925">
-        <v>1</v>
-      </c>
-      <c r="I925" s="1">
-        <v>2078</v>
-      </c>
-    </row>
-    <row r="926" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="926" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A926" t="s">
-        <v>1636</v>
+        <v>1715</v>
       </c>
       <c r="B926" t="s">
-        <v>1636</v>
+        <v>1715</v>
+      </c>
+      <c r="C926" s="2" t="s">
+        <v>1714</v>
       </c>
       <c r="D926">
         <v>924</v>
       </c>
-      <c r="G926" t="s">
-        <v>14</v>
-      </c>
-      <c r="H926">
-        <v>1</v>
-      </c>
-      <c r="I926" s="1">
-        <v>2079</v>
-      </c>
-    </row>
-    <row r="927" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="927" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A927" t="s">
-        <v>1638</v>
+        <v>1717</v>
       </c>
       <c r="B927" t="s">
-        <v>1638</v>
+        <v>1717</v>
       </c>
       <c r="C927" s="2" t="s">
-        <v>1637</v>
+        <v>1716</v>
       </c>
       <c r="D927">
         <v>925</v>
       </c>
-      <c r="G927" t="s">
-        <v>14</v>
-      </c>
-      <c r="H927">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="928" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="928" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A928" t="s">
-        <v>1639</v>
+        <v>1719</v>
       </c>
       <c r="B928" t="s">
-        <v>1639</v>
+        <v>1719</v>
+      </c>
+      <c r="C928" s="2" t="s">
+        <v>1718</v>
       </c>
       <c r="D928">
         <v>926</v>
       </c>
-      <c r="G928" t="s">
-        <v>14</v>
-      </c>
-      <c r="H928">
-        <v>1</v>
-      </c>
-      <c r="I928" s="1" t="s">
-        <v>1637</v>
-      </c>
-    </row>
-    <row r="929" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="929" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A929" t="s">
-        <v>1641</v>
+        <v>1721</v>
       </c>
       <c r="B929" t="s">
-        <v>1641</v>
+        <v>1721</v>
       </c>
       <c r="C929" s="2" t="s">
-        <v>1640</v>
+        <v>1720</v>
       </c>
       <c r="D929">
         <v>927</v>
       </c>
     </row>
-    <row r="930" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A930" t="s">
-        <v>1643</v>
+        <v>1722</v>
       </c>
       <c r="B930" t="s">
-        <v>1643</v>
-      </c>
-      <c r="C930" s="2" t="s">
-        <v>1642</v>
+        <v>1722</v>
       </c>
       <c r="D930">
         <v>928</v>
       </c>
     </row>
-    <row r="931" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A931" t="s">
-        <v>1645</v>
+        <v>1166</v>
       </c>
       <c r="B931" t="s">
-        <v>1645</v>
+        <v>1166</v>
       </c>
       <c r="C931" s="2" t="s">
-        <v>1644</v>
+        <v>1165</v>
       </c>
       <c r="D931">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="932" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1000</v>
+      </c>
+      <c r="G931" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="932" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A932" t="s">
-        <v>1647</v>
+        <v>1168</v>
       </c>
       <c r="B932" t="s">
-        <v>1647</v>
+        <v>1168</v>
       </c>
       <c r="C932" s="2" t="s">
-        <v>1646</v>
+        <v>1167</v>
       </c>
       <c r="D932">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="933" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1001</v>
+      </c>
+      <c r="G932" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="933" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A933" t="s">
-        <v>1649</v>
+        <v>1170</v>
       </c>
       <c r="B933" t="s">
-        <v>1649</v>
+        <v>1170</v>
       </c>
       <c r="C933" s="2" t="s">
-        <v>1648</v>
+        <v>1169</v>
       </c>
       <c r="D933">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="934" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1002</v>
+      </c>
+      <c r="G933" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="934" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A934" t="s">
-        <v>1651</v>
+        <v>1172</v>
       </c>
       <c r="B934" t="s">
-        <v>1651</v>
+        <v>1172</v>
       </c>
       <c r="C934" s="2" t="s">
-        <v>1650</v>
+        <v>1171</v>
       </c>
       <c r="D934">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="935" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1003</v>
+      </c>
+      <c r="G934" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="935" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A935" t="s">
-        <v>1653</v>
+        <v>1174</v>
       </c>
       <c r="B935" t="s">
-        <v>1653</v>
+        <v>1174</v>
       </c>
       <c r="C935" s="2" t="s">
-        <v>1652</v>
+        <v>1173</v>
       </c>
       <c r="D935">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="936" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1004</v>
+      </c>
+      <c r="G935" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="936" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A936" t="s">
-        <v>1655</v>
+        <v>1176</v>
       </c>
       <c r="B936" t="s">
-        <v>1655</v>
+        <v>1176</v>
       </c>
       <c r="C936" s="2" t="s">
-        <v>1654</v>
+        <v>1175</v>
       </c>
       <c r="D936">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="937" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1005</v>
+      </c>
+      <c r="G936" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="937" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A937" t="s">
-        <v>1657</v>
+        <v>1178</v>
       </c>
       <c r="B937" t="s">
-        <v>1657</v>
+        <v>1178</v>
       </c>
       <c r="C937" s="2" t="s">
-        <v>1656</v>
+        <v>1177</v>
       </c>
       <c r="D937">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="938" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1006</v>
+      </c>
+      <c r="G937" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="938" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A938" t="s">
-        <v>1659</v>
+        <v>1180</v>
       </c>
       <c r="B938" t="s">
-        <v>1659</v>
+        <v>1180</v>
       </c>
       <c r="C938" s="2" t="s">
-        <v>1658</v>
+        <v>1179</v>
       </c>
       <c r="D938">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="939" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1007</v>
+      </c>
+      <c r="G938" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="939" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A939" t="s">
-        <v>1661</v>
+        <v>1182</v>
       </c>
       <c r="B939" t="s">
-        <v>1661</v>
+        <v>1182</v>
       </c>
       <c r="C939" s="2" t="s">
-        <v>1660</v>
+        <v>1181</v>
       </c>
       <c r="D939">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="940" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1008</v>
+      </c>
+      <c r="G939" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="940" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A940" t="s">
-        <v>1663</v>
+        <v>1184</v>
       </c>
       <c r="B940" t="s">
-        <v>1663</v>
+        <v>1184</v>
       </c>
       <c r="C940" s="2" t="s">
-        <v>1662</v>
+        <v>1183</v>
       </c>
       <c r="D940">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="941" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1009</v>
+      </c>
+      <c r="G940" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="941" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A941" t="s">
-        <v>1665</v>
+        <v>1186</v>
       </c>
       <c r="B941" t="s">
-        <v>1665</v>
+        <v>1186</v>
       </c>
       <c r="C941" s="2" t="s">
-        <v>1664</v>
+        <v>1185</v>
       </c>
       <c r="D941">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="942" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1010</v>
+      </c>
+      <c r="G941" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="942" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A942" t="s">
-        <v>1669</v>
+        <v>1188</v>
       </c>
       <c r="B942" t="s">
-        <v>1669</v>
+        <v>1188</v>
       </c>
       <c r="C942" s="2" t="s">
-        <v>1668</v>
+        <v>1187</v>
       </c>
       <c r="D942">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="943" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1011</v>
+      </c>
+      <c r="G942" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="943" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A943" t="s">
-        <v>1671</v>
+        <v>1190</v>
       </c>
       <c r="B943" t="s">
-        <v>1671</v>
+        <v>1190</v>
       </c>
       <c r="C943" s="2" t="s">
-        <v>1670</v>
+        <v>1189</v>
       </c>
       <c r="D943">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="944" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1012</v>
+      </c>
+      <c r="G943" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="944" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A944" t="s">
-        <v>1673</v>
+        <v>1192</v>
       </c>
       <c r="B944" t="s">
-        <v>1673</v>
+        <v>1192</v>
       </c>
       <c r="C944" s="2" t="s">
-        <v>1672</v>
+        <v>1191</v>
       </c>
       <c r="D944">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="945" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1013</v>
+      </c>
+      <c r="G944" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="945" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A945" t="s">
-        <v>1675</v>
+        <v>1194</v>
       </c>
       <c r="B945" t="s">
-        <v>1675</v>
+        <v>1194</v>
       </c>
       <c r="C945" s="2" t="s">
-        <v>1674</v>
+        <v>1193</v>
       </c>
       <c r="D945">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="946" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1014</v>
+      </c>
+      <c r="G945" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="946" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A946" t="s">
-        <v>1667</v>
+        <v>1196</v>
       </c>
       <c r="B946" t="s">
-        <v>1667</v>
+        <v>1196</v>
       </c>
       <c r="C946" s="2" t="s">
-        <v>1666</v>
+        <v>1195</v>
       </c>
       <c r="D946">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="947" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1015</v>
+      </c>
+      <c r="G946" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="947" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A947" t="s">
-        <v>1677</v>
+        <v>1198</v>
       </c>
       <c r="B947" t="s">
-        <v>1677</v>
+        <v>1198</v>
       </c>
       <c r="C947" s="2" t="s">
-        <v>1676</v>
+        <v>1197</v>
       </c>
       <c r="D947">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="948" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1016</v>
+      </c>
+      <c r="G947" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="948" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A948" t="s">
-        <v>1679</v>
+        <v>1200</v>
       </c>
       <c r="B948" t="s">
-        <v>1679</v>
+        <v>1200</v>
       </c>
       <c r="C948" s="2" t="s">
-        <v>1678</v>
+        <v>1199</v>
       </c>
       <c r="D948">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="949" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1017</v>
+      </c>
+      <c r="G948" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="949" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A949" t="s">
-        <v>1681</v>
+        <v>1202</v>
       </c>
       <c r="B949" t="s">
-        <v>1681</v>
+        <v>1202</v>
       </c>
       <c r="C949" s="2" t="s">
-        <v>1680</v>
+        <v>1201</v>
       </c>
       <c r="D949">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="950" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1018</v>
+      </c>
+      <c r="G949" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="950" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A950" t="s">
-        <v>1683</v>
+        <v>1204</v>
       </c>
       <c r="B950" t="s">
-        <v>1683</v>
+        <v>1204</v>
       </c>
       <c r="C950" s="2" t="s">
-        <v>1682</v>
+        <v>1203</v>
       </c>
       <c r="D950">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="951" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1019</v>
+      </c>
+      <c r="G950" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="951" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A951" t="s">
-        <v>1685</v>
+        <v>1976</v>
       </c>
       <c r="B951" t="s">
-        <v>1685</v>
-      </c>
-      <c r="C951" s="2" t="s">
-        <v>1684</v>
+        <v>1976</v>
       </c>
       <c r="D951">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="952" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1020</v>
+      </c>
+      <c r="G951" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="952" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A952" t="s">
-        <v>1687</v>
+        <v>1977</v>
       </c>
       <c r="B952" t="s">
-        <v>1687</v>
-      </c>
-      <c r="C952" s="2" t="s">
-        <v>1686</v>
+        <v>1977</v>
       </c>
       <c r="D952">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="953" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1021</v>
+      </c>
+      <c r="G952" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="953" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A953" t="s">
-        <v>1689</v>
+        <v>1978</v>
       </c>
       <c r="B953" t="s">
-        <v>1689</v>
-      </c>
-      <c r="C953" s="2" t="s">
-        <v>1688</v>
+        <v>1978</v>
       </c>
       <c r="D953">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="954" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1022</v>
+      </c>
+      <c r="G953" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="954" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A954" t="s">
-        <v>1691</v>
+        <v>1979</v>
       </c>
       <c r="B954" t="s">
-        <v>1691</v>
-      </c>
-      <c r="C954" s="2" t="s">
-        <v>1690</v>
+        <v>1979</v>
       </c>
       <c r="D954">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="955" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1023</v>
+      </c>
+      <c r="G954" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="955" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A955" t="s">
-        <v>1693</v>
+        <v>1980</v>
       </c>
       <c r="B955" t="s">
-        <v>1693</v>
-      </c>
-      <c r="C955" s="2" t="s">
-        <v>1692</v>
+        <v>1980</v>
       </c>
       <c r="D955">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="956" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1024</v>
+      </c>
+      <c r="G955" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="956" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A956" t="s">
-        <v>1695</v>
+        <v>1981</v>
       </c>
       <c r="B956" t="s">
-        <v>1695</v>
-      </c>
-      <c r="C956" s="2" t="s">
-        <v>1694</v>
+        <v>1981</v>
       </c>
       <c r="D956">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="957" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1025</v>
+      </c>
+      <c r="G956" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="957" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A957" t="s">
-        <v>1697</v>
+        <v>1982</v>
       </c>
       <c r="B957" t="s">
-        <v>1697</v>
-      </c>
-      <c r="C957" s="2" t="s">
-        <v>1696</v>
+        <v>1982</v>
       </c>
       <c r="D957">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="958" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1026</v>
+      </c>
+      <c r="G957" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="958" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A958" t="s">
-        <v>1699</v>
+        <v>1983</v>
       </c>
       <c r="B958" t="s">
-        <v>1699</v>
-      </c>
-      <c r="C958" s="2" t="s">
-        <v>1698</v>
+        <v>1983</v>
       </c>
       <c r="D958">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="959" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1027</v>
+      </c>
+      <c r="G958" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="959" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A959" t="s">
-        <v>1701</v>
+        <v>1984</v>
       </c>
       <c r="B959" t="s">
-        <v>1701</v>
-      </c>
-      <c r="C959" s="2" t="s">
-        <v>1700</v>
+        <v>1984</v>
       </c>
       <c r="D959">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="960" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1028</v>
+      </c>
+      <c r="G959" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="960" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A960" t="s">
-        <v>1703</v>
+        <v>1985</v>
       </c>
       <c r="B960" t="s">
-        <v>1703</v>
-      </c>
-      <c r="C960" s="2" t="s">
-        <v>1702</v>
+        <v>1985</v>
       </c>
       <c r="D960">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="961" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1029</v>
+      </c>
+      <c r="G960" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="961" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A961" t="s">
-        <v>1705</v>
+        <v>1986</v>
       </c>
       <c r="B961" t="s">
-        <v>1705</v>
-      </c>
-      <c r="C961" s="2" t="s">
-        <v>1704</v>
+        <v>1986</v>
       </c>
       <c r="D961">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="962" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1030</v>
+      </c>
+      <c r="G961" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="962" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A962" t="s">
-        <v>1707</v>
+        <v>1987</v>
       </c>
       <c r="B962" t="s">
-        <v>1707</v>
-      </c>
-      <c r="C962" s="2" t="s">
-        <v>1706</v>
+        <v>1987</v>
       </c>
       <c r="D962">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="963" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1031</v>
+      </c>
+      <c r="G962" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="963" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A963" t="s">
-        <v>1709</v>
+        <v>1988</v>
       </c>
       <c r="B963" t="s">
-        <v>1709</v>
-      </c>
-      <c r="C963" s="2" t="s">
-        <v>1708</v>
+        <v>1988</v>
       </c>
       <c r="D963">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="964" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1032</v>
+      </c>
+      <c r="G963" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="964" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A964" t="s">
-        <v>1711</v>
+        <v>1989</v>
       </c>
       <c r="B964" t="s">
-        <v>1711</v>
-      </c>
-      <c r="C964" s="2" t="s">
-        <v>1710</v>
+        <v>1989</v>
       </c>
       <c r="D964">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="965" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1033</v>
+      </c>
+      <c r="G964" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="965" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A965" t="s">
-        <v>1713</v>
+        <v>1990</v>
       </c>
       <c r="B965" t="s">
-        <v>1713</v>
-      </c>
-      <c r="C965" s="2" t="s">
-        <v>1712</v>
+        <v>1990</v>
       </c>
       <c r="D965">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="966" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1034</v>
+      </c>
+      <c r="G965" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="966" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A966" t="s">
-        <v>1715</v>
+        <v>1991</v>
       </c>
       <c r="B966" t="s">
-        <v>1715</v>
-      </c>
-      <c r="C966" s="2" t="s">
-        <v>1714</v>
+        <v>1991</v>
       </c>
       <c r="D966">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="967" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1035</v>
+      </c>
+      <c r="G966" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="967" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A967" t="s">
-        <v>1717</v>
+        <v>1992</v>
       </c>
       <c r="B967" t="s">
-        <v>1717</v>
-      </c>
-      <c r="C967" s="2" t="s">
-        <v>1716</v>
+        <v>1992</v>
       </c>
       <c r="D967">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="968" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1036</v>
+      </c>
+      <c r="G967" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="968" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A968" t="s">
-        <v>1719</v>
+        <v>1993</v>
       </c>
       <c r="B968" t="s">
-        <v>1719</v>
-      </c>
-      <c r="C968" s="2" t="s">
-        <v>1718</v>
+        <v>1993</v>
       </c>
       <c r="D968">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="969" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1037</v>
+      </c>
+      <c r="G968" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="969" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A969" t="s">
-        <v>1721</v>
+        <v>1994</v>
       </c>
       <c r="B969" t="s">
-        <v>1721</v>
-      </c>
-      <c r="C969" s="2" t="s">
-        <v>1720</v>
+        <v>1994</v>
       </c>
       <c r="D969">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="970" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1038</v>
+      </c>
+      <c r="G969" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="970" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A970" t="s">
-        <v>1722</v>
+        <v>1995</v>
       </c>
       <c r="B970" t="s">
-        <v>1722</v>
+        <v>1995</v>
       </c>
       <c r="D970">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="971" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1039</v>
+      </c>
+      <c r="G970" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="971" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A971" t="s">
+        <v>1996</v>
+      </c>
+      <c r="B971" t="s">
+        <v>1996</v>
+      </c>
+      <c r="D971">
+        <v>1040</v>
+      </c>
+      <c r="G971" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="972" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A972" t="s">
+        <v>1997</v>
+      </c>
+      <c r="B972" t="s">
+        <v>1997</v>
+      </c>
+      <c r="D972">
+        <v>1041</v>
+      </c>
+      <c r="G972" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="973" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A973" t="s">
+        <v>1998</v>
+      </c>
+      <c r="B973" t="s">
+        <v>1998</v>
+      </c>
+      <c r="D973">
+        <v>1042</v>
+      </c>
+      <c r="G973" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="974" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A974" t="s">
+        <v>1999</v>
+      </c>
+      <c r="B974" t="s">
+        <v>1999</v>
+      </c>
+      <c r="D974">
+        <v>1043</v>
+      </c>
+      <c r="G974" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="975" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A975" t="s">
+        <v>2000</v>
+      </c>
+      <c r="B975" t="s">
+        <v>2000</v>
+      </c>
+      <c r="D975">
+        <v>1044</v>
+      </c>
+      <c r="G975" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="976" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A976" t="s">
+        <v>2001</v>
+      </c>
+      <c r="B976" t="s">
+        <v>2001</v>
+      </c>
+      <c r="D976">
+        <v>1045</v>
+      </c>
+      <c r="G976" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="977" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A977" t="s">
+        <v>2002</v>
+      </c>
+      <c r="B977" t="s">
+        <v>2002</v>
+      </c>
+      <c r="D977">
+        <v>1046</v>
+      </c>
+      <c r="G977" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="978" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A978" t="s">
+        <v>2003</v>
+      </c>
+      <c r="B978" t="s">
+        <v>2003</v>
+      </c>
+      <c r="D978">
+        <v>1047</v>
+      </c>
+      <c r="G978" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="979" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A979" t="s">
+        <v>2004</v>
+      </c>
+      <c r="B979" t="s">
+        <v>2004</v>
+      </c>
+      <c r="D979">
+        <v>1048</v>
+      </c>
+      <c r="G979" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="980" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A980" t="s">
+        <v>2005</v>
+      </c>
+      <c r="B980" t="s">
+        <v>2005</v>
+      </c>
+      <c r="D980">
+        <v>1049</v>
+      </c>
+      <c r="G980" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="981" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A981" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B981" t="s">
+        <v>2006</v>
+      </c>
+      <c r="D981">
+        <v>1050</v>
+      </c>
+      <c r="G981" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="982" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A982" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B982" t="s">
+        <v>2007</v>
+      </c>
+      <c r="D982">
+        <v>1051</v>
+      </c>
+      <c r="G982" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="983" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A983" t="s">
+        <v>2008</v>
+      </c>
+      <c r="B983" t="s">
+        <v>2008</v>
+      </c>
+      <c r="D983">
+        <v>1052</v>
+      </c>
+      <c r="G983" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="984" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A984" t="s">
+        <v>2009</v>
+      </c>
+      <c r="B984" t="s">
+        <v>2009</v>
+      </c>
+      <c r="D984">
+        <v>1053</v>
+      </c>
+      <c r="G984" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="985" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A985" t="s">
+        <v>2010</v>
+      </c>
+      <c r="B985" t="s">
+        <v>2010</v>
+      </c>
+      <c r="D985">
+        <v>1054</v>
+      </c>
+      <c r="G985" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="986" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A986" t="s">
+        <v>2011</v>
+      </c>
+      <c r="B986" t="s">
+        <v>2011</v>
+      </c>
+      <c r="D986">
+        <v>1055</v>
+      </c>
+      <c r="G986" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="987" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A987" t="s">
+        <v>2012</v>
+      </c>
+      <c r="B987" t="s">
+        <v>2012</v>
+      </c>
+      <c r="D987">
+        <v>1056</v>
+      </c>
+      <c r="G987" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="988" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A988" t="s">
+        <v>2013</v>
+      </c>
+      <c r="B988" t="s">
+        <v>2013</v>
+      </c>
+      <c r="D988">
+        <v>1057</v>
+      </c>
+      <c r="G988" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="989" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A989" t="s">
+        <v>2014</v>
+      </c>
+      <c r="B989" t="s">
+        <v>2014</v>
+      </c>
+      <c r="D989">
+        <v>1058</v>
+      </c>
+      <c r="G989" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="990" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A990" t="s">
+        <v>2015</v>
+      </c>
+      <c r="B990" t="s">
+        <v>2015</v>
+      </c>
+      <c r="D990">
+        <v>1059</v>
+      </c>
+      <c r="G990" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="991" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A991" t="s">
+        <v>2016</v>
+      </c>
+      <c r="B991" t="s">
+        <v>2016</v>
+      </c>
+      <c r="D991">
+        <v>1060</v>
+      </c>
+      <c r="G991" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="992" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A992" t="s">
+        <v>2017</v>
+      </c>
+      <c r="B992" t="s">
+        <v>2017</v>
+      </c>
+      <c r="D992">
+        <v>1061</v>
+      </c>
+      <c r="G992" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="993" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A993" t="s">
+        <v>2018</v>
+      </c>
+      <c r="B993" t="s">
+        <v>2018</v>
+      </c>
+      <c r="D993">
+        <v>1062</v>
+      </c>
+      <c r="G993" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="994" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A994" t="s">
+        <v>2019</v>
+      </c>
+      <c r="B994" t="s">
+        <v>2019</v>
+      </c>
+      <c r="D994">
+        <v>1063</v>
+      </c>
+      <c r="G994" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="995" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A995" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B995" t="s">
+        <v>2020</v>
+      </c>
+      <c r="D995">
+        <v>1064</v>
+      </c>
+      <c r="G995" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="996" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A996" t="s">
+        <v>2021</v>
+      </c>
+      <c r="B996" t="s">
+        <v>2021</v>
+      </c>
+      <c r="D996">
+        <v>1065</v>
+      </c>
+      <c r="G996" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="997" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A997" t="s">
+        <v>2022</v>
+      </c>
+      <c r="B997" t="s">
+        <v>2022</v>
+      </c>
+      <c r="D997">
+        <v>1066</v>
+      </c>
+      <c r="G997" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="998" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A998" t="s">
+        <v>2023</v>
+      </c>
+      <c r="B998" t="s">
+        <v>2023</v>
+      </c>
+      <c r="D998">
+        <v>1067</v>
+      </c>
+      <c r="G998" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="999" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A999" t="s">
+        <v>2024</v>
+      </c>
+      <c r="B999" t="s">
+        <v>2024</v>
+      </c>
+      <c r="D999">
+        <v>1068</v>
+      </c>
+      <c r="G999" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1000" t="s">
+        <v>2025</v>
+      </c>
+      <c r="B1000" t="s">
+        <v>2025</v>
+      </c>
+      <c r="D1000">
+        <v>1069</v>
+      </c>
+      <c r="G1000" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1001" t="s">
+        <v>2026</v>
+      </c>
+      <c r="B1001" t="s">
+        <v>2026</v>
+      </c>
+      <c r="D1001">
+        <v>1070</v>
+      </c>
+      <c r="G1001" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1002" t="s">
+        <v>2027</v>
+      </c>
+      <c r="B1002" t="s">
+        <v>2027</v>
+      </c>
+      <c r="D1002">
+        <v>1071</v>
+      </c>
+      <c r="G1002" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1003" t="s">
+        <v>2028</v>
+      </c>
+      <c r="B1003" t="s">
+        <v>2028</v>
+      </c>
+      <c r="D1003">
+        <v>1072</v>
+      </c>
+      <c r="G1003" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1004" t="s">
+        <v>2029</v>
+      </c>
+      <c r="B1004" t="s">
+        <v>2029</v>
+      </c>
+      <c r="D1004">
+        <v>1073</v>
+      </c>
+      <c r="G1004" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1005" t="s">
+        <v>2030</v>
+      </c>
+      <c r="B1005" t="s">
+        <v>2030</v>
+      </c>
+      <c r="D1005">
+        <v>1074</v>
+      </c>
+      <c r="G1005" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1006" t="s">
+        <v>2031</v>
+      </c>
+      <c r="B1006" t="s">
+        <v>2031</v>
+      </c>
+      <c r="D1006">
+        <v>1075</v>
+      </c>
+      <c r="G1006" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1007" t="s">
+        <v>2032</v>
+      </c>
+      <c r="B1007" t="s">
+        <v>2032</v>
+      </c>
+      <c r="D1007">
+        <v>1076</v>
+      </c>
+      <c r="G1007" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1008" t="s">
+        <v>2033</v>
+      </c>
+      <c r="B1008" t="s">
+        <v>2033</v>
+      </c>
+      <c r="D1008">
+        <v>1077</v>
+      </c>
+      <c r="G1008" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1009" t="s">
+        <v>2034</v>
+      </c>
+      <c r="B1009" t="s">
+        <v>2034</v>
+      </c>
+      <c r="D1009">
+        <v>1078</v>
+      </c>
+      <c r="G1009" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1010" t="s">
+        <v>2035</v>
+      </c>
+      <c r="B1010" t="s">
+        <v>2035</v>
+      </c>
+      <c r="D1010">
+        <v>1079</v>
+      </c>
+      <c r="G1010" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1011" t="s">
+        <v>2036</v>
+      </c>
+      <c r="B1011" t="s">
+        <v>2036</v>
+      </c>
+      <c r="D1011">
+        <v>1080</v>
+      </c>
+      <c r="G1011" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1012" t="s">
+        <v>2037</v>
+      </c>
+      <c r="B1012" t="s">
+        <v>2037</v>
+      </c>
+      <c r="D1012">
+        <v>1081</v>
+      </c>
+      <c r="G1012" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1013" t="s">
+        <v>2038</v>
+      </c>
+      <c r="B1013" t="s">
+        <v>2038</v>
+      </c>
+      <c r="D1013">
+        <v>1082</v>
+      </c>
+      <c r="G1013" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1014" t="s">
+        <v>2039</v>
+      </c>
+      <c r="B1014" t="s">
+        <v>2039</v>
+      </c>
+      <c r="D1014">
+        <v>1083</v>
+      </c>
+      <c r="G1014" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1015" t="s">
+        <v>2040</v>
+      </c>
+      <c r="B1015" t="s">
+        <v>2040</v>
+      </c>
+      <c r="D1015">
+        <v>1084</v>
+      </c>
+      <c r="G1015" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1016" t="s">
+        <v>2041</v>
+      </c>
+      <c r="B1016" t="s">
+        <v>2041</v>
+      </c>
+      <c r="D1016">
+        <v>1085</v>
+      </c>
+      <c r="G1016" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1017" t="s">
+        <v>2042</v>
+      </c>
+      <c r="B1017" t="s">
+        <v>2042</v>
+      </c>
+      <c r="D1017">
+        <v>1086</v>
+      </c>
+      <c r="G1017" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1018" t="s">
+        <v>2043</v>
+      </c>
+      <c r="B1018" t="s">
+        <v>2043</v>
+      </c>
+      <c r="D1018">
+        <v>1087</v>
+      </c>
+      <c r="G1018" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1019" t="s">
+        <v>2044</v>
+      </c>
+      <c r="B1019" t="s">
+        <v>2044</v>
+      </c>
+      <c r="D1019">
+        <v>1088</v>
+      </c>
+      <c r="G1019" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1020" t="s">
+        <v>2045</v>
+      </c>
+      <c r="B1020" t="s">
+        <v>2045</v>
+      </c>
+      <c r="D1020">
+        <v>1089</v>
+      </c>
+      <c r="G1020" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1021" t="s">
+        <v>2046</v>
+      </c>
+      <c r="B1021" t="s">
+        <v>2046</v>
+      </c>
+      <c r="D1021">
+        <v>1090</v>
+      </c>
+      <c r="G1021" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1022" t="s">
+        <v>2047</v>
+      </c>
+      <c r="B1022" t="s">
+        <v>2047</v>
+      </c>
+      <c r="D1022">
+        <v>1091</v>
+      </c>
+      <c r="G1022" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1023" t="s">
+        <v>2048</v>
+      </c>
+      <c r="B1023" t="s">
+        <v>2048</v>
+      </c>
+      <c r="D1023">
+        <v>1092</v>
+      </c>
+      <c r="G1023" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1024" t="s">
+        <v>2049</v>
+      </c>
+      <c r="B1024" t="s">
+        <v>2049</v>
+      </c>
+      <c r="D1024">
+        <v>1093</v>
+      </c>
+      <c r="G1024" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1025" t="s">
+        <v>2050</v>
+      </c>
+      <c r="B1025" t="s">
+        <v>2050</v>
+      </c>
+      <c r="D1025">
+        <v>1094</v>
+      </c>
+      <c r="G1025" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1026" t="s">
+        <v>2051</v>
+      </c>
+      <c r="B1026" t="s">
+        <v>2051</v>
+      </c>
+      <c r="D1026">
+        <v>1095</v>
+      </c>
+      <c r="G1026" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1027" t="s">
+        <v>2052</v>
+      </c>
+      <c r="B1027" t="s">
+        <v>2052</v>
+      </c>
+      <c r="D1027">
+        <v>1096</v>
+      </c>
+      <c r="G1027" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1028" t="s">
+        <v>2053</v>
+      </c>
+      <c r="B1028" t="s">
+        <v>2053</v>
+      </c>
+      <c r="D1028">
+        <v>1097</v>
+      </c>
+      <c r="G1028" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1029" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B1029" t="s">
+        <v>2054</v>
+      </c>
+      <c r="D1029">
+        <v>1098</v>
+      </c>
+      <c r="G1029" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1030" t="s">
+        <v>2055</v>
+      </c>
+      <c r="B1030" t="s">
+        <v>2055</v>
+      </c>
+      <c r="D1030">
+        <v>1099</v>
+      </c>
+      <c r="G1030" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1031" t="s">
+        <v>1953</v>
+      </c>
+      <c r="B1031" t="s">
+        <v>1953</v>
+      </c>
+      <c r="D1031">
+        <v>1100</v>
+      </c>
+      <c r="G1031" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1032" t="s">
+        <v>1954</v>
+      </c>
+      <c r="B1032" t="s">
+        <v>1954</v>
+      </c>
+      <c r="D1032">
+        <v>1101</v>
+      </c>
+      <c r="G1032" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1033" t="s">
+        <v>1955</v>
+      </c>
+      <c r="B1033" t="s">
+        <v>1955</v>
+      </c>
+      <c r="D1033">
+        <v>1102</v>
+      </c>
+      <c r="G1033" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1034" t="s">
+        <v>1956</v>
+      </c>
+      <c r="B1034" t="s">
+        <v>1956</v>
+      </c>
+      <c r="D1034">
+        <v>1103</v>
+      </c>
+      <c r="G1034" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1035" t="s">
+        <v>1957</v>
+      </c>
+      <c r="B1035" t="s">
+        <v>1957</v>
+      </c>
+      <c r="D1035">
+        <v>1104</v>
+      </c>
+      <c r="G1035" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1036" t="s">
+        <v>1958</v>
+      </c>
+      <c r="B1036" t="s">
+        <v>1958</v>
+      </c>
+      <c r="D1036">
+        <v>1105</v>
+      </c>
+      <c r="G1036" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1037" t="s">
+        <v>1959</v>
+      </c>
+      <c r="B1037" t="s">
+        <v>1959</v>
+      </c>
+      <c r="D1037">
+        <v>1106</v>
+      </c>
+      <c r="G1037" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1038" t="s">
+        <v>1960</v>
+      </c>
+      <c r="B1038" t="s">
+        <v>1960</v>
+      </c>
+      <c r="D1038">
+        <v>1107</v>
+      </c>
+      <c r="G1038" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1039" t="s">
+        <v>1961</v>
+      </c>
+      <c r="B1039" t="s">
+        <v>1961</v>
+      </c>
+      <c r="D1039">
+        <v>1108</v>
+      </c>
+      <c r="G1039" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1040" t="s">
+        <v>1962</v>
+      </c>
+      <c r="B1040" t="s">
+        <v>1962</v>
+      </c>
+      <c r="D1040">
+        <v>1109</v>
+      </c>
+      <c r="G1040" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1041" t="s">
+        <v>1963</v>
+      </c>
+      <c r="B1041" t="s">
+        <v>1963</v>
+      </c>
+      <c r="D1041">
+        <v>1110</v>
+      </c>
+      <c r="G1041" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1042" t="s">
+        <v>1964</v>
+      </c>
+      <c r="B1042" t="s">
+        <v>1964</v>
+      </c>
+      <c r="D1042">
+        <v>1111</v>
+      </c>
+      <c r="G1042" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1043" t="s">
+        <v>1965</v>
+      </c>
+      <c r="B1043" t="s">
+        <v>1965</v>
+      </c>
+      <c r="D1043">
+        <v>1112</v>
+      </c>
+      <c r="G1043" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1044" t="s">
+        <v>1966</v>
+      </c>
+      <c r="B1044" t="s">
+        <v>1966</v>
+      </c>
+      <c r="D1044">
+        <v>1113</v>
+      </c>
+      <c r="G1044" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1045" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B1045" t="s">
+        <v>1967</v>
+      </c>
+      <c r="D1045">
+        <v>1114</v>
+      </c>
+      <c r="G1045" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1046" t="s">
+        <v>1968</v>
+      </c>
+      <c r="B1046" t="s">
+        <v>1968</v>
+      </c>
+      <c r="D1046">
+        <v>1115</v>
+      </c>
+      <c r="G1046" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1047" t="s">
+        <v>1969</v>
+      </c>
+      <c r="B1047" t="s">
+        <v>1969</v>
+      </c>
+      <c r="D1047">
+        <v>1116</v>
+      </c>
+      <c r="G1047" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1048" t="s">
+        <v>1970</v>
+      </c>
+      <c r="B1048" t="s">
+        <v>1970</v>
+      </c>
+      <c r="D1048">
+        <v>1117</v>
+      </c>
+      <c r="G1048" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1049" t="s">
+        <v>1971</v>
+      </c>
+      <c r="B1049" t="s">
+        <v>1971</v>
+      </c>
+      <c r="D1049">
+        <v>1118</v>
+      </c>
+      <c r="G1049" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1050" t="s">
+        <v>1972</v>
+      </c>
+      <c r="B1050" t="s">
+        <v>1972</v>
+      </c>
+      <c r="D1050">
+        <v>1119</v>
+      </c>
+      <c r="G1050" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1051" t="s">
         <v>1723</v>
       </c>
-      <c r="B971" t="s">
+      <c r="B1051" t="s">
         <v>1723</v>
       </c>
-      <c r="D971">
+      <c r="D1051">
         <v>2000</v>
       </c>
     </row>
-    <row r="972" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A972" t="s">
+    <row r="1052" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1052" t="s">
         <v>1724</v>
       </c>
-      <c r="B972" t="s">
+      <c r="B1052" t="s">
         <v>1724</v>
       </c>
-      <c r="D972">
+      <c r="D1052">
         <v>2001</v>
       </c>
     </row>
-    <row r="973" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A973" t="s">
+    <row r="1053" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1053" t="s">
         <v>1725</v>
       </c>
-      <c r="B973" t="s">
+      <c r="B1053" t="s">
         <v>1725</v>
       </c>
-      <c r="D973">
+      <c r="D1053">
         <v>2002</v>
       </c>
     </row>
-    <row r="974" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A974" t="s">
+    <row r="1054" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1054" t="s">
         <v>1726</v>
       </c>
-      <c r="B974" t="s">
+      <c r="B1054" t="s">
         <v>1726</v>
       </c>
-      <c r="D974">
+      <c r="D1054">
         <v>2003</v>
       </c>
     </row>
-    <row r="975" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A975" t="s">
+    <row r="1055" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1055" t="s">
         <v>1727</v>
       </c>
-      <c r="B975" t="s">
+      <c r="B1055" t="s">
         <v>1727</v>
       </c>
-      <c r="D975">
+      <c r="D1055">
         <v>2004</v>
       </c>
     </row>
-    <row r="976" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A976" t="s">
+    <row r="1056" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1056" t="s">
         <v>1728</v>
       </c>
-      <c r="B976" t="s">
+      <c r="B1056" t="s">
         <v>1728</v>
       </c>
-      <c r="D976">
+      <c r="D1056">
         <v>2005</v>
       </c>
     </row>
-    <row r="977" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A977" t="s">
+    <row r="1057" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1057" t="s">
         <v>1729</v>
       </c>
-      <c r="B977" t="s">
+      <c r="B1057" t="s">
         <v>1729</v>
       </c>
-      <c r="D977">
+      <c r="D1057">
         <v>2006</v>
       </c>
     </row>
-    <row r="978" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A978" t="s">
+    <row r="1058" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1058" t="s">
         <v>1730</v>
       </c>
-      <c r="B978" t="s">
+      <c r="B1058" t="s">
         <v>1730</v>
       </c>
-      <c r="D978">
+      <c r="D1058">
         <v>2007</v>
       </c>
     </row>
-    <row r="979" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A979" t="s">
+    <row r="1059" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1059" t="s">
         <v>1731</v>
       </c>
-      <c r="B979" t="s">
+      <c r="B1059" t="s">
         <v>1731</v>
       </c>
-      <c r="D979">
+      <c r="D1059">
         <v>2008</v>
       </c>
     </row>
-    <row r="980" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A980" t="s">
+    <row r="1060" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1060" t="s">
         <v>1732</v>
       </c>
-      <c r="B980" t="s">
+      <c r="B1060" t="s">
         <v>1732</v>
       </c>
-      <c r="D980">
+      <c r="D1060">
         <v>2009</v>
       </c>
     </row>
-    <row r="981" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A981" t="s">
+    <row r="1061" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1061" t="s">
         <v>1733</v>
       </c>
-      <c r="B981" t="s">
+      <c r="B1061" t="s">
         <v>1733</v>
       </c>
-      <c r="D981">
+      <c r="D1061">
         <v>2010</v>
       </c>
     </row>
-    <row r="982" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A982" t="s">
+    <row r="1062" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1062" t="s">
         <v>1734</v>
       </c>
-      <c r="B982" t="s">
+      <c r="B1062" t="s">
         <v>1734</v>
       </c>
-      <c r="D982">
+      <c r="D1062">
         <v>2011</v>
       </c>
     </row>
-    <row r="983" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A983" t="s">
+    <row r="1063" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1063" t="s">
         <v>1735</v>
       </c>
-      <c r="B983" t="s">
+      <c r="B1063" t="s">
         <v>1735</v>
       </c>
-      <c r="D983">
+      <c r="D1063">
         <v>2012</v>
       </c>
     </row>
-    <row r="984" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A984" t="s">
+    <row r="1064" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1064" t="s">
         <v>1736</v>
       </c>
-      <c r="B984" t="s">
+      <c r="B1064" t="s">
         <v>1736</v>
       </c>
-      <c r="D984">
+      <c r="D1064">
         <v>2013</v>
       </c>
     </row>
-    <row r="985" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A985" t="s">
+    <row r="1065" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1065" t="s">
         <v>1737</v>
       </c>
-      <c r="B985" t="s">
+      <c r="B1065" t="s">
         <v>1737</v>
       </c>
-      <c r="D985">
+      <c r="D1065">
         <v>2014</v>
       </c>
     </row>
-    <row r="986" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A986" t="s">
+    <row r="1066" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1066" t="s">
         <v>1738</v>
       </c>
-      <c r="B986" t="s">
+      <c r="B1066" t="s">
         <v>1738</v>
       </c>
-      <c r="D986">
+      <c r="D1066">
         <v>2015</v>
       </c>
     </row>
-    <row r="987" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A987" t="s">
+    <row r="1067" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1067" t="s">
         <v>1739</v>
       </c>
-      <c r="B987" t="s">
+      <c r="B1067" t="s">
         <v>1739</v>
       </c>
-      <c r="D987">
+      <c r="D1067">
         <v>2016</v>
       </c>
     </row>
-    <row r="988" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A988" t="s">
+    <row r="1068" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1068" t="s">
         <v>1740</v>
       </c>
-      <c r="B988" t="s">
+      <c r="B1068" t="s">
         <v>1740</v>
       </c>
-      <c r="D988">
+      <c r="D1068">
         <v>2017</v>
       </c>
     </row>
-    <row r="989" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A989" t="s">
+    <row r="1069" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1069" t="s">
         <v>1741</v>
       </c>
-      <c r="B989" t="s">
+      <c r="B1069" t="s">
         <v>1741</v>
       </c>
-      <c r="D989">
+      <c r="D1069">
         <v>2018</v>
       </c>
     </row>
-    <row r="990" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A990" t="s">
+    <row r="1070" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1070" t="s">
         <v>1742</v>
       </c>
-      <c r="B990" t="s">
+      <c r="B1070" t="s">
         <v>1742</v>
       </c>
-      <c r="D990">
+      <c r="D1070">
         <v>2019</v>
       </c>
     </row>
-    <row r="991" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A991" t="s">
+    <row r="1071" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1071" t="s">
         <v>1743</v>
       </c>
-      <c r="B991" t="s">
+      <c r="B1071" t="s">
         <v>1743</v>
       </c>
-      <c r="D991">
+      <c r="D1071">
         <v>2020</v>
       </c>
     </row>
-    <row r="992" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A992" t="s">
+    <row r="1072" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1072" t="s">
         <v>1744</v>
       </c>
-      <c r="B992" t="s">
+      <c r="B1072" t="s">
         <v>1744</v>
       </c>
-      <c r="D992">
+      <c r="D1072">
         <v>2021</v>
       </c>
     </row>
-    <row r="993" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A993" t="s">
+    <row r="1073" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1073" t="s">
         <v>1745</v>
       </c>
-      <c r="B993" t="s">
+      <c r="B1073" t="s">
         <v>1745</v>
       </c>
-      <c r="D993">
+      <c r="D1073">
         <v>2022</v>
       </c>
     </row>
-    <row r="994" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A994" t="s">
+    <row r="1074" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1074" t="s">
         <v>1746</v>
       </c>
-      <c r="B994" t="s">
+      <c r="B1074" t="s">
         <v>1746</v>
       </c>
-      <c r="D994">
+      <c r="D1074">
         <v>2023</v>
       </c>
     </row>
-    <row r="995" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A995" t="s">
+    <row r="1075" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1075" t="s">
         <v>1747</v>
       </c>
-      <c r="B995" t="s">
+      <c r="B1075" t="s">
         <v>1747</v>
       </c>
-      <c r="D995">
+      <c r="D1075">
         <v>2024</v>
       </c>
     </row>
-    <row r="996" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A996" t="s">
+    <row r="1076" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1076" t="s">
         <v>1748</v>
       </c>
-      <c r="B996" t="s">
+      <c r="B1076" t="s">
         <v>1748</v>
       </c>
-      <c r="D996">
+      <c r="D1076">
         <v>2025</v>
       </c>
     </row>
-    <row r="997" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A997" t="s">
+    <row r="1077" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1077" t="s">
         <v>1749</v>
       </c>
-      <c r="B997" t="s">
+      <c r="B1077" t="s">
         <v>1749</v>
       </c>
-      <c r="D997">
+      <c r="D1077">
         <v>2026</v>
       </c>
     </row>
-    <row r="998" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A998" t="s">
+    <row r="1078" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1078" t="s">
         <v>1750</v>
       </c>
-      <c r="B998" t="s">
+      <c r="B1078" t="s">
         <v>1750</v>
       </c>
-      <c r="D998">
+      <c r="D1078">
         <v>2027</v>
       </c>
     </row>
-    <row r="999" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A999" t="s">
+    <row r="1079" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1079" t="s">
         <v>1751</v>
       </c>
-      <c r="B999" t="s">
+      <c r="B1079" t="s">
         <v>1751</v>
       </c>
-      <c r="D999">
+      <c r="D1079">
         <v>2028</v>
       </c>
     </row>
-    <row r="1000" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1000" t="s">
+    <row r="1080" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1080" t="s">
         <v>1752</v>
       </c>
-      <c r="B1000" t="s">
+      <c r="B1080" t="s">
         <v>1752</v>
       </c>
-      <c r="D1000">
+      <c r="D1080">
         <v>2029</v>
       </c>
     </row>
-    <row r="1001" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1001" t="s">
+    <row r="1081" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1081" t="s">
         <v>1753</v>
       </c>
-      <c r="B1001" t="s">
+      <c r="B1081" t="s">
         <v>1753</v>
       </c>
-      <c r="D1001">
+      <c r="D1081">
         <v>2030</v>
       </c>
     </row>
-    <row r="1002" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1002" t="s">
+    <row r="1082" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1082" t="s">
         <v>1754</v>
       </c>
-      <c r="B1002" t="s">
+      <c r="B1082" t="s">
         <v>1754</v>
       </c>
-      <c r="D1002">
+      <c r="D1082">
         <v>2031</v>
       </c>
     </row>
-    <row r="1003" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1003" t="s">
+    <row r="1083" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1083" t="s">
         <v>1755</v>
       </c>
-      <c r="B1003" t="s">
+      <c r="B1083" t="s">
         <v>1755</v>
       </c>
-      <c r="D1003">
+      <c r="D1083">
         <v>2032</v>
       </c>
     </row>
-    <row r="1004" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1004" t="s">
+    <row r="1084" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1084" t="s">
         <v>1756</v>
       </c>
-      <c r="B1004" t="s">
+      <c r="B1084" t="s">
         <v>1756</v>
       </c>
-      <c r="D1004">
+      <c r="D1084">
         <v>2033</v>
       </c>
     </row>
-    <row r="1005" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1005" t="s">
+    <row r="1085" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1085" t="s">
         <v>1757</v>
       </c>
-      <c r="B1005" t="s">
+      <c r="B1085" t="s">
         <v>1757</v>
       </c>
-      <c r="D1005">
+      <c r="D1085">
         <v>2034</v>
       </c>
     </row>
-    <row r="1006" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1006" t="s">
+    <row r="1086" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1086" t="s">
         <v>1758</v>
       </c>
-      <c r="B1006" t="s">
+      <c r="B1086" t="s">
         <v>1758</v>
       </c>
-      <c r="D1006">
+      <c r="D1086">
         <v>2035</v>
       </c>
     </row>
-    <row r="1007" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1007" t="s">
+    <row r="1087" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1087" t="s">
         <v>1759</v>
       </c>
-      <c r="B1007" t="s">
+      <c r="B1087" t="s">
         <v>1759</v>
       </c>
-      <c r="D1007">
+      <c r="D1087">
         <v>2036</v>
       </c>
     </row>
-    <row r="1008" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1008" t="s">
+    <row r="1088" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1088" t="s">
         <v>1760</v>
       </c>
-      <c r="B1008" t="s">
+      <c r="B1088" t="s">
         <v>1760</v>
       </c>
-      <c r="D1008">
+      <c r="D1088">
         <v>2037</v>
       </c>
     </row>
-    <row r="1009" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1009" t="s">
+    <row r="1089" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1089" t="s">
         <v>1761</v>
       </c>
-      <c r="B1009" t="s">
+      <c r="B1089" t="s">
         <v>1761</v>
       </c>
-      <c r="D1009">
+      <c r="D1089">
         <v>2038</v>
       </c>
     </row>
-    <row r="1010" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1010" t="s">
+    <row r="1090" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1090" t="s">
         <v>1762</v>
       </c>
-      <c r="B1010" t="s">
+      <c r="B1090" t="s">
         <v>1762</v>
       </c>
-      <c r="D1010">
+      <c r="D1090">
         <v>2039</v>
       </c>
     </row>
-    <row r="1011" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1011" t="s">
+    <row r="1091" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1091" t="s">
         <v>1763</v>
       </c>
-      <c r="B1011" t="s">
+      <c r="B1091" t="s">
         <v>1763</v>
       </c>
-      <c r="D1011">
+      <c r="D1091">
         <v>2040</v>
       </c>
     </row>
-    <row r="1012" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1012" t="s">
+    <row r="1092" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1092" t="s">
         <v>1764</v>
       </c>
-      <c r="B1012" t="s">
+      <c r="B1092" t="s">
         <v>1764</v>
       </c>
-      <c r="D1012">
+      <c r="D1092">
         <v>2041</v>
       </c>
     </row>
-    <row r="1013" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1013" t="s">
+    <row r="1093" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1093" t="s">
         <v>1765</v>
       </c>
-      <c r="B1013" t="s">
+      <c r="B1093" t="s">
         <v>1765</v>
       </c>
-      <c r="D1013">
+      <c r="D1093">
         <v>2042</v>
       </c>
     </row>
-    <row r="1014" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1014" t="s">
+    <row r="1094" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1094" t="s">
         <v>1766</v>
       </c>
-      <c r="B1014" t="s">
+      <c r="B1094" t="s">
         <v>1766</v>
       </c>
-      <c r="D1014">
+      <c r="D1094">
         <v>2043</v>
       </c>
     </row>
-    <row r="1015" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1015" t="s">
+    <row r="1095" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1095" t="s">
         <v>1767</v>
       </c>
-      <c r="B1015" t="s">
+      <c r="B1095" t="s">
         <v>1767</v>
       </c>
-      <c r="D1015">
+      <c r="D1095">
         <v>2044</v>
       </c>
     </row>
-    <row r="1016" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1016" t="s">
+    <row r="1096" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1096" t="s">
         <v>1768</v>
       </c>
-      <c r="B1016" t="s">
+      <c r="B1096" t="s">
         <v>1768</v>
       </c>
-      <c r="D1016">
+      <c r="D1096">
         <v>2045</v>
       </c>
     </row>
-    <row r="1017" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1017" t="s">
+    <row r="1097" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1097" t="s">
         <v>1769</v>
       </c>
-      <c r="B1017" t="s">
+      <c r="B1097" t="s">
         <v>1769</v>
       </c>
-      <c r="D1017">
+      <c r="D1097">
         <v>2046</v>
       </c>
     </row>
-    <row r="1018" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1018" t="s">
+    <row r="1098" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1098" t="s">
         <v>1770</v>
       </c>
-      <c r="B1018" t="s">
+      <c r="B1098" t="s">
         <v>1770</v>
       </c>
-      <c r="D1018">
+      <c r="D1098">
         <v>2047</v>
       </c>
     </row>
-    <row r="1019" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1019" t="s">
+    <row r="1099" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1099" t="s">
         <v>1771</v>
       </c>
-      <c r="B1019" t="s">
+      <c r="B1099" t="s">
         <v>1771</v>
       </c>
-      <c r="D1019">
+      <c r="D1099">
         <v>2048</v>
       </c>
     </row>
-    <row r="1020" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1020" t="s">
+    <row r="1100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1100" t="s">
         <v>1772</v>
       </c>
-      <c r="B1020" t="s">
+      <c r="B1100" t="s">
         <v>1772</v>
       </c>
-      <c r="D1020">
+      <c r="D1100">
         <v>2049</v>
       </c>
     </row>
-    <row r="1021" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1021" t="s">
+    <row r="1101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1101" t="s">
         <v>1773</v>
       </c>
-      <c r="B1021" t="s">
+      <c r="B1101" t="s">
         <v>1773</v>
       </c>
-      <c r="D1021">
+      <c r="D1101">
         <v>2050</v>
       </c>
     </row>
-    <row r="1022" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1022" t="s">
+    <row r="1102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1102" t="s">
         <v>1774</v>
       </c>
-      <c r="B1022" t="s">
+      <c r="B1102" t="s">
         <v>1774</v>
       </c>
-      <c r="D1022">
+      <c r="D1102">
         <v>2051</v>
       </c>
     </row>
-    <row r="1023" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1023" t="s">
+    <row r="1103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1103" t="s">
         <v>1775</v>
       </c>
-      <c r="B1023" t="s">
+      <c r="B1103" t="s">
         <v>1775</v>
       </c>
-      <c r="D1023">
+      <c r="D1103">
         <v>2052</v>
       </c>
     </row>
-    <row r="1024" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1024" t="s">
+    <row r="1104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1104" t="s">
         <v>1776</v>
       </c>
-      <c r="B1024" t="s">
+      <c r="B1104" t="s">
         <v>1776</v>
       </c>
-      <c r="D1024">
+      <c r="D1104">
         <v>2053</v>
       </c>
     </row>
-    <row r="1025" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1025" t="s">
+    <row r="1105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1105" t="s">
         <v>1777</v>
       </c>
-      <c r="B1025" t="s">
+      <c r="B1105" t="s">
         <v>1777</v>
       </c>
-      <c r="D1025">
+      <c r="D1105">
         <v>2054</v>
       </c>
     </row>
-    <row r="1026" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1026" t="s">
+    <row r="1106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1106" t="s">
         <v>1778</v>
       </c>
-      <c r="B1026" t="s">
+      <c r="B1106" t="s">
         <v>1778</v>
       </c>
-      <c r="D1026">
+      <c r="D1106">
         <v>2055</v>
       </c>
     </row>
-    <row r="1027" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1027" t="s">
+    <row r="1107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1107" t="s">
         <v>1779</v>
       </c>
-      <c r="B1027" t="s">
+      <c r="B1107" t="s">
         <v>1779</v>
       </c>
-      <c r="D1027">
+      <c r="D1107">
         <v>2056</v>
       </c>
     </row>
-    <row r="1028" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1028" t="s">
+    <row r="1108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1108" t="s">
         <v>1780</v>
       </c>
-      <c r="B1028" t="s">
+      <c r="B1108" t="s">
         <v>1780</v>
       </c>
-      <c r="D1028">
+      <c r="D1108">
         <v>2057</v>
       </c>
     </row>
-    <row r="1029" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1029" t="s">
+    <row r="1109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1109" t="s">
         <v>1781</v>
       </c>
-      <c r="B1029" t="s">
+      <c r="B1109" t="s">
         <v>1781</v>
       </c>
-      <c r="D1029">
+      <c r="D1109">
         <v>2058</v>
       </c>
     </row>
-    <row r="1030" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1030" t="s">
+    <row r="1110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1110" t="s">
         <v>1782</v>
       </c>
-      <c r="B1030" t="s">
+      <c r="B1110" t="s">
         <v>1782</v>
       </c>
-      <c r="D1030">
+      <c r="D1110">
         <v>2059</v>
       </c>
     </row>
-    <row r="1031" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1031" t="s">
+    <row r="1111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1111" t="s">
         <v>1783</v>
       </c>
-      <c r="B1031" t="s">
+      <c r="B1111" t="s">
         <v>1783</v>
       </c>
-      <c r="D1031">
+      <c r="D1111">
         <v>2060</v>
       </c>
     </row>
-    <row r="1032" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1032" t="s">
+    <row r="1112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1112" t="s">
         <v>1784</v>
       </c>
-      <c r="B1032" t="s">
+      <c r="B1112" t="s">
         <v>1784</v>
       </c>
-      <c r="D1032">
+      <c r="D1112">
         <v>2061</v>
       </c>
     </row>
-    <row r="1033" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1033" t="s">
+    <row r="1113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1113" t="s">
         <v>1785</v>
       </c>
-      <c r="B1033" t="s">
+      <c r="B1113" t="s">
         <v>1785</v>
       </c>
-      <c r="D1033">
+      <c r="D1113">
         <v>2062</v>
       </c>
     </row>
-    <row r="1034" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1034" t="s">
+    <row r="1114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1114" t="s">
         <v>1786</v>
       </c>
-      <c r="B1034" t="s">
+      <c r="B1114" t="s">
         <v>1786</v>
       </c>
-      <c r="D1034">
+      <c r="D1114">
         <v>2063</v>
       </c>
     </row>
-    <row r="1035" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1035" t="s">
+    <row r="1115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1115" t="s">
         <v>1787</v>
       </c>
-      <c r="B1035" t="s">
+      <c r="B1115" t="s">
         <v>1787</v>
       </c>
-      <c r="D1035">
+      <c r="D1115">
         <v>2064</v>
       </c>
     </row>
-    <row r="1036" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1036" t="s">
+    <row r="1116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1116" t="s">
         <v>1788</v>
       </c>
-      <c r="B1036" t="s">
+      <c r="B1116" t="s">
         <v>1788</v>
       </c>
-      <c r="D1036">
+      <c r="D1116">
         <v>2065</v>
       </c>
     </row>
-    <row r="1037" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1037" t="s">
+    <row r="1117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1117" t="s">
         <v>1789</v>
       </c>
-      <c r="B1037" t="s">
+      <c r="B1117" t="s">
         <v>1789</v>
       </c>
-      <c r="D1037">
+      <c r="D1117">
         <v>2066</v>
       </c>
     </row>
-    <row r="1038" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1038" t="s">
+    <row r="1118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1118" t="s">
         <v>1790</v>
       </c>
-      <c r="B1038" t="s">
+      <c r="B1118" t="s">
         <v>1790</v>
       </c>
-      <c r="D1038">
+      <c r="D1118">
         <v>2067</v>
       </c>
     </row>
-    <row r="1039" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1039" t="s">
+    <row r="1119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1119" t="s">
         <v>1791</v>
       </c>
-      <c r="B1039" t="s">
+      <c r="B1119" t="s">
         <v>1791</v>
       </c>
-      <c r="D1039">
+      <c r="D1119">
         <v>2068</v>
       </c>
     </row>
-    <row r="1040" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1040" t="s">
+    <row r="1120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1120" t="s">
         <v>1792</v>
       </c>
-      <c r="B1040" t="s">
+      <c r="B1120" t="s">
         <v>1792</v>
       </c>
-      <c r="D1040">
+      <c r="D1120">
         <v>2069</v>
       </c>
     </row>
-    <row r="1041" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1041" t="s">
+    <row r="1121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1121" t="s">
         <v>1793</v>
       </c>
-      <c r="B1041" t="s">
+      <c r="B1121" t="s">
         <v>1793</v>
       </c>
-      <c r="D1041">
+      <c r="D1121">
         <v>2070</v>
       </c>
     </row>
-    <row r="1042" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1042" t="s">
+    <row r="1122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1122" t="s">
         <v>1794</v>
       </c>
-      <c r="B1042" t="s">
+      <c r="B1122" t="s">
         <v>1794</v>
       </c>
-      <c r="D1042">
+      <c r="D1122">
         <v>2071</v>
       </c>
     </row>
-    <row r="1043" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1043" t="s">
+    <row r="1123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1123" t="s">
         <v>1795</v>
       </c>
-      <c r="B1043" t="s">
+      <c r="B1123" t="s">
         <v>1795</v>
       </c>
-      <c r="D1043">
+      <c r="D1123">
         <v>2072</v>
       </c>
     </row>
-    <row r="1044" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1044" t="s">
+    <row r="1124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1124" t="s">
         <v>1796</v>
       </c>
-      <c r="B1044" t="s">
+      <c r="B1124" t="s">
         <v>1796</v>
       </c>
-      <c r="D1044">
+      <c r="D1124">
         <v>2073</v>
       </c>
     </row>
-    <row r="1045" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1045" t="s">
+    <row r="1125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1125" t="s">
         <v>1797</v>
       </c>
-      <c r="B1045" t="s">
+      <c r="B1125" t="s">
         <v>1797</v>
       </c>
-      <c r="D1045">
+      <c r="D1125">
         <v>2074</v>
       </c>
     </row>
-    <row r="1046" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1046" t="s">
+    <row r="1126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1126" t="s">
         <v>1798</v>
       </c>
-      <c r="B1046" t="s">
+      <c r="B1126" t="s">
         <v>1798</v>
       </c>
-      <c r="D1046">
+      <c r="D1126">
         <v>2075</v>
       </c>
     </row>
-    <row r="1047" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1047" t="s">
+    <row r="1127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1127" t="s">
         <v>1799</v>
       </c>
-      <c r="B1047" t="s">
+      <c r="B1127" t="s">
         <v>1799</v>
       </c>
-      <c r="D1047">
+      <c r="D1127">
         <v>2076</v>
       </c>
     </row>
-    <row r="1048" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1048" t="s">
+    <row r="1128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1128" t="s">
         <v>1800</v>
       </c>
-      <c r="B1048" t="s">
+      <c r="B1128" t="s">
         <v>1800</v>
       </c>
-      <c r="D1048">
+      <c r="D1128">
         <v>2077</v>
       </c>
     </row>
-    <row r="1049" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1049" t="s">
+    <row r="1129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1129" t="s">
         <v>1801</v>
       </c>
-      <c r="B1049" t="s">
+      <c r="B1129" t="s">
         <v>1801</v>
       </c>
-      <c r="D1049">
+      <c r="D1129">
         <v>2078</v>
       </c>
     </row>
-    <row r="1050" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1050" t="s">
+    <row r="1130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1130" t="s">
         <v>1802</v>
       </c>
-      <c r="B1050" t="s">
+      <c r="B1130" t="s">
         <v>1802</v>
       </c>
-      <c r="D1050">
+      <c r="D1130">
         <v>2079</v>
       </c>
     </row>
-    <row r="1051" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1051" t="s">
+    <row r="1131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1131" t="s">
+        <v>2056</v>
+      </c>
+      <c r="B1131" t="s">
+        <v>2056</v>
+      </c>
+      <c r="D1131">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1132" t="s">
+        <v>2057</v>
+      </c>
+      <c r="B1132" t="s">
+        <v>2057</v>
+      </c>
+      <c r="D1132">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1133" t="s">
+        <v>2058</v>
+      </c>
+      <c r="B1133" t="s">
+        <v>2058</v>
+      </c>
+      <c r="D1133">
+        <v>2082</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1134" t="s">
+        <v>2059</v>
+      </c>
+      <c r="B1134" t="s">
+        <v>2059</v>
+      </c>
+      <c r="D1134">
+        <v>2083</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1135" t="s">
+        <v>2060</v>
+      </c>
+      <c r="B1135" t="s">
+        <v>2060</v>
+      </c>
+      <c r="D1135">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1136" t="s">
         <v>1898</v>
       </c>
-      <c r="B1051" t="s">
+      <c r="B1136" t="s">
         <v>1898</v>
       </c>
-      <c r="C1051" t="s">
+      <c r="C1136" t="s">
         <v>1897</v>
       </c>
-      <c r="D1051">
+      <c r="D1136">
         <v>3001</v>
       </c>
-      <c r="I1051"/>
-    </row>
-    <row r="1052" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1052" t="s">
+      <c r="I1136"/>
+    </row>
+    <row r="1137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1137" t="s">
         <v>1900</v>
       </c>
-      <c r="B1052" t="s">
+      <c r="B1137" t="s">
         <v>1900</v>
       </c>
-      <c r="C1052" t="s">
+      <c r="C1137" t="s">
         <v>1899</v>
       </c>
-      <c r="D1052">
+      <c r="D1137">
         <v>3002</v>
       </c>
-      <c r="I1052"/>
-    </row>
-    <row r="1053" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1053" t="s">
+      <c r="I1137"/>
+    </row>
+    <row r="1138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1138" t="s">
         <v>1902</v>
       </c>
-      <c r="B1053" t="s">
+      <c r="B1138" t="s">
         <v>1902</v>
       </c>
-      <c r="C1053" t="s">
+      <c r="C1138" t="s">
         <v>1901</v>
       </c>
-      <c r="D1053">
+      <c r="D1138">
         <v>3003</v>
       </c>
-      <c r="I1053"/>
-    </row>
-    <row r="1054" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1054" t="s">
+      <c r="I1138"/>
+    </row>
+    <row r="1139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1139" t="s">
         <v>1904</v>
       </c>
-      <c r="B1054" t="s">
+      <c r="B1139" t="s">
         <v>1904</v>
       </c>
-      <c r="C1054" t="s">
+      <c r="C1139" t="s">
         <v>1903</v>
       </c>
-      <c r="D1054">
+      <c r="D1139">
         <v>3004</v>
       </c>
-      <c r="I1054"/>
-    </row>
-    <row r="1055" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1055" t="s">
+      <c r="I1139"/>
+    </row>
+    <row r="1140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1140" t="s">
         <v>1906</v>
       </c>
-      <c r="B1055" t="s">
+      <c r="B1140" t="s">
         <v>1906</v>
       </c>
-      <c r="C1055" t="s">
+      <c r="C1140" t="s">
         <v>1905</v>
       </c>
-      <c r="D1055">
+      <c r="D1140">
         <v>3005</v>
       </c>
-      <c r="I1055"/>
-    </row>
-    <row r="1056" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1056" t="s">
+      <c r="I1140"/>
+    </row>
+    <row r="1141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1141" t="s">
         <v>1908</v>
       </c>
-      <c r="B1056" t="s">
+      <c r="B1141" t="s">
         <v>1908</v>
       </c>
-      <c r="C1056" t="s">
+      <c r="C1141" t="s">
         <v>1907</v>
       </c>
-      <c r="D1056">
+      <c r="D1141">
         <v>3006</v>
       </c>
-      <c r="I1056"/>
-    </row>
-    <row r="1057" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1057" t="s">
+      <c r="I1141"/>
+    </row>
+    <row r="1142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1142" t="s">
         <v>1910</v>
       </c>
-      <c r="B1057" t="s">
+      <c r="B1142" t="s">
         <v>1910</v>
       </c>
-      <c r="C1057" t="s">
+      <c r="C1142" t="s">
         <v>1909</v>
       </c>
-      <c r="D1057">
+      <c r="D1142">
         <v>3007</v>
       </c>
-      <c r="I1057"/>
-    </row>
-    <row r="1058" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1058" t="s">
+      <c r="I1142"/>
+    </row>
+    <row r="1143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1143" t="s">
         <v>1912</v>
       </c>
-      <c r="B1058" t="s">
+      <c r="B1143" t="s">
         <v>1912</v>
       </c>
-      <c r="C1058" t="s">
+      <c r="C1143" t="s">
         <v>1911</v>
       </c>
-      <c r="D1058">
+      <c r="D1143">
         <v>3008</v>
       </c>
-      <c r="I1058"/>
-    </row>
-    <row r="1059" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1059" t="s">
+      <c r="I1143"/>
+    </row>
+    <row r="1144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1144" t="s">
         <v>1914</v>
       </c>
-      <c r="B1059" t="s">
+      <c r="B1144" t="s">
         <v>1914</v>
       </c>
-      <c r="C1059" t="s">
+      <c r="C1144" t="s">
         <v>1913</v>
       </c>
-      <c r="D1059">
+      <c r="D1144">
         <v>3009</v>
       </c>
-      <c r="I1059"/>
-    </row>
-    <row r="1060" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1060" t="s">
+      <c r="I1144"/>
+    </row>
+    <row r="1145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1145" t="s">
         <v>1916</v>
       </c>
-      <c r="B1060" t="s">
+      <c r="B1145" t="s">
         <v>1916</v>
       </c>
-      <c r="C1060" t="s">
+      <c r="C1145" t="s">
         <v>1915</v>
       </c>
-      <c r="D1060">
+      <c r="D1145">
         <v>3010</v>
       </c>
-      <c r="I1060"/>
-    </row>
-    <row r="1061" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1061" t="s">
+      <c r="I1145"/>
+    </row>
+    <row r="1146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1146" t="s">
         <v>1918</v>
       </c>
-      <c r="B1061" t="s">
+      <c r="B1146" t="s">
         <v>1918</v>
       </c>
-      <c r="C1061" t="s">
+      <c r="C1146" t="s">
         <v>1917</v>
       </c>
-      <c r="D1061">
+      <c r="D1146">
         <v>3011</v>
       </c>
-      <c r="I1061"/>
-    </row>
-    <row r="1062" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1062" t="s">
+      <c r="I1146"/>
+    </row>
+    <row r="1147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1147" t="s">
         <v>1920</v>
       </c>
-      <c r="B1062" t="s">
+      <c r="B1147" t="s">
         <v>1920</v>
       </c>
-      <c r="C1062" t="s">
+      <c r="C1147" t="s">
         <v>1919</v>
       </c>
-      <c r="D1062">
+      <c r="D1147">
         <v>3012</v>
       </c>
-      <c r="I1062"/>
-    </row>
-    <row r="1063" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1063" t="s">
+      <c r="I1147"/>
+    </row>
+    <row r="1148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1148" t="s">
         <v>1922</v>
       </c>
-      <c r="B1063" t="s">
+      <c r="B1148" t="s">
         <v>1922</v>
       </c>
-      <c r="C1063" t="s">
+      <c r="C1148" t="s">
         <v>1921</v>
       </c>
-      <c r="D1063">
+      <c r="D1148">
         <v>3013</v>
       </c>
-      <c r="I1063"/>
-    </row>
-    <row r="1064" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1064" t="s">
+      <c r="I1148"/>
+    </row>
+    <row r="1149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1149" t="s">
         <v>1924</v>
       </c>
-      <c r="B1064" t="s">
+      <c r="B1149" t="s">
         <v>1924</v>
       </c>
-      <c r="C1064" t="s">
+      <c r="C1149" t="s">
         <v>1923</v>
       </c>
-      <c r="D1064">
+      <c r="D1149">
         <v>3014</v>
       </c>
-      <c r="I1064"/>
-    </row>
-    <row r="1065" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1065" t="s">
+      <c r="I1149"/>
+    </row>
+    <row r="1150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1150" t="s">
         <v>1926</v>
       </c>
-      <c r="B1065" t="s">
+      <c r="B1150" t="s">
         <v>1926</v>
       </c>
-      <c r="C1065" t="s">
+      <c r="C1150" t="s">
         <v>1925</v>
       </c>
-      <c r="D1065">
+      <c r="D1150">
         <v>3015</v>
       </c>
-      <c r="I1065"/>
-    </row>
-    <row r="1066" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1066" t="s">
+      <c r="I1150"/>
+    </row>
+    <row r="1151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1151" t="s">
         <v>1928</v>
       </c>
-      <c r="B1066" t="s">
+      <c r="B1151" t="s">
         <v>1928</v>
       </c>
-      <c r="C1066" t="s">
+      <c r="C1151" t="s">
         <v>1927</v>
       </c>
-      <c r="D1066">
+      <c r="D1151">
         <v>3016</v>
       </c>
-      <c r="I1066"/>
-    </row>
-    <row r="1067" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1067" t="s">
+      <c r="I1151"/>
+    </row>
+    <row r="1152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1152" t="s">
         <v>1930</v>
       </c>
-      <c r="B1067" t="s">
+      <c r="B1152" t="s">
         <v>1930</v>
       </c>
-      <c r="C1067" t="s">
+      <c r="C1152" t="s">
         <v>1929</v>
       </c>
-      <c r="D1067">
+      <c r="D1152">
         <v>3017</v>
       </c>
-      <c r="I1067"/>
-    </row>
-    <row r="1068" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1068" t="s">
+      <c r="I1152"/>
+    </row>
+    <row r="1153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1153" t="s">
         <v>1932</v>
       </c>
-      <c r="B1068" t="s">
+      <c r="B1153" t="s">
         <v>1932</v>
       </c>
-      <c r="C1068" t="s">
+      <c r="C1153" t="s">
         <v>1931</v>
       </c>
-      <c r="D1068">
+      <c r="D1153">
         <v>3018</v>
       </c>
-      <c r="I1068"/>
-    </row>
-    <row r="1069" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1069" t="s">
+      <c r="I1153"/>
+    </row>
+    <row r="1154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1154" t="s">
         <v>1934</v>
       </c>
-      <c r="B1069" t="s">
+      <c r="B1154" t="s">
         <v>1934</v>
       </c>
-      <c r="C1069" t="s">
+      <c r="C1154" t="s">
         <v>1933</v>
       </c>
-      <c r="D1069">
+      <c r="D1154">
         <v>3019</v>
       </c>
-      <c r="I1069"/>
-    </row>
-    <row r="1070" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1070" t="s">
+      <c r="I1154"/>
+    </row>
+    <row r="1155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1155" t="s">
         <v>1936</v>
       </c>
-      <c r="B1070" t="s">
+      <c r="B1155" t="s">
         <v>1936</v>
       </c>
-      <c r="C1070" t="s">
+      <c r="C1155" t="s">
         <v>1935</v>
       </c>
-      <c r="D1070">
+      <c r="D1155">
         <v>3020</v>
       </c>
-      <c r="I1070"/>
-    </row>
-    <row r="1071" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1071" t="s">
+      <c r="I1155"/>
+    </row>
+    <row r="1156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1156" t="s">
         <v>1938</v>
       </c>
-      <c r="B1071" t="s">
+      <c r="B1156" t="s">
         <v>1938</v>
       </c>
-      <c r="C1071" t="s">
+      <c r="C1156" t="s">
         <v>1937</v>
       </c>
-      <c r="D1071">
+      <c r="D1156">
         <v>3021</v>
       </c>
-      <c r="I1071"/>
-    </row>
-    <row r="1072" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1072" t="s">
+      <c r="I1156"/>
+    </row>
+    <row r="1157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1157" t="s">
         <v>1940</v>
       </c>
-      <c r="B1072" t="s">
+      <c r="B1157" t="s">
         <v>1940</v>
       </c>
-      <c r="C1072" t="s">
+      <c r="C1157" t="s">
         <v>1939</v>
       </c>
-      <c r="D1072">
+      <c r="D1157">
         <v>3022</v>
       </c>
-      <c r="I1072"/>
-    </row>
-    <row r="1073" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1073" t="s">
+      <c r="I1157"/>
+    </row>
+    <row r="1158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1158" t="s">
         <v>1942</v>
       </c>
-      <c r="B1073" t="s">
+      <c r="B1158" t="s">
         <v>1942</v>
       </c>
-      <c r="C1073" t="s">
+      <c r="C1158" t="s">
         <v>1941</v>
       </c>
-      <c r="D1073">
+      <c r="D1158">
         <v>3023</v>
       </c>
-      <c r="I1073"/>
-    </row>
-    <row r="1074" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1074" t="s">
+      <c r="I1158"/>
+    </row>
+    <row r="1159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1159" t="s">
         <v>1944</v>
       </c>
-      <c r="B1074" t="s">
+      <c r="B1159" t="s">
         <v>1944</v>
       </c>
-      <c r="C1074" t="s">
+      <c r="C1159" t="s">
         <v>1943</v>
       </c>
-      <c r="D1074">
+      <c r="D1159">
         <v>3024</v>
       </c>
-      <c r="I1074"/>
-    </row>
-    <row r="1075" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1075" t="s">
+      <c r="I1159"/>
+    </row>
+    <row r="1160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1160" t="s">
         <v>1946</v>
       </c>
-      <c r="B1075" t="s">
+      <c r="B1160" t="s">
         <v>1946</v>
       </c>
-      <c r="C1075" t="s">
+      <c r="C1160" t="s">
         <v>1945</v>
       </c>
-      <c r="D1075">
+      <c r="D1160">
         <v>3025</v>
       </c>
-      <c r="I1075"/>
-    </row>
-    <row r="1076" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1076" t="s">
+      <c r="I1160"/>
+    </row>
+    <row r="1161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1161" t="s">
         <v>1948</v>
       </c>
-      <c r="B1076" t="s">
+      <c r="B1161" t="s">
         <v>1948</v>
       </c>
-      <c r="C1076" t="s">
+      <c r="C1161" t="s">
         <v>1947</v>
       </c>
-      <c r="D1076">
+      <c r="D1161">
         <v>3026</v>
       </c>
-      <c r="I1076"/>
-    </row>
-    <row r="1077" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1077" t="s">
+      <c r="I1161"/>
+    </row>
+    <row r="1162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1162" t="s">
         <v>1950</v>
       </c>
-      <c r="B1077" t="s">
+      <c r="B1162" t="s">
         <v>1950</v>
       </c>
-      <c r="C1077" t="s">
+      <c r="C1162" t="s">
         <v>1949</v>
       </c>
-      <c r="D1077">
+      <c r="D1162">
         <v>3027</v>
       </c>
-      <c r="I1077"/>
-    </row>
-    <row r="1078" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1078" t="s">
+      <c r="I1162"/>
+    </row>
+    <row r="1163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1163" t="s">
         <v>1952</v>
       </c>
-      <c r="B1078" t="s">
+      <c r="B1163" t="s">
         <v>1952</v>
       </c>
-      <c r="C1078" t="s">
+      <c r="C1163" t="s">
         <v>1951</v>
       </c>
-      <c r="D1078">
+      <c r="D1163">
         <v>3028</v>
       </c>
-      <c r="I1078"/>
+      <c r="I1163"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:J1">
-    <sortState ref="A2:J1078">
+    <sortState ref="A2:J1163">
       <sortCondition ref="D1"/>
     </sortState>
   </autoFilter>

--- a/source/glyph_data.xlsx
+++ b/source/glyph_data.xlsx
@@ -6224,13 +6224,13 @@
     <t>numeralnarrow</t>
   </si>
   <si>
-    <t>numeral.init</t>
-  </si>
-  <si>
-    <t>numeral.medi</t>
-  </si>
-  <si>
-    <t>numeral.fina</t>
+    <t>numeralinit</t>
+  </si>
+  <si>
+    <t>numeralmedi</t>
+  </si>
+  <si>
+    <t>numeralfina</t>
   </si>
 </sst>
 </file>
@@ -6558,8 +6558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1145" workbookViewId="0">
-      <selection activeCell="J1163" sqref="J1163"/>
+    <sheetView tabSelected="1" topLeftCell="A1122" workbookViewId="0">
+      <selection activeCell="B1136" sqref="B1136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/source/glyph_data.xlsx
+++ b/source/glyph_data.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">glyph_data!$A$1:$J$1</definedName>
-    <definedName name="glyph_data" localSheetId="0">glyph_data!$A$1:$J$1124</definedName>
+    <definedName name="glyph_data" localSheetId="0">glyph_data!$A$1:$J$1048</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3640" uniqueCount="2049">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3490" uniqueCount="1974">
   <si>
     <t>USV</t>
   </si>
@@ -5183,27 +5183,6 @@
     <t>nonmarkingreturn</t>
   </si>
   <si>
-    <t>uniE068</t>
-  </si>
-  <si>
-    <t>uniE069</t>
-  </si>
-  <si>
-    <t>uniE06A</t>
-  </si>
-  <si>
-    <t>uniE06B</t>
-  </si>
-  <si>
-    <t>uniE06C</t>
-  </si>
-  <si>
-    <t>uniE06D</t>
-  </si>
-  <si>
-    <t>uniE06E</t>
-  </si>
-  <si>
     <t>uniE070</t>
   </si>
   <si>
@@ -5213,216 +5192,9 @@
     <t>uniE072</t>
   </si>
   <si>
-    <t>uniE217</t>
-  </si>
-  <si>
-    <t>uniE227</t>
-  </si>
-  <si>
-    <t>uniE230</t>
-  </si>
-  <si>
-    <t>uniE24F</t>
-  </si>
-  <si>
-    <t>uniE257</t>
-  </si>
-  <si>
-    <t>uniE25F</t>
-  </si>
-  <si>
-    <t>uniE26F</t>
-  </si>
-  <si>
-    <t>uniE2A8</t>
-  </si>
-  <si>
-    <t>uniE2A9</t>
-  </si>
-  <si>
-    <t>uniE2AA</t>
-  </si>
-  <si>
-    <t>uniE2AB</t>
-  </si>
-  <si>
-    <t>uniE2AC</t>
-  </si>
-  <si>
-    <t>uniE2AD</t>
-  </si>
-  <si>
-    <t>uniE2AE</t>
-  </si>
-  <si>
-    <t>uniE2B7</t>
-  </si>
-  <si>
-    <t>uniE2BF</t>
-  </si>
-  <si>
-    <t>uniE2D7</t>
-  </si>
-  <si>
-    <t>uniE2D8</t>
-  </si>
-  <si>
-    <t>uniE2E7</t>
-  </si>
-  <si>
-    <t>uniE2F8</t>
-  </si>
-  <si>
-    <t>uniE33F</t>
-  </si>
-  <si>
-    <t>uniE34F</t>
-  </si>
-  <si>
-    <t>uniE370</t>
-  </si>
-  <si>
-    <t>uniE371</t>
-  </si>
-  <si>
-    <t>uniE372</t>
-  </si>
-  <si>
-    <t>uniE373</t>
-  </si>
-  <si>
-    <t>uniE374</t>
-  </si>
-  <si>
-    <t>uniE375</t>
-  </si>
-  <si>
-    <t>uniE376</t>
-  </si>
-  <si>
-    <t>uniE37A</t>
-  </si>
-  <si>
-    <t>uniE37B</t>
-  </si>
-  <si>
-    <t>uniE37C</t>
-  </si>
-  <si>
-    <t>uniE37D</t>
-  </si>
-  <si>
-    <t>uniE37E</t>
-  </si>
-  <si>
-    <t>uniE37F</t>
-  </si>
-  <si>
-    <t>uniE406</t>
-  </si>
-  <si>
-    <t>uniE491</t>
-  </si>
-  <si>
     <t>uniE493</t>
   </si>
   <si>
-    <t>uniE49A</t>
-  </si>
-  <si>
-    <t>uniE49C</t>
-  </si>
-  <si>
-    <t>uniE49D</t>
-  </si>
-  <si>
-    <t>uniE49E</t>
-  </si>
-  <si>
-    <t>uniE500</t>
-  </si>
-  <si>
-    <t>uniE501</t>
-  </si>
-  <si>
-    <t>uniE502</t>
-  </si>
-  <si>
-    <t>uniE508</t>
-  </si>
-  <si>
-    <t>uniE509</t>
-  </si>
-  <si>
-    <t>uniE50A</t>
-  </si>
-  <si>
-    <t>uniE50F</t>
-  </si>
-  <si>
-    <t>uniE510</t>
-  </si>
-  <si>
-    <t>uniE511</t>
-  </si>
-  <si>
-    <t>uniE512</t>
-  </si>
-  <si>
-    <t>uniE513</t>
-  </si>
-  <si>
-    <t>uniE514</t>
-  </si>
-  <si>
-    <t>uniE515</t>
-  </si>
-  <si>
-    <t>uniE516</t>
-  </si>
-  <si>
-    <t>uniE517</t>
-  </si>
-  <si>
-    <t>uniE518</t>
-  </si>
-  <si>
-    <t>uniE519</t>
-  </si>
-  <si>
-    <t>uniE51A</t>
-  </si>
-  <si>
-    <t>uniE51B</t>
-  </si>
-  <si>
-    <t>uniE51C</t>
-  </si>
-  <si>
-    <t>uniE51D</t>
-  </si>
-  <si>
-    <t>uniE51E</t>
-  </si>
-  <si>
-    <t>uniE51F</t>
-  </si>
-  <si>
-    <t>uniE520</t>
-  </si>
-  <si>
-    <t>uniE521</t>
-  </si>
-  <si>
-    <t>uniE522</t>
-  </si>
-  <si>
-    <t>uniE528</t>
-  </si>
-  <si>
-    <t>uniE529</t>
-  </si>
-  <si>
     <t>0020</t>
   </si>
   <si>
@@ -6195,6 +5967,9 @@
   </si>
   <si>
     <t>numeralfina</t>
+  </si>
+  <si>
+    <t>133F</t>
   </si>
 </sst>
 </file>
@@ -6520,10 +6295,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1157"/>
+  <dimension ref="A1:J1081"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A595" workbookViewId="0">
-      <selection activeCell="A611" sqref="A611"/>
+    <sheetView tabSelected="1" topLeftCell="A1032" workbookViewId="0">
+      <selection activeCell="A1048" sqref="A1048:XFD1048"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6541,7 +6316,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1961</v>
+        <v>1885</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -6550,7 +6325,7 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>1962</v>
+        <v>1886</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -6615,7 +6390,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>1791</v>
+        <v>1715</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -6629,7 +6404,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>1792</v>
+        <v>1716</v>
       </c>
       <c r="D6">
         <v>4</v>
@@ -6658,7 +6433,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>1792</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -6669,7 +6444,7 @@
         <v>16</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>1793</v>
+        <v>1717</v>
       </c>
       <c r="D8">
         <v>6</v>
@@ -6683,7 +6458,7 @@
         <v>17</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>1820</v>
+        <v>1744</v>
       </c>
       <c r="D9">
         <v>7</v>
@@ -6697,7 +6472,7 @@
         <v>18</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>1821</v>
+        <v>1745</v>
       </c>
       <c r="D10">
         <v>8</v>
@@ -6726,7 +6501,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>1821</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -6737,7 +6512,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>1822</v>
+        <v>1746</v>
       </c>
       <c r="D12">
         <v>10</v>
@@ -6766,7 +6541,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>1822</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -6777,7 +6552,7 @@
         <v>22</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>1823</v>
+        <v>1747</v>
       </c>
       <c r="D14">
         <v>12</v>
@@ -6791,7 +6566,7 @@
         <v>23</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>1824</v>
+        <v>1748</v>
       </c>
       <c r="D15">
         <v>13</v>
@@ -6805,7 +6580,7 @@
         <v>24</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>1825</v>
+        <v>1749</v>
       </c>
       <c r="D16">
         <v>14</v>
@@ -6819,7 +6594,7 @@
         <v>25</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>1883</v>
+        <v>1807</v>
       </c>
       <c r="D17">
         <v>15</v>
@@ -6995,7 +6770,7 @@
         <v>41</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>1826</v>
+        <v>1750</v>
       </c>
       <c r="D27">
         <v>25</v>
@@ -7015,7 +6790,7 @@
         <v>43</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>1834</v>
+        <v>1758</v>
       </c>
       <c r="D28">
         <v>26</v>
@@ -7035,7 +6810,7 @@
         <v>45</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>1835</v>
+        <v>1759</v>
       </c>
       <c r="D29">
         <v>27</v>
@@ -7055,7 +6830,7 @@
         <v>47</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>1836</v>
+        <v>1760</v>
       </c>
       <c r="D30">
         <v>28</v>
@@ -7075,7 +6850,7 @@
         <v>49</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>1837</v>
+        <v>1761</v>
       </c>
       <c r="D31">
         <v>29</v>
@@ -7095,7 +6870,7 @@
         <v>51</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>1838</v>
+        <v>1762</v>
       </c>
       <c r="D32">
         <v>30</v>
@@ -7115,7 +6890,7 @@
         <v>53</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>1839</v>
+        <v>1763</v>
       </c>
       <c r="D33">
         <v>31</v>
@@ -7135,7 +6910,7 @@
         <v>55</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>1840</v>
+        <v>1764</v>
       </c>
       <c r="D34">
         <v>32</v>
@@ -7155,7 +6930,7 @@
         <v>57</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>1841</v>
+        <v>1765</v>
       </c>
       <c r="D35">
         <v>33</v>
@@ -7175,7 +6950,7 @@
         <v>59</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>1842</v>
+        <v>1766</v>
       </c>
       <c r="D36">
         <v>34</v>
@@ -7204,7 +6979,7 @@
         <v>1</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>1826</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -7224,7 +6999,7 @@
         <v>1</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>1834</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -7244,7 +7019,7 @@
         <v>1</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>1835</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -7264,7 +7039,7 @@
         <v>1</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>1836</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -7284,7 +7059,7 @@
         <v>1</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>1837</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -7304,7 +7079,7 @@
         <v>1</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>1838</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -7324,7 +7099,7 @@
         <v>1</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>1839</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -7344,7 +7119,7 @@
         <v>1</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>1840</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -7364,7 +7139,7 @@
         <v>1</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>1841</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -7384,7 +7159,7 @@
         <v>1</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>1842</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -7531,7 +7306,7 @@
         <v>75</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>1843</v>
+        <v>1767</v>
       </c>
       <c r="D55">
         <v>53</v>
@@ -7545,7 +7320,7 @@
         <v>76</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>1844</v>
+        <v>1768</v>
       </c>
       <c r="D56">
         <v>54</v>
@@ -7559,7 +7334,7 @@
         <v>77</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>1845</v>
+        <v>1769</v>
       </c>
       <c r="D57">
         <v>55</v>
@@ -7573,7 +7348,7 @@
         <v>78</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>1846</v>
+        <v>1770</v>
       </c>
       <c r="D58">
         <v>56</v>
@@ -7587,7 +7362,7 @@
         <v>79</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>1847</v>
+        <v>1771</v>
       </c>
       <c r="D59">
         <v>57</v>
@@ -7601,7 +7376,7 @@
         <v>80</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>1848</v>
+        <v>1772</v>
       </c>
       <c r="D60">
         <v>58</v>
@@ -7615,7 +7390,7 @@
         <v>81</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>1849</v>
+        <v>1773</v>
       </c>
       <c r="D61">
         <v>59</v>
@@ -7629,7 +7404,7 @@
         <v>82</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>1850</v>
+        <v>1774</v>
       </c>
       <c r="D62">
         <v>60</v>
@@ -7643,7 +7418,7 @@
         <v>83</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>1851</v>
+        <v>1775</v>
       </c>
       <c r="D63">
         <v>61</v>
@@ -7657,7 +7432,7 @@
         <v>84</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>1852</v>
+        <v>1776</v>
       </c>
       <c r="D64">
         <v>62</v>
@@ -7755,7 +7530,7 @@
         <v>97</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>1853</v>
+        <v>1777</v>
       </c>
       <c r="D71">
         <v>69</v>
@@ -7769,7 +7544,7 @@
         <v>98</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>1854</v>
+        <v>1778</v>
       </c>
       <c r="D72">
         <v>70</v>
@@ -7783,7 +7558,7 @@
         <v>99</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>1855</v>
+        <v>1779</v>
       </c>
       <c r="D73">
         <v>71</v>
@@ -7797,7 +7572,7 @@
         <v>100</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>1856</v>
+        <v>1780</v>
       </c>
       <c r="D74">
         <v>72</v>
@@ -7811,7 +7586,7 @@
         <v>101</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>1857</v>
+        <v>1781</v>
       </c>
       <c r="D75">
         <v>73</v>
@@ -7825,7 +7600,7 @@
         <v>102</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>1858</v>
+        <v>1782</v>
       </c>
       <c r="D76">
         <v>74</v>
@@ -7839,7 +7614,7 @@
         <v>103</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>1859</v>
+        <v>1783</v>
       </c>
       <c r="D77">
         <v>75</v>
@@ -7853,7 +7628,7 @@
         <v>104</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>1860</v>
+        <v>1784</v>
       </c>
       <c r="D78">
         <v>76</v>
@@ -7867,7 +7642,7 @@
         <v>105</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>1861</v>
+        <v>1785</v>
       </c>
       <c r="D79">
         <v>77</v>
@@ -7881,7 +7656,7 @@
         <v>106</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>1862</v>
+        <v>1786</v>
       </c>
       <c r="D80">
         <v>78</v>
@@ -7979,7 +7754,7 @@
         <v>119</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>1863</v>
+        <v>1787</v>
       </c>
       <c r="D87">
         <v>85</v>
@@ -7993,7 +7768,7 @@
         <v>120</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>1864</v>
+        <v>1788</v>
       </c>
       <c r="D88">
         <v>86</v>
@@ -8007,7 +7782,7 @@
         <v>121</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>1865</v>
+        <v>1789</v>
       </c>
       <c r="D89">
         <v>87</v>
@@ -8021,7 +7796,7 @@
         <v>122</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>1866</v>
+        <v>1790</v>
       </c>
       <c r="D90">
         <v>88</v>
@@ -8035,7 +7810,7 @@
         <v>123</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>1867</v>
+        <v>1791</v>
       </c>
       <c r="D91">
         <v>89</v>
@@ -8049,7 +7824,7 @@
         <v>124</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>1868</v>
+        <v>1792</v>
       </c>
       <c r="D92">
         <v>90</v>
@@ -8063,7 +7838,7 @@
         <v>125</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>1869</v>
+        <v>1793</v>
       </c>
       <c r="D93">
         <v>91</v>
@@ -8077,7 +7852,7 @@
         <v>126</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>1870</v>
+        <v>1794</v>
       </c>
       <c r="D94">
         <v>92</v>
@@ -8091,7 +7866,7 @@
         <v>127</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>1871</v>
+        <v>1795</v>
       </c>
       <c r="D95">
         <v>93</v>
@@ -8105,7 +7880,7 @@
         <v>128</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>1872</v>
+        <v>1796</v>
       </c>
       <c r="D96">
         <v>94</v>
@@ -8203,7 +7978,7 @@
         <v>141</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>1873</v>
+        <v>1797</v>
       </c>
       <c r="D103">
         <v>101</v>
@@ -8217,7 +7992,7 @@
         <v>142</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>1874</v>
+        <v>1798</v>
       </c>
       <c r="D104">
         <v>102</v>
@@ -8231,7 +8006,7 @@
         <v>143</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>1875</v>
+        <v>1799</v>
       </c>
       <c r="D105">
         <v>103</v>
@@ -8245,7 +8020,7 @@
         <v>144</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>1876</v>
+        <v>1800</v>
       </c>
       <c r="D106">
         <v>104</v>
@@ -8259,7 +8034,7 @@
         <v>145</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>1877</v>
+        <v>1801</v>
       </c>
       <c r="D107">
         <v>105</v>
@@ -8273,7 +8048,7 @@
         <v>146</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>1878</v>
+        <v>1802</v>
       </c>
       <c r="D108">
         <v>106</v>
@@ -8287,7 +8062,7 @@
         <v>147</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>1879</v>
+        <v>1803</v>
       </c>
       <c r="D109">
         <v>107</v>
@@ -8301,7 +8076,7 @@
         <v>148</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>1880</v>
+        <v>1804</v>
       </c>
       <c r="D110">
         <v>108</v>
@@ -8315,7 +8090,7 @@
         <v>149</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>1881</v>
+        <v>1805</v>
       </c>
       <c r="D111">
         <v>109</v>
@@ -8329,7 +8104,7 @@
         <v>150</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>1882</v>
+        <v>1806</v>
       </c>
       <c r="D112">
         <v>110</v>
@@ -8407,10 +8182,10 @@
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>1884</v>
+        <v>1808</v>
       </c>
       <c r="B118" t="s">
-        <v>1884</v>
+        <v>1808</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>161</v>
@@ -9517,7 +9292,7 @@
         <v>296</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>1794</v>
+        <v>1718</v>
       </c>
       <c r="D190">
         <v>188</v>
@@ -9531,7 +9306,7 @@
         <v>297</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>1795</v>
+        <v>1719</v>
       </c>
       <c r="D191">
         <v>189</v>
@@ -9545,7 +9320,7 @@
         <v>298</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>1796</v>
+        <v>1720</v>
       </c>
       <c r="D192">
         <v>190</v>
@@ -9559,7 +9334,7 @@
         <v>299</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>1797</v>
+        <v>1721</v>
       </c>
       <c r="D193">
         <v>191</v>
@@ -9573,7 +9348,7 @@
         <v>300</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>1798</v>
+        <v>1722</v>
       </c>
       <c r="D194">
         <v>192</v>
@@ -9587,7 +9362,7 @@
         <v>301</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>1799</v>
+        <v>1723</v>
       </c>
       <c r="D195">
         <v>193</v>
@@ -9601,7 +9376,7 @@
         <v>302</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>1800</v>
+        <v>1724</v>
       </c>
       <c r="D196">
         <v>194</v>
@@ -9615,7 +9390,7 @@
         <v>303</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>1801</v>
+        <v>1725</v>
       </c>
       <c r="D197">
         <v>195</v>
@@ -9629,7 +9404,7 @@
         <v>304</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>1802</v>
+        <v>1726</v>
       </c>
       <c r="D198">
         <v>196</v>
@@ -9643,7 +9418,7 @@
         <v>305</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>1803</v>
+        <v>1727</v>
       </c>
       <c r="D199">
         <v>197</v>
@@ -9965,7 +9740,7 @@
         <v>350</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>1813</v>
+        <v>1737</v>
       </c>
       <c r="D222">
         <v>220</v>
@@ -9979,7 +9754,7 @@
         <v>351</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>1814</v>
+        <v>1738</v>
       </c>
       <c r="D223">
         <v>221</v>
@@ -9993,7 +9768,7 @@
         <v>352</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>1815</v>
+        <v>1739</v>
       </c>
       <c r="D224">
         <v>222</v>
@@ -10007,7 +9782,7 @@
         <v>353</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>1816</v>
+        <v>1740</v>
       </c>
       <c r="D225">
         <v>223</v>
@@ -10021,7 +9796,7 @@
         <v>354</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>1817</v>
+        <v>1741</v>
       </c>
       <c r="D226">
         <v>224</v>
@@ -10035,7 +9810,7 @@
         <v>355</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>1818</v>
+        <v>1742</v>
       </c>
       <c r="D227">
         <v>225</v>
@@ -10077,7 +9852,7 @@
         <v>360</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>1819</v>
+        <v>1743</v>
       </c>
       <c r="D230">
         <v>228</v>
@@ -10231,7 +10006,7 @@
         <v>381</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>1827</v>
+        <v>1751</v>
       </c>
       <c r="D241">
         <v>239</v>
@@ -10245,7 +10020,7 @@
         <v>382</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>1828</v>
+        <v>1752</v>
       </c>
       <c r="D242">
         <v>240</v>
@@ -10259,7 +10034,7 @@
         <v>383</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>1829</v>
+        <v>1753</v>
       </c>
       <c r="D243">
         <v>241</v>
@@ -10273,7 +10048,7 @@
         <v>384</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>1830</v>
+        <v>1754</v>
       </c>
       <c r="D244">
         <v>242</v>
@@ -10287,7 +10062,7 @@
         <v>385</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>1831</v>
+        <v>1755</v>
       </c>
       <c r="D245">
         <v>243</v>
@@ -10301,7 +10076,7 @@
         <v>386</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>1832</v>
+        <v>1756</v>
       </c>
       <c r="D246">
         <v>244</v>
@@ -10315,7 +10090,7 @@
         <v>387</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>1833</v>
+        <v>1757</v>
       </c>
       <c r="D247">
         <v>245</v>
@@ -14045,7 +13820,7 @@
         <v>852</v>
       </c>
       <c r="C486" s="2" t="s">
-        <v>1804</v>
+        <v>1728</v>
       </c>
       <c r="D486">
         <v>486</v>
@@ -14074,7 +13849,7 @@
         <v>1</v>
       </c>
       <c r="I487" s="1" t="s">
-        <v>1804</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="488" spans="1:9" x14ac:dyDescent="0.25">
@@ -14094,7 +13869,7 @@
         <v>2</v>
       </c>
       <c r="I488" s="1" t="s">
-        <v>1804</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="489" spans="1:9" x14ac:dyDescent="0.25">
@@ -14105,7 +13880,7 @@
         <v>856</v>
       </c>
       <c r="C489" s="2" t="s">
-        <v>1805</v>
+        <v>1729</v>
       </c>
       <c r="D489">
         <v>489</v>
@@ -14134,7 +13909,7 @@
         <v>1</v>
       </c>
       <c r="I490" s="1" t="s">
-        <v>1805</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="491" spans="1:9" x14ac:dyDescent="0.25">
@@ -14154,7 +13929,7 @@
         <v>2</v>
       </c>
       <c r="I491" s="1" t="s">
-        <v>1805</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="492" spans="1:9" x14ac:dyDescent="0.25">
@@ -14179,7 +13954,7 @@
         <v>860</v>
       </c>
       <c r="C493" s="2" t="s">
-        <v>1806</v>
+        <v>1730</v>
       </c>
       <c r="D493">
         <v>493</v>
@@ -14208,7 +13983,7 @@
         <v>1</v>
       </c>
       <c r="I494" s="1" t="s">
-        <v>1806</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="495" spans="1:9" x14ac:dyDescent="0.25">
@@ -14228,7 +14003,7 @@
         <v>2</v>
       </c>
       <c r="I495" s="1" t="s">
-        <v>1806</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="496" spans="1:9" x14ac:dyDescent="0.25">
@@ -14239,7 +14014,7 @@
         <v>863</v>
       </c>
       <c r="C496" s="2" t="s">
-        <v>1807</v>
+        <v>1731</v>
       </c>
       <c r="D496">
         <v>496</v>
@@ -14268,7 +14043,7 @@
         <v>1</v>
       </c>
       <c r="I497" s="1" t="s">
-        <v>1807</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="498" spans="1:9" x14ac:dyDescent="0.25">
@@ -14288,7 +14063,7 @@
         <v>2</v>
       </c>
       <c r="I498" s="1" t="s">
-        <v>1807</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="499" spans="1:9" x14ac:dyDescent="0.25">
@@ -14299,7 +14074,7 @@
         <v>866</v>
       </c>
       <c r="C499" s="2" t="s">
-        <v>1808</v>
+        <v>1732</v>
       </c>
       <c r="D499">
         <v>499</v>
@@ -14328,7 +14103,7 @@
         <v>1</v>
       </c>
       <c r="I500" s="1" t="s">
-        <v>1808</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="501" spans="1:9" x14ac:dyDescent="0.25">
@@ -14348,7 +14123,7 @@
         <v>2</v>
       </c>
       <c r="I501" s="1" t="s">
-        <v>1808</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="502" spans="1:9" x14ac:dyDescent="0.25">
@@ -14359,7 +14134,7 @@
         <v>869</v>
       </c>
       <c r="C502" s="2" t="s">
-        <v>1809</v>
+        <v>1733</v>
       </c>
       <c r="D502">
         <v>503</v>
@@ -14388,7 +14163,7 @@
         <v>1</v>
       </c>
       <c r="I503" s="1" t="s">
-        <v>1809</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="504" spans="1:9" x14ac:dyDescent="0.25">
@@ -14408,7 +14183,7 @@
         <v>2</v>
       </c>
       <c r="I504" s="1" t="s">
-        <v>1809</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="505" spans="1:9" x14ac:dyDescent="0.25">
@@ -14419,7 +14194,7 @@
         <v>872</v>
       </c>
       <c r="C505" s="2" t="s">
-        <v>1810</v>
+        <v>1734</v>
       </c>
       <c r="D505">
         <v>506</v>
@@ -14433,7 +14208,7 @@
         <v>873</v>
       </c>
       <c r="C506" s="2" t="s">
-        <v>1811</v>
+        <v>1735</v>
       </c>
       <c r="D506">
         <v>507</v>
@@ -14447,7 +14222,7 @@
         <v>874</v>
       </c>
       <c r="C507" s="2" t="s">
-        <v>1812</v>
+        <v>1736</v>
       </c>
       <c r="D507">
         <v>508</v>
@@ -16113,7 +15888,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="609" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>1063</v>
       </c>
@@ -16127,7 +15902,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="610" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>1065</v>
       </c>
@@ -16147,7 +15922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>1067</v>
       </c>
@@ -16157,8 +15932,17 @@
       <c r="D611">
         <v>614</v>
       </c>
-    </row>
-    <row r="612" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G611" t="s">
+        <v>1066</v>
+      </c>
+      <c r="H611">
+        <v>1</v>
+      </c>
+      <c r="I611" s="1" t="s">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="612" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>1069</v>
       </c>
@@ -16172,7 +15956,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="613" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>1071</v>
       </c>
@@ -16186,7 +15970,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="614" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>1073</v>
       </c>
@@ -16200,7 +15984,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="615" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>1075</v>
       </c>
@@ -16214,7 +15998,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="616" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>1077</v>
       </c>
@@ -16228,7 +16012,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="617" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>1079</v>
       </c>
@@ -16242,7 +16026,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="618" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>1081</v>
       </c>
@@ -16256,7 +16040,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="619" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>1083</v>
       </c>
@@ -16270,7 +16054,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="620" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>1085</v>
       </c>
@@ -16284,7 +16068,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="621" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>1087</v>
       </c>
@@ -16298,7 +16082,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="622" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>1089</v>
       </c>
@@ -16312,7 +16096,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="623" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>1091</v>
       </c>
@@ -16326,7 +16110,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="624" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>1093</v>
       </c>
@@ -20935,7 +20719,7 @@
         <v>1000</v>
       </c>
       <c r="G925" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="926" spans="1:7" x14ac:dyDescent="0.25">
@@ -20952,7 +20736,7 @@
         <v>1001</v>
       </c>
       <c r="G926" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="927" spans="1:7" x14ac:dyDescent="0.25">
@@ -20969,7 +20753,7 @@
         <v>1002</v>
       </c>
       <c r="G927" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="928" spans="1:7" x14ac:dyDescent="0.25">
@@ -20986,7 +20770,7 @@
         <v>1003</v>
       </c>
       <c r="G928" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="929" spans="1:7" x14ac:dyDescent="0.25">
@@ -21003,7 +20787,7 @@
         <v>1004</v>
       </c>
       <c r="G929" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="930" spans="1:7" x14ac:dyDescent="0.25">
@@ -21020,7 +20804,7 @@
         <v>1005</v>
       </c>
       <c r="G930" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="931" spans="1:7" x14ac:dyDescent="0.25">
@@ -21037,7 +20821,7 @@
         <v>1006</v>
       </c>
       <c r="G931" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="932" spans="1:7" x14ac:dyDescent="0.25">
@@ -21054,7 +20838,7 @@
         <v>1007</v>
       </c>
       <c r="G932" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="933" spans="1:7" x14ac:dyDescent="0.25">
@@ -21071,7 +20855,7 @@
         <v>1008</v>
       </c>
       <c r="G933" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="934" spans="1:7" x14ac:dyDescent="0.25">
@@ -21088,7 +20872,7 @@
         <v>1009</v>
       </c>
       <c r="G934" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="935" spans="1:7" x14ac:dyDescent="0.25">
@@ -21105,7 +20889,7 @@
         <v>1010</v>
       </c>
       <c r="G935" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="936" spans="1:7" x14ac:dyDescent="0.25">
@@ -21122,7 +20906,7 @@
         <v>1011</v>
       </c>
       <c r="G936" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="937" spans="1:7" x14ac:dyDescent="0.25">
@@ -21139,7 +20923,7 @@
         <v>1012</v>
       </c>
       <c r="G937" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="938" spans="1:7" x14ac:dyDescent="0.25">
@@ -21156,7 +20940,7 @@
         <v>1013</v>
       </c>
       <c r="G938" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="939" spans="1:7" x14ac:dyDescent="0.25">
@@ -21173,7 +20957,7 @@
         <v>1014</v>
       </c>
       <c r="G939" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="940" spans="1:7" x14ac:dyDescent="0.25">
@@ -21190,7 +20974,7 @@
         <v>1015</v>
       </c>
       <c r="G940" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="941" spans="1:7" x14ac:dyDescent="0.25">
@@ -21207,7 +20991,7 @@
         <v>1016</v>
       </c>
       <c r="G941" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="942" spans="1:7" x14ac:dyDescent="0.25">
@@ -21224,7 +21008,7 @@
         <v>1017</v>
       </c>
       <c r="G942" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="943" spans="1:7" x14ac:dyDescent="0.25">
@@ -21241,7 +21025,7 @@
         <v>1018</v>
       </c>
       <c r="G943" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="944" spans="1:7" x14ac:dyDescent="0.25">
@@ -21258,1410 +21042,1410 @@
         <v>1019</v>
       </c>
       <c r="G944" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="945" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A945" t="s">
-        <v>1964</v>
+        <v>1888</v>
       </c>
       <c r="B945" t="s">
-        <v>1964</v>
+        <v>1888</v>
       </c>
       <c r="D945">
         <v>1020</v>
       </c>
       <c r="G945" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="946" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A946" t="s">
-        <v>1965</v>
+        <v>1889</v>
       </c>
       <c r="B946" t="s">
-        <v>1965</v>
+        <v>1889</v>
       </c>
       <c r="D946">
         <v>1021</v>
       </c>
       <c r="G946" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="947" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A947" t="s">
-        <v>1966</v>
+        <v>1890</v>
       </c>
       <c r="B947" t="s">
-        <v>1966</v>
+        <v>1890</v>
       </c>
       <c r="D947">
         <v>1022</v>
       </c>
       <c r="G947" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="948" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A948" t="s">
-        <v>1967</v>
+        <v>1891</v>
       </c>
       <c r="B948" t="s">
-        <v>1967</v>
+        <v>1891</v>
       </c>
       <c r="D948">
         <v>1023</v>
       </c>
       <c r="G948" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="949" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A949" t="s">
-        <v>1968</v>
+        <v>1892</v>
       </c>
       <c r="B949" t="s">
-        <v>1968</v>
+        <v>1892</v>
       </c>
       <c r="D949">
         <v>1024</v>
       </c>
       <c r="G949" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="950" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A950" t="s">
-        <v>1969</v>
+        <v>1893</v>
       </c>
       <c r="B950" t="s">
-        <v>1969</v>
+        <v>1893</v>
       </c>
       <c r="D950">
         <v>1025</v>
       </c>
       <c r="G950" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="951" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A951" t="s">
-        <v>1970</v>
+        <v>1894</v>
       </c>
       <c r="B951" t="s">
-        <v>1970</v>
+        <v>1894</v>
       </c>
       <c r="D951">
         <v>1026</v>
       </c>
       <c r="G951" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="952" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A952" t="s">
-        <v>1971</v>
+        <v>1895</v>
       </c>
       <c r="B952" t="s">
-        <v>1971</v>
+        <v>1895</v>
       </c>
       <c r="D952">
         <v>1027</v>
       </c>
       <c r="G952" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="953" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A953" t="s">
-        <v>1972</v>
+        <v>1896</v>
       </c>
       <c r="B953" t="s">
-        <v>1972</v>
+        <v>1896</v>
       </c>
       <c r="D953">
         <v>1028</v>
       </c>
       <c r="G953" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="954" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A954" t="s">
-        <v>1973</v>
+        <v>1897</v>
       </c>
       <c r="B954" t="s">
-        <v>1973</v>
+        <v>1897</v>
       </c>
       <c r="D954">
         <v>1029</v>
       </c>
       <c r="G954" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="955" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A955" t="s">
-        <v>1974</v>
+        <v>1898</v>
       </c>
       <c r="B955" t="s">
-        <v>1974</v>
+        <v>1898</v>
       </c>
       <c r="D955">
         <v>1030</v>
       </c>
       <c r="G955" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="956" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A956" t="s">
-        <v>1975</v>
+        <v>1899</v>
       </c>
       <c r="B956" t="s">
-        <v>1975</v>
+        <v>1899</v>
       </c>
       <c r="D956">
         <v>1031</v>
       </c>
       <c r="G956" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="957" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A957" t="s">
-        <v>1976</v>
+        <v>1900</v>
       </c>
       <c r="B957" t="s">
-        <v>1976</v>
+        <v>1900</v>
       </c>
       <c r="D957">
         <v>1032</v>
       </c>
       <c r="G957" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="958" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A958" t="s">
-        <v>1977</v>
+        <v>1901</v>
       </c>
       <c r="B958" t="s">
-        <v>1977</v>
+        <v>1901</v>
       </c>
       <c r="D958">
         <v>1033</v>
       </c>
       <c r="G958" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="959" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A959" t="s">
-        <v>1978</v>
+        <v>1902</v>
       </c>
       <c r="B959" t="s">
-        <v>1978</v>
+        <v>1902</v>
       </c>
       <c r="D959">
         <v>1034</v>
       </c>
       <c r="G959" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="960" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A960" t="s">
-        <v>1979</v>
+        <v>1903</v>
       </c>
       <c r="B960" t="s">
-        <v>1979</v>
+        <v>1903</v>
       </c>
       <c r="D960">
         <v>1035</v>
       </c>
       <c r="G960" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="961" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A961" t="s">
-        <v>1980</v>
+        <v>1904</v>
       </c>
       <c r="B961" t="s">
-        <v>1980</v>
+        <v>1904</v>
       </c>
       <c r="D961">
         <v>1036</v>
       </c>
       <c r="G961" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="962" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A962" t="s">
-        <v>1981</v>
+        <v>1905</v>
       </c>
       <c r="B962" t="s">
-        <v>1981</v>
+        <v>1905</v>
       </c>
       <c r="D962">
         <v>1037</v>
       </c>
       <c r="G962" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="963" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A963" t="s">
-        <v>1982</v>
+        <v>1906</v>
       </c>
       <c r="B963" t="s">
-        <v>1982</v>
+        <v>1906</v>
       </c>
       <c r="D963">
         <v>1038</v>
       </c>
       <c r="G963" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="964" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A964" t="s">
-        <v>1983</v>
+        <v>1907</v>
       </c>
       <c r="B964" t="s">
-        <v>1983</v>
+        <v>1907</v>
       </c>
       <c r="D964">
         <v>1039</v>
       </c>
       <c r="G964" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="965" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A965" t="s">
-        <v>1984</v>
+        <v>1908</v>
       </c>
       <c r="B965" t="s">
-        <v>1984</v>
+        <v>1908</v>
       </c>
       <c r="D965">
         <v>1040</v>
       </c>
       <c r="G965" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="966" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A966" t="s">
-        <v>1985</v>
+        <v>1909</v>
       </c>
       <c r="B966" t="s">
-        <v>1985</v>
+        <v>1909</v>
       </c>
       <c r="D966">
         <v>1041</v>
       </c>
       <c r="G966" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="967" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A967" t="s">
-        <v>1986</v>
+        <v>1910</v>
       </c>
       <c r="B967" t="s">
-        <v>1986</v>
+        <v>1910</v>
       </c>
       <c r="D967">
         <v>1042</v>
       </c>
       <c r="G967" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="968" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A968" t="s">
-        <v>1987</v>
+        <v>1911</v>
       </c>
       <c r="B968" t="s">
-        <v>1987</v>
+        <v>1911</v>
       </c>
       <c r="D968">
         <v>1043</v>
       </c>
       <c r="G968" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="969" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A969" t="s">
-        <v>1988</v>
+        <v>1912</v>
       </c>
       <c r="B969" t="s">
-        <v>1988</v>
+        <v>1912</v>
       </c>
       <c r="D969">
         <v>1044</v>
       </c>
       <c r="G969" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="970" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A970" t="s">
-        <v>1989</v>
+        <v>1913</v>
       </c>
       <c r="B970" t="s">
-        <v>1989</v>
+        <v>1913</v>
       </c>
       <c r="D970">
         <v>1045</v>
       </c>
       <c r="G970" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="971" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A971" t="s">
-        <v>1990</v>
+        <v>1914</v>
       </c>
       <c r="B971" t="s">
-        <v>1990</v>
+        <v>1914</v>
       </c>
       <c r="D971">
         <v>1046</v>
       </c>
       <c r="G971" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="972" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A972" t="s">
-        <v>1991</v>
+        <v>1915</v>
       </c>
       <c r="B972" t="s">
-        <v>1991</v>
+        <v>1915</v>
       </c>
       <c r="D972">
         <v>1047</v>
       </c>
       <c r="G972" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="973" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A973" t="s">
-        <v>1992</v>
+        <v>1916</v>
       </c>
       <c r="B973" t="s">
-        <v>1992</v>
+        <v>1916</v>
       </c>
       <c r="D973">
         <v>1048</v>
       </c>
       <c r="G973" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="974" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A974" t="s">
-        <v>1993</v>
+        <v>1917</v>
       </c>
       <c r="B974" t="s">
-        <v>1993</v>
+        <v>1917</v>
       </c>
       <c r="D974">
         <v>1049</v>
       </c>
       <c r="G974" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="975" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A975" t="s">
-        <v>1994</v>
+        <v>1918</v>
       </c>
       <c r="B975" t="s">
-        <v>1994</v>
+        <v>1918</v>
       </c>
       <c r="D975">
         <v>1050</v>
       </c>
       <c r="G975" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="976" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A976" t="s">
-        <v>1995</v>
+        <v>1919</v>
       </c>
       <c r="B976" t="s">
-        <v>1995</v>
+        <v>1919</v>
       </c>
       <c r="D976">
         <v>1051</v>
       </c>
       <c r="G976" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="977" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A977" t="s">
-        <v>1996</v>
+        <v>1920</v>
       </c>
       <c r="B977" t="s">
-        <v>1996</v>
+        <v>1920</v>
       </c>
       <c r="D977">
         <v>1052</v>
       </c>
       <c r="G977" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="978" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A978" t="s">
-        <v>1997</v>
+        <v>1921</v>
       </c>
       <c r="B978" t="s">
-        <v>1997</v>
+        <v>1921</v>
       </c>
       <c r="D978">
         <v>1053</v>
       </c>
       <c r="G978" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="979" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A979" t="s">
-        <v>1998</v>
+        <v>1922</v>
       </c>
       <c r="B979" t="s">
-        <v>1998</v>
+        <v>1922</v>
       </c>
       <c r="D979">
         <v>1054</v>
       </c>
       <c r="G979" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="980" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A980" t="s">
-        <v>1999</v>
+        <v>1923</v>
       </c>
       <c r="B980" t="s">
-        <v>1999</v>
+        <v>1923</v>
       </c>
       <c r="D980">
         <v>1055</v>
       </c>
       <c r="G980" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="981" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A981" t="s">
-        <v>2000</v>
+        <v>1924</v>
       </c>
       <c r="B981" t="s">
-        <v>2000</v>
+        <v>1924</v>
       </c>
       <c r="D981">
         <v>1056</v>
       </c>
       <c r="G981" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="982" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A982" t="s">
-        <v>2001</v>
+        <v>1925</v>
       </c>
       <c r="B982" t="s">
-        <v>2001</v>
+        <v>1925</v>
       </c>
       <c r="D982">
         <v>1057</v>
       </c>
       <c r="G982" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="983" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A983" t="s">
-        <v>2002</v>
+        <v>1926</v>
       </c>
       <c r="B983" t="s">
-        <v>2002</v>
+        <v>1926</v>
       </c>
       <c r="D983">
         <v>1058</v>
       </c>
       <c r="G983" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="984" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A984" t="s">
-        <v>2003</v>
+        <v>1927</v>
       </c>
       <c r="B984" t="s">
-        <v>2003</v>
+        <v>1927</v>
       </c>
       <c r="D984">
         <v>1059</v>
       </c>
       <c r="G984" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="985" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A985" t="s">
-        <v>2004</v>
+        <v>1928</v>
       </c>
       <c r="B985" t="s">
-        <v>2004</v>
+        <v>1928</v>
       </c>
       <c r="D985">
         <v>1060</v>
       </c>
       <c r="G985" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="986" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A986" t="s">
-        <v>2005</v>
+        <v>1929</v>
       </c>
       <c r="B986" t="s">
-        <v>2005</v>
+        <v>1929</v>
       </c>
       <c r="D986">
         <v>1061</v>
       </c>
       <c r="G986" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="987" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A987" t="s">
-        <v>2006</v>
+        <v>1930</v>
       </c>
       <c r="B987" t="s">
-        <v>2006</v>
+        <v>1930</v>
       </c>
       <c r="D987">
         <v>1062</v>
       </c>
       <c r="G987" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="988" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A988" t="s">
-        <v>2007</v>
+        <v>1931</v>
       </c>
       <c r="B988" t="s">
-        <v>2007</v>
+        <v>1931</v>
       </c>
       <c r="D988">
         <v>1063</v>
       </c>
       <c r="G988" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="989" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A989" t="s">
-        <v>2008</v>
+        <v>1932</v>
       </c>
       <c r="B989" t="s">
-        <v>2008</v>
+        <v>1932</v>
       </c>
       <c r="D989">
         <v>1064</v>
       </c>
       <c r="G989" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="990" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A990" t="s">
-        <v>2009</v>
+        <v>1933</v>
       </c>
       <c r="B990" t="s">
-        <v>2009</v>
+        <v>1933</v>
       </c>
       <c r="D990">
         <v>1065</v>
       </c>
       <c r="G990" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="991" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A991" t="s">
-        <v>2010</v>
+        <v>1934</v>
       </c>
       <c r="B991" t="s">
-        <v>2010</v>
+        <v>1934</v>
       </c>
       <c r="D991">
         <v>1066</v>
       </c>
       <c r="G991" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="992" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A992" t="s">
-        <v>2011</v>
+        <v>1935</v>
       </c>
       <c r="B992" t="s">
-        <v>2011</v>
+        <v>1935</v>
       </c>
       <c r="D992">
         <v>1067</v>
       </c>
       <c r="G992" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="993" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A993" t="s">
-        <v>2012</v>
+        <v>1936</v>
       </c>
       <c r="B993" t="s">
-        <v>2012</v>
+        <v>1936</v>
       </c>
       <c r="D993">
         <v>1068</v>
       </c>
       <c r="G993" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="994" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A994" t="s">
-        <v>2013</v>
+        <v>1937</v>
       </c>
       <c r="B994" t="s">
-        <v>2013</v>
+        <v>1937</v>
       </c>
       <c r="D994">
         <v>1069</v>
       </c>
       <c r="G994" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="995" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A995" t="s">
-        <v>2014</v>
+        <v>1938</v>
       </c>
       <c r="B995" t="s">
-        <v>2014</v>
+        <v>1938</v>
       </c>
       <c r="D995">
         <v>1070</v>
       </c>
       <c r="G995" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="996" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A996" t="s">
-        <v>2015</v>
+        <v>1939</v>
       </c>
       <c r="B996" t="s">
-        <v>2015</v>
+        <v>1939</v>
       </c>
       <c r="D996">
         <v>1071</v>
       </c>
       <c r="G996" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="997" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A997" t="s">
-        <v>2016</v>
+        <v>1940</v>
       </c>
       <c r="B997" t="s">
-        <v>2016</v>
+        <v>1940</v>
       </c>
       <c r="D997">
         <v>1072</v>
       </c>
       <c r="G997" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="998" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A998" t="s">
-        <v>2017</v>
+        <v>1941</v>
       </c>
       <c r="B998" t="s">
-        <v>2017</v>
+        <v>1941</v>
       </c>
       <c r="D998">
         <v>1073</v>
       </c>
       <c r="G998" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="999" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A999" t="s">
-        <v>2018</v>
+        <v>1942</v>
       </c>
       <c r="B999" t="s">
-        <v>2018</v>
+        <v>1942</v>
       </c>
       <c r="D999">
         <v>1074</v>
       </c>
       <c r="G999" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1000" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1000" t="s">
-        <v>2019</v>
+        <v>1943</v>
       </c>
       <c r="B1000" t="s">
-        <v>2019</v>
+        <v>1943</v>
       </c>
       <c r="D1000">
         <v>1075</v>
       </c>
       <c r="G1000" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1001" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1001" t="s">
-        <v>2020</v>
+        <v>1944</v>
       </c>
       <c r="B1001" t="s">
-        <v>2020</v>
+        <v>1944</v>
       </c>
       <c r="D1001">
         <v>1076</v>
       </c>
       <c r="G1001" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1002" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1002" t="s">
-        <v>2021</v>
+        <v>1945</v>
       </c>
       <c r="B1002" t="s">
-        <v>2021</v>
+        <v>1945</v>
       </c>
       <c r="D1002">
         <v>1077</v>
       </c>
       <c r="G1002" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1003" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1003" t="s">
-        <v>2022</v>
+        <v>1946</v>
       </c>
       <c r="B1003" t="s">
-        <v>2022</v>
+        <v>1946</v>
       </c>
       <c r="D1003">
         <v>1078</v>
       </c>
       <c r="G1003" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1004" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1004" t="s">
-        <v>2023</v>
+        <v>1947</v>
       </c>
       <c r="B1004" t="s">
-        <v>2023</v>
+        <v>1947</v>
       </c>
       <c r="D1004">
         <v>1079</v>
       </c>
       <c r="G1004" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1005" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1005" t="s">
-        <v>2024</v>
+        <v>1948</v>
       </c>
       <c r="B1005" t="s">
-        <v>2024</v>
+        <v>1948</v>
       </c>
       <c r="D1005">
         <v>1080</v>
       </c>
       <c r="G1005" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1006" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1006" t="s">
-        <v>2025</v>
+        <v>1949</v>
       </c>
       <c r="B1006" t="s">
-        <v>2025</v>
+        <v>1949</v>
       </c>
       <c r="D1006">
         <v>1081</v>
       </c>
       <c r="G1006" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1007" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1007" t="s">
-        <v>2026</v>
+        <v>1950</v>
       </c>
       <c r="B1007" t="s">
-        <v>2026</v>
+        <v>1950</v>
       </c>
       <c r="D1007">
         <v>1082</v>
       </c>
       <c r="G1007" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1008" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1008" t="s">
-        <v>2027</v>
+        <v>1951</v>
       </c>
       <c r="B1008" t="s">
-        <v>2027</v>
+        <v>1951</v>
       </c>
       <c r="D1008">
         <v>1083</v>
       </c>
       <c r="G1008" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1009" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1009" t="s">
-        <v>2028</v>
+        <v>1952</v>
       </c>
       <c r="B1009" t="s">
-        <v>2028</v>
+        <v>1952</v>
       </c>
       <c r="D1009">
         <v>1084</v>
       </c>
       <c r="G1009" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1010" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1010" t="s">
-        <v>2029</v>
+        <v>1953</v>
       </c>
       <c r="B1010" t="s">
-        <v>2029</v>
+        <v>1953</v>
       </c>
       <c r="D1010">
         <v>1085</v>
       </c>
       <c r="G1010" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1011" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1011" t="s">
-        <v>2030</v>
+        <v>1954</v>
       </c>
       <c r="B1011" t="s">
-        <v>2030</v>
+        <v>1954</v>
       </c>
       <c r="D1011">
         <v>1086</v>
       </c>
       <c r="G1011" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1012" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1012" t="s">
-        <v>2031</v>
+        <v>1955</v>
       </c>
       <c r="B1012" t="s">
-        <v>2031</v>
+        <v>1955</v>
       </c>
       <c r="D1012">
         <v>1087</v>
       </c>
       <c r="G1012" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1013" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1013" t="s">
-        <v>2032</v>
+        <v>1956</v>
       </c>
       <c r="B1013" t="s">
-        <v>2032</v>
+        <v>1956</v>
       </c>
       <c r="D1013">
         <v>1088</v>
       </c>
       <c r="G1013" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1014" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1014" t="s">
-        <v>2033</v>
+        <v>1957</v>
       </c>
       <c r="B1014" t="s">
-        <v>2033</v>
+        <v>1957</v>
       </c>
       <c r="D1014">
         <v>1089</v>
       </c>
       <c r="G1014" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1015" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1015" t="s">
-        <v>2034</v>
+        <v>1958</v>
       </c>
       <c r="B1015" t="s">
-        <v>2034</v>
+        <v>1958</v>
       </c>
       <c r="D1015">
         <v>1090</v>
       </c>
       <c r="G1015" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1016" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1016" t="s">
-        <v>2035</v>
+        <v>1959</v>
       </c>
       <c r="B1016" t="s">
-        <v>2035</v>
+        <v>1959</v>
       </c>
       <c r="D1016">
         <v>1091</v>
       </c>
       <c r="G1016" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1017" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1017" t="s">
-        <v>2036</v>
+        <v>1960</v>
       </c>
       <c r="B1017" t="s">
-        <v>2036</v>
+        <v>1960</v>
       </c>
       <c r="D1017">
         <v>1092</v>
       </c>
       <c r="G1017" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1018" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1018" t="s">
-        <v>2037</v>
+        <v>1961</v>
       </c>
       <c r="B1018" t="s">
-        <v>2037</v>
+        <v>1961</v>
       </c>
       <c r="D1018">
         <v>1093</v>
       </c>
       <c r="G1018" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1019" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1019" t="s">
-        <v>2038</v>
+        <v>1962</v>
       </c>
       <c r="B1019" t="s">
-        <v>2038</v>
+        <v>1962</v>
       </c>
       <c r="D1019">
         <v>1094</v>
       </c>
       <c r="G1019" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1020" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1020" t="s">
-        <v>2039</v>
+        <v>1963</v>
       </c>
       <c r="B1020" t="s">
-        <v>2039</v>
+        <v>1963</v>
       </c>
       <c r="D1020">
         <v>1095</v>
       </c>
       <c r="G1020" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1021" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1021" t="s">
-        <v>2040</v>
+        <v>1964</v>
       </c>
       <c r="B1021" t="s">
-        <v>2040</v>
+        <v>1964</v>
       </c>
       <c r="D1021">
         <v>1096</v>
       </c>
       <c r="G1021" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1022" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1022" t="s">
-        <v>2041</v>
+        <v>1965</v>
       </c>
       <c r="B1022" t="s">
-        <v>2041</v>
+        <v>1965</v>
       </c>
       <c r="D1022">
         <v>1097</v>
       </c>
       <c r="G1022" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1023" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1023" t="s">
-        <v>2042</v>
+        <v>1966</v>
       </c>
       <c r="B1023" t="s">
-        <v>2042</v>
+        <v>1966</v>
       </c>
       <c r="D1023">
         <v>1098</v>
       </c>
       <c r="G1023" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1024" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1024" t="s">
-        <v>2043</v>
+        <v>1967</v>
       </c>
       <c r="B1024" t="s">
-        <v>2043</v>
+        <v>1967</v>
       </c>
       <c r="D1024">
         <v>1099</v>
       </c>
       <c r="G1024" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1025" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1025" t="s">
-        <v>1941</v>
+        <v>1865</v>
       </c>
       <c r="B1025" t="s">
-        <v>1941</v>
+        <v>1865</v>
       </c>
       <c r="D1025">
         <v>1100</v>
       </c>
       <c r="G1025" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1026" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1026" t="s">
-        <v>1942</v>
+        <v>1866</v>
       </c>
       <c r="B1026" t="s">
-        <v>1942</v>
+        <v>1866</v>
       </c>
       <c r="D1026">
         <v>1101</v>
       </c>
       <c r="G1026" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1027" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1027" t="s">
-        <v>1943</v>
+        <v>1867</v>
       </c>
       <c r="B1027" t="s">
-        <v>1943</v>
+        <v>1867</v>
       </c>
       <c r="D1027">
         <v>1102</v>
       </c>
       <c r="G1027" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1028" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1028" t="s">
-        <v>1944</v>
+        <v>1868</v>
       </c>
       <c r="B1028" t="s">
-        <v>1944</v>
+        <v>1868</v>
       </c>
       <c r="D1028">
         <v>1103</v>
       </c>
       <c r="G1028" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1029" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1029" t="s">
-        <v>1945</v>
+        <v>1869</v>
       </c>
       <c r="B1029" t="s">
-        <v>1945</v>
+        <v>1869</v>
       </c>
       <c r="D1029">
         <v>1104</v>
       </c>
       <c r="G1029" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1030" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1030" t="s">
-        <v>1946</v>
+        <v>1870</v>
       </c>
       <c r="B1030" t="s">
-        <v>1946</v>
+        <v>1870</v>
       </c>
       <c r="D1030">
         <v>1105</v>
       </c>
       <c r="G1030" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1031" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1031" t="s">
-        <v>1947</v>
+        <v>1871</v>
       </c>
       <c r="B1031" t="s">
-        <v>1947</v>
+        <v>1871</v>
       </c>
       <c r="D1031">
         <v>1106</v>
       </c>
       <c r="G1031" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1032" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1032" t="s">
-        <v>1948</v>
+        <v>1872</v>
       </c>
       <c r="B1032" t="s">
-        <v>1948</v>
+        <v>1872</v>
       </c>
       <c r="D1032">
         <v>1107</v>
       </c>
       <c r="G1032" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1033" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1033" t="s">
-        <v>1949</v>
+        <v>1873</v>
       </c>
       <c r="B1033" t="s">
-        <v>1949</v>
+        <v>1873</v>
       </c>
       <c r="D1033">
         <v>1108</v>
       </c>
       <c r="G1033" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1034" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1034" t="s">
-        <v>1950</v>
+        <v>1874</v>
       </c>
       <c r="B1034" t="s">
-        <v>1950</v>
+        <v>1874</v>
       </c>
       <c r="D1034">
         <v>1109</v>
       </c>
       <c r="G1034" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1035" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1035" t="s">
-        <v>1951</v>
+        <v>1875</v>
       </c>
       <c r="B1035" t="s">
-        <v>1951</v>
+        <v>1875</v>
       </c>
       <c r="D1035">
         <v>1110</v>
       </c>
       <c r="G1035" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1036" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1036" t="s">
-        <v>1952</v>
+        <v>1876</v>
       </c>
       <c r="B1036" t="s">
-        <v>1952</v>
+        <v>1876</v>
       </c>
       <c r="D1036">
         <v>1111</v>
       </c>
       <c r="G1036" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1037" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1037" t="s">
-        <v>1953</v>
+        <v>1877</v>
       </c>
       <c r="B1037" t="s">
-        <v>1953</v>
+        <v>1877</v>
       </c>
       <c r="D1037">
         <v>1112</v>
       </c>
       <c r="G1037" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1038" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1038" t="s">
-        <v>1954</v>
+        <v>1878</v>
       </c>
       <c r="B1038" t="s">
-        <v>1954</v>
+        <v>1878</v>
       </c>
       <c r="D1038">
         <v>1113</v>
       </c>
       <c r="G1038" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1039" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1039" t="s">
-        <v>1955</v>
+        <v>1879</v>
       </c>
       <c r="B1039" t="s">
-        <v>1955</v>
+        <v>1879</v>
       </c>
       <c r="D1039">
         <v>1114</v>
       </c>
       <c r="G1039" t="s">
-        <v>1963</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1040" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1040" t="s">
-        <v>1956</v>
+        <v>1880</v>
       </c>
       <c r="B1040" t="s">
-        <v>1956</v>
+        <v>1880</v>
       </c>
       <c r="D1040">
         <v>1115</v>
       </c>
       <c r="G1040" t="s">
-        <v>1963</v>
-      </c>
-    </row>
-    <row r="1041" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1041" t="s">
-        <v>1957</v>
+        <v>1881</v>
       </c>
       <c r="B1041" t="s">
-        <v>1957</v>
+        <v>1881</v>
       </c>
       <c r="D1041">
         <v>1116</v>
       </c>
       <c r="G1041" t="s">
-        <v>1963</v>
-      </c>
-    </row>
-    <row r="1042" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1042" t="s">
-        <v>1958</v>
+        <v>1882</v>
       </c>
       <c r="B1042" t="s">
-        <v>1958</v>
+        <v>1882</v>
       </c>
       <c r="D1042">
         <v>1117</v>
       </c>
       <c r="G1042" t="s">
-        <v>1963</v>
-      </c>
-    </row>
-    <row r="1043" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1043" t="s">
-        <v>1959</v>
+        <v>1883</v>
       </c>
       <c r="B1043" t="s">
-        <v>1959</v>
+        <v>1883</v>
       </c>
       <c r="D1043">
         <v>1118</v>
       </c>
       <c r="G1043" t="s">
-        <v>1963</v>
-      </c>
-    </row>
-    <row r="1044" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1044" t="s">
-        <v>1960</v>
+        <v>1884</v>
       </c>
       <c r="B1044" t="s">
-        <v>1960</v>
+        <v>1884</v>
       </c>
       <c r="D1044">
         <v>1119</v>
       </c>
       <c r="G1044" t="s">
-        <v>1963</v>
-      </c>
-    </row>
-    <row r="1045" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1045" t="s">
         <v>1711</v>
       </c>
@@ -22669,10 +22453,10 @@
         <v>1711</v>
       </c>
       <c r="D1045">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="1046" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1046" t="s">
         <v>1712</v>
       </c>
@@ -22680,10 +22464,10 @@
         <v>1712</v>
       </c>
       <c r="D1046">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="1047" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1047" t="s">
         <v>1713</v>
       </c>
@@ -22691,10 +22475,10 @@
         <v>1713</v>
       </c>
       <c r="D1047">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="1048" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1048" t="s">
         <v>1714</v>
       </c>
@@ -22702,1319 +22486,483 @@
         <v>1714</v>
       </c>
       <c r="D1048">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="1049" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1049" t="s">
-        <v>1715</v>
+        <v>1968</v>
       </c>
       <c r="B1049" t="s">
-        <v>1715</v>
+        <v>1968</v>
       </c>
       <c r="D1049">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="1050" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1050" t="s">
-        <v>1716</v>
+        <v>1969</v>
       </c>
       <c r="B1050" t="s">
-        <v>1716</v>
+        <v>1969</v>
       </c>
       <c r="D1050">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="1051" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1051" t="s">
-        <v>1717</v>
+        <v>1970</v>
       </c>
       <c r="B1051" t="s">
-        <v>1717</v>
+        <v>1970</v>
       </c>
       <c r="D1051">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="1052" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2082</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1052" t="s">
-        <v>1718</v>
+        <v>1971</v>
       </c>
       <c r="B1052" t="s">
-        <v>1718</v>
+        <v>1971</v>
       </c>
       <c r="D1052">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="1053" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2083</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1053" t="s">
-        <v>1719</v>
+        <v>1972</v>
       </c>
       <c r="B1053" t="s">
-        <v>1719</v>
+        <v>1972</v>
       </c>
       <c r="D1053">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="1054" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1054" t="s">
-        <v>1720</v>
+        <v>1810</v>
       </c>
       <c r="B1054" t="s">
-        <v>1720</v>
+        <v>1810</v>
+      </c>
+      <c r="C1054" t="s">
+        <v>1809</v>
       </c>
       <c r="D1054">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="1055" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3001</v>
+      </c>
+      <c r="I1054"/>
+    </row>
+    <row r="1055" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1055" t="s">
-        <v>1721</v>
+        <v>1812</v>
       </c>
       <c r="B1055" t="s">
-        <v>1721</v>
+        <v>1812</v>
+      </c>
+      <c r="C1055" t="s">
+        <v>1811</v>
       </c>
       <c r="D1055">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="1056" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3002</v>
+      </c>
+      <c r="I1055"/>
+    </row>
+    <row r="1056" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1056" t="s">
-        <v>1722</v>
+        <v>1814</v>
       </c>
       <c r="B1056" t="s">
-        <v>1722</v>
+        <v>1814</v>
+      </c>
+      <c r="C1056" t="s">
+        <v>1813</v>
       </c>
       <c r="D1056">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="1057" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3003</v>
+      </c>
+      <c r="I1056"/>
+    </row>
+    <row r="1057" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1057" t="s">
-        <v>1723</v>
+        <v>1816</v>
       </c>
       <c r="B1057" t="s">
-        <v>1723</v>
+        <v>1816</v>
+      </c>
+      <c r="C1057" t="s">
+        <v>1815</v>
       </c>
       <c r="D1057">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="1058" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3004</v>
+      </c>
+      <c r="I1057"/>
+    </row>
+    <row r="1058" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1058" t="s">
-        <v>1724</v>
+        <v>1818</v>
       </c>
       <c r="B1058" t="s">
-        <v>1724</v>
+        <v>1818</v>
+      </c>
+      <c r="C1058" t="s">
+        <v>1817</v>
       </c>
       <c r="D1058">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="1059" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3005</v>
+      </c>
+      <c r="I1058"/>
+    </row>
+    <row r="1059" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1059" t="s">
-        <v>1725</v>
+        <v>1820</v>
       </c>
       <c r="B1059" t="s">
-        <v>1725</v>
+        <v>1820</v>
+      </c>
+      <c r="C1059" t="s">
+        <v>1819</v>
       </c>
       <c r="D1059">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="1060" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3006</v>
+      </c>
+      <c r="I1059"/>
+    </row>
+    <row r="1060" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1060" t="s">
-        <v>1726</v>
+        <v>1822</v>
       </c>
       <c r="B1060" t="s">
-        <v>1726</v>
+        <v>1822</v>
+      </c>
+      <c r="C1060" t="s">
+        <v>1821</v>
       </c>
       <c r="D1060">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="1061" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3007</v>
+      </c>
+      <c r="I1060"/>
+    </row>
+    <row r="1061" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1061" t="s">
-        <v>1727</v>
+        <v>1824</v>
       </c>
       <c r="B1061" t="s">
-        <v>1727</v>
+        <v>1824</v>
+      </c>
+      <c r="C1061" t="s">
+        <v>1823</v>
       </c>
       <c r="D1061">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="1062" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3008</v>
+      </c>
+      <c r="I1061"/>
+    </row>
+    <row r="1062" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1062" t="s">
-        <v>1728</v>
+        <v>1826</v>
       </c>
       <c r="B1062" t="s">
-        <v>1728</v>
+        <v>1826</v>
+      </c>
+      <c r="C1062" t="s">
+        <v>1825</v>
       </c>
       <c r="D1062">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="1063" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3009</v>
+      </c>
+      <c r="I1062"/>
+    </row>
+    <row r="1063" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1063" t="s">
-        <v>1729</v>
+        <v>1828</v>
       </c>
       <c r="B1063" t="s">
-        <v>1729</v>
+        <v>1828</v>
+      </c>
+      <c r="C1063" t="s">
+        <v>1827</v>
       </c>
       <c r="D1063">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="1064" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3010</v>
+      </c>
+      <c r="I1063"/>
+    </row>
+    <row r="1064" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1064" t="s">
-        <v>1730</v>
+        <v>1830</v>
       </c>
       <c r="B1064" t="s">
-        <v>1730</v>
+        <v>1830</v>
+      </c>
+      <c r="C1064" t="s">
+        <v>1829</v>
       </c>
       <c r="D1064">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="1065" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3011</v>
+      </c>
+      <c r="I1064"/>
+    </row>
+    <row r="1065" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1065" t="s">
-        <v>1731</v>
+        <v>1832</v>
       </c>
       <c r="B1065" t="s">
-        <v>1731</v>
+        <v>1832</v>
+      </c>
+      <c r="C1065" t="s">
+        <v>1831</v>
       </c>
       <c r="D1065">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="1066" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3012</v>
+      </c>
+      <c r="I1065"/>
+    </row>
+    <row r="1066" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1066" t="s">
-        <v>1732</v>
+        <v>1834</v>
       </c>
       <c r="B1066" t="s">
-        <v>1732</v>
+        <v>1834</v>
+      </c>
+      <c r="C1066" t="s">
+        <v>1833</v>
       </c>
       <c r="D1066">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="1067" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3013</v>
+      </c>
+      <c r="I1066"/>
+    </row>
+    <row r="1067" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1067" t="s">
-        <v>1733</v>
+        <v>1836</v>
       </c>
       <c r="B1067" t="s">
-        <v>1733</v>
+        <v>1836</v>
+      </c>
+      <c r="C1067" t="s">
+        <v>1835</v>
       </c>
       <c r="D1067">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="1068" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3014</v>
+      </c>
+      <c r="I1067"/>
+    </row>
+    <row r="1068" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1068" t="s">
-        <v>1734</v>
+        <v>1838</v>
       </c>
       <c r="B1068" t="s">
-        <v>1734</v>
+        <v>1838</v>
+      </c>
+      <c r="C1068" t="s">
+        <v>1837</v>
       </c>
       <c r="D1068">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="1069" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3015</v>
+      </c>
+      <c r="I1068"/>
+    </row>
+    <row r="1069" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1069" t="s">
-        <v>1735</v>
+        <v>1840</v>
       </c>
       <c r="B1069" t="s">
-        <v>1735</v>
+        <v>1840</v>
+      </c>
+      <c r="C1069" t="s">
+        <v>1839</v>
       </c>
       <c r="D1069">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="1070" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3016</v>
+      </c>
+      <c r="I1069"/>
+    </row>
+    <row r="1070" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1070" t="s">
-        <v>1736</v>
+        <v>1842</v>
       </c>
       <c r="B1070" t="s">
-        <v>1736</v>
+        <v>1842</v>
+      </c>
+      <c r="C1070" t="s">
+        <v>1841</v>
       </c>
       <c r="D1070">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="1071" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3017</v>
+      </c>
+      <c r="I1070"/>
+    </row>
+    <row r="1071" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1071" t="s">
-        <v>1737</v>
+        <v>1844</v>
       </c>
       <c r="B1071" t="s">
-        <v>1737</v>
+        <v>1844</v>
+      </c>
+      <c r="C1071" t="s">
+        <v>1843</v>
       </c>
       <c r="D1071">
-        <v>2026</v>
-      </c>
-    </row>
-    <row r="1072" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3018</v>
+      </c>
+      <c r="I1071"/>
+    </row>
+    <row r="1072" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1072" t="s">
-        <v>1738</v>
+        <v>1846</v>
       </c>
       <c r="B1072" t="s">
-        <v>1738</v>
+        <v>1846</v>
+      </c>
+      <c r="C1072" t="s">
+        <v>1845</v>
       </c>
       <c r="D1072">
-        <v>2027</v>
-      </c>
-    </row>
-    <row r="1073" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3019</v>
+      </c>
+      <c r="I1072"/>
+    </row>
+    <row r="1073" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1073" t="s">
-        <v>1739</v>
+        <v>1848</v>
       </c>
       <c r="B1073" t="s">
-        <v>1739</v>
+        <v>1848</v>
+      </c>
+      <c r="C1073" t="s">
+        <v>1847</v>
       </c>
       <c r="D1073">
-        <v>2028</v>
-      </c>
-    </row>
-    <row r="1074" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3020</v>
+      </c>
+      <c r="I1073"/>
+    </row>
+    <row r="1074" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1074" t="s">
-        <v>1740</v>
+        <v>1850</v>
       </c>
       <c r="B1074" t="s">
-        <v>1740</v>
+        <v>1850</v>
+      </c>
+      <c r="C1074" t="s">
+        <v>1849</v>
       </c>
       <c r="D1074">
-        <v>2029</v>
-      </c>
-    </row>
-    <row r="1075" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3021</v>
+      </c>
+      <c r="I1074"/>
+    </row>
+    <row r="1075" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1075" t="s">
-        <v>1741</v>
+        <v>1852</v>
       </c>
       <c r="B1075" t="s">
-        <v>1741</v>
+        <v>1852</v>
+      </c>
+      <c r="C1075" t="s">
+        <v>1851</v>
       </c>
       <c r="D1075">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="1076" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3022</v>
+      </c>
+      <c r="I1075"/>
+    </row>
+    <row r="1076" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1076" t="s">
-        <v>1742</v>
+        <v>1854</v>
       </c>
       <c r="B1076" t="s">
-        <v>1742</v>
+        <v>1854</v>
+      </c>
+      <c r="C1076" t="s">
+        <v>1853</v>
       </c>
       <c r="D1076">
-        <v>2031</v>
-      </c>
-    </row>
-    <row r="1077" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3023</v>
+      </c>
+      <c r="I1076"/>
+    </row>
+    <row r="1077" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1077" t="s">
-        <v>1743</v>
+        <v>1856</v>
       </c>
       <c r="B1077" t="s">
-        <v>1743</v>
+        <v>1856</v>
+      </c>
+      <c r="C1077" t="s">
+        <v>1855</v>
       </c>
       <c r="D1077">
-        <v>2032</v>
-      </c>
-    </row>
-    <row r="1078" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3024</v>
+      </c>
+      <c r="I1077"/>
+    </row>
+    <row r="1078" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1078" t="s">
-        <v>1744</v>
+        <v>1858</v>
       </c>
       <c r="B1078" t="s">
-        <v>1744</v>
+        <v>1858</v>
+      </c>
+      <c r="C1078" t="s">
+        <v>1857</v>
       </c>
       <c r="D1078">
-        <v>2033</v>
-      </c>
-    </row>
-    <row r="1079" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3025</v>
+      </c>
+      <c r="I1078"/>
+    </row>
+    <row r="1079" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1079" t="s">
-        <v>1745</v>
+        <v>1860</v>
       </c>
       <c r="B1079" t="s">
-        <v>1745</v>
+        <v>1860</v>
+      </c>
+      <c r="C1079" t="s">
+        <v>1859</v>
       </c>
       <c r="D1079">
-        <v>2034</v>
-      </c>
-    </row>
-    <row r="1080" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3026</v>
+      </c>
+      <c r="I1079"/>
+    </row>
+    <row r="1080" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1080" t="s">
-        <v>1746</v>
+        <v>1862</v>
       </c>
       <c r="B1080" t="s">
-        <v>1746</v>
+        <v>1862</v>
+      </c>
+      <c r="C1080" t="s">
+        <v>1861</v>
       </c>
       <c r="D1080">
-        <v>2035</v>
-      </c>
-    </row>
-    <row r="1081" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3027</v>
+      </c>
+      <c r="I1080"/>
+    </row>
+    <row r="1081" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1081" t="s">
-        <v>1747</v>
+        <v>1864</v>
       </c>
       <c r="B1081" t="s">
-        <v>1747</v>
+        <v>1864</v>
+      </c>
+      <c r="C1081" t="s">
+        <v>1863</v>
       </c>
       <c r="D1081">
-        <v>2036</v>
-      </c>
-    </row>
-    <row r="1082" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1082" t="s">
-        <v>1748</v>
-      </c>
-      <c r="B1082" t="s">
-        <v>1748</v>
-      </c>
-      <c r="D1082">
-        <v>2037</v>
-      </c>
-    </row>
-    <row r="1083" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1083" t="s">
-        <v>1749</v>
-      </c>
-      <c r="B1083" t="s">
-        <v>1749</v>
-      </c>
-      <c r="D1083">
-        <v>2038</v>
-      </c>
-    </row>
-    <row r="1084" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1084" t="s">
-        <v>1750</v>
-      </c>
-      <c r="B1084" t="s">
-        <v>1750</v>
-      </c>
-      <c r="D1084">
-        <v>2039</v>
-      </c>
-    </row>
-    <row r="1085" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1085" t="s">
-        <v>1751</v>
-      </c>
-      <c r="B1085" t="s">
-        <v>1751</v>
-      </c>
-      <c r="D1085">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="1086" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1086" t="s">
-        <v>1752</v>
-      </c>
-      <c r="B1086" t="s">
-        <v>1752</v>
-      </c>
-      <c r="D1086">
-        <v>2041</v>
-      </c>
-    </row>
-    <row r="1087" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1087" t="s">
-        <v>1753</v>
-      </c>
-      <c r="B1087" t="s">
-        <v>1753</v>
-      </c>
-      <c r="D1087">
-        <v>2042</v>
-      </c>
-    </row>
-    <row r="1088" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1088" t="s">
-        <v>1754</v>
-      </c>
-      <c r="B1088" t="s">
-        <v>1754</v>
-      </c>
-      <c r="D1088">
-        <v>2043</v>
-      </c>
-    </row>
-    <row r="1089" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1089" t="s">
-        <v>1755</v>
-      </c>
-      <c r="B1089" t="s">
-        <v>1755</v>
-      </c>
-      <c r="D1089">
-        <v>2044</v>
-      </c>
-    </row>
-    <row r="1090" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1090" t="s">
-        <v>1756</v>
-      </c>
-      <c r="B1090" t="s">
-        <v>1756</v>
-      </c>
-      <c r="D1090">
-        <v>2045</v>
-      </c>
-    </row>
-    <row r="1091" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1091" t="s">
-        <v>1757</v>
-      </c>
-      <c r="B1091" t="s">
-        <v>1757</v>
-      </c>
-      <c r="D1091">
-        <v>2046</v>
-      </c>
-    </row>
-    <row r="1092" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1092" t="s">
-        <v>1758</v>
-      </c>
-      <c r="B1092" t="s">
-        <v>1758</v>
-      </c>
-      <c r="D1092">
-        <v>2047</v>
-      </c>
-    </row>
-    <row r="1093" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1093" t="s">
-        <v>1759</v>
-      </c>
-      <c r="B1093" t="s">
-        <v>1759</v>
-      </c>
-      <c r="D1093">
-        <v>2048</v>
-      </c>
-    </row>
-    <row r="1094" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1094" t="s">
-        <v>1760</v>
-      </c>
-      <c r="B1094" t="s">
-        <v>1760</v>
-      </c>
-      <c r="D1094">
-        <v>2049</v>
-      </c>
-    </row>
-    <row r="1095" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1095" t="s">
-        <v>1761</v>
-      </c>
-      <c r="B1095" t="s">
-        <v>1761</v>
-      </c>
-      <c r="D1095">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="1096" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1096" t="s">
-        <v>1762</v>
-      </c>
-      <c r="B1096" t="s">
-        <v>1762</v>
-      </c>
-      <c r="D1096">
-        <v>2051</v>
-      </c>
-    </row>
-    <row r="1097" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1097" t="s">
-        <v>1763</v>
-      </c>
-      <c r="B1097" t="s">
-        <v>1763</v>
-      </c>
-      <c r="D1097">
-        <v>2052</v>
-      </c>
-    </row>
-    <row r="1098" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1098" t="s">
-        <v>1764</v>
-      </c>
-      <c r="B1098" t="s">
-        <v>1764</v>
-      </c>
-      <c r="D1098">
-        <v>2053</v>
-      </c>
-    </row>
-    <row r="1099" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1099" t="s">
-        <v>1765</v>
-      </c>
-      <c r="B1099" t="s">
-        <v>1765</v>
-      </c>
-      <c r="D1099">
-        <v>2054</v>
-      </c>
-    </row>
-    <row r="1100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1100" t="s">
-        <v>1766</v>
-      </c>
-      <c r="B1100" t="s">
-        <v>1766</v>
-      </c>
-      <c r="D1100">
-        <v>2055</v>
-      </c>
-    </row>
-    <row r="1101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1101" t="s">
-        <v>1767</v>
-      </c>
-      <c r="B1101" t="s">
-        <v>1767</v>
-      </c>
-      <c r="D1101">
-        <v>2056</v>
-      </c>
-    </row>
-    <row r="1102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1102" t="s">
-        <v>1768</v>
-      </c>
-      <c r="B1102" t="s">
-        <v>1768</v>
-      </c>
-      <c r="D1102">
-        <v>2057</v>
-      </c>
-    </row>
-    <row r="1103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1103" t="s">
-        <v>1769</v>
-      </c>
-      <c r="B1103" t="s">
-        <v>1769</v>
-      </c>
-      <c r="D1103">
-        <v>2058</v>
-      </c>
-    </row>
-    <row r="1104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1104" t="s">
-        <v>1770</v>
-      </c>
-      <c r="B1104" t="s">
-        <v>1770</v>
-      </c>
-      <c r="D1104">
-        <v>2059</v>
-      </c>
-    </row>
-    <row r="1105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1105" t="s">
-        <v>1771</v>
-      </c>
-      <c r="B1105" t="s">
-        <v>1771</v>
-      </c>
-      <c r="D1105">
-        <v>2060</v>
-      </c>
-    </row>
-    <row r="1106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1106" t="s">
-        <v>1772</v>
-      </c>
-      <c r="B1106" t="s">
-        <v>1772</v>
-      </c>
-      <c r="D1106">
-        <v>2061</v>
-      </c>
-    </row>
-    <row r="1107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1107" t="s">
-        <v>1773</v>
-      </c>
-      <c r="B1107" t="s">
-        <v>1773</v>
-      </c>
-      <c r="D1107">
-        <v>2062</v>
-      </c>
-    </row>
-    <row r="1108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1108" t="s">
-        <v>1774</v>
-      </c>
-      <c r="B1108" t="s">
-        <v>1774</v>
-      </c>
-      <c r="D1108">
-        <v>2063</v>
-      </c>
-    </row>
-    <row r="1109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1109" t="s">
-        <v>1775</v>
-      </c>
-      <c r="B1109" t="s">
-        <v>1775</v>
-      </c>
-      <c r="D1109">
-        <v>2064</v>
-      </c>
-    </row>
-    <row r="1110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1110" t="s">
-        <v>1776</v>
-      </c>
-      <c r="B1110" t="s">
-        <v>1776</v>
-      </c>
-      <c r="D1110">
-        <v>2065</v>
-      </c>
-    </row>
-    <row r="1111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1111" t="s">
-        <v>1777</v>
-      </c>
-      <c r="B1111" t="s">
-        <v>1777</v>
-      </c>
-      <c r="D1111">
-        <v>2066</v>
-      </c>
-    </row>
-    <row r="1112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1112" t="s">
-        <v>1778</v>
-      </c>
-      <c r="B1112" t="s">
-        <v>1778</v>
-      </c>
-      <c r="D1112">
-        <v>2067</v>
-      </c>
-    </row>
-    <row r="1113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1113" t="s">
-        <v>1779</v>
-      </c>
-      <c r="B1113" t="s">
-        <v>1779</v>
-      </c>
-      <c r="D1113">
-        <v>2068</v>
-      </c>
-    </row>
-    <row r="1114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1114" t="s">
-        <v>1780</v>
-      </c>
-      <c r="B1114" t="s">
-        <v>1780</v>
-      </c>
-      <c r="D1114">
-        <v>2069</v>
-      </c>
-    </row>
-    <row r="1115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1115" t="s">
-        <v>1781</v>
-      </c>
-      <c r="B1115" t="s">
-        <v>1781</v>
-      </c>
-      <c r="D1115">
-        <v>2070</v>
-      </c>
-    </row>
-    <row r="1116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1116" t="s">
-        <v>1782</v>
-      </c>
-      <c r="B1116" t="s">
-        <v>1782</v>
-      </c>
-      <c r="D1116">
-        <v>2071</v>
-      </c>
-    </row>
-    <row r="1117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1117" t="s">
-        <v>1783</v>
-      </c>
-      <c r="B1117" t="s">
-        <v>1783</v>
-      </c>
-      <c r="D1117">
-        <v>2072</v>
-      </c>
-    </row>
-    <row r="1118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1118" t="s">
-        <v>1784</v>
-      </c>
-      <c r="B1118" t="s">
-        <v>1784</v>
-      </c>
-      <c r="D1118">
-        <v>2073</v>
-      </c>
-    </row>
-    <row r="1119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1119" t="s">
-        <v>1785</v>
-      </c>
-      <c r="B1119" t="s">
-        <v>1785</v>
-      </c>
-      <c r="D1119">
-        <v>2074</v>
-      </c>
-    </row>
-    <row r="1120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1120" t="s">
-        <v>1786</v>
-      </c>
-      <c r="B1120" t="s">
-        <v>1786</v>
-      </c>
-      <c r="D1120">
-        <v>2075</v>
-      </c>
-    </row>
-    <row r="1121" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1121" t="s">
-        <v>1787</v>
-      </c>
-      <c r="B1121" t="s">
-        <v>1787</v>
-      </c>
-      <c r="D1121">
-        <v>2076</v>
-      </c>
-    </row>
-    <row r="1122" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1122" t="s">
-        <v>1788</v>
-      </c>
-      <c r="B1122" t="s">
-        <v>1788</v>
-      </c>
-      <c r="D1122">
-        <v>2077</v>
-      </c>
-    </row>
-    <row r="1123" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1123" t="s">
-        <v>1789</v>
-      </c>
-      <c r="B1123" t="s">
-        <v>1789</v>
-      </c>
-      <c r="D1123">
-        <v>2078</v>
-      </c>
-    </row>
-    <row r="1124" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1124" t="s">
-        <v>1790</v>
-      </c>
-      <c r="B1124" t="s">
-        <v>1790</v>
-      </c>
-      <c r="D1124">
-        <v>2079</v>
-      </c>
-    </row>
-    <row r="1125" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1125" t="s">
-        <v>2044</v>
-      </c>
-      <c r="B1125" t="s">
-        <v>2044</v>
-      </c>
-      <c r="D1125">
-        <v>2080</v>
-      </c>
-    </row>
-    <row r="1126" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1126" t="s">
-        <v>2045</v>
-      </c>
-      <c r="B1126" t="s">
-        <v>2045</v>
-      </c>
-      <c r="D1126">
-        <v>2081</v>
-      </c>
-    </row>
-    <row r="1127" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1127" t="s">
-        <v>2046</v>
-      </c>
-      <c r="B1127" t="s">
-        <v>2046</v>
-      </c>
-      <c r="D1127">
-        <v>2082</v>
-      </c>
-    </row>
-    <row r="1128" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1128" t="s">
-        <v>2047</v>
-      </c>
-      <c r="B1128" t="s">
-        <v>2047</v>
-      </c>
-      <c r="D1128">
-        <v>2083</v>
-      </c>
-    </row>
-    <row r="1129" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1129" t="s">
-        <v>2048</v>
-      </c>
-      <c r="B1129" t="s">
-        <v>2048</v>
-      </c>
-      <c r="D1129">
-        <v>2084</v>
-      </c>
-    </row>
-    <row r="1130" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1130" t="s">
-        <v>1886</v>
-      </c>
-      <c r="B1130" t="s">
-        <v>1886</v>
-      </c>
-      <c r="C1130" t="s">
-        <v>1885</v>
-      </c>
-      <c r="D1130">
-        <v>3001</v>
-      </c>
-      <c r="I1130"/>
-    </row>
-    <row r="1131" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1131" t="s">
-        <v>1888</v>
-      </c>
-      <c r="B1131" t="s">
-        <v>1888</v>
-      </c>
-      <c r="C1131" t="s">
-        <v>1887</v>
-      </c>
-      <c r="D1131">
-        <v>3002</v>
-      </c>
-      <c r="I1131"/>
-    </row>
-    <row r="1132" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1132" t="s">
-        <v>1890</v>
-      </c>
-      <c r="B1132" t="s">
-        <v>1890</v>
-      </c>
-      <c r="C1132" t="s">
-        <v>1889</v>
-      </c>
-      <c r="D1132">
-        <v>3003</v>
-      </c>
-      <c r="I1132"/>
-    </row>
-    <row r="1133" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1133" t="s">
-        <v>1892</v>
-      </c>
-      <c r="B1133" t="s">
-        <v>1892</v>
-      </c>
-      <c r="C1133" t="s">
-        <v>1891</v>
-      </c>
-      <c r="D1133">
-        <v>3004</v>
-      </c>
-      <c r="I1133"/>
-    </row>
-    <row r="1134" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1134" t="s">
-        <v>1894</v>
-      </c>
-      <c r="B1134" t="s">
-        <v>1894</v>
-      </c>
-      <c r="C1134" t="s">
-        <v>1893</v>
-      </c>
-      <c r="D1134">
-        <v>3005</v>
-      </c>
-      <c r="I1134"/>
-    </row>
-    <row r="1135" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1135" t="s">
-        <v>1896</v>
-      </c>
-      <c r="B1135" t="s">
-        <v>1896</v>
-      </c>
-      <c r="C1135" t="s">
-        <v>1895</v>
-      </c>
-      <c r="D1135">
-        <v>3006</v>
-      </c>
-      <c r="I1135"/>
-    </row>
-    <row r="1136" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1136" t="s">
-        <v>1898</v>
-      </c>
-      <c r="B1136" t="s">
-        <v>1898</v>
-      </c>
-      <c r="C1136" t="s">
-        <v>1897</v>
-      </c>
-      <c r="D1136">
-        <v>3007</v>
-      </c>
-      <c r="I1136"/>
-    </row>
-    <row r="1137" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1137" t="s">
-        <v>1900</v>
-      </c>
-      <c r="B1137" t="s">
-        <v>1900</v>
-      </c>
-      <c r="C1137" t="s">
-        <v>1899</v>
-      </c>
-      <c r="D1137">
-        <v>3008</v>
-      </c>
-      <c r="I1137"/>
-    </row>
-    <row r="1138" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1138" t="s">
-        <v>1902</v>
-      </c>
-      <c r="B1138" t="s">
-        <v>1902</v>
-      </c>
-      <c r="C1138" t="s">
-        <v>1901</v>
-      </c>
-      <c r="D1138">
-        <v>3009</v>
-      </c>
-      <c r="I1138"/>
-    </row>
-    <row r="1139" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1139" t="s">
-        <v>1904</v>
-      </c>
-      <c r="B1139" t="s">
-        <v>1904</v>
-      </c>
-      <c r="C1139" t="s">
-        <v>1903</v>
-      </c>
-      <c r="D1139">
-        <v>3010</v>
-      </c>
-      <c r="I1139"/>
-    </row>
-    <row r="1140" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1140" t="s">
-        <v>1906</v>
-      </c>
-      <c r="B1140" t="s">
-        <v>1906</v>
-      </c>
-      <c r="C1140" t="s">
-        <v>1905</v>
-      </c>
-      <c r="D1140">
-        <v>3011</v>
-      </c>
-      <c r="I1140"/>
-    </row>
-    <row r="1141" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1141" t="s">
-        <v>1908</v>
-      </c>
-      <c r="B1141" t="s">
-        <v>1908</v>
-      </c>
-      <c r="C1141" t="s">
-        <v>1907</v>
-      </c>
-      <c r="D1141">
-        <v>3012</v>
-      </c>
-      <c r="I1141"/>
-    </row>
-    <row r="1142" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1142" t="s">
-        <v>1910</v>
-      </c>
-      <c r="B1142" t="s">
-        <v>1910</v>
-      </c>
-      <c r="C1142" t="s">
-        <v>1909</v>
-      </c>
-      <c r="D1142">
-        <v>3013</v>
-      </c>
-      <c r="I1142"/>
-    </row>
-    <row r="1143" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1143" t="s">
-        <v>1912</v>
-      </c>
-      <c r="B1143" t="s">
-        <v>1912</v>
-      </c>
-      <c r="C1143" t="s">
-        <v>1911</v>
-      </c>
-      <c r="D1143">
-        <v>3014</v>
-      </c>
-      <c r="I1143"/>
-    </row>
-    <row r="1144" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1144" t="s">
-        <v>1914</v>
-      </c>
-      <c r="B1144" t="s">
-        <v>1914</v>
-      </c>
-      <c r="C1144" t="s">
-        <v>1913</v>
-      </c>
-      <c r="D1144">
-        <v>3015</v>
-      </c>
-      <c r="I1144"/>
-    </row>
-    <row r="1145" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1145" t="s">
-        <v>1916</v>
-      </c>
-      <c r="B1145" t="s">
-        <v>1916</v>
-      </c>
-      <c r="C1145" t="s">
-        <v>1915</v>
-      </c>
-      <c r="D1145">
-        <v>3016</v>
-      </c>
-      <c r="I1145"/>
-    </row>
-    <row r="1146" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1146" t="s">
-        <v>1918</v>
-      </c>
-      <c r="B1146" t="s">
-        <v>1918</v>
-      </c>
-      <c r="C1146" t="s">
-        <v>1917</v>
-      </c>
-      <c r="D1146">
-        <v>3017</v>
-      </c>
-      <c r="I1146"/>
-    </row>
-    <row r="1147" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1147" t="s">
-        <v>1920</v>
-      </c>
-      <c r="B1147" t="s">
-        <v>1920</v>
-      </c>
-      <c r="C1147" t="s">
-        <v>1919</v>
-      </c>
-      <c r="D1147">
-        <v>3018</v>
-      </c>
-      <c r="I1147"/>
-    </row>
-    <row r="1148" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1148" t="s">
-        <v>1922</v>
-      </c>
-      <c r="B1148" t="s">
-        <v>1922</v>
-      </c>
-      <c r="C1148" t="s">
-        <v>1921</v>
-      </c>
-      <c r="D1148">
-        <v>3019</v>
-      </c>
-      <c r="I1148"/>
-    </row>
-    <row r="1149" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1149" t="s">
-        <v>1924</v>
-      </c>
-      <c r="B1149" t="s">
-        <v>1924</v>
-      </c>
-      <c r="C1149" t="s">
-        <v>1923</v>
-      </c>
-      <c r="D1149">
-        <v>3020</v>
-      </c>
-      <c r="I1149"/>
-    </row>
-    <row r="1150" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1150" t="s">
-        <v>1926</v>
-      </c>
-      <c r="B1150" t="s">
-        <v>1926</v>
-      </c>
-      <c r="C1150" t="s">
-        <v>1925</v>
-      </c>
-      <c r="D1150">
-        <v>3021</v>
-      </c>
-      <c r="I1150"/>
-    </row>
-    <row r="1151" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1151" t="s">
-        <v>1928</v>
-      </c>
-      <c r="B1151" t="s">
-        <v>1928</v>
-      </c>
-      <c r="C1151" t="s">
-        <v>1927</v>
-      </c>
-      <c r="D1151">
-        <v>3022</v>
-      </c>
-      <c r="I1151"/>
-    </row>
-    <row r="1152" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1152" t="s">
-        <v>1930</v>
-      </c>
-      <c r="B1152" t="s">
-        <v>1930</v>
-      </c>
-      <c r="C1152" t="s">
-        <v>1929</v>
-      </c>
-      <c r="D1152">
-        <v>3023</v>
-      </c>
-      <c r="I1152"/>
-    </row>
-    <row r="1153" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1153" t="s">
-        <v>1932</v>
-      </c>
-      <c r="B1153" t="s">
-        <v>1932</v>
-      </c>
-      <c r="C1153" t="s">
-        <v>1931</v>
-      </c>
-      <c r="D1153">
-        <v>3024</v>
-      </c>
-      <c r="I1153"/>
-    </row>
-    <row r="1154" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1154" t="s">
-        <v>1934</v>
-      </c>
-      <c r="B1154" t="s">
-        <v>1934</v>
-      </c>
-      <c r="C1154" t="s">
-        <v>1933</v>
-      </c>
-      <c r="D1154">
-        <v>3025</v>
-      </c>
-      <c r="I1154"/>
-    </row>
-    <row r="1155" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1155" t="s">
-        <v>1936</v>
-      </c>
-      <c r="B1155" t="s">
-        <v>1936</v>
-      </c>
-      <c r="C1155" t="s">
-        <v>1935</v>
-      </c>
-      <c r="D1155">
-        <v>3026</v>
-      </c>
-      <c r="I1155"/>
-    </row>
-    <row r="1156" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1156" t="s">
-        <v>1938</v>
-      </c>
-      <c r="B1156" t="s">
-        <v>1938</v>
-      </c>
-      <c r="C1156" t="s">
-        <v>1937</v>
-      </c>
-      <c r="D1156">
-        <v>3027</v>
-      </c>
-      <c r="I1156"/>
-    </row>
-    <row r="1157" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1157" t="s">
-        <v>1940</v>
-      </c>
-      <c r="B1157" t="s">
-        <v>1940</v>
-      </c>
-      <c r="C1157" t="s">
-        <v>1939</v>
-      </c>
-      <c r="D1157">
         <v>3028</v>
       </c>
-      <c r="I1157"/>
+      <c r="I1081"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:J1">

--- a/source/glyph_data.xlsx
+++ b/source/glyph_data.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">glyph_data!$A$1:$J$1</definedName>
-    <definedName name="glyph_data" localSheetId="0">glyph_data!$A$1:$J$1048</definedName>
+    <definedName name="glyph_data" localSheetId="0">glyph_data!$A$1:$J$1043</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3490" uniqueCount="1974">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3475" uniqueCount="1964">
   <si>
     <t>USV</t>
   </si>
@@ -3656,12 +3656,6 @@
     <t>duplicate of uni1381.seb5</t>
   </si>
   <si>
-    <t>uni1381.sebLes</t>
-  </si>
-  <si>
-    <t>duplicate of uni1381.sebLes1</t>
-  </si>
-  <si>
     <t>1382</t>
   </si>
   <si>
@@ -3683,12 +3677,6 @@
     <t>uni1383.sebLes4</t>
   </si>
   <si>
-    <t>uni1383.sebLes</t>
-  </si>
-  <si>
-    <t>duplicate of uni1383.sebLes4</t>
-  </si>
-  <si>
     <t>1384</t>
   </si>
   <si>
@@ -3722,12 +3710,6 @@
     <t>uni1387.sebLes2</t>
   </si>
   <si>
-    <t>uni1387.sebLes</t>
-  </si>
-  <si>
-    <t>duplicate of uni1387.sebLes2</t>
-  </si>
-  <si>
     <t>1388</t>
   </si>
   <si>
@@ -3764,12 +3746,6 @@
     <t>uni138B.sebLes3</t>
   </si>
   <si>
-    <t>uni138B.sebLes</t>
-  </si>
-  <si>
-    <t>duplicate of uni138B.sebLes3</t>
-  </si>
-  <si>
     <t xml:space="preserve">  138C</t>
   </si>
   <si>
@@ -3801,12 +3777,6 @@
   </si>
   <si>
     <t>uni138F.sebLes5</t>
-  </si>
-  <si>
-    <t>uni138F.sebLes</t>
-  </si>
-  <si>
-    <t>duplicate of uni138F.sebLes5</t>
   </si>
   <si>
     <t>1390</t>
@@ -6295,10 +6265,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1081"/>
+  <dimension ref="A1:J1076"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1032" workbookViewId="0">
-      <selection activeCell="A1048" sqref="A1048:XFD1048"/>
+    <sheetView tabSelected="1" topLeftCell="A663" workbookViewId="0">
+      <selection activeCell="A682" sqref="A682:XFD682"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6316,7 +6286,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1885</v>
+        <v>1875</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -6325,7 +6295,7 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>1886</v>
+        <v>1876</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -6390,7 +6360,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>1715</v>
+        <v>1705</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -6404,7 +6374,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>1716</v>
+        <v>1706</v>
       </c>
       <c r="D6">
         <v>4</v>
@@ -6433,7 +6403,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>1716</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -6444,7 +6414,7 @@
         <v>16</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>1717</v>
+        <v>1707</v>
       </c>
       <c r="D8">
         <v>6</v>
@@ -6458,7 +6428,7 @@
         <v>17</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>1744</v>
+        <v>1734</v>
       </c>
       <c r="D9">
         <v>7</v>
@@ -6472,7 +6442,7 @@
         <v>18</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>1745</v>
+        <v>1735</v>
       </c>
       <c r="D10">
         <v>8</v>
@@ -6501,7 +6471,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>1745</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -6512,7 +6482,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>1746</v>
+        <v>1736</v>
       </c>
       <c r="D12">
         <v>10</v>
@@ -6541,7 +6511,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>1746</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -6552,7 +6522,7 @@
         <v>22</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>1747</v>
+        <v>1737</v>
       </c>
       <c r="D14">
         <v>12</v>
@@ -6566,7 +6536,7 @@
         <v>23</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>1748</v>
+        <v>1738</v>
       </c>
       <c r="D15">
         <v>13</v>
@@ -6580,7 +6550,7 @@
         <v>24</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>1749</v>
+        <v>1739</v>
       </c>
       <c r="D16">
         <v>14</v>
@@ -6594,7 +6564,7 @@
         <v>25</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>1807</v>
+        <v>1797</v>
       </c>
       <c r="D17">
         <v>15</v>
@@ -6770,7 +6740,7 @@
         <v>41</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>1750</v>
+        <v>1740</v>
       </c>
       <c r="D27">
         <v>25</v>
@@ -6790,7 +6760,7 @@
         <v>43</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>1758</v>
+        <v>1748</v>
       </c>
       <c r="D28">
         <v>26</v>
@@ -6810,7 +6780,7 @@
         <v>45</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>1759</v>
+        <v>1749</v>
       </c>
       <c r="D29">
         <v>27</v>
@@ -6830,7 +6800,7 @@
         <v>47</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
       <c r="D30">
         <v>28</v>
@@ -6850,7 +6820,7 @@
         <v>49</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>1761</v>
+        <v>1751</v>
       </c>
       <c r="D31">
         <v>29</v>
@@ -6870,7 +6840,7 @@
         <v>51</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>1762</v>
+        <v>1752</v>
       </c>
       <c r="D32">
         <v>30</v>
@@ -6890,7 +6860,7 @@
         <v>53</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>1763</v>
+        <v>1753</v>
       </c>
       <c r="D33">
         <v>31</v>
@@ -6910,7 +6880,7 @@
         <v>55</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>1764</v>
+        <v>1754</v>
       </c>
       <c r="D34">
         <v>32</v>
@@ -6930,7 +6900,7 @@
         <v>57</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>1765</v>
+        <v>1755</v>
       </c>
       <c r="D35">
         <v>33</v>
@@ -6950,7 +6920,7 @@
         <v>59</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>1766</v>
+        <v>1756</v>
       </c>
       <c r="D36">
         <v>34</v>
@@ -6979,7 +6949,7 @@
         <v>1</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>1750</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -6999,7 +6969,7 @@
         <v>1</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>1758</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -7019,7 +6989,7 @@
         <v>1</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>1759</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -7039,7 +7009,7 @@
         <v>1</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -7059,7 +7029,7 @@
         <v>1</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>1761</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -7079,7 +7049,7 @@
         <v>1</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>1762</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -7099,7 +7069,7 @@
         <v>1</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>1763</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -7119,7 +7089,7 @@
         <v>1</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>1764</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -7139,7 +7109,7 @@
         <v>1</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>1765</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -7159,7 +7129,7 @@
         <v>1</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>1766</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -7306,7 +7276,7 @@
         <v>75</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>1767</v>
+        <v>1757</v>
       </c>
       <c r="D55">
         <v>53</v>
@@ -7320,7 +7290,7 @@
         <v>76</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>1768</v>
+        <v>1758</v>
       </c>
       <c r="D56">
         <v>54</v>
@@ -7334,7 +7304,7 @@
         <v>77</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>1769</v>
+        <v>1759</v>
       </c>
       <c r="D57">
         <v>55</v>
@@ -7348,7 +7318,7 @@
         <v>78</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>1770</v>
+        <v>1760</v>
       </c>
       <c r="D58">
         <v>56</v>
@@ -7362,7 +7332,7 @@
         <v>79</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>1771</v>
+        <v>1761</v>
       </c>
       <c r="D59">
         <v>57</v>
@@ -7376,7 +7346,7 @@
         <v>80</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>1772</v>
+        <v>1762</v>
       </c>
       <c r="D60">
         <v>58</v>
@@ -7390,7 +7360,7 @@
         <v>81</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>1773</v>
+        <v>1763</v>
       </c>
       <c r="D61">
         <v>59</v>
@@ -7404,7 +7374,7 @@
         <v>82</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>1774</v>
+        <v>1764</v>
       </c>
       <c r="D62">
         <v>60</v>
@@ -7418,7 +7388,7 @@
         <v>83</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>1775</v>
+        <v>1765</v>
       </c>
       <c r="D63">
         <v>61</v>
@@ -7432,7 +7402,7 @@
         <v>84</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>1776</v>
+        <v>1766</v>
       </c>
       <c r="D64">
         <v>62</v>
@@ -7530,7 +7500,7 @@
         <v>97</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>1777</v>
+        <v>1767</v>
       </c>
       <c r="D71">
         <v>69</v>
@@ -7544,7 +7514,7 @@
         <v>98</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>1778</v>
+        <v>1768</v>
       </c>
       <c r="D72">
         <v>70</v>
@@ -7558,7 +7528,7 @@
         <v>99</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>1779</v>
+        <v>1769</v>
       </c>
       <c r="D73">
         <v>71</v>
@@ -7572,7 +7542,7 @@
         <v>100</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>1780</v>
+        <v>1770</v>
       </c>
       <c r="D74">
         <v>72</v>
@@ -7586,7 +7556,7 @@
         <v>101</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>1781</v>
+        <v>1771</v>
       </c>
       <c r="D75">
         <v>73</v>
@@ -7600,7 +7570,7 @@
         <v>102</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>1782</v>
+        <v>1772</v>
       </c>
       <c r="D76">
         <v>74</v>
@@ -7614,7 +7584,7 @@
         <v>103</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>1783</v>
+        <v>1773</v>
       </c>
       <c r="D77">
         <v>75</v>
@@ -7628,7 +7598,7 @@
         <v>104</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>1784</v>
+        <v>1774</v>
       </c>
       <c r="D78">
         <v>76</v>
@@ -7642,7 +7612,7 @@
         <v>105</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>1785</v>
+        <v>1775</v>
       </c>
       <c r="D79">
         <v>77</v>
@@ -7656,7 +7626,7 @@
         <v>106</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>1786</v>
+        <v>1776</v>
       </c>
       <c r="D80">
         <v>78</v>
@@ -7754,7 +7724,7 @@
         <v>119</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>1787</v>
+        <v>1777</v>
       </c>
       <c r="D87">
         <v>85</v>
@@ -7768,7 +7738,7 @@
         <v>120</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>1788</v>
+        <v>1778</v>
       </c>
       <c r="D88">
         <v>86</v>
@@ -7782,7 +7752,7 @@
         <v>121</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>1789</v>
+        <v>1779</v>
       </c>
       <c r="D89">
         <v>87</v>
@@ -7796,7 +7766,7 @@
         <v>122</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>1790</v>
+        <v>1780</v>
       </c>
       <c r="D90">
         <v>88</v>
@@ -7810,7 +7780,7 @@
         <v>123</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>1791</v>
+        <v>1781</v>
       </c>
       <c r="D91">
         <v>89</v>
@@ -7824,7 +7794,7 @@
         <v>124</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>1792</v>
+        <v>1782</v>
       </c>
       <c r="D92">
         <v>90</v>
@@ -7838,7 +7808,7 @@
         <v>125</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>1793</v>
+        <v>1783</v>
       </c>
       <c r="D93">
         <v>91</v>
@@ -7852,7 +7822,7 @@
         <v>126</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>1794</v>
+        <v>1784</v>
       </c>
       <c r="D94">
         <v>92</v>
@@ -7866,7 +7836,7 @@
         <v>127</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>1795</v>
+        <v>1785</v>
       </c>
       <c r="D95">
         <v>93</v>
@@ -7880,7 +7850,7 @@
         <v>128</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>1796</v>
+        <v>1786</v>
       </c>
       <c r="D96">
         <v>94</v>
@@ -7978,7 +7948,7 @@
         <v>141</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>1797</v>
+        <v>1787</v>
       </c>
       <c r="D103">
         <v>101</v>
@@ -7992,7 +7962,7 @@
         <v>142</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>1798</v>
+        <v>1788</v>
       </c>
       <c r="D104">
         <v>102</v>
@@ -8006,7 +7976,7 @@
         <v>143</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>1799</v>
+        <v>1789</v>
       </c>
       <c r="D105">
         <v>103</v>
@@ -8020,7 +7990,7 @@
         <v>144</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>1800</v>
+        <v>1790</v>
       </c>
       <c r="D106">
         <v>104</v>
@@ -8034,7 +8004,7 @@
         <v>145</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>1801</v>
+        <v>1791</v>
       </c>
       <c r="D107">
         <v>105</v>
@@ -8048,7 +8018,7 @@
         <v>146</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>1802</v>
+        <v>1792</v>
       </c>
       <c r="D108">
         <v>106</v>
@@ -8062,7 +8032,7 @@
         <v>147</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>1803</v>
+        <v>1793</v>
       </c>
       <c r="D109">
         <v>107</v>
@@ -8076,7 +8046,7 @@
         <v>148</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>1804</v>
+        <v>1794</v>
       </c>
       <c r="D110">
         <v>108</v>
@@ -8090,7 +8060,7 @@
         <v>149</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>1805</v>
+        <v>1795</v>
       </c>
       <c r="D111">
         <v>109</v>
@@ -8104,7 +8074,7 @@
         <v>150</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>1806</v>
+        <v>1796</v>
       </c>
       <c r="D112">
         <v>110</v>
@@ -8182,10 +8152,10 @@
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>1808</v>
+        <v>1798</v>
       </c>
       <c r="B118" t="s">
-        <v>1808</v>
+        <v>1798</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>161</v>
@@ -9292,7 +9262,7 @@
         <v>296</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>1718</v>
+        <v>1708</v>
       </c>
       <c r="D190">
         <v>188</v>
@@ -9306,7 +9276,7 @@
         <v>297</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>1719</v>
+        <v>1709</v>
       </c>
       <c r="D191">
         <v>189</v>
@@ -9320,7 +9290,7 @@
         <v>298</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>1720</v>
+        <v>1710</v>
       </c>
       <c r="D192">
         <v>190</v>
@@ -9334,7 +9304,7 @@
         <v>299</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>1721</v>
+        <v>1711</v>
       </c>
       <c r="D193">
         <v>191</v>
@@ -9348,7 +9318,7 @@
         <v>300</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>1722</v>
+        <v>1712</v>
       </c>
       <c r="D194">
         <v>192</v>
@@ -9362,7 +9332,7 @@
         <v>301</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>1723</v>
+        <v>1713</v>
       </c>
       <c r="D195">
         <v>193</v>
@@ -9376,7 +9346,7 @@
         <v>302</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>1724</v>
+        <v>1714</v>
       </c>
       <c r="D196">
         <v>194</v>
@@ -9390,7 +9360,7 @@
         <v>303</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>1725</v>
+        <v>1715</v>
       </c>
       <c r="D197">
         <v>195</v>
@@ -9404,7 +9374,7 @@
         <v>304</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>1726</v>
+        <v>1716</v>
       </c>
       <c r="D198">
         <v>196</v>
@@ -9418,7 +9388,7 @@
         <v>305</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>1727</v>
+        <v>1717</v>
       </c>
       <c r="D199">
         <v>197</v>
@@ -9740,7 +9710,7 @@
         <v>350</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>1737</v>
+        <v>1727</v>
       </c>
       <c r="D222">
         <v>220</v>
@@ -9754,7 +9724,7 @@
         <v>351</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>1738</v>
+        <v>1728</v>
       </c>
       <c r="D223">
         <v>221</v>
@@ -9768,7 +9738,7 @@
         <v>352</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>1739</v>
+        <v>1729</v>
       </c>
       <c r="D224">
         <v>222</v>
@@ -9782,7 +9752,7 @@
         <v>353</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>1740</v>
+        <v>1730</v>
       </c>
       <c r="D225">
         <v>223</v>
@@ -9796,7 +9766,7 @@
         <v>354</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>1741</v>
+        <v>1731</v>
       </c>
       <c r="D226">
         <v>224</v>
@@ -9810,7 +9780,7 @@
         <v>355</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>1742</v>
+        <v>1732</v>
       </c>
       <c r="D227">
         <v>225</v>
@@ -9852,7 +9822,7 @@
         <v>360</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>1743</v>
+        <v>1733</v>
       </c>
       <c r="D230">
         <v>228</v>
@@ -10006,7 +9976,7 @@
         <v>381</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>1751</v>
+        <v>1741</v>
       </c>
       <c r="D241">
         <v>239</v>
@@ -10020,7 +9990,7 @@
         <v>382</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>1752</v>
+        <v>1742</v>
       </c>
       <c r="D242">
         <v>240</v>
@@ -10034,7 +10004,7 @@
         <v>383</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>1753</v>
+        <v>1743</v>
       </c>
       <c r="D243">
         <v>241</v>
@@ -10048,7 +10018,7 @@
         <v>384</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>1754</v>
+        <v>1744</v>
       </c>
       <c r="D244">
         <v>242</v>
@@ -10062,7 +10032,7 @@
         <v>385</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>1755</v>
+        <v>1745</v>
       </c>
       <c r="D245">
         <v>243</v>
@@ -10076,7 +10046,7 @@
         <v>386</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>1756</v>
+        <v>1746</v>
       </c>
       <c r="D246">
         <v>244</v>
@@ -10090,7 +10060,7 @@
         <v>387</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>1757</v>
+        <v>1747</v>
       </c>
       <c r="D247">
         <v>245</v>
@@ -13820,7 +13790,7 @@
         <v>852</v>
       </c>
       <c r="C486" s="2" t="s">
-        <v>1728</v>
+        <v>1718</v>
       </c>
       <c r="D486">
         <v>486</v>
@@ -13849,7 +13819,7 @@
         <v>1</v>
       </c>
       <c r="I487" s="1" t="s">
-        <v>1728</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="488" spans="1:9" x14ac:dyDescent="0.25">
@@ -13869,7 +13839,7 @@
         <v>2</v>
       </c>
       <c r="I488" s="1" t="s">
-        <v>1728</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="489" spans="1:9" x14ac:dyDescent="0.25">
@@ -13880,7 +13850,7 @@
         <v>856</v>
       </c>
       <c r="C489" s="2" t="s">
-        <v>1729</v>
+        <v>1719</v>
       </c>
       <c r="D489">
         <v>489</v>
@@ -13909,7 +13879,7 @@
         <v>1</v>
       </c>
       <c r="I490" s="1" t="s">
-        <v>1729</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="491" spans="1:9" x14ac:dyDescent="0.25">
@@ -13929,7 +13899,7 @@
         <v>2</v>
       </c>
       <c r="I491" s="1" t="s">
-        <v>1729</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="492" spans="1:9" x14ac:dyDescent="0.25">
@@ -13954,7 +13924,7 @@
         <v>860</v>
       </c>
       <c r="C493" s="2" t="s">
-        <v>1730</v>
+        <v>1720</v>
       </c>
       <c r="D493">
         <v>493</v>
@@ -13983,7 +13953,7 @@
         <v>1</v>
       </c>
       <c r="I494" s="1" t="s">
-        <v>1730</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="495" spans="1:9" x14ac:dyDescent="0.25">
@@ -14003,7 +13973,7 @@
         <v>2</v>
       </c>
       <c r="I495" s="1" t="s">
-        <v>1730</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="496" spans="1:9" x14ac:dyDescent="0.25">
@@ -14014,7 +13984,7 @@
         <v>863</v>
       </c>
       <c r="C496" s="2" t="s">
-        <v>1731</v>
+        <v>1721</v>
       </c>
       <c r="D496">
         <v>496</v>
@@ -14043,7 +14013,7 @@
         <v>1</v>
       </c>
       <c r="I497" s="1" t="s">
-        <v>1731</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="498" spans="1:9" x14ac:dyDescent="0.25">
@@ -14063,7 +14033,7 @@
         <v>2</v>
       </c>
       <c r="I498" s="1" t="s">
-        <v>1731</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="499" spans="1:9" x14ac:dyDescent="0.25">
@@ -14074,7 +14044,7 @@
         <v>866</v>
       </c>
       <c r="C499" s="2" t="s">
-        <v>1732</v>
+        <v>1722</v>
       </c>
       <c r="D499">
         <v>499</v>
@@ -14103,7 +14073,7 @@
         <v>1</v>
       </c>
       <c r="I500" s="1" t="s">
-        <v>1732</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="501" spans="1:9" x14ac:dyDescent="0.25">
@@ -14123,7 +14093,7 @@
         <v>2</v>
       </c>
       <c r="I501" s="1" t="s">
-        <v>1732</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="502" spans="1:9" x14ac:dyDescent="0.25">
@@ -14134,7 +14104,7 @@
         <v>869</v>
       </c>
       <c r="C502" s="2" t="s">
-        <v>1733</v>
+        <v>1723</v>
       </c>
       <c r="D502">
         <v>503</v>
@@ -14163,7 +14133,7 @@
         <v>1</v>
       </c>
       <c r="I503" s="1" t="s">
-        <v>1733</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="504" spans="1:9" x14ac:dyDescent="0.25">
@@ -14183,7 +14153,7 @@
         <v>2</v>
       </c>
       <c r="I504" s="1" t="s">
-        <v>1733</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="505" spans="1:9" x14ac:dyDescent="0.25">
@@ -14194,7 +14164,7 @@
         <v>872</v>
       </c>
       <c r="C505" s="2" t="s">
-        <v>1734</v>
+        <v>1724</v>
       </c>
       <c r="D505">
         <v>506</v>
@@ -14208,7 +14178,7 @@
         <v>873</v>
       </c>
       <c r="C506" s="2" t="s">
-        <v>1735</v>
+        <v>1725</v>
       </c>
       <c r="D506">
         <v>507</v>
@@ -14222,7 +14192,7 @@
         <v>874</v>
       </c>
       <c r="C507" s="2" t="s">
-        <v>1736</v>
+        <v>1726</v>
       </c>
       <c r="D507">
         <v>508</v>
@@ -15939,7 +15909,7 @@
         <v>1</v>
       </c>
       <c r="I611" s="1" t="s">
-        <v>1973</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="612" spans="1:9" x14ac:dyDescent="0.25">
@@ -16682,16 +16652,16 @@
     </row>
     <row r="660" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B660" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C660" s="2" t="s">
         <v>1202</v>
       </c>
-      <c r="B660" t="s">
-        <v>1202</v>
-      </c>
       <c r="D660">
-        <v>664</v>
-      </c>
-      <c r="J660" t="s">
-        <v>1203</v>
+        <v>665</v>
       </c>
     </row>
     <row r="661" spans="1:10" x14ac:dyDescent="0.25">
@@ -16705,7 +16675,13 @@
         <v>1204</v>
       </c>
       <c r="D661">
-        <v>665</v>
+        <v>666</v>
+      </c>
+      <c r="G661" t="s">
+        <v>1206</v>
+      </c>
+      <c r="H661">
+        <v>0</v>
       </c>
     </row>
     <row r="662" spans="1:10" x14ac:dyDescent="0.25">
@@ -16715,34 +16691,34 @@
       <c r="B662" t="s">
         <v>1207</v>
       </c>
-      <c r="C662" s="2" t="s">
+      <c r="D662">
+        <v>667</v>
+      </c>
+      <c r="G662" t="s">
         <v>1206</v>
       </c>
-      <c r="D662">
-        <v>666</v>
-      </c>
-      <c r="G662" t="s">
-        <v>1208</v>
-      </c>
       <c r="H662">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I662" s="1">
+        <v>1383</v>
       </c>
     </row>
     <row r="663" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="B663" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D663">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="G663" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="H663">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I663" s="1">
         <v>1383</v>
@@ -16755,65 +16731,71 @@
       <c r="B664" t="s">
         <v>1210</v>
       </c>
+      <c r="C664" s="2" t="s">
+        <v>1209</v>
+      </c>
       <c r="D664">
-        <v>668</v>
-      </c>
-      <c r="G664" t="s">
-        <v>1208</v>
-      </c>
-      <c r="H664">
-        <v>2</v>
-      </c>
-      <c r="I664" s="1">
-        <v>1383</v>
+        <v>670</v>
       </c>
     </row>
     <row r="665" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B665" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C665" s="2" t="s">
         <v>1211</v>
       </c>
-      <c r="B665" t="s">
-        <v>1211</v>
-      </c>
       <c r="D665">
-        <v>669</v>
-      </c>
-      <c r="J665" t="s">
-        <v>1212</v>
+        <v>671</v>
+      </c>
+      <c r="G665" t="s">
+        <v>551</v>
+      </c>
+      <c r="H665">
+        <v>0</v>
       </c>
     </row>
     <row r="666" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="B666" t="s">
-        <v>1214</v>
-      </c>
-      <c r="C666" s="2" t="s">
         <v>1213</v>
       </c>
       <c r="D666">
-        <v>670</v>
+        <v>672</v>
+      </c>
+      <c r="E666" t="s">
+        <v>553</v>
+      </c>
+      <c r="F666" t="s">
+        <v>554</v>
+      </c>
+      <c r="G666" t="s">
+        <v>551</v>
+      </c>
+      <c r="H666">
+        <v>1</v>
+      </c>
+      <c r="I666" s="1">
+        <v>1385</v>
       </c>
     </row>
     <row r="667" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B667" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="C667" s="2" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="D667">
-        <v>671</v>
-      </c>
-      <c r="G667" t="s">
-        <v>551</v>
-      </c>
-      <c r="H667">
-        <v>0</v>
+        <v>673</v>
       </c>
     </row>
     <row r="668" spans="1:10" x14ac:dyDescent="0.25">
@@ -16823,23 +16805,17 @@
       <c r="B668" t="s">
         <v>1217</v>
       </c>
+      <c r="C668" s="2" t="s">
+        <v>1216</v>
+      </c>
       <c r="D668">
-        <v>672</v>
-      </c>
-      <c r="E668" t="s">
-        <v>553</v>
-      </c>
-      <c r="F668" t="s">
-        <v>554</v>
+        <v>674</v>
       </c>
       <c r="G668" t="s">
-        <v>551</v>
+        <v>1218</v>
       </c>
       <c r="H668">
-        <v>1</v>
-      </c>
-      <c r="I668" s="1">
-        <v>1385</v>
+        <v>0</v>
       </c>
     </row>
     <row r="669" spans="1:10" x14ac:dyDescent="0.25">
@@ -16849,11 +16825,17 @@
       <c r="B669" t="s">
         <v>1219</v>
       </c>
-      <c r="C669" s="2" t="s">
+      <c r="D669">
+        <v>675</v>
+      </c>
+      <c r="G669" t="s">
         <v>1218</v>
       </c>
-      <c r="D669">
-        <v>673</v>
+      <c r="H669">
+        <v>1</v>
+      </c>
+      <c r="I669" s="1">
+        <v>1387</v>
       </c>
     </row>
     <row r="670" spans="1:10" x14ac:dyDescent="0.25">
@@ -16867,13 +16849,7 @@
         <v>1220</v>
       </c>
       <c r="D670">
-        <v>674</v>
-      </c>
-      <c r="G670" t="s">
-        <v>1222</v>
-      </c>
-      <c r="H670">
-        <v>0</v>
+        <v>677</v>
       </c>
     </row>
     <row r="671" spans="1:10" x14ac:dyDescent="0.25">
@@ -16883,48 +16859,54 @@
       <c r="B671" t="s">
         <v>1223</v>
       </c>
+      <c r="C671" s="2" t="s">
+        <v>1222</v>
+      </c>
       <c r="D671">
-        <v>675</v>
-      </c>
-      <c r="G671" t="s">
-        <v>1222</v>
-      </c>
-      <c r="H671">
-        <v>1</v>
-      </c>
-      <c r="I671" s="1">
-        <v>1387</v>
+        <v>678</v>
       </c>
     </row>
     <row r="672" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B672" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C672" s="2" t="s">
         <v>1224</v>
       </c>
-      <c r="B672" t="s">
-        <v>1224</v>
-      </c>
       <c r="D672">
-        <v>676</v>
-      </c>
-      <c r="J672" t="s">
-        <v>1225</v>
-      </c>
-    </row>
-    <row r="673" spans="1:10" x14ac:dyDescent="0.25">
+        <v>679</v>
+      </c>
+      <c r="G672" t="s">
+        <v>1226</v>
+      </c>
+      <c r="H672">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="673" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
         <v>1227</v>
       </c>
       <c r="B673" t="s">
         <v>1227</v>
       </c>
-      <c r="C673" s="2" t="s">
+      <c r="D673">
+        <v>680</v>
+      </c>
+      <c r="G673" t="s">
         <v>1226</v>
       </c>
-      <c r="D673">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="674" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H673">
+        <v>1</v>
+      </c>
+      <c r="I673" s="1" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="674" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
         <v>1229</v>
       </c>
@@ -16935,50 +16917,50 @@
         <v>1228</v>
       </c>
       <c r="D674">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="675" spans="1:10" x14ac:dyDescent="0.25">
+        <v>681</v>
+      </c>
+      <c r="G674" t="s">
+        <v>1230</v>
+      </c>
+      <c r="H674">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="675" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
         <v>1231</v>
       </c>
       <c r="B675" t="s">
         <v>1231</v>
       </c>
-      <c r="C675" s="2" t="s">
+      <c r="D675">
+        <v>682</v>
+      </c>
+      <c r="G675" t="s">
         <v>1230</v>
       </c>
-      <c r="D675">
-        <v>679</v>
-      </c>
-      <c r="G675" t="s">
-        <v>1232</v>
-      </c>
       <c r="H675">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="676" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I675" s="1" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="676" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
         <v>1233</v>
       </c>
       <c r="B676" t="s">
         <v>1233</v>
       </c>
+      <c r="C676" s="2" t="s">
+        <v>1232</v>
+      </c>
       <c r="D676">
-        <v>680</v>
-      </c>
-      <c r="G676" t="s">
-        <v>1232</v>
-      </c>
-      <c r="H676">
-        <v>1</v>
-      </c>
-      <c r="I676" s="1" t="s">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="677" spans="1:10" x14ac:dyDescent="0.25">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="677" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
         <v>1235</v>
       </c>
@@ -16989,27 +16971,33 @@
         <v>1234</v>
       </c>
       <c r="D677">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="G677" t="s">
-        <v>1236</v>
+        <v>551</v>
       </c>
       <c r="H677">
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="B678" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="D678">
-        <v>682</v>
+        <v>686</v>
+      </c>
+      <c r="E678" t="s">
+        <v>553</v>
+      </c>
+      <c r="F678" t="s">
+        <v>554</v>
       </c>
       <c r="G678" t="s">
-        <v>1236</v>
+        <v>551</v>
       </c>
       <c r="H678">
         <v>1</v>
@@ -17018,81 +17006,75 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="679" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
         <v>1238</v>
       </c>
       <c r="B679" t="s">
         <v>1238</v>
       </c>
+      <c r="C679" s="2" t="s">
+        <v>1237</v>
+      </c>
       <c r="D679">
-        <v>683</v>
-      </c>
-      <c r="J679" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="680" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A680" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B680" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C680" s="2" t="s">
         <v>1239</v>
       </c>
-    </row>
-    <row r="680" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A680" t="s">
+      <c r="D680">
+        <v>688</v>
+      </c>
+      <c r="G680" t="s">
         <v>1241</v>
       </c>
-      <c r="B680" t="s">
+      <c r="H680">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="681" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A681" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B681" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D681">
+        <v>689</v>
+      </c>
+      <c r="G681" t="s">
         <v>1241</v>
       </c>
-      <c r="C680" s="2" t="s">
-        <v>1240</v>
-      </c>
-      <c r="D680">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="681" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A681" t="s">
-        <v>1243</v>
-      </c>
-      <c r="B681" t="s">
-        <v>1243</v>
-      </c>
-      <c r="C681" s="2" t="s">
-        <v>1242</v>
-      </c>
-      <c r="D681">
-        <v>685</v>
-      </c>
-      <c r="G681" t="s">
-        <v>551</v>
-      </c>
       <c r="H681">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="682" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I681" s="1" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="682" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
         <v>1244</v>
       </c>
       <c r="B682" t="s">
         <v>1244</v>
       </c>
+      <c r="C682" s="2" t="s">
+        <v>1243</v>
+      </c>
       <c r="D682">
-        <v>686</v>
-      </c>
-      <c r="E682" t="s">
-        <v>553</v>
-      </c>
-      <c r="F682" t="s">
-        <v>554</v>
-      </c>
-      <c r="G682" t="s">
-        <v>551</v>
-      </c>
-      <c r="H682">
-        <v>1</v>
-      </c>
-      <c r="I682" s="1" t="s">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="683" spans="1:10" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="683" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
         <v>1246</v>
       </c>
@@ -17103,10 +17085,10 @@
         <v>1245</v>
       </c>
       <c r="D683">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="684" spans="1:10" x14ac:dyDescent="0.25">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="684" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
         <v>1248</v>
       </c>
@@ -17117,50 +17099,38 @@
         <v>1247</v>
       </c>
       <c r="D684">
-        <v>688</v>
-      </c>
-      <c r="G684" t="s">
-        <v>1249</v>
-      </c>
-      <c r="H684">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="685" spans="1:10" x14ac:dyDescent="0.25">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="685" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
         <v>1250</v>
       </c>
       <c r="B685" t="s">
         <v>1250</v>
       </c>
+      <c r="C685" s="2" t="s">
+        <v>1249</v>
+      </c>
       <c r="D685">
-        <v>689</v>
-      </c>
-      <c r="G685" t="s">
-        <v>1249</v>
-      </c>
-      <c r="H685">
-        <v>1</v>
-      </c>
-      <c r="I685" s="1" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="686" spans="1:10" x14ac:dyDescent="0.25">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="686" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B686" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C686" s="2" t="s">
         <v>1251</v>
       </c>
-      <c r="B686" t="s">
-        <v>1251</v>
-      </c>
       <c r="D686">
-        <v>690</v>
-      </c>
-      <c r="J686" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="687" spans="1:10" x14ac:dyDescent="0.25">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="687" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
         <v>1254</v>
       </c>
@@ -17171,10 +17141,10 @@
         <v>1253</v>
       </c>
       <c r="D687">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="688" spans="1:10" x14ac:dyDescent="0.25">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="688" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
         <v>1256</v>
       </c>
@@ -17185,7 +17155,7 @@
         <v>1255</v>
       </c>
       <c r="D688">
-        <v>692</v>
+        <v>697</v>
       </c>
     </row>
     <row r="689" spans="1:4" x14ac:dyDescent="0.25">
@@ -17199,7 +17169,7 @@
         <v>1257</v>
       </c>
       <c r="D689">
-        <v>693</v>
+        <v>698</v>
       </c>
     </row>
     <row r="690" spans="1:4" x14ac:dyDescent="0.25">
@@ -17213,7 +17183,7 @@
         <v>1259</v>
       </c>
       <c r="D690">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="691" spans="1:4" x14ac:dyDescent="0.25">
@@ -17227,7 +17197,7 @@
         <v>1261</v>
       </c>
       <c r="D691">
-        <v>695</v>
+        <v>700</v>
       </c>
     </row>
     <row r="692" spans="1:4" x14ac:dyDescent="0.25">
@@ -17241,7 +17211,7 @@
         <v>1263</v>
       </c>
       <c r="D692">
-        <v>696</v>
+        <v>701</v>
       </c>
     </row>
     <row r="693" spans="1:4" x14ac:dyDescent="0.25">
@@ -17255,7 +17225,7 @@
         <v>1265</v>
       </c>
       <c r="D693">
-        <v>697</v>
+        <v>702</v>
       </c>
     </row>
     <row r="694" spans="1:4" x14ac:dyDescent="0.25">
@@ -17269,7 +17239,7 @@
         <v>1267</v>
       </c>
       <c r="D694">
-        <v>698</v>
+        <v>703</v>
       </c>
     </row>
     <row r="695" spans="1:4" x14ac:dyDescent="0.25">
@@ -17283,7 +17253,7 @@
         <v>1269</v>
       </c>
       <c r="D695">
-        <v>699</v>
+        <v>704</v>
       </c>
     </row>
     <row r="696" spans="1:4" x14ac:dyDescent="0.25">
@@ -17297,7 +17267,7 @@
         <v>1271</v>
       </c>
       <c r="D696">
-        <v>700</v>
+        <v>705</v>
       </c>
     </row>
     <row r="697" spans="1:4" x14ac:dyDescent="0.25">
@@ -17311,7 +17281,7 @@
         <v>1273</v>
       </c>
       <c r="D697">
-        <v>701</v>
+        <v>706</v>
       </c>
     </row>
     <row r="698" spans="1:4" x14ac:dyDescent="0.25">
@@ -17325,7 +17295,7 @@
         <v>1275</v>
       </c>
       <c r="D698">
-        <v>702</v>
+        <v>707</v>
       </c>
     </row>
     <row r="699" spans="1:4" x14ac:dyDescent="0.25">
@@ -17339,7 +17309,7 @@
         <v>1277</v>
       </c>
       <c r="D699">
-        <v>703</v>
+        <v>708</v>
       </c>
     </row>
     <row r="700" spans="1:4" x14ac:dyDescent="0.25">
@@ -17353,7 +17323,7 @@
         <v>1279</v>
       </c>
       <c r="D700">
-        <v>704</v>
+        <v>709</v>
       </c>
     </row>
     <row r="701" spans="1:4" x14ac:dyDescent="0.25">
@@ -17367,7 +17337,7 @@
         <v>1281</v>
       </c>
       <c r="D701">
-        <v>705</v>
+        <v>710</v>
       </c>
     </row>
     <row r="702" spans="1:4" x14ac:dyDescent="0.25">
@@ -17381,7 +17351,7 @@
         <v>1283</v>
       </c>
       <c r="D702">
-        <v>706</v>
+        <v>711</v>
       </c>
     </row>
     <row r="703" spans="1:4" x14ac:dyDescent="0.25">
@@ -17395,7 +17365,7 @@
         <v>1285</v>
       </c>
       <c r="D703">
-        <v>707</v>
+        <v>712</v>
       </c>
     </row>
     <row r="704" spans="1:4" x14ac:dyDescent="0.25">
@@ -17409,7 +17379,7 @@
         <v>1287</v>
       </c>
       <c r="D704">
-        <v>708</v>
+        <v>713</v>
       </c>
     </row>
     <row r="705" spans="1:9" x14ac:dyDescent="0.25">
@@ -17423,7 +17393,7 @@
         <v>1289</v>
       </c>
       <c r="D705">
-        <v>709</v>
+        <v>714</v>
       </c>
     </row>
     <row r="706" spans="1:9" x14ac:dyDescent="0.25">
@@ -17437,7 +17407,7 @@
         <v>1291</v>
       </c>
       <c r="D706">
-        <v>710</v>
+        <v>715</v>
       </c>
     </row>
     <row r="707" spans="1:9" x14ac:dyDescent="0.25">
@@ -17451,7 +17421,7 @@
         <v>1293</v>
       </c>
       <c r="D707">
-        <v>711</v>
+        <v>716</v>
       </c>
     </row>
     <row r="708" spans="1:9" x14ac:dyDescent="0.25">
@@ -17465,7 +17435,7 @@
         <v>1295</v>
       </c>
       <c r="D708">
-        <v>712</v>
+        <v>717</v>
       </c>
     </row>
     <row r="709" spans="1:9" x14ac:dyDescent="0.25">
@@ -17479,7 +17449,7 @@
         <v>1297</v>
       </c>
       <c r="D709">
-        <v>713</v>
+        <v>718</v>
       </c>
     </row>
     <row r="710" spans="1:9" x14ac:dyDescent="0.25">
@@ -17493,7 +17463,7 @@
         <v>1299</v>
       </c>
       <c r="D710">
-        <v>714</v>
+        <v>719</v>
       </c>
     </row>
     <row r="711" spans="1:9" x14ac:dyDescent="0.25">
@@ -17507,7 +17477,13 @@
         <v>1301</v>
       </c>
       <c r="D711">
-        <v>715</v>
+        <v>720</v>
+      </c>
+      <c r="G711" t="s">
+        <v>1303</v>
+      </c>
+      <c r="H711">
+        <v>0</v>
       </c>
     </row>
     <row r="712" spans="1:9" x14ac:dyDescent="0.25">
@@ -17517,11 +17493,17 @@
       <c r="B712" t="s">
         <v>1304</v>
       </c>
-      <c r="C712" s="2" t="s">
+      <c r="D712">
+        <v>721</v>
+      </c>
+      <c r="G712" t="s">
         <v>1303</v>
       </c>
-      <c r="D712">
-        <v>716</v>
+      <c r="H712">
+        <v>1</v>
+      </c>
+      <c r="I712" s="1" t="s">
+        <v>1301</v>
       </c>
     </row>
     <row r="713" spans="1:9" x14ac:dyDescent="0.25">
@@ -17535,198 +17517,186 @@
         <v>1305</v>
       </c>
       <c r="D713">
-        <v>717</v>
+        <v>722</v>
+      </c>
+      <c r="G713" t="s">
+        <v>1303</v>
+      </c>
+      <c r="H713">
+        <v>0</v>
       </c>
     </row>
     <row r="714" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="B714" t="s">
-        <v>1308</v>
-      </c>
-      <c r="C714" s="2" t="s">
         <v>1307</v>
       </c>
       <c r="D714">
-        <v>718</v>
+        <v>723</v>
+      </c>
+      <c r="G714" t="s">
+        <v>1303</v>
+      </c>
+      <c r="H714">
+        <v>1</v>
+      </c>
+      <c r="I714" s="1" t="s">
+        <v>1305</v>
       </c>
     </row>
     <row r="715" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="B715" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="C715" s="2" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="D715">
-        <v>719</v>
+        <v>724</v>
+      </c>
+      <c r="G715" t="s">
+        <v>1303</v>
+      </c>
+      <c r="H715">
+        <v>0</v>
       </c>
     </row>
     <row r="716" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="B716" t="s">
-        <v>1312</v>
-      </c>
-      <c r="C716" s="2" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="D716">
-        <v>720</v>
+        <v>725</v>
       </c>
       <c r="G716" t="s">
-        <v>1313</v>
+        <v>1303</v>
       </c>
       <c r="H716">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I716" s="1" t="s">
+        <v>1308</v>
       </c>
     </row>
     <row r="717" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="B717" t="s">
-        <v>1314</v>
+        <v>1312</v>
+      </c>
+      <c r="C717" s="2" t="s">
+        <v>1311</v>
       </c>
       <c r="D717">
-        <v>721</v>
+        <v>726</v>
       </c>
       <c r="G717" t="s">
-        <v>1313</v>
+        <v>1303</v>
       </c>
       <c r="H717">
-        <v>1</v>
-      </c>
-      <c r="I717" s="1" t="s">
-        <v>1311</v>
+        <v>0</v>
       </c>
     </row>
     <row r="718" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
       <c r="B718" t="s">
-        <v>1316</v>
-      </c>
-      <c r="C718" s="2" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="D718">
-        <v>722</v>
+        <v>727</v>
       </c>
       <c r="G718" t="s">
-        <v>1313</v>
+        <v>1303</v>
       </c>
       <c r="H718">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I718" s="1" t="s">
+        <v>1311</v>
       </c>
     </row>
     <row r="719" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="B719" t="s">
-        <v>1317</v>
+        <v>1315</v>
+      </c>
+      <c r="C719" s="2" t="s">
+        <v>1314</v>
       </c>
       <c r="D719">
-        <v>723</v>
-      </c>
-      <c r="G719" t="s">
-        <v>1313</v>
-      </c>
-      <c r="H719">
-        <v>1</v>
-      </c>
-      <c r="I719" s="1" t="s">
-        <v>1315</v>
+        <v>728</v>
       </c>
     </row>
     <row r="720" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B720" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C720" s="2" t="s">
+        <v>1316</v>
+      </c>
+      <c r="D720">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="721" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A721" t="s">
         <v>1319</v>
       </c>
-      <c r="B720" t="s">
+      <c r="B721" t="s">
         <v>1319</v>
       </c>
-      <c r="C720" s="2" t="s">
+      <c r="C721" s="2" t="s">
         <v>1318</v>
       </c>
-      <c r="D720">
-        <v>724</v>
-      </c>
-      <c r="G720" t="s">
-        <v>1313</v>
-      </c>
-      <c r="H720">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="721" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A721" t="s">
+      <c r="D721">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="722" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A722" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B722" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C722" s="2" t="s">
         <v>1320</v>
       </c>
-      <c r="B721" t="s">
-        <v>1320</v>
-      </c>
-      <c r="D721">
-        <v>725</v>
-      </c>
-      <c r="G721" t="s">
-        <v>1313</v>
-      </c>
-      <c r="H721">
-        <v>1</v>
-      </c>
-      <c r="I721" s="1" t="s">
-        <v>1318</v>
-      </c>
-    </row>
-    <row r="722" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A722" t="s">
-        <v>1322</v>
-      </c>
-      <c r="B722" t="s">
-        <v>1322</v>
-      </c>
-      <c r="C722" s="2" t="s">
-        <v>1321</v>
-      </c>
       <c r="D722">
-        <v>726</v>
-      </c>
-      <c r="G722" t="s">
-        <v>1313</v>
-      </c>
-      <c r="H722">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="723" spans="1:9" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="723" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
         <v>1323</v>
       </c>
       <c r="B723" t="s">
         <v>1323</v>
       </c>
+      <c r="C723" s="2" t="s">
+        <v>1322</v>
+      </c>
       <c r="D723">
-        <v>727</v>
-      </c>
-      <c r="G723" t="s">
-        <v>1313</v>
-      </c>
-      <c r="H723">
-        <v>1</v>
-      </c>
-      <c r="I723" s="1" t="s">
-        <v>1321</v>
-      </c>
-    </row>
-    <row r="724" spans="1:9" x14ac:dyDescent="0.25">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="724" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
         <v>1325</v>
       </c>
@@ -17737,10 +17707,10 @@
         <v>1324</v>
       </c>
       <c r="D724">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="725" spans="1:9" x14ac:dyDescent="0.25">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="725" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
         <v>1327</v>
       </c>
@@ -17751,10 +17721,10 @@
         <v>1326</v>
       </c>
       <c r="D725">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="726" spans="1:9" x14ac:dyDescent="0.25">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="726" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
         <v>1329</v>
       </c>
@@ -17765,10 +17735,10 @@
         <v>1328</v>
       </c>
       <c r="D726">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="727" spans="1:9" x14ac:dyDescent="0.25">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="727" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
         <v>1331</v>
       </c>
@@ -17779,10 +17749,10 @@
         <v>1330</v>
       </c>
       <c r="D727">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="728" spans="1:9" x14ac:dyDescent="0.25">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="728" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
         <v>1333</v>
       </c>
@@ -17793,10 +17763,10 @@
         <v>1332</v>
       </c>
       <c r="D728">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="729" spans="1:9" x14ac:dyDescent="0.25">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="729" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
         <v>1335</v>
       </c>
@@ -17807,10 +17777,10 @@
         <v>1334</v>
       </c>
       <c r="D729">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="730" spans="1:9" x14ac:dyDescent="0.25">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="730" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
         <v>1337</v>
       </c>
@@ -17821,10 +17791,10 @@
         <v>1336</v>
       </c>
       <c r="D730">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="731" spans="1:9" x14ac:dyDescent="0.25">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="731" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
         <v>1339</v>
       </c>
@@ -17835,10 +17805,10 @@
         <v>1338</v>
       </c>
       <c r="D731">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="732" spans="1:9" x14ac:dyDescent="0.25">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="732" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
         <v>1341</v>
       </c>
@@ -17849,10 +17819,10 @@
         <v>1340</v>
       </c>
       <c r="D732">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="733" spans="1:9" x14ac:dyDescent="0.25">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="733" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
         <v>1343</v>
       </c>
@@ -17863,10 +17833,10 @@
         <v>1342</v>
       </c>
       <c r="D733">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="734" spans="1:9" x14ac:dyDescent="0.25">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="734" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
         <v>1345</v>
       </c>
@@ -17877,10 +17847,10 @@
         <v>1344</v>
       </c>
       <c r="D734">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="735" spans="1:9" x14ac:dyDescent="0.25">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="735" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
         <v>1347</v>
       </c>
@@ -17891,10 +17861,10 @@
         <v>1346</v>
       </c>
       <c r="D735">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="736" spans="1:9" x14ac:dyDescent="0.25">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="736" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
         <v>1349</v>
       </c>
@@ -17905,7 +17875,7 @@
         <v>1348</v>
       </c>
       <c r="D736">
-        <v>740</v>
+        <v>745</v>
       </c>
     </row>
     <row r="737" spans="1:4" x14ac:dyDescent="0.25">
@@ -17919,7 +17889,7 @@
         <v>1350</v>
       </c>
       <c r="D737">
-        <v>741</v>
+        <v>746</v>
       </c>
     </row>
     <row r="738" spans="1:4" x14ac:dyDescent="0.25">
@@ -17933,7 +17903,7 @@
         <v>1352</v>
       </c>
       <c r="D738">
-        <v>742</v>
+        <v>747</v>
       </c>
     </row>
     <row r="739" spans="1:4" x14ac:dyDescent="0.25">
@@ -17947,7 +17917,7 @@
         <v>1354</v>
       </c>
       <c r="D739">
-        <v>743</v>
+        <v>748</v>
       </c>
     </row>
     <row r="740" spans="1:4" x14ac:dyDescent="0.25">
@@ -17961,7 +17931,7 @@
         <v>1356</v>
       </c>
       <c r="D740">
-        <v>744</v>
+        <v>749</v>
       </c>
     </row>
     <row r="741" spans="1:4" x14ac:dyDescent="0.25">
@@ -17975,7 +17945,7 @@
         <v>1358</v>
       </c>
       <c r="D741">
-        <v>745</v>
+        <v>750</v>
       </c>
     </row>
     <row r="742" spans="1:4" x14ac:dyDescent="0.25">
@@ -17989,7 +17959,7 @@
         <v>1360</v>
       </c>
       <c r="D742">
-        <v>746</v>
+        <v>751</v>
       </c>
     </row>
     <row r="743" spans="1:4" x14ac:dyDescent="0.25">
@@ -18003,7 +17973,7 @@
         <v>1362</v>
       </c>
       <c r="D743">
-        <v>747</v>
+        <v>752</v>
       </c>
     </row>
     <row r="744" spans="1:4" x14ac:dyDescent="0.25">
@@ -18017,7 +17987,7 @@
         <v>1364</v>
       </c>
       <c r="D744">
-        <v>748</v>
+        <v>753</v>
       </c>
     </row>
     <row r="745" spans="1:4" x14ac:dyDescent="0.25">
@@ -18031,7 +18001,7 @@
         <v>1366</v>
       </c>
       <c r="D745">
-        <v>749</v>
+        <v>754</v>
       </c>
     </row>
     <row r="746" spans="1:4" x14ac:dyDescent="0.25">
@@ -18045,7 +18015,7 @@
         <v>1368</v>
       </c>
       <c r="D746">
-        <v>750</v>
+        <v>755</v>
       </c>
     </row>
     <row r="747" spans="1:4" x14ac:dyDescent="0.25">
@@ -18059,7 +18029,7 @@
         <v>1370</v>
       </c>
       <c r="D747">
-        <v>751</v>
+        <v>756</v>
       </c>
     </row>
     <row r="748" spans="1:4" x14ac:dyDescent="0.25">
@@ -18073,7 +18043,7 @@
         <v>1372</v>
       </c>
       <c r="D748">
-        <v>752</v>
+        <v>757</v>
       </c>
     </row>
     <row r="749" spans="1:4" x14ac:dyDescent="0.25">
@@ -18087,7 +18057,7 @@
         <v>1374</v>
       </c>
       <c r="D749">
-        <v>753</v>
+        <v>758</v>
       </c>
     </row>
     <row r="750" spans="1:4" x14ac:dyDescent="0.25">
@@ -18101,7 +18071,7 @@
         <v>1376</v>
       </c>
       <c r="D750">
-        <v>754</v>
+        <v>759</v>
       </c>
     </row>
     <row r="751" spans="1:4" x14ac:dyDescent="0.25">
@@ -18115,7 +18085,7 @@
         <v>1378</v>
       </c>
       <c r="D751">
-        <v>755</v>
+        <v>760</v>
       </c>
     </row>
     <row r="752" spans="1:4" x14ac:dyDescent="0.25">
@@ -18129,7 +18099,7 @@
         <v>1380</v>
       </c>
       <c r="D752">
-        <v>756</v>
+        <v>761</v>
       </c>
     </row>
     <row r="753" spans="1:4" x14ac:dyDescent="0.25">
@@ -18143,7 +18113,7 @@
         <v>1382</v>
       </c>
       <c r="D753">
-        <v>757</v>
+        <v>762</v>
       </c>
     </row>
     <row r="754" spans="1:4" x14ac:dyDescent="0.25">
@@ -18157,7 +18127,7 @@
         <v>1384</v>
       </c>
       <c r="D754">
-        <v>758</v>
+        <v>763</v>
       </c>
     </row>
     <row r="755" spans="1:4" x14ac:dyDescent="0.25">
@@ -18171,7 +18141,7 @@
         <v>1386</v>
       </c>
       <c r="D755">
-        <v>759</v>
+        <v>764</v>
       </c>
     </row>
     <row r="756" spans="1:4" x14ac:dyDescent="0.25">
@@ -18185,7 +18155,7 @@
         <v>1388</v>
       </c>
       <c r="D756">
-        <v>760</v>
+        <v>765</v>
       </c>
     </row>
     <row r="757" spans="1:4" x14ac:dyDescent="0.25">
@@ -18199,7 +18169,7 @@
         <v>1390</v>
       </c>
       <c r="D757">
-        <v>761</v>
+        <v>766</v>
       </c>
     </row>
     <row r="758" spans="1:4" x14ac:dyDescent="0.25">
@@ -18213,7 +18183,7 @@
         <v>1392</v>
       </c>
       <c r="D758">
-        <v>762</v>
+        <v>767</v>
       </c>
     </row>
     <row r="759" spans="1:4" x14ac:dyDescent="0.25">
@@ -18227,7 +18197,7 @@
         <v>1394</v>
       </c>
       <c r="D759">
-        <v>763</v>
+        <v>768</v>
       </c>
     </row>
     <row r="760" spans="1:4" x14ac:dyDescent="0.25">
@@ -18241,7 +18211,7 @@
         <v>1396</v>
       </c>
       <c r="D760">
-        <v>764</v>
+        <v>769</v>
       </c>
     </row>
     <row r="761" spans="1:4" x14ac:dyDescent="0.25">
@@ -18255,7 +18225,7 @@
         <v>1398</v>
       </c>
       <c r="D761">
-        <v>765</v>
+        <v>770</v>
       </c>
     </row>
     <row r="762" spans="1:4" x14ac:dyDescent="0.25">
@@ -18269,7 +18239,7 @@
         <v>1400</v>
       </c>
       <c r="D762">
-        <v>766</v>
+        <v>771</v>
       </c>
     </row>
     <row r="763" spans="1:4" x14ac:dyDescent="0.25">
@@ -18283,7 +18253,7 @@
         <v>1402</v>
       </c>
       <c r="D763">
-        <v>767</v>
+        <v>772</v>
       </c>
     </row>
     <row r="764" spans="1:4" x14ac:dyDescent="0.25">
@@ -18297,7 +18267,7 @@
         <v>1404</v>
       </c>
       <c r="D764">
-        <v>768</v>
+        <v>773</v>
       </c>
     </row>
     <row r="765" spans="1:4" x14ac:dyDescent="0.25">
@@ -18311,7 +18281,7 @@
         <v>1406</v>
       </c>
       <c r="D765">
-        <v>769</v>
+        <v>774</v>
       </c>
     </row>
     <row r="766" spans="1:4" x14ac:dyDescent="0.25">
@@ -18325,7 +18295,7 @@
         <v>1408</v>
       </c>
       <c r="D766">
-        <v>770</v>
+        <v>775</v>
       </c>
     </row>
     <row r="767" spans="1:4" x14ac:dyDescent="0.25">
@@ -18339,7 +18309,7 @@
         <v>1410</v>
       </c>
       <c r="D767">
-        <v>771</v>
+        <v>776</v>
       </c>
     </row>
     <row r="768" spans="1:4" x14ac:dyDescent="0.25">
@@ -18353,7 +18323,7 @@
         <v>1412</v>
       </c>
       <c r="D768">
-        <v>772</v>
+        <v>777</v>
       </c>
     </row>
     <row r="769" spans="1:4" x14ac:dyDescent="0.25">
@@ -18367,7 +18337,7 @@
         <v>1414</v>
       </c>
       <c r="D769">
-        <v>773</v>
+        <v>778</v>
       </c>
     </row>
     <row r="770" spans="1:4" x14ac:dyDescent="0.25">
@@ -18381,7 +18351,7 @@
         <v>1416</v>
       </c>
       <c r="D770">
-        <v>774</v>
+        <v>779</v>
       </c>
     </row>
     <row r="771" spans="1:4" x14ac:dyDescent="0.25">
@@ -18395,7 +18365,7 @@
         <v>1418</v>
       </c>
       <c r="D771">
-        <v>775</v>
+        <v>780</v>
       </c>
     </row>
     <row r="772" spans="1:4" x14ac:dyDescent="0.25">
@@ -18409,7 +18379,7 @@
         <v>1420</v>
       </c>
       <c r="D772">
-        <v>776</v>
+        <v>781</v>
       </c>
     </row>
     <row r="773" spans="1:4" x14ac:dyDescent="0.25">
@@ -18423,7 +18393,7 @@
         <v>1422</v>
       </c>
       <c r="D773">
-        <v>777</v>
+        <v>782</v>
       </c>
     </row>
     <row r="774" spans="1:4" x14ac:dyDescent="0.25">
@@ -18437,7 +18407,7 @@
         <v>1424</v>
       </c>
       <c r="D774">
-        <v>778</v>
+        <v>783</v>
       </c>
     </row>
     <row r="775" spans="1:4" x14ac:dyDescent="0.25">
@@ -18451,7 +18421,7 @@
         <v>1426</v>
       </c>
       <c r="D775">
-        <v>779</v>
+        <v>784</v>
       </c>
     </row>
     <row r="776" spans="1:4" x14ac:dyDescent="0.25">
@@ -18465,7 +18435,7 @@
         <v>1428</v>
       </c>
       <c r="D776">
-        <v>780</v>
+        <v>785</v>
       </c>
     </row>
     <row r="777" spans="1:4" x14ac:dyDescent="0.25">
@@ -18479,7 +18449,7 @@
         <v>1430</v>
       </c>
       <c r="D777">
-        <v>781</v>
+        <v>786</v>
       </c>
     </row>
     <row r="778" spans="1:4" x14ac:dyDescent="0.25">
@@ -18493,7 +18463,7 @@
         <v>1432</v>
       </c>
       <c r="D778">
-        <v>782</v>
+        <v>787</v>
       </c>
     </row>
     <row r="779" spans="1:4" x14ac:dyDescent="0.25">
@@ -18507,7 +18477,7 @@
         <v>1434</v>
       </c>
       <c r="D779">
-        <v>783</v>
+        <v>788</v>
       </c>
     </row>
     <row r="780" spans="1:4" x14ac:dyDescent="0.25">
@@ -18521,7 +18491,7 @@
         <v>1436</v>
       </c>
       <c r="D780">
-        <v>784</v>
+        <v>789</v>
       </c>
     </row>
     <row r="781" spans="1:4" x14ac:dyDescent="0.25">
@@ -18535,7 +18505,7 @@
         <v>1438</v>
       </c>
       <c r="D781">
-        <v>785</v>
+        <v>790</v>
       </c>
     </row>
     <row r="782" spans="1:4" x14ac:dyDescent="0.25">
@@ -18549,7 +18519,7 @@
         <v>1440</v>
       </c>
       <c r="D782">
-        <v>786</v>
+        <v>791</v>
       </c>
     </row>
     <row r="783" spans="1:4" x14ac:dyDescent="0.25">
@@ -18563,7 +18533,7 @@
         <v>1442</v>
       </c>
       <c r="D783">
-        <v>787</v>
+        <v>792</v>
       </c>
     </row>
     <row r="784" spans="1:4" x14ac:dyDescent="0.25">
@@ -18577,7 +18547,7 @@
         <v>1444</v>
       </c>
       <c r="D784">
-        <v>788</v>
+        <v>793</v>
       </c>
     </row>
     <row r="785" spans="1:4" x14ac:dyDescent="0.25">
@@ -18591,7 +18561,7 @@
         <v>1446</v>
       </c>
       <c r="D785">
-        <v>789</v>
+        <v>794</v>
       </c>
     </row>
     <row r="786" spans="1:4" x14ac:dyDescent="0.25">
@@ -18605,7 +18575,7 @@
         <v>1448</v>
       </c>
       <c r="D786">
-        <v>790</v>
+        <v>795</v>
       </c>
     </row>
     <row r="787" spans="1:4" x14ac:dyDescent="0.25">
@@ -18619,7 +18589,7 @@
         <v>1450</v>
       </c>
       <c r="D787">
-        <v>791</v>
+        <v>796</v>
       </c>
     </row>
     <row r="788" spans="1:4" x14ac:dyDescent="0.25">
@@ -18633,7 +18603,7 @@
         <v>1452</v>
       </c>
       <c r="D788">
-        <v>792</v>
+        <v>797</v>
       </c>
     </row>
     <row r="789" spans="1:4" x14ac:dyDescent="0.25">
@@ -18647,7 +18617,7 @@
         <v>1454</v>
       </c>
       <c r="D789">
-        <v>793</v>
+        <v>798</v>
       </c>
     </row>
     <row r="790" spans="1:4" x14ac:dyDescent="0.25">
@@ -18661,7 +18631,7 @@
         <v>1456</v>
       </c>
       <c r="D790">
-        <v>794</v>
+        <v>799</v>
       </c>
     </row>
     <row r="791" spans="1:4" x14ac:dyDescent="0.25">
@@ -18675,7 +18645,7 @@
         <v>1458</v>
       </c>
       <c r="D791">
-        <v>795</v>
+        <v>800</v>
       </c>
     </row>
     <row r="792" spans="1:4" x14ac:dyDescent="0.25">
@@ -18689,7 +18659,7 @@
         <v>1460</v>
       </c>
       <c r="D792">
-        <v>796</v>
+        <v>801</v>
       </c>
     </row>
     <row r="793" spans="1:4" x14ac:dyDescent="0.25">
@@ -18703,7 +18673,7 @@
         <v>1462</v>
       </c>
       <c r="D793">
-        <v>797</v>
+        <v>802</v>
       </c>
     </row>
     <row r="794" spans="1:4" x14ac:dyDescent="0.25">
@@ -18717,7 +18687,7 @@
         <v>1464</v>
       </c>
       <c r="D794">
-        <v>798</v>
+        <v>803</v>
       </c>
     </row>
     <row r="795" spans="1:4" x14ac:dyDescent="0.25">
@@ -18731,7 +18701,7 @@
         <v>1466</v>
       </c>
       <c r="D795">
-        <v>799</v>
+        <v>804</v>
       </c>
     </row>
     <row r="796" spans="1:4" x14ac:dyDescent="0.25">
@@ -18745,7 +18715,7 @@
         <v>1468</v>
       </c>
       <c r="D796">
-        <v>800</v>
+        <v>805</v>
       </c>
     </row>
     <row r="797" spans="1:4" x14ac:dyDescent="0.25">
@@ -18759,7 +18729,7 @@
         <v>1470</v>
       </c>
       <c r="D797">
-        <v>801</v>
+        <v>806</v>
       </c>
     </row>
     <row r="798" spans="1:4" x14ac:dyDescent="0.25">
@@ -18773,7 +18743,7 @@
         <v>1472</v>
       </c>
       <c r="D798">
-        <v>802</v>
+        <v>807</v>
       </c>
     </row>
     <row r="799" spans="1:4" x14ac:dyDescent="0.25">
@@ -18787,7 +18757,7 @@
         <v>1474</v>
       </c>
       <c r="D799">
-        <v>803</v>
+        <v>808</v>
       </c>
     </row>
     <row r="800" spans="1:4" x14ac:dyDescent="0.25">
@@ -18801,7 +18771,7 @@
         <v>1476</v>
       </c>
       <c r="D800">
-        <v>804</v>
+        <v>809</v>
       </c>
     </row>
     <row r="801" spans="1:4" x14ac:dyDescent="0.25">
@@ -18815,7 +18785,7 @@
         <v>1478</v>
       </c>
       <c r="D801">
-        <v>805</v>
+        <v>810</v>
       </c>
     </row>
     <row r="802" spans="1:4" x14ac:dyDescent="0.25">
@@ -18829,7 +18799,7 @@
         <v>1480</v>
       </c>
       <c r="D802">
-        <v>806</v>
+        <v>811</v>
       </c>
     </row>
     <row r="803" spans="1:4" x14ac:dyDescent="0.25">
@@ -18843,7 +18813,7 @@
         <v>1482</v>
       </c>
       <c r="D803">
-        <v>807</v>
+        <v>812</v>
       </c>
     </row>
     <row r="804" spans="1:4" x14ac:dyDescent="0.25">
@@ -18857,7 +18827,7 @@
         <v>1484</v>
       </c>
       <c r="D804">
-        <v>808</v>
+        <v>813</v>
       </c>
     </row>
     <row r="805" spans="1:4" x14ac:dyDescent="0.25">
@@ -18871,7 +18841,7 @@
         <v>1486</v>
       </c>
       <c r="D805">
-        <v>809</v>
+        <v>814</v>
       </c>
     </row>
     <row r="806" spans="1:4" x14ac:dyDescent="0.25">
@@ -18885,7 +18855,7 @@
         <v>1488</v>
       </c>
       <c r="D806">
-        <v>810</v>
+        <v>815</v>
       </c>
     </row>
     <row r="807" spans="1:4" x14ac:dyDescent="0.25">
@@ -18899,7 +18869,7 @@
         <v>1490</v>
       </c>
       <c r="D807">
-        <v>811</v>
+        <v>816</v>
       </c>
     </row>
     <row r="808" spans="1:4" x14ac:dyDescent="0.25">
@@ -18913,7 +18883,7 @@
         <v>1492</v>
       </c>
       <c r="D808">
-        <v>812</v>
+        <v>817</v>
       </c>
     </row>
     <row r="809" spans="1:4" x14ac:dyDescent="0.25">
@@ -18927,7 +18897,7 @@
         <v>1494</v>
       </c>
       <c r="D809">
-        <v>813</v>
+        <v>818</v>
       </c>
     </row>
     <row r="810" spans="1:4" x14ac:dyDescent="0.25">
@@ -18941,7 +18911,7 @@
         <v>1496</v>
       </c>
       <c r="D810">
-        <v>814</v>
+        <v>819</v>
       </c>
     </row>
     <row r="811" spans="1:4" x14ac:dyDescent="0.25">
@@ -18955,7 +18925,7 @@
         <v>1498</v>
       </c>
       <c r="D811">
-        <v>815</v>
+        <v>820</v>
       </c>
     </row>
     <row r="812" spans="1:4" x14ac:dyDescent="0.25">
@@ -18969,7 +18939,7 @@
         <v>1500</v>
       </c>
       <c r="D812">
-        <v>816</v>
+        <v>821</v>
       </c>
     </row>
     <row r="813" spans="1:4" x14ac:dyDescent="0.25">
@@ -18983,7 +18953,7 @@
         <v>1502</v>
       </c>
       <c r="D813">
-        <v>817</v>
+        <v>822</v>
       </c>
     </row>
     <row r="814" spans="1:4" x14ac:dyDescent="0.25">
@@ -18997,7 +18967,7 @@
         <v>1504</v>
       </c>
       <c r="D814">
-        <v>818</v>
+        <v>823</v>
       </c>
     </row>
     <row r="815" spans="1:4" x14ac:dyDescent="0.25">
@@ -19011,7 +18981,7 @@
         <v>1506</v>
       </c>
       <c r="D815">
-        <v>819</v>
+        <v>824</v>
       </c>
     </row>
     <row r="816" spans="1:4" x14ac:dyDescent="0.25">
@@ -19025,10 +18995,10 @@
         <v>1508</v>
       </c>
       <c r="D816">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="817" spans="1:4" x14ac:dyDescent="0.25">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="817" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A817" t="s">
         <v>1511</v>
       </c>
@@ -19039,10 +19009,10 @@
         <v>1510</v>
       </c>
       <c r="D817">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="818" spans="1:4" x14ac:dyDescent="0.25">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="818" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A818" t="s">
         <v>1513</v>
       </c>
@@ -19053,10 +19023,10 @@
         <v>1512</v>
       </c>
       <c r="D818">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="819" spans="1:4" x14ac:dyDescent="0.25">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="819" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A819" t="s">
         <v>1515</v>
       </c>
@@ -19067,10 +19037,10 @@
         <v>1514</v>
       </c>
       <c r="D819">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="820" spans="1:4" x14ac:dyDescent="0.25">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="820" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A820" t="s">
         <v>1517</v>
       </c>
@@ -19081,10 +19051,10 @@
         <v>1516</v>
       </c>
       <c r="D820">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="821" spans="1:4" x14ac:dyDescent="0.25">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="821" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A821" t="s">
         <v>1519</v>
       </c>
@@ -19095,10 +19065,10 @@
         <v>1518</v>
       </c>
       <c r="D821">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="822" spans="1:4" x14ac:dyDescent="0.25">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="822" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A822" t="s">
         <v>1521</v>
       </c>
@@ -19109,10 +19079,10 @@
         <v>1520</v>
       </c>
       <c r="D822">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="823" spans="1:4" x14ac:dyDescent="0.25">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="823" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A823" t="s">
         <v>1523</v>
       </c>
@@ -19123,10 +19093,10 @@
         <v>1522</v>
       </c>
       <c r="D823">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="824" spans="1:4" x14ac:dyDescent="0.25">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="824" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A824" t="s">
         <v>1525</v>
       </c>
@@ -19137,10 +19107,10 @@
         <v>1524</v>
       </c>
       <c r="D824">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="825" spans="1:4" x14ac:dyDescent="0.25">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="825" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A825" t="s">
         <v>1527</v>
       </c>
@@ -19151,10 +19121,10 @@
         <v>1526</v>
       </c>
       <c r="D825">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="826" spans="1:4" x14ac:dyDescent="0.25">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="826" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A826" t="s">
         <v>1529</v>
       </c>
@@ -19165,10 +19135,10 @@
         <v>1528</v>
       </c>
       <c r="D826">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="827" spans="1:4" x14ac:dyDescent="0.25">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="827" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A827" t="s">
         <v>1531</v>
       </c>
@@ -19179,10 +19149,10 @@
         <v>1530</v>
       </c>
       <c r="D827">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="828" spans="1:4" x14ac:dyDescent="0.25">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="828" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A828" t="s">
         <v>1533</v>
       </c>
@@ -19193,10 +19163,10 @@
         <v>1532</v>
       </c>
       <c r="D828">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="829" spans="1:4" x14ac:dyDescent="0.25">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="829" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A829" t="s">
         <v>1535</v>
       </c>
@@ -19207,10 +19177,10 @@
         <v>1534</v>
       </c>
       <c r="D829">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="830" spans="1:4" x14ac:dyDescent="0.25">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="830" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A830" t="s">
         <v>1537</v>
       </c>
@@ -19221,10 +19191,10 @@
         <v>1536</v>
       </c>
       <c r="D830">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="831" spans="1:4" x14ac:dyDescent="0.25">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="831" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A831" t="s">
         <v>1539</v>
       </c>
@@ -19235,77 +19205,101 @@
         <v>1538</v>
       </c>
       <c r="D831">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="832" spans="1:4" x14ac:dyDescent="0.25">
+        <v>840</v>
+      </c>
+      <c r="G831" t="s">
+        <v>14</v>
+      </c>
+      <c r="H831">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="832" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A832" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="B832" t="s">
-        <v>1541</v>
-      </c>
-      <c r="C832" s="2" t="s">
         <v>1540</v>
       </c>
       <c r="D832">
-        <v>836</v>
+        <v>841</v>
+      </c>
+      <c r="G832" t="s">
+        <v>14</v>
+      </c>
+      <c r="H832">
+        <v>1</v>
+      </c>
+      <c r="I832" s="1">
+        <v>2018</v>
       </c>
     </row>
     <row r="833" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A833" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="B833" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="C833" s="2" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="D833">
-        <v>837</v>
+        <v>842</v>
+      </c>
+      <c r="G833" t="s">
+        <v>14</v>
+      </c>
+      <c r="H833">
+        <v>0</v>
       </c>
     </row>
     <row r="834" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A834" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
       <c r="B834" t="s">
-        <v>1545</v>
-      </c>
-      <c r="C834" s="2" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="D834">
-        <v>838</v>
+        <v>843</v>
+      </c>
+      <c r="G834" t="s">
+        <v>14</v>
+      </c>
+      <c r="H834">
+        <v>1</v>
+      </c>
+      <c r="I834" s="1">
+        <v>2019</v>
       </c>
     </row>
     <row r="835" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A835" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="B835" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="C835" s="2" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="D835">
-        <v>839</v>
+        <v>844</v>
       </c>
     </row>
     <row r="836" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A836" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="B836" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="C836" s="2" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="D836">
-        <v>840</v>
+        <v>845</v>
       </c>
       <c r="G836" t="s">
         <v>14</v>
@@ -19316,13 +19310,13 @@
     </row>
     <row r="837" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A837" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="B837" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="D837">
-        <v>841</v>
+        <v>846</v>
       </c>
       <c r="G837" t="s">
         <v>14</v>
@@ -19330,22 +19324,22 @@
       <c r="H837">
         <v>1</v>
       </c>
-      <c r="I837" s="1">
-        <v>2018</v>
+      <c r="I837" s="1" t="s">
+        <v>1546</v>
       </c>
     </row>
     <row r="838" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A838" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="B838" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="C838" s="2" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="D838">
-        <v>842</v>
+        <v>847</v>
       </c>
       <c r="G838" t="s">
         <v>14</v>
@@ -19356,13 +19350,13 @@
     </row>
     <row r="839" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A839" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="B839" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="D839">
-        <v>843</v>
+        <v>848</v>
       </c>
       <c r="G839" t="s">
         <v>14</v>
@@ -19370,82 +19364,64 @@
       <c r="H839">
         <v>1</v>
       </c>
-      <c r="I839" s="1">
-        <v>2019</v>
+      <c r="I839" s="1" t="s">
+        <v>1549</v>
       </c>
     </row>
     <row r="840" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A840" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
       <c r="B840" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
       <c r="C840" s="2" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="D840">
-        <v>844</v>
+        <v>849</v>
       </c>
     </row>
     <row r="841" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A841" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
       <c r="B841" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
       <c r="C841" s="2" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="D841">
-        <v>845</v>
-      </c>
-      <c r="G841" t="s">
-        <v>14</v>
-      </c>
-      <c r="H841">
-        <v>0</v>
+        <v>850</v>
       </c>
     </row>
     <row r="842" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A842" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="B842" t="s">
-        <v>1558</v>
+        <v>1557</v>
+      </c>
+      <c r="C842" s="2" t="s">
+        <v>1556</v>
       </c>
       <c r="D842">
-        <v>846</v>
-      </c>
-      <c r="G842" t="s">
-        <v>14</v>
-      </c>
-      <c r="H842">
-        <v>1</v>
-      </c>
-      <c r="I842" s="1" t="s">
-        <v>1556</v>
+        <v>851</v>
       </c>
     </row>
     <row r="843" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A843" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="B843" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="C843" s="2" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="D843">
-        <v>847</v>
-      </c>
-      <c r="G843" t="s">
-        <v>14</v>
-      </c>
-      <c r="H843">
-        <v>0</v>
+        <v>852</v>
       </c>
     </row>
     <row r="844" spans="1:9" x14ac:dyDescent="0.25">
@@ -19455,17 +19431,11 @@
       <c r="B844" t="s">
         <v>1561</v>
       </c>
+      <c r="C844" s="2" t="s">
+        <v>1560</v>
+      </c>
       <c r="D844">
-        <v>848</v>
-      </c>
-      <c r="G844" t="s">
-        <v>14</v>
-      </c>
-      <c r="H844">
-        <v>1</v>
-      </c>
-      <c r="I844" s="1" t="s">
-        <v>1559</v>
+        <v>853</v>
       </c>
     </row>
     <row r="845" spans="1:9" x14ac:dyDescent="0.25">
@@ -19479,7 +19449,7 @@
         <v>1562</v>
       </c>
       <c r="D845">
-        <v>849</v>
+        <v>854</v>
       </c>
     </row>
     <row r="846" spans="1:9" x14ac:dyDescent="0.25">
@@ -19493,7 +19463,7 @@
         <v>1564</v>
       </c>
       <c r="D846">
-        <v>850</v>
+        <v>855</v>
       </c>
     </row>
     <row r="847" spans="1:9" x14ac:dyDescent="0.25">
@@ -19507,7 +19477,7 @@
         <v>1566</v>
       </c>
       <c r="D847">
-        <v>851</v>
+        <v>856</v>
       </c>
     </row>
     <row r="848" spans="1:9" x14ac:dyDescent="0.25">
@@ -19521,7 +19491,7 @@
         <v>1568</v>
       </c>
       <c r="D848">
-        <v>852</v>
+        <v>857</v>
       </c>
     </row>
     <row r="849" spans="1:9" x14ac:dyDescent="0.25">
@@ -19535,7 +19505,7 @@
         <v>1570</v>
       </c>
       <c r="D849">
-        <v>853</v>
+        <v>858</v>
       </c>
     </row>
     <row r="850" spans="1:9" x14ac:dyDescent="0.25">
@@ -19549,7 +19519,7 @@
         <v>1572</v>
       </c>
       <c r="D850">
-        <v>854</v>
+        <v>859</v>
       </c>
     </row>
     <row r="851" spans="1:9" x14ac:dyDescent="0.25">
@@ -19563,7 +19533,7 @@
         <v>1574</v>
       </c>
       <c r="D851">
-        <v>855</v>
+        <v>860</v>
       </c>
     </row>
     <row r="852" spans="1:9" x14ac:dyDescent="0.25">
@@ -19577,7 +19547,7 @@
         <v>1576</v>
       </c>
       <c r="D852">
-        <v>856</v>
+        <v>861</v>
       </c>
     </row>
     <row r="853" spans="1:9" x14ac:dyDescent="0.25">
@@ -19591,7 +19561,7 @@
         <v>1578</v>
       </c>
       <c r="D853">
-        <v>857</v>
+        <v>862</v>
       </c>
     </row>
     <row r="854" spans="1:9" x14ac:dyDescent="0.25">
@@ -19605,7 +19575,7 @@
         <v>1580</v>
       </c>
       <c r="D854">
-        <v>858</v>
+        <v>863</v>
       </c>
     </row>
     <row r="855" spans="1:9" x14ac:dyDescent="0.25">
@@ -19619,117 +19589,129 @@
         <v>1582</v>
       </c>
       <c r="D855">
-        <v>859</v>
+        <v>864</v>
+      </c>
+      <c r="G855" t="s">
+        <v>14</v>
+      </c>
+      <c r="H855">
+        <v>0</v>
       </c>
     </row>
     <row r="856" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A856" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="B856" t="s">
-        <v>1585</v>
-      </c>
-      <c r="C856" s="2" t="s">
         <v>1584</v>
       </c>
       <c r="D856">
-        <v>860</v>
+        <v>865</v>
+      </c>
+      <c r="G856" t="s">
+        <v>14</v>
+      </c>
+      <c r="H856">
+        <v>1</v>
+      </c>
+      <c r="I856" s="1">
+        <v>2039</v>
       </c>
     </row>
     <row r="857" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A857" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="B857" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="C857" s="2" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="D857">
-        <v>861</v>
+        <v>866</v>
+      </c>
+      <c r="G857" t="s">
+        <v>14</v>
+      </c>
+      <c r="H857">
+        <v>0</v>
       </c>
     </row>
     <row r="858" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A858" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="B858" t="s">
-        <v>1589</v>
-      </c>
-      <c r="C858" s="2" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="D858">
-        <v>862</v>
+        <v>867</v>
+      </c>
+      <c r="G858" t="s">
+        <v>14</v>
+      </c>
+      <c r="H858">
+        <v>1</v>
+      </c>
+      <c r="I858" s="1" t="s">
+        <v>1585</v>
       </c>
     </row>
     <row r="859" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A859" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="B859" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="C859" s="2" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="D859">
-        <v>863</v>
+        <v>868</v>
       </c>
     </row>
     <row r="860" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A860" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="B860" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="C860" s="2" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="D860">
-        <v>864</v>
-      </c>
-      <c r="G860" t="s">
-        <v>14</v>
-      </c>
-      <c r="H860">
-        <v>0</v>
+        <v>869</v>
       </c>
     </row>
     <row r="861" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A861" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="B861" t="s">
-        <v>1594</v>
+        <v>1593</v>
+      </c>
+      <c r="C861" s="2" t="s">
+        <v>1592</v>
       </c>
       <c r="D861">
-        <v>865</v>
-      </c>
-      <c r="G861" t="s">
-        <v>14</v>
-      </c>
-      <c r="H861">
-        <v>1</v>
-      </c>
-      <c r="I861" s="1">
-        <v>2039</v>
+        <v>870</v>
       </c>
     </row>
     <row r="862" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A862" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="B862" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="C862" s="2" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="D862">
-        <v>866</v>
+        <v>871</v>
       </c>
       <c r="G862" t="s">
         <v>14</v>
@@ -19740,78 +19722,96 @@
     </row>
     <row r="863" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A863" t="s">
+        <v>1598</v>
+      </c>
+      <c r="B863" t="s">
+        <v>1598</v>
+      </c>
+      <c r="C863" s="2" t="s">
         <v>1597</v>
       </c>
-      <c r="B863" t="s">
-        <v>1597</v>
-      </c>
       <c r="D863">
-        <v>867</v>
+        <v>872</v>
       </c>
       <c r="G863" t="s">
         <v>14</v>
       </c>
       <c r="H863">
-        <v>1</v>
-      </c>
-      <c r="I863" s="1" t="s">
-        <v>1595</v>
+        <v>0</v>
       </c>
     </row>
     <row r="864" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A864" t="s">
-        <v>1599</v>
+        <v>1601</v>
       </c>
       <c r="B864" t="s">
-        <v>1599</v>
+        <v>1601</v>
       </c>
       <c r="C864" s="2" t="s">
-        <v>1598</v>
+        <v>1600</v>
       </c>
       <c r="D864">
-        <v>868</v>
+        <v>873</v>
+      </c>
+      <c r="G864" t="s">
+        <v>14</v>
+      </c>
+      <c r="H864">
+        <v>0</v>
       </c>
     </row>
     <row r="865" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A865" t="s">
-        <v>1601</v>
+        <v>1604</v>
       </c>
       <c r="B865" t="s">
-        <v>1601</v>
+        <v>1604</v>
       </c>
       <c r="C865" s="2" t="s">
-        <v>1600</v>
+        <v>1603</v>
       </c>
       <c r="D865">
-        <v>869</v>
+        <v>874</v>
+      </c>
+      <c r="G865" t="s">
+        <v>14</v>
+      </c>
+      <c r="H865">
+        <v>0</v>
       </c>
     </row>
     <row r="866" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A866" t="s">
-        <v>1603</v>
+        <v>1607</v>
       </c>
       <c r="B866" t="s">
-        <v>1603</v>
+        <v>1607</v>
       </c>
       <c r="C866" s="2" t="s">
-        <v>1602</v>
+        <v>1606</v>
       </c>
       <c r="D866">
-        <v>870</v>
+        <v>875</v>
+      </c>
+      <c r="G866" t="s">
+        <v>14</v>
+      </c>
+      <c r="H866">
+        <v>0</v>
       </c>
     </row>
     <row r="867" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A867" t="s">
-        <v>1605</v>
+        <v>1610</v>
       </c>
       <c r="B867" t="s">
-        <v>1605</v>
+        <v>1610</v>
       </c>
       <c r="C867" s="2" t="s">
-        <v>1604</v>
+        <v>1609</v>
       </c>
       <c r="D867">
-        <v>871</v>
+        <v>876</v>
       </c>
       <c r="G867" t="s">
         <v>14</v>
@@ -19822,16 +19822,16 @@
     </row>
     <row r="868" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A868" t="s">
-        <v>1608</v>
+        <v>1613</v>
       </c>
       <c r="B868" t="s">
-        <v>1608</v>
+        <v>1613</v>
       </c>
       <c r="C868" s="2" t="s">
-        <v>1607</v>
+        <v>1612</v>
       </c>
       <c r="D868">
-        <v>872</v>
+        <v>877</v>
       </c>
       <c r="G868" t="s">
         <v>14</v>
@@ -19842,113 +19842,113 @@
     </row>
     <row r="869" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A869" t="s">
-        <v>1611</v>
+        <v>1596</v>
       </c>
       <c r="B869" t="s">
-        <v>1611</v>
-      </c>
-      <c r="C869" s="2" t="s">
-        <v>1610</v>
+        <v>1596</v>
       </c>
       <c r="D869">
-        <v>873</v>
+        <v>878</v>
       </c>
       <c r="G869" t="s">
         <v>14</v>
       </c>
       <c r="H869">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I869" s="1">
+        <v>2070</v>
       </c>
     </row>
     <row r="870" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A870" t="s">
-        <v>1614</v>
+        <v>1599</v>
       </c>
       <c r="B870" t="s">
-        <v>1614</v>
-      </c>
-      <c r="C870" s="2" t="s">
-        <v>1613</v>
+        <v>1599</v>
       </c>
       <c r="D870">
-        <v>874</v>
+        <v>879</v>
       </c>
       <c r="G870" t="s">
         <v>14</v>
       </c>
       <c r="H870">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I870" s="1">
+        <v>2074</v>
       </c>
     </row>
     <row r="871" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A871" t="s">
-        <v>1617</v>
+        <v>1602</v>
       </c>
       <c r="B871" t="s">
-        <v>1617</v>
-      </c>
-      <c r="C871" s="2" t="s">
-        <v>1616</v>
+        <v>1602</v>
       </c>
       <c r="D871">
-        <v>875</v>
+        <v>880</v>
       </c>
       <c r="G871" t="s">
         <v>14</v>
       </c>
       <c r="H871">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I871" s="1">
+        <v>2075</v>
       </c>
     </row>
     <row r="872" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A872" t="s">
-        <v>1620</v>
+        <v>1605</v>
       </c>
       <c r="B872" t="s">
-        <v>1620</v>
-      </c>
-      <c r="C872" s="2" t="s">
-        <v>1619</v>
+        <v>1605</v>
       </c>
       <c r="D872">
-        <v>876</v>
+        <v>881</v>
       </c>
       <c r="G872" t="s">
         <v>14</v>
       </c>
       <c r="H872">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I872" s="1">
+        <v>2076</v>
       </c>
     </row>
     <row r="873" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A873" t="s">
-        <v>1623</v>
+        <v>1608</v>
       </c>
       <c r="B873" t="s">
-        <v>1623</v>
-      </c>
-      <c r="C873" s="2" t="s">
-        <v>1622</v>
+        <v>1608</v>
       </c>
       <c r="D873">
-        <v>877</v>
+        <v>882</v>
       </c>
       <c r="G873" t="s">
         <v>14</v>
       </c>
       <c r="H873">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I873" s="1">
+        <v>2077</v>
       </c>
     </row>
     <row r="874" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A874" t="s">
-        <v>1606</v>
+        <v>1611</v>
       </c>
       <c r="B874" t="s">
-        <v>1606</v>
+        <v>1611</v>
       </c>
       <c r="D874">
-        <v>878</v>
+        <v>883</v>
       </c>
       <c r="G874" t="s">
         <v>14</v>
@@ -19957,18 +19957,18 @@
         <v>1</v>
       </c>
       <c r="I874" s="1">
-        <v>2070</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="875" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A875" t="s">
-        <v>1609</v>
+        <v>1614</v>
       </c>
       <c r="B875" t="s">
-        <v>1609</v>
+        <v>1614</v>
       </c>
       <c r="D875">
-        <v>879</v>
+        <v>884</v>
       </c>
       <c r="G875" t="s">
         <v>14</v>
@@ -19977,38 +19977,38 @@
         <v>1</v>
       </c>
       <c r="I875" s="1">
-        <v>2074</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="876" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A876" t="s">
-        <v>1612</v>
+        <v>1616</v>
       </c>
       <c r="B876" t="s">
-        <v>1612</v>
+        <v>1616</v>
+      </c>
+      <c r="C876" s="2" t="s">
+        <v>1615</v>
       </c>
       <c r="D876">
-        <v>880</v>
+        <v>885</v>
       </c>
       <c r="G876" t="s">
         <v>14</v>
       </c>
       <c r="H876">
-        <v>1</v>
-      </c>
-      <c r="I876" s="1">
-        <v>2075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="877" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A877" t="s">
-        <v>1615</v>
+        <v>1617</v>
       </c>
       <c r="B877" t="s">
-        <v>1615</v>
+        <v>1617</v>
       </c>
       <c r="D877">
-        <v>881</v>
+        <v>886</v>
       </c>
       <c r="G877" t="s">
         <v>14</v>
@@ -20016,28 +20016,22 @@
       <c r="H877">
         <v>1</v>
       </c>
-      <c r="I877" s="1">
-        <v>2076</v>
+      <c r="I877" s="1" t="s">
+        <v>1615</v>
       </c>
     </row>
     <row r="878" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A878" t="s">
+        <v>1619</v>
+      </c>
+      <c r="B878" t="s">
+        <v>1619</v>
+      </c>
+      <c r="C878" s="2" t="s">
         <v>1618</v>
       </c>
-      <c r="B878" t="s">
-        <v>1618</v>
-      </c>
       <c r="D878">
-        <v>882</v>
-      </c>
-      <c r="G878" t="s">
-        <v>14</v>
-      </c>
-      <c r="H878">
-        <v>1</v>
-      </c>
-      <c r="I878" s="1">
-        <v>2077</v>
+        <v>887</v>
       </c>
     </row>
     <row r="879" spans="1:9" x14ac:dyDescent="0.25">
@@ -20047,80 +20041,56 @@
       <c r="B879" t="s">
         <v>1621</v>
       </c>
+      <c r="C879" s="2" t="s">
+        <v>1620</v>
+      </c>
       <c r="D879">
-        <v>883</v>
-      </c>
-      <c r="G879" t="s">
-        <v>14</v>
-      </c>
-      <c r="H879">
-        <v>1</v>
-      </c>
-      <c r="I879" s="1">
-        <v>2078</v>
+        <v>888</v>
       </c>
     </row>
     <row r="880" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A880" t="s">
+        <v>1623</v>
+      </c>
+      <c r="B880" t="s">
+        <v>1623</v>
+      </c>
+      <c r="C880" s="2" t="s">
+        <v>1622</v>
+      </c>
+      <c r="D880">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="881" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A881" t="s">
+        <v>1625</v>
+      </c>
+      <c r="B881" t="s">
+        <v>1625</v>
+      </c>
+      <c r="C881" s="2" t="s">
         <v>1624</v>
       </c>
-      <c r="B880" t="s">
-        <v>1624</v>
-      </c>
-      <c r="D880">
-        <v>884</v>
-      </c>
-      <c r="G880" t="s">
-        <v>14</v>
-      </c>
-      <c r="H880">
-        <v>1</v>
-      </c>
-      <c r="I880" s="1">
-        <v>2079</v>
-      </c>
-    </row>
-    <row r="881" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A881" t="s">
-        <v>1626</v>
-      </c>
-      <c r="B881" t="s">
-        <v>1626</v>
-      </c>
-      <c r="C881" s="2" t="s">
-        <v>1625</v>
-      </c>
       <c r="D881">
-        <v>885</v>
-      </c>
-      <c r="G881" t="s">
-        <v>14</v>
-      </c>
-      <c r="H881">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="882" spans="1:9" x14ac:dyDescent="0.25">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="882" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A882" t="s">
         <v>1627</v>
       </c>
       <c r="B882" t="s">
         <v>1627</v>
       </c>
+      <c r="C882" s="2" t="s">
+        <v>1626</v>
+      </c>
       <c r="D882">
-        <v>886</v>
-      </c>
-      <c r="G882" t="s">
-        <v>14</v>
-      </c>
-      <c r="H882">
-        <v>1</v>
-      </c>
-      <c r="I882" s="1" t="s">
-        <v>1625</v>
-      </c>
-    </row>
-    <row r="883" spans="1:9" x14ac:dyDescent="0.25">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="883" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A883" t="s">
         <v>1629</v>
       </c>
@@ -20131,10 +20101,10 @@
         <v>1628</v>
       </c>
       <c r="D883">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="884" spans="1:9" x14ac:dyDescent="0.25">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="884" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A884" t="s">
         <v>1631</v>
       </c>
@@ -20145,10 +20115,10 @@
         <v>1630</v>
       </c>
       <c r="D884">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="885" spans="1:9" x14ac:dyDescent="0.25">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="885" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A885" t="s">
         <v>1633</v>
       </c>
@@ -20159,10 +20129,10 @@
         <v>1632</v>
       </c>
       <c r="D885">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="886" spans="1:9" x14ac:dyDescent="0.25">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="886" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A886" t="s">
         <v>1635</v>
       </c>
@@ -20173,10 +20143,10 @@
         <v>1634</v>
       </c>
       <c r="D886">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="887" spans="1:9" x14ac:dyDescent="0.25">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="887" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A887" t="s">
         <v>1637</v>
       </c>
@@ -20187,10 +20157,10 @@
         <v>1636</v>
       </c>
       <c r="D887">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="888" spans="1:9" x14ac:dyDescent="0.25">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="888" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A888" t="s">
         <v>1639</v>
       </c>
@@ -20201,10 +20171,10 @@
         <v>1638</v>
       </c>
       <c r="D888">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="889" spans="1:9" x14ac:dyDescent="0.25">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="889" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A889" t="s">
         <v>1641</v>
       </c>
@@ -20215,10 +20185,10 @@
         <v>1640</v>
       </c>
       <c r="D889">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="890" spans="1:9" x14ac:dyDescent="0.25">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="890" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A890" t="s">
         <v>1643</v>
       </c>
@@ -20229,147 +20199,147 @@
         <v>1642</v>
       </c>
       <c r="D890">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="891" spans="1:9" x14ac:dyDescent="0.25">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="891" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A891" t="s">
+        <v>1647</v>
+      </c>
+      <c r="B891" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C891" s="2" t="s">
+        <v>1646</v>
+      </c>
+      <c r="D891">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="892" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A892" t="s">
+        <v>1649</v>
+      </c>
+      <c r="B892" t="s">
+        <v>1649</v>
+      </c>
+      <c r="C892" s="2" t="s">
+        <v>1648</v>
+      </c>
+      <c r="D892">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="893" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A893" t="s">
+        <v>1651</v>
+      </c>
+      <c r="B893" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C893" s="2" t="s">
+        <v>1650</v>
+      </c>
+      <c r="D893">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="894" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A894" t="s">
+        <v>1653</v>
+      </c>
+      <c r="B894" t="s">
+        <v>1653</v>
+      </c>
+      <c r="C894" s="2" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D894">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="895" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A895" t="s">
         <v>1645</v>
       </c>
-      <c r="B891" t="s">
+      <c r="B895" t="s">
         <v>1645</v>
       </c>
-      <c r="C891" s="2" t="s">
+      <c r="C895" s="2" t="s">
         <v>1644</v>
       </c>
-      <c r="D891">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="892" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A892" t="s">
-        <v>1647</v>
-      </c>
-      <c r="B892" t="s">
-        <v>1647</v>
-      </c>
-      <c r="C892" s="2" t="s">
-        <v>1646</v>
-      </c>
-      <c r="D892">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="893" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A893" t="s">
-        <v>1649</v>
-      </c>
-      <c r="B893" t="s">
-        <v>1649</v>
-      </c>
-      <c r="C893" s="2" t="s">
-        <v>1648</v>
-      </c>
-      <c r="D893">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="894" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A894" t="s">
-        <v>1651</v>
-      </c>
-      <c r="B894" t="s">
-        <v>1651</v>
-      </c>
-      <c r="C894" s="2" t="s">
-        <v>1650</v>
-      </c>
-      <c r="D894">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="895" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A895" t="s">
-        <v>1653</v>
-      </c>
-      <c r="B895" t="s">
-        <v>1653</v>
-      </c>
-      <c r="C895" s="2" t="s">
-        <v>1652</v>
-      </c>
       <c r="D895">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="896" spans="1:9" x14ac:dyDescent="0.25">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="896" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A896" t="s">
-        <v>1657</v>
+        <v>1655</v>
       </c>
       <c r="B896" t="s">
-        <v>1657</v>
+        <v>1655</v>
       </c>
       <c r="C896" s="2" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="D896">
-        <v>900</v>
+        <v>905</v>
       </c>
     </row>
     <row r="897" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A897" t="s">
-        <v>1659</v>
+        <v>1657</v>
       </c>
       <c r="B897" t="s">
-        <v>1659</v>
+        <v>1657</v>
       </c>
       <c r="C897" s="2" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
       <c r="D897">
-        <v>901</v>
+        <v>906</v>
       </c>
     </row>
     <row r="898" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A898" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
       <c r="B898" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
       <c r="C898" s="2" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
       <c r="D898">
-        <v>902</v>
+        <v>907</v>
       </c>
     </row>
     <row r="899" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A899" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
       <c r="B899" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
       <c r="C899" s="2" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="D899">
-        <v>903</v>
+        <v>908</v>
       </c>
     </row>
     <row r="900" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A900" t="s">
-        <v>1655</v>
+        <v>1663</v>
       </c>
       <c r="B900" t="s">
-        <v>1655</v>
+        <v>1663</v>
       </c>
       <c r="C900" s="2" t="s">
-        <v>1654</v>
+        <v>1662</v>
       </c>
       <c r="D900">
-        <v>904</v>
+        <v>909</v>
       </c>
     </row>
     <row r="901" spans="1:4" x14ac:dyDescent="0.25">
@@ -20383,7 +20353,7 @@
         <v>1664</v>
       </c>
       <c r="D901">
-        <v>905</v>
+        <v>910</v>
       </c>
     </row>
     <row r="902" spans="1:4" x14ac:dyDescent="0.25">
@@ -20397,7 +20367,7 @@
         <v>1666</v>
       </c>
       <c r="D902">
-        <v>906</v>
+        <v>911</v>
       </c>
     </row>
     <row r="903" spans="1:4" x14ac:dyDescent="0.25">
@@ -20411,7 +20381,7 @@
         <v>1668</v>
       </c>
       <c r="D903">
-        <v>907</v>
+        <v>912</v>
       </c>
     </row>
     <row r="904" spans="1:4" x14ac:dyDescent="0.25">
@@ -20425,7 +20395,7 @@
         <v>1670</v>
       </c>
       <c r="D904">
-        <v>908</v>
+        <v>913</v>
       </c>
     </row>
     <row r="905" spans="1:4" x14ac:dyDescent="0.25">
@@ -20439,7 +20409,7 @@
         <v>1672</v>
       </c>
       <c r="D905">
-        <v>909</v>
+        <v>914</v>
       </c>
     </row>
     <row r="906" spans="1:4" x14ac:dyDescent="0.25">
@@ -20453,7 +20423,7 @@
         <v>1674</v>
       </c>
       <c r="D906">
-        <v>910</v>
+        <v>915</v>
       </c>
     </row>
     <row r="907" spans="1:4" x14ac:dyDescent="0.25">
@@ -20467,7 +20437,7 @@
         <v>1676</v>
       </c>
       <c r="D907">
-        <v>911</v>
+        <v>916</v>
       </c>
     </row>
     <row r="908" spans="1:4" x14ac:dyDescent="0.25">
@@ -20481,7 +20451,7 @@
         <v>1678</v>
       </c>
       <c r="D908">
-        <v>912</v>
+        <v>917</v>
       </c>
     </row>
     <row r="909" spans="1:4" x14ac:dyDescent="0.25">
@@ -20495,7 +20465,7 @@
         <v>1680</v>
       </c>
       <c r="D909">
-        <v>913</v>
+        <v>918</v>
       </c>
     </row>
     <row r="910" spans="1:4" x14ac:dyDescent="0.25">
@@ -20509,7 +20479,7 @@
         <v>1682</v>
       </c>
       <c r="D910">
-        <v>914</v>
+        <v>919</v>
       </c>
     </row>
     <row r="911" spans="1:4" x14ac:dyDescent="0.25">
@@ -20523,7 +20493,7 @@
         <v>1684</v>
       </c>
       <c r="D911">
-        <v>915</v>
+        <v>920</v>
       </c>
     </row>
     <row r="912" spans="1:4" x14ac:dyDescent="0.25">
@@ -20537,7 +20507,7 @@
         <v>1686</v>
       </c>
       <c r="D912">
-        <v>916</v>
+        <v>921</v>
       </c>
     </row>
     <row r="913" spans="1:7" x14ac:dyDescent="0.25">
@@ -20551,7 +20521,7 @@
         <v>1688</v>
       </c>
       <c r="D913">
-        <v>917</v>
+        <v>922</v>
       </c>
     </row>
     <row r="914" spans="1:7" x14ac:dyDescent="0.25">
@@ -20565,7 +20535,7 @@
         <v>1690</v>
       </c>
       <c r="D914">
-        <v>918</v>
+        <v>923</v>
       </c>
     </row>
     <row r="915" spans="1:7" x14ac:dyDescent="0.25">
@@ -20579,7 +20549,7 @@
         <v>1692</v>
       </c>
       <c r="D915">
-        <v>919</v>
+        <v>924</v>
       </c>
     </row>
     <row r="916" spans="1:7" x14ac:dyDescent="0.25">
@@ -20593,7 +20563,7 @@
         <v>1694</v>
       </c>
       <c r="D916">
-        <v>920</v>
+        <v>925</v>
       </c>
     </row>
     <row r="917" spans="1:7" x14ac:dyDescent="0.25">
@@ -20607,7 +20577,7 @@
         <v>1696</v>
       </c>
       <c r="D917">
-        <v>921</v>
+        <v>926</v>
       </c>
     </row>
     <row r="918" spans="1:7" x14ac:dyDescent="0.25">
@@ -20621,1928 +20591,1933 @@
         <v>1698</v>
       </c>
       <c r="D918">
-        <v>922</v>
+        <v>927</v>
       </c>
     </row>
     <row r="919" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A919" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="B919" t="s">
-        <v>1701</v>
-      </c>
-      <c r="C919" s="2" t="s">
         <v>1700</v>
       </c>
       <c r="D919">
-        <v>923</v>
+        <v>928</v>
       </c>
     </row>
     <row r="920" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A920" t="s">
-        <v>1703</v>
+        <v>1154</v>
       </c>
       <c r="B920" t="s">
-        <v>1703</v>
+        <v>1154</v>
       </c>
       <c r="C920" s="2" t="s">
-        <v>1702</v>
+        <v>1153</v>
       </c>
       <c r="D920">
-        <v>924</v>
+        <v>1000</v>
+      </c>
+      <c r="G920" t="s">
+        <v>1877</v>
       </c>
     </row>
     <row r="921" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A921" t="s">
-        <v>1705</v>
+        <v>1156</v>
       </c>
       <c r="B921" t="s">
-        <v>1705</v>
+        <v>1156</v>
       </c>
       <c r="C921" s="2" t="s">
-        <v>1704</v>
+        <v>1155</v>
       </c>
       <c r="D921">
-        <v>925</v>
+        <v>1001</v>
+      </c>
+      <c r="G921" t="s">
+        <v>1877</v>
       </c>
     </row>
     <row r="922" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A922" t="s">
-        <v>1707</v>
+        <v>1158</v>
       </c>
       <c r="B922" t="s">
-        <v>1707</v>
+        <v>1158</v>
       </c>
       <c r="C922" s="2" t="s">
-        <v>1706</v>
+        <v>1157</v>
       </c>
       <c r="D922">
-        <v>926</v>
+        <v>1002</v>
+      </c>
+      <c r="G922" t="s">
+        <v>1877</v>
       </c>
     </row>
     <row r="923" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A923" t="s">
-        <v>1709</v>
+        <v>1160</v>
       </c>
       <c r="B923" t="s">
-        <v>1709</v>
+        <v>1160</v>
       </c>
       <c r="C923" s="2" t="s">
-        <v>1708</v>
+        <v>1159</v>
       </c>
       <c r="D923">
-        <v>927</v>
+        <v>1003</v>
+      </c>
+      <c r="G923" t="s">
+        <v>1877</v>
       </c>
     </row>
     <row r="924" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A924" t="s">
-        <v>1710</v>
+        <v>1162</v>
       </c>
       <c r="B924" t="s">
-        <v>1710</v>
+        <v>1162</v>
+      </c>
+      <c r="C924" s="2" t="s">
+        <v>1161</v>
       </c>
       <c r="D924">
-        <v>928</v>
+        <v>1004</v>
+      </c>
+      <c r="G924" t="s">
+        <v>1877</v>
       </c>
     </row>
     <row r="925" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A925" t="s">
-        <v>1154</v>
+        <v>1164</v>
       </c>
       <c r="B925" t="s">
-        <v>1154</v>
+        <v>1164</v>
       </c>
       <c r="C925" s="2" t="s">
-        <v>1153</v>
+        <v>1163</v>
       </c>
       <c r="D925">
-        <v>1000</v>
+        <v>1005</v>
       </c>
       <c r="G925" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="926" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A926" t="s">
-        <v>1156</v>
+        <v>1166</v>
       </c>
       <c r="B926" t="s">
-        <v>1156</v>
+        <v>1166</v>
       </c>
       <c r="C926" s="2" t="s">
-        <v>1155</v>
+        <v>1165</v>
       </c>
       <c r="D926">
-        <v>1001</v>
+        <v>1006</v>
       </c>
       <c r="G926" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="927" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A927" t="s">
-        <v>1158</v>
+        <v>1168</v>
       </c>
       <c r="B927" t="s">
-        <v>1158</v>
+        <v>1168</v>
       </c>
       <c r="C927" s="2" t="s">
-        <v>1157</v>
+        <v>1167</v>
       </c>
       <c r="D927">
-        <v>1002</v>
+        <v>1007</v>
       </c>
       <c r="G927" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="928" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A928" t="s">
-        <v>1160</v>
+        <v>1170</v>
       </c>
       <c r="B928" t="s">
-        <v>1160</v>
+        <v>1170</v>
       </c>
       <c r="C928" s="2" t="s">
-        <v>1159</v>
+        <v>1169</v>
       </c>
       <c r="D928">
-        <v>1003</v>
+        <v>1008</v>
       </c>
       <c r="G928" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="929" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A929" t="s">
-        <v>1162</v>
+        <v>1172</v>
       </c>
       <c r="B929" t="s">
-        <v>1162</v>
+        <v>1172</v>
       </c>
       <c r="C929" s="2" t="s">
-        <v>1161</v>
+        <v>1171</v>
       </c>
       <c r="D929">
-        <v>1004</v>
+        <v>1009</v>
       </c>
       <c r="G929" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="930" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A930" t="s">
-        <v>1164</v>
+        <v>1174</v>
       </c>
       <c r="B930" t="s">
-        <v>1164</v>
+        <v>1174</v>
       </c>
       <c r="C930" s="2" t="s">
-        <v>1163</v>
+        <v>1173</v>
       </c>
       <c r="D930">
-        <v>1005</v>
+        <v>1010</v>
       </c>
       <c r="G930" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="931" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A931" t="s">
-        <v>1166</v>
+        <v>1176</v>
       </c>
       <c r="B931" t="s">
-        <v>1166</v>
+        <v>1176</v>
       </c>
       <c r="C931" s="2" t="s">
-        <v>1165</v>
+        <v>1175</v>
       </c>
       <c r="D931">
-        <v>1006</v>
+        <v>1011</v>
       </c>
       <c r="G931" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="932" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A932" t="s">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="B932" t="s">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="C932" s="2" t="s">
-        <v>1167</v>
+        <v>1177</v>
       </c>
       <c r="D932">
-        <v>1007</v>
+        <v>1012</v>
       </c>
       <c r="G932" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="933" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A933" t="s">
-        <v>1170</v>
+        <v>1180</v>
       </c>
       <c r="B933" t="s">
-        <v>1170</v>
+        <v>1180</v>
       </c>
       <c r="C933" s="2" t="s">
-        <v>1169</v>
+        <v>1179</v>
       </c>
       <c r="D933">
-        <v>1008</v>
+        <v>1013</v>
       </c>
       <c r="G933" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="934" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A934" t="s">
-        <v>1172</v>
+        <v>1182</v>
       </c>
       <c r="B934" t="s">
-        <v>1172</v>
+        <v>1182</v>
       </c>
       <c r="C934" s="2" t="s">
-        <v>1171</v>
+        <v>1181</v>
       </c>
       <c r="D934">
-        <v>1009</v>
+        <v>1014</v>
       </c>
       <c r="G934" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="935" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A935" t="s">
-        <v>1174</v>
+        <v>1184</v>
       </c>
       <c r="B935" t="s">
-        <v>1174</v>
+        <v>1184</v>
       </c>
       <c r="C935" s="2" t="s">
-        <v>1173</v>
+        <v>1183</v>
       </c>
       <c r="D935">
-        <v>1010</v>
+        <v>1015</v>
       </c>
       <c r="G935" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="936" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A936" t="s">
-        <v>1176</v>
+        <v>1186</v>
       </c>
       <c r="B936" t="s">
-        <v>1176</v>
+        <v>1186</v>
       </c>
       <c r="C936" s="2" t="s">
-        <v>1175</v>
+        <v>1185</v>
       </c>
       <c r="D936">
-        <v>1011</v>
+        <v>1016</v>
       </c>
       <c r="G936" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="937" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A937" t="s">
-        <v>1178</v>
+        <v>1188</v>
       </c>
       <c r="B937" t="s">
-        <v>1178</v>
+        <v>1188</v>
       </c>
       <c r="C937" s="2" t="s">
-        <v>1177</v>
+        <v>1187</v>
       </c>
       <c r="D937">
-        <v>1012</v>
+        <v>1017</v>
       </c>
       <c r="G937" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="938" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A938" t="s">
-        <v>1180</v>
+        <v>1190</v>
       </c>
       <c r="B938" t="s">
-        <v>1180</v>
+        <v>1190</v>
       </c>
       <c r="C938" s="2" t="s">
-        <v>1179</v>
+        <v>1189</v>
       </c>
       <c r="D938">
-        <v>1013</v>
+        <v>1018</v>
       </c>
       <c r="G938" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="939" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A939" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
       <c r="B939" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
       <c r="C939" s="2" t="s">
-        <v>1181</v>
+        <v>1191</v>
       </c>
       <c r="D939">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="G939" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="940" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A940" t="s">
-        <v>1184</v>
+        <v>1878</v>
       </c>
       <c r="B940" t="s">
-        <v>1184</v>
-      </c>
-      <c r="C940" s="2" t="s">
-        <v>1183</v>
+        <v>1878</v>
       </c>
       <c r="D940">
-        <v>1015</v>
+        <v>1020</v>
       </c>
       <c r="G940" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="941" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A941" t="s">
-        <v>1186</v>
+        <v>1879</v>
       </c>
       <c r="B941" t="s">
-        <v>1186</v>
-      </c>
-      <c r="C941" s="2" t="s">
-        <v>1185</v>
+        <v>1879</v>
       </c>
       <c r="D941">
-        <v>1016</v>
+        <v>1021</v>
       </c>
       <c r="G941" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="942" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A942" t="s">
-        <v>1188</v>
+        <v>1880</v>
       </c>
       <c r="B942" t="s">
-        <v>1188</v>
-      </c>
-      <c r="C942" s="2" t="s">
-        <v>1187</v>
+        <v>1880</v>
       </c>
       <c r="D942">
-        <v>1017</v>
+        <v>1022</v>
       </c>
       <c r="G942" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="943" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A943" t="s">
-        <v>1190</v>
+        <v>1881</v>
       </c>
       <c r="B943" t="s">
-        <v>1190</v>
-      </c>
-      <c r="C943" s="2" t="s">
-        <v>1189</v>
+        <v>1881</v>
       </c>
       <c r="D943">
-        <v>1018</v>
+        <v>1023</v>
       </c>
       <c r="G943" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="944" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A944" t="s">
-        <v>1192</v>
+        <v>1882</v>
       </c>
       <c r="B944" t="s">
-        <v>1192</v>
-      </c>
-      <c r="C944" s="2" t="s">
-        <v>1191</v>
+        <v>1882</v>
       </c>
       <c r="D944">
-        <v>1019</v>
+        <v>1024</v>
       </c>
       <c r="G944" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="945" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A945" t="s">
-        <v>1888</v>
+        <v>1883</v>
       </c>
       <c r="B945" t="s">
-        <v>1888</v>
+        <v>1883</v>
       </c>
       <c r="D945">
-        <v>1020</v>
+        <v>1025</v>
       </c>
       <c r="G945" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="946" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A946" t="s">
-        <v>1889</v>
+        <v>1884</v>
       </c>
       <c r="B946" t="s">
-        <v>1889</v>
+        <v>1884</v>
       </c>
       <c r="D946">
-        <v>1021</v>
+        <v>1026</v>
       </c>
       <c r="G946" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="947" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A947" t="s">
-        <v>1890</v>
+        <v>1885</v>
       </c>
       <c r="B947" t="s">
-        <v>1890</v>
+        <v>1885</v>
       </c>
       <c r="D947">
-        <v>1022</v>
+        <v>1027</v>
       </c>
       <c r="G947" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="948" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A948" t="s">
-        <v>1891</v>
+        <v>1886</v>
       </c>
       <c r="B948" t="s">
-        <v>1891</v>
+        <v>1886</v>
       </c>
       <c r="D948">
-        <v>1023</v>
+        <v>1028</v>
       </c>
       <c r="G948" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="949" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A949" t="s">
-        <v>1892</v>
+        <v>1887</v>
       </c>
       <c r="B949" t="s">
-        <v>1892</v>
+        <v>1887</v>
       </c>
       <c r="D949">
-        <v>1024</v>
+        <v>1029</v>
       </c>
       <c r="G949" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="950" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A950" t="s">
-        <v>1893</v>
+        <v>1888</v>
       </c>
       <c r="B950" t="s">
-        <v>1893</v>
+        <v>1888</v>
       </c>
       <c r="D950">
-        <v>1025</v>
+        <v>1030</v>
       </c>
       <c r="G950" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="951" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A951" t="s">
-        <v>1894</v>
+        <v>1889</v>
       </c>
       <c r="B951" t="s">
-        <v>1894</v>
+        <v>1889</v>
       </c>
       <c r="D951">
-        <v>1026</v>
+        <v>1031</v>
       </c>
       <c r="G951" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="952" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A952" t="s">
-        <v>1895</v>
+        <v>1890</v>
       </c>
       <c r="B952" t="s">
-        <v>1895</v>
+        <v>1890</v>
       </c>
       <c r="D952">
-        <v>1027</v>
+        <v>1032</v>
       </c>
       <c r="G952" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="953" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A953" t="s">
-        <v>1896</v>
+        <v>1891</v>
       </c>
       <c r="B953" t="s">
-        <v>1896</v>
+        <v>1891</v>
       </c>
       <c r="D953">
-        <v>1028</v>
+        <v>1033</v>
       </c>
       <c r="G953" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="954" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A954" t="s">
-        <v>1897</v>
+        <v>1892</v>
       </c>
       <c r="B954" t="s">
-        <v>1897</v>
+        <v>1892</v>
       </c>
       <c r="D954">
-        <v>1029</v>
+        <v>1034</v>
       </c>
       <c r="G954" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="955" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A955" t="s">
-        <v>1898</v>
+        <v>1893</v>
       </c>
       <c r="B955" t="s">
-        <v>1898</v>
+        <v>1893</v>
       </c>
       <c r="D955">
-        <v>1030</v>
+        <v>1035</v>
       </c>
       <c r="G955" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="956" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A956" t="s">
-        <v>1899</v>
+        <v>1894</v>
       </c>
       <c r="B956" t="s">
-        <v>1899</v>
+        <v>1894</v>
       </c>
       <c r="D956">
-        <v>1031</v>
+        <v>1036</v>
       </c>
       <c r="G956" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="957" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A957" t="s">
-        <v>1900</v>
+        <v>1895</v>
       </c>
       <c r="B957" t="s">
-        <v>1900</v>
+        <v>1895</v>
       </c>
       <c r="D957">
-        <v>1032</v>
+        <v>1037</v>
       </c>
       <c r="G957" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="958" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A958" t="s">
-        <v>1901</v>
+        <v>1896</v>
       </c>
       <c r="B958" t="s">
-        <v>1901</v>
+        <v>1896</v>
       </c>
       <c r="D958">
-        <v>1033</v>
+        <v>1038</v>
       </c>
       <c r="G958" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="959" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A959" t="s">
-        <v>1902</v>
+        <v>1897</v>
       </c>
       <c r="B959" t="s">
-        <v>1902</v>
+        <v>1897</v>
       </c>
       <c r="D959">
-        <v>1034</v>
+        <v>1039</v>
       </c>
       <c r="G959" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="960" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A960" t="s">
-        <v>1903</v>
+        <v>1898</v>
       </c>
       <c r="B960" t="s">
-        <v>1903</v>
+        <v>1898</v>
       </c>
       <c r="D960">
-        <v>1035</v>
+        <v>1040</v>
       </c>
       <c r="G960" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="961" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A961" t="s">
-        <v>1904</v>
+        <v>1899</v>
       </c>
       <c r="B961" t="s">
-        <v>1904</v>
+        <v>1899</v>
       </c>
       <c r="D961">
-        <v>1036</v>
+        <v>1041</v>
       </c>
       <c r="G961" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="962" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A962" t="s">
-        <v>1905</v>
+        <v>1900</v>
       </c>
       <c r="B962" t="s">
-        <v>1905</v>
+        <v>1900</v>
       </c>
       <c r="D962">
-        <v>1037</v>
+        <v>1042</v>
       </c>
       <c r="G962" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="963" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A963" t="s">
-        <v>1906</v>
+        <v>1901</v>
       </c>
       <c r="B963" t="s">
-        <v>1906</v>
+        <v>1901</v>
       </c>
       <c r="D963">
-        <v>1038</v>
+        <v>1043</v>
       </c>
       <c r="G963" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="964" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A964" t="s">
-        <v>1907</v>
+        <v>1902</v>
       </c>
       <c r="B964" t="s">
-        <v>1907</v>
+        <v>1902</v>
       </c>
       <c r="D964">
-        <v>1039</v>
+        <v>1044</v>
       </c>
       <c r="G964" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="965" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A965" t="s">
-        <v>1908</v>
+        <v>1903</v>
       </c>
       <c r="B965" t="s">
-        <v>1908</v>
+        <v>1903</v>
       </c>
       <c r="D965">
-        <v>1040</v>
+        <v>1045</v>
       </c>
       <c r="G965" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="966" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A966" t="s">
-        <v>1909</v>
+        <v>1904</v>
       </c>
       <c r="B966" t="s">
-        <v>1909</v>
+        <v>1904</v>
       </c>
       <c r="D966">
-        <v>1041</v>
+        <v>1046</v>
       </c>
       <c r="G966" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="967" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A967" t="s">
-        <v>1910</v>
+        <v>1905</v>
       </c>
       <c r="B967" t="s">
-        <v>1910</v>
+        <v>1905</v>
       </c>
       <c r="D967">
-        <v>1042</v>
+        <v>1047</v>
       </c>
       <c r="G967" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="968" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A968" t="s">
-        <v>1911</v>
+        <v>1906</v>
       </c>
       <c r="B968" t="s">
-        <v>1911</v>
+        <v>1906</v>
       </c>
       <c r="D968">
-        <v>1043</v>
+        <v>1048</v>
       </c>
       <c r="G968" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="969" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A969" t="s">
-        <v>1912</v>
+        <v>1907</v>
       </c>
       <c r="B969" t="s">
-        <v>1912</v>
+        <v>1907</v>
       </c>
       <c r="D969">
-        <v>1044</v>
+        <v>1049</v>
       </c>
       <c r="G969" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="970" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A970" t="s">
-        <v>1913</v>
+        <v>1908</v>
       </c>
       <c r="B970" t="s">
-        <v>1913</v>
+        <v>1908</v>
       </c>
       <c r="D970">
-        <v>1045</v>
+        <v>1050</v>
       </c>
       <c r="G970" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="971" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A971" t="s">
-        <v>1914</v>
+        <v>1909</v>
       </c>
       <c r="B971" t="s">
-        <v>1914</v>
+        <v>1909</v>
       </c>
       <c r="D971">
-        <v>1046</v>
+        <v>1051</v>
       </c>
       <c r="G971" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="972" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A972" t="s">
-        <v>1915</v>
+        <v>1910</v>
       </c>
       <c r="B972" t="s">
-        <v>1915</v>
+        <v>1910</v>
       </c>
       <c r="D972">
-        <v>1047</v>
+        <v>1052</v>
       </c>
       <c r="G972" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="973" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A973" t="s">
-        <v>1916</v>
+        <v>1911</v>
       </c>
       <c r="B973" t="s">
-        <v>1916</v>
+        <v>1911</v>
       </c>
       <c r="D973">
-        <v>1048</v>
+        <v>1053</v>
       </c>
       <c r="G973" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="974" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A974" t="s">
-        <v>1917</v>
+        <v>1912</v>
       </c>
       <c r="B974" t="s">
-        <v>1917</v>
+        <v>1912</v>
       </c>
       <c r="D974">
-        <v>1049</v>
+        <v>1054</v>
       </c>
       <c r="G974" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="975" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A975" t="s">
-        <v>1918</v>
+        <v>1913</v>
       </c>
       <c r="B975" t="s">
-        <v>1918</v>
+        <v>1913</v>
       </c>
       <c r="D975">
-        <v>1050</v>
+        <v>1055</v>
       </c>
       <c r="G975" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="976" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A976" t="s">
-        <v>1919</v>
+        <v>1914</v>
       </c>
       <c r="B976" t="s">
-        <v>1919</v>
+        <v>1914</v>
       </c>
       <c r="D976">
-        <v>1051</v>
+        <v>1056</v>
       </c>
       <c r="G976" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="977" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A977" t="s">
-        <v>1920</v>
+        <v>1915</v>
       </c>
       <c r="B977" t="s">
-        <v>1920</v>
+        <v>1915</v>
       </c>
       <c r="D977">
-        <v>1052</v>
+        <v>1057</v>
       </c>
       <c r="G977" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="978" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A978" t="s">
-        <v>1921</v>
+        <v>1916</v>
       </c>
       <c r="B978" t="s">
-        <v>1921</v>
+        <v>1916</v>
       </c>
       <c r="D978">
-        <v>1053</v>
+        <v>1058</v>
       </c>
       <c r="G978" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="979" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A979" t="s">
-        <v>1922</v>
+        <v>1917</v>
       </c>
       <c r="B979" t="s">
-        <v>1922</v>
+        <v>1917</v>
       </c>
       <c r="D979">
-        <v>1054</v>
+        <v>1059</v>
       </c>
       <c r="G979" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="980" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A980" t="s">
-        <v>1923</v>
+        <v>1918</v>
       </c>
       <c r="B980" t="s">
-        <v>1923</v>
+        <v>1918</v>
       </c>
       <c r="D980">
-        <v>1055</v>
+        <v>1060</v>
       </c>
       <c r="G980" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="981" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A981" t="s">
-        <v>1924</v>
+        <v>1919</v>
       </c>
       <c r="B981" t="s">
-        <v>1924</v>
+        <v>1919</v>
       </c>
       <c r="D981">
-        <v>1056</v>
+        <v>1061</v>
       </c>
       <c r="G981" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="982" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A982" t="s">
-        <v>1925</v>
+        <v>1920</v>
       </c>
       <c r="B982" t="s">
-        <v>1925</v>
+        <v>1920</v>
       </c>
       <c r="D982">
-        <v>1057</v>
+        <v>1062</v>
       </c>
       <c r="G982" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="983" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A983" t="s">
-        <v>1926</v>
+        <v>1921</v>
       </c>
       <c r="B983" t="s">
-        <v>1926</v>
+        <v>1921</v>
       </c>
       <c r="D983">
-        <v>1058</v>
+        <v>1063</v>
       </c>
       <c r="G983" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="984" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A984" t="s">
-        <v>1927</v>
+        <v>1922</v>
       </c>
       <c r="B984" t="s">
-        <v>1927</v>
+        <v>1922</v>
       </c>
       <c r="D984">
-        <v>1059</v>
+        <v>1064</v>
       </c>
       <c r="G984" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="985" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A985" t="s">
-        <v>1928</v>
+        <v>1923</v>
       </c>
       <c r="B985" t="s">
-        <v>1928</v>
+        <v>1923</v>
       </c>
       <c r="D985">
-        <v>1060</v>
+        <v>1065</v>
       </c>
       <c r="G985" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="986" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A986" t="s">
-        <v>1929</v>
+        <v>1924</v>
       </c>
       <c r="B986" t="s">
-        <v>1929</v>
+        <v>1924</v>
       </c>
       <c r="D986">
-        <v>1061</v>
+        <v>1066</v>
       </c>
       <c r="G986" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="987" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A987" t="s">
-        <v>1930</v>
+        <v>1925</v>
       </c>
       <c r="B987" t="s">
-        <v>1930</v>
+        <v>1925</v>
       </c>
       <c r="D987">
-        <v>1062</v>
+        <v>1067</v>
       </c>
       <c r="G987" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="988" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A988" t="s">
-        <v>1931</v>
+        <v>1926</v>
       </c>
       <c r="B988" t="s">
-        <v>1931</v>
+        <v>1926</v>
       </c>
       <c r="D988">
-        <v>1063</v>
+        <v>1068</v>
       </c>
       <c r="G988" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="989" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A989" t="s">
-        <v>1932</v>
+        <v>1927</v>
       </c>
       <c r="B989" t="s">
-        <v>1932</v>
+        <v>1927</v>
       </c>
       <c r="D989">
-        <v>1064</v>
+        <v>1069</v>
       </c>
       <c r="G989" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="990" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A990" t="s">
-        <v>1933</v>
+        <v>1928</v>
       </c>
       <c r="B990" t="s">
-        <v>1933</v>
+        <v>1928</v>
       </c>
       <c r="D990">
-        <v>1065</v>
+        <v>1070</v>
       </c>
       <c r="G990" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="991" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A991" t="s">
-        <v>1934</v>
+        <v>1929</v>
       </c>
       <c r="B991" t="s">
-        <v>1934</v>
+        <v>1929</v>
       </c>
       <c r="D991">
-        <v>1066</v>
+        <v>1071</v>
       </c>
       <c r="G991" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="992" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A992" t="s">
-        <v>1935</v>
+        <v>1930</v>
       </c>
       <c r="B992" t="s">
-        <v>1935</v>
+        <v>1930</v>
       </c>
       <c r="D992">
-        <v>1067</v>
+        <v>1072</v>
       </c>
       <c r="G992" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="993" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A993" t="s">
-        <v>1936</v>
+        <v>1931</v>
       </c>
       <c r="B993" t="s">
-        <v>1936</v>
+        <v>1931</v>
       </c>
       <c r="D993">
-        <v>1068</v>
+        <v>1073</v>
       </c>
       <c r="G993" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="994" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A994" t="s">
-        <v>1937</v>
+        <v>1932</v>
       </c>
       <c r="B994" t="s">
-        <v>1937</v>
+        <v>1932</v>
       </c>
       <c r="D994">
-        <v>1069</v>
+        <v>1074</v>
       </c>
       <c r="G994" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="995" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A995" t="s">
-        <v>1938</v>
+        <v>1933</v>
       </c>
       <c r="B995" t="s">
-        <v>1938</v>
+        <v>1933</v>
       </c>
       <c r="D995">
-        <v>1070</v>
+        <v>1075</v>
       </c>
       <c r="G995" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="996" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A996" t="s">
-        <v>1939</v>
+        <v>1934</v>
       </c>
       <c r="B996" t="s">
-        <v>1939</v>
+        <v>1934</v>
       </c>
       <c r="D996">
-        <v>1071</v>
+        <v>1076</v>
       </c>
       <c r="G996" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="997" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A997" t="s">
-        <v>1940</v>
+        <v>1935</v>
       </c>
       <c r="B997" t="s">
-        <v>1940</v>
+        <v>1935</v>
       </c>
       <c r="D997">
-        <v>1072</v>
+        <v>1077</v>
       </c>
       <c r="G997" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="998" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A998" t="s">
-        <v>1941</v>
+        <v>1936</v>
       </c>
       <c r="B998" t="s">
-        <v>1941</v>
+        <v>1936</v>
       </c>
       <c r="D998">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="G998" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="999" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A999" t="s">
-        <v>1942</v>
+        <v>1937</v>
       </c>
       <c r="B999" t="s">
-        <v>1942</v>
+        <v>1937</v>
       </c>
       <c r="D999">
-        <v>1074</v>
+        <v>1079</v>
       </c>
       <c r="G999" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="1000" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1000" t="s">
-        <v>1943</v>
+        <v>1938</v>
       </c>
       <c r="B1000" t="s">
-        <v>1943</v>
+        <v>1938</v>
       </c>
       <c r="D1000">
-        <v>1075</v>
+        <v>1080</v>
       </c>
       <c r="G1000" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="1001" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1001" t="s">
-        <v>1944</v>
+        <v>1939</v>
       </c>
       <c r="B1001" t="s">
-        <v>1944</v>
+        <v>1939</v>
       </c>
       <c r="D1001">
-        <v>1076</v>
+        <v>1081</v>
       </c>
       <c r="G1001" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="1002" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1002" t="s">
-        <v>1945</v>
+        <v>1940</v>
       </c>
       <c r="B1002" t="s">
-        <v>1945</v>
+        <v>1940</v>
       </c>
       <c r="D1002">
-        <v>1077</v>
+        <v>1082</v>
       </c>
       <c r="G1002" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="1003" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1003" t="s">
-        <v>1946</v>
+        <v>1941</v>
       </c>
       <c r="B1003" t="s">
-        <v>1946</v>
+        <v>1941</v>
       </c>
       <c r="D1003">
-        <v>1078</v>
+        <v>1083</v>
       </c>
       <c r="G1003" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="1004" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1004" t="s">
-        <v>1947</v>
+        <v>1942</v>
       </c>
       <c r="B1004" t="s">
-        <v>1947</v>
+        <v>1942</v>
       </c>
       <c r="D1004">
-        <v>1079</v>
+        <v>1084</v>
       </c>
       <c r="G1004" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="1005" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1005" t="s">
-        <v>1948</v>
+        <v>1943</v>
       </c>
       <c r="B1005" t="s">
-        <v>1948</v>
+        <v>1943</v>
       </c>
       <c r="D1005">
-        <v>1080</v>
+        <v>1085</v>
       </c>
       <c r="G1005" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="1006" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1006" t="s">
-        <v>1949</v>
+        <v>1944</v>
       </c>
       <c r="B1006" t="s">
-        <v>1949</v>
+        <v>1944</v>
       </c>
       <c r="D1006">
-        <v>1081</v>
+        <v>1086</v>
       </c>
       <c r="G1006" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="1007" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1007" t="s">
-        <v>1950</v>
+        <v>1945</v>
       </c>
       <c r="B1007" t="s">
-        <v>1950</v>
+        <v>1945</v>
       </c>
       <c r="D1007">
-        <v>1082</v>
+        <v>1087</v>
       </c>
       <c r="G1007" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="1008" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1008" t="s">
-        <v>1951</v>
+        <v>1946</v>
       </c>
       <c r="B1008" t="s">
-        <v>1951</v>
+        <v>1946</v>
       </c>
       <c r="D1008">
-        <v>1083</v>
+        <v>1088</v>
       </c>
       <c r="G1008" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="1009" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1009" t="s">
-        <v>1952</v>
+        <v>1947</v>
       </c>
       <c r="B1009" t="s">
-        <v>1952</v>
+        <v>1947</v>
       </c>
       <c r="D1009">
-        <v>1084</v>
+        <v>1089</v>
       </c>
       <c r="G1009" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="1010" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1010" t="s">
-        <v>1953</v>
+        <v>1948</v>
       </c>
       <c r="B1010" t="s">
-        <v>1953</v>
+        <v>1948</v>
       </c>
       <c r="D1010">
-        <v>1085</v>
+        <v>1090</v>
       </c>
       <c r="G1010" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="1011" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1011" t="s">
-        <v>1954</v>
+        <v>1949</v>
       </c>
       <c r="B1011" t="s">
-        <v>1954</v>
+        <v>1949</v>
       </c>
       <c r="D1011">
-        <v>1086</v>
+        <v>1091</v>
       </c>
       <c r="G1011" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="1012" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1012" t="s">
-        <v>1955</v>
+        <v>1950</v>
       </c>
       <c r="B1012" t="s">
-        <v>1955</v>
+        <v>1950</v>
       </c>
       <c r="D1012">
-        <v>1087</v>
+        <v>1092</v>
       </c>
       <c r="G1012" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="1013" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1013" t="s">
-        <v>1956</v>
+        <v>1951</v>
       </c>
       <c r="B1013" t="s">
-        <v>1956</v>
+        <v>1951</v>
       </c>
       <c r="D1013">
-        <v>1088</v>
+        <v>1093</v>
       </c>
       <c r="G1013" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="1014" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1014" t="s">
-        <v>1957</v>
+        <v>1952</v>
       </c>
       <c r="B1014" t="s">
-        <v>1957</v>
+        <v>1952</v>
       </c>
       <c r="D1014">
-        <v>1089</v>
+        <v>1094</v>
       </c>
       <c r="G1014" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="1015" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1015" t="s">
-        <v>1958</v>
+        <v>1953</v>
       </c>
       <c r="B1015" t="s">
-        <v>1958</v>
+        <v>1953</v>
       </c>
       <c r="D1015">
-        <v>1090</v>
+        <v>1095</v>
       </c>
       <c r="G1015" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="1016" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1016" t="s">
-        <v>1959</v>
+        <v>1954</v>
       </c>
       <c r="B1016" t="s">
-        <v>1959</v>
+        <v>1954</v>
       </c>
       <c r="D1016">
-        <v>1091</v>
+        <v>1096</v>
       </c>
       <c r="G1016" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="1017" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1017" t="s">
-        <v>1960</v>
+        <v>1955</v>
       </c>
       <c r="B1017" t="s">
-        <v>1960</v>
+        <v>1955</v>
       </c>
       <c r="D1017">
-        <v>1092</v>
+        <v>1097</v>
       </c>
       <c r="G1017" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="1018" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1018" t="s">
-        <v>1961</v>
+        <v>1956</v>
       </c>
       <c r="B1018" t="s">
-        <v>1961</v>
+        <v>1956</v>
       </c>
       <c r="D1018">
-        <v>1093</v>
+        <v>1098</v>
       </c>
       <c r="G1018" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="1019" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1019" t="s">
-        <v>1962</v>
+        <v>1957</v>
       </c>
       <c r="B1019" t="s">
-        <v>1962</v>
+        <v>1957</v>
       </c>
       <c r="D1019">
-        <v>1094</v>
+        <v>1099</v>
       </c>
       <c r="G1019" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="1020" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1020" t="s">
-        <v>1963</v>
+        <v>1855</v>
       </c>
       <c r="B1020" t="s">
-        <v>1963</v>
+        <v>1855</v>
       </c>
       <c r="D1020">
-        <v>1095</v>
+        <v>1100</v>
       </c>
       <c r="G1020" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="1021" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1021" t="s">
-        <v>1964</v>
+        <v>1856</v>
       </c>
       <c r="B1021" t="s">
-        <v>1964</v>
+        <v>1856</v>
       </c>
       <c r="D1021">
-        <v>1096</v>
+        <v>1101</v>
       </c>
       <c r="G1021" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="1022" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1022" t="s">
-        <v>1965</v>
+        <v>1857</v>
       </c>
       <c r="B1022" t="s">
-        <v>1965</v>
+        <v>1857</v>
       </c>
       <c r="D1022">
-        <v>1097</v>
+        <v>1102</v>
       </c>
       <c r="G1022" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="1023" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1023" t="s">
-        <v>1966</v>
+        <v>1858</v>
       </c>
       <c r="B1023" t="s">
-        <v>1966</v>
+        <v>1858</v>
       </c>
       <c r="D1023">
-        <v>1098</v>
+        <v>1103</v>
       </c>
       <c r="G1023" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="1024" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1024" t="s">
-        <v>1967</v>
+        <v>1859</v>
       </c>
       <c r="B1024" t="s">
-        <v>1967</v>
+        <v>1859</v>
       </c>
       <c r="D1024">
-        <v>1099</v>
+        <v>1104</v>
       </c>
       <c r="G1024" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="1025" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1025" t="s">
-        <v>1865</v>
+        <v>1860</v>
       </c>
       <c r="B1025" t="s">
-        <v>1865</v>
+        <v>1860</v>
       </c>
       <c r="D1025">
-        <v>1100</v>
+        <v>1105</v>
       </c>
       <c r="G1025" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="1026" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1026" t="s">
-        <v>1866</v>
+        <v>1861</v>
       </c>
       <c r="B1026" t="s">
-        <v>1866</v>
+        <v>1861</v>
       </c>
       <c r="D1026">
-        <v>1101</v>
+        <v>1106</v>
       </c>
       <c r="G1026" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="1027" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1027" t="s">
-        <v>1867</v>
+        <v>1862</v>
       </c>
       <c r="B1027" t="s">
-        <v>1867</v>
+        <v>1862</v>
       </c>
       <c r="D1027">
-        <v>1102</v>
+        <v>1107</v>
       </c>
       <c r="G1027" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="1028" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1028" t="s">
-        <v>1868</v>
+        <v>1863</v>
       </c>
       <c r="B1028" t="s">
-        <v>1868</v>
+        <v>1863</v>
       </c>
       <c r="D1028">
-        <v>1103</v>
+        <v>1108</v>
       </c>
       <c r="G1028" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="1029" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1029" t="s">
-        <v>1869</v>
+        <v>1864</v>
       </c>
       <c r="B1029" t="s">
-        <v>1869</v>
+        <v>1864</v>
       </c>
       <c r="D1029">
-        <v>1104</v>
+        <v>1109</v>
       </c>
       <c r="G1029" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="1030" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1030" t="s">
-        <v>1870</v>
+        <v>1865</v>
       </c>
       <c r="B1030" t="s">
-        <v>1870</v>
+        <v>1865</v>
       </c>
       <c r="D1030">
-        <v>1105</v>
+        <v>1110</v>
       </c>
       <c r="G1030" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="1031" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1031" t="s">
-        <v>1871</v>
+        <v>1866</v>
       </c>
       <c r="B1031" t="s">
-        <v>1871</v>
+        <v>1866</v>
       </c>
       <c r="D1031">
-        <v>1106</v>
+        <v>1111</v>
       </c>
       <c r="G1031" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="1032" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1032" t="s">
-        <v>1872</v>
+        <v>1867</v>
       </c>
       <c r="B1032" t="s">
-        <v>1872</v>
+        <v>1867</v>
       </c>
       <c r="D1032">
-        <v>1107</v>
+        <v>1112</v>
       </c>
       <c r="G1032" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="1033" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1033" t="s">
-        <v>1873</v>
+        <v>1868</v>
       </c>
       <c r="B1033" t="s">
-        <v>1873</v>
+        <v>1868</v>
       </c>
       <c r="D1033">
-        <v>1108</v>
+        <v>1113</v>
       </c>
       <c r="G1033" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="1034" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1034" t="s">
-        <v>1874</v>
+        <v>1869</v>
       </c>
       <c r="B1034" t="s">
-        <v>1874</v>
+        <v>1869</v>
       </c>
       <c r="D1034">
-        <v>1109</v>
+        <v>1114</v>
       </c>
       <c r="G1034" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="1035" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1035" t="s">
-        <v>1875</v>
+        <v>1870</v>
       </c>
       <c r="B1035" t="s">
-        <v>1875</v>
+        <v>1870</v>
       </c>
       <c r="D1035">
-        <v>1110</v>
+        <v>1115</v>
       </c>
       <c r="G1035" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="1036" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1036" t="s">
-        <v>1876</v>
+        <v>1871</v>
       </c>
       <c r="B1036" t="s">
-        <v>1876</v>
+        <v>1871</v>
       </c>
       <c r="D1036">
-        <v>1111</v>
+        <v>1116</v>
       </c>
       <c r="G1036" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="1037" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1037" t="s">
+        <v>1872</v>
+      </c>
+      <c r="B1037" t="s">
+        <v>1872</v>
+      </c>
+      <c r="D1037">
+        <v>1117</v>
+      </c>
+      <c r="G1037" t="s">
         <v>1877</v>
-      </c>
-      <c r="B1037" t="s">
-        <v>1877</v>
-      </c>
-      <c r="D1037">
-        <v>1112</v>
-      </c>
-      <c r="G1037" t="s">
-        <v>1887</v>
       </c>
     </row>
     <row r="1038" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1038" t="s">
-        <v>1878</v>
+        <v>1873</v>
       </c>
       <c r="B1038" t="s">
-        <v>1878</v>
+        <v>1873</v>
       </c>
       <c r="D1038">
-        <v>1113</v>
+        <v>1118</v>
       </c>
       <c r="G1038" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="1039" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1039" t="s">
-        <v>1879</v>
+        <v>1874</v>
       </c>
       <c r="B1039" t="s">
-        <v>1879</v>
+        <v>1874</v>
       </c>
       <c r="D1039">
-        <v>1114</v>
+        <v>1119</v>
       </c>
       <c r="G1039" t="s">
-        <v>1887</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="1040" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1040" t="s">
-        <v>1880</v>
+        <v>1701</v>
       </c>
       <c r="B1040" t="s">
-        <v>1880</v>
+        <v>1701</v>
       </c>
       <c r="D1040">
-        <v>1115</v>
-      </c>
-      <c r="G1040" t="s">
-        <v>1887</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="1041" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1041" t="s">
-        <v>1881</v>
+        <v>1702</v>
       </c>
       <c r="B1041" t="s">
-        <v>1881</v>
+        <v>1702</v>
       </c>
       <c r="D1041">
-        <v>1116</v>
-      </c>
-      <c r="G1041" t="s">
-        <v>1887</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="1042" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1042" t="s">
-        <v>1882</v>
+        <v>1703</v>
       </c>
       <c r="B1042" t="s">
-        <v>1882</v>
+        <v>1703</v>
       </c>
       <c r="D1042">
-        <v>1117</v>
-      </c>
-      <c r="G1042" t="s">
-        <v>1887</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="1043" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1043" t="s">
-        <v>1883</v>
+        <v>1704</v>
       </c>
       <c r="B1043" t="s">
-        <v>1883</v>
+        <v>1704</v>
       </c>
       <c r="D1043">
-        <v>1118</v>
-      </c>
-      <c r="G1043" t="s">
-        <v>1887</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="1044" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1044" t="s">
-        <v>1884</v>
+        <v>1958</v>
       </c>
       <c r="B1044" t="s">
-        <v>1884</v>
+        <v>1958</v>
       </c>
       <c r="D1044">
-        <v>1119</v>
-      </c>
-      <c r="G1044" t="s">
-        <v>1887</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="1045" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1045" t="s">
-        <v>1711</v>
+        <v>1959</v>
       </c>
       <c r="B1045" t="s">
-        <v>1711</v>
+        <v>1959</v>
       </c>
       <c r="D1045">
-        <v>2007</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="1046" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1046" t="s">
-        <v>1712</v>
+        <v>1960</v>
       </c>
       <c r="B1046" t="s">
-        <v>1712</v>
+        <v>1960</v>
       </c>
       <c r="D1046">
-        <v>2008</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="1047" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1047" t="s">
-        <v>1713</v>
+        <v>1961</v>
       </c>
       <c r="B1047" t="s">
-        <v>1713</v>
+        <v>1961</v>
       </c>
       <c r="D1047">
-        <v>2009</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="1048" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1048" t="s">
-        <v>1714</v>
+        <v>1962</v>
       </c>
       <c r="B1048" t="s">
-        <v>1714</v>
+        <v>1962</v>
       </c>
       <c r="D1048">
-        <v>2047</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="1049" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1049" t="s">
-        <v>1968</v>
+        <v>1800</v>
       </c>
       <c r="B1049" t="s">
-        <v>1968</v>
+        <v>1800</v>
+      </c>
+      <c r="C1049" t="s">
+        <v>1799</v>
       </c>
       <c r="D1049">
-        <v>2080</v>
-      </c>
+        <v>3001</v>
+      </c>
+      <c r="I1049"/>
     </row>
     <row r="1050" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1050" t="s">
-        <v>1969</v>
+        <v>1802</v>
       </c>
       <c r="B1050" t="s">
-        <v>1969</v>
+        <v>1802</v>
+      </c>
+      <c r="C1050" t="s">
+        <v>1801</v>
       </c>
       <c r="D1050">
-        <v>2081</v>
-      </c>
+        <v>3002</v>
+      </c>
+      <c r="I1050"/>
     </row>
     <row r="1051" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1051" t="s">
-        <v>1970</v>
+        <v>1804</v>
       </c>
       <c r="B1051" t="s">
-        <v>1970</v>
+        <v>1804</v>
+      </c>
+      <c r="C1051" t="s">
+        <v>1803</v>
       </c>
       <c r="D1051">
-        <v>2082</v>
-      </c>
+        <v>3003</v>
+      </c>
+      <c r="I1051"/>
     </row>
     <row r="1052" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1052" t="s">
-        <v>1971</v>
+        <v>1806</v>
       </c>
       <c r="B1052" t="s">
-        <v>1971</v>
+        <v>1806</v>
+      </c>
+      <c r="C1052" t="s">
+        <v>1805</v>
       </c>
       <c r="D1052">
-        <v>2083</v>
-      </c>
+        <v>3004</v>
+      </c>
+      <c r="I1052"/>
     </row>
     <row r="1053" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1053" t="s">
-        <v>1972</v>
+        <v>1808</v>
       </c>
       <c r="B1053" t="s">
-        <v>1972</v>
+        <v>1808</v>
+      </c>
+      <c r="C1053" t="s">
+        <v>1807</v>
       </c>
       <c r="D1053">
-        <v>2084</v>
-      </c>
+        <v>3005</v>
+      </c>
+      <c r="I1053"/>
     </row>
     <row r="1054" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1054" t="s">
@@ -22555,7 +22530,7 @@
         <v>1809</v>
       </c>
       <c r="D1054">
-        <v>3001</v>
+        <v>3006</v>
       </c>
       <c r="I1054"/>
     </row>
@@ -22570,7 +22545,7 @@
         <v>1811</v>
       </c>
       <c r="D1055">
-        <v>3002</v>
+        <v>3007</v>
       </c>
       <c r="I1055"/>
     </row>
@@ -22585,7 +22560,7 @@
         <v>1813</v>
       </c>
       <c r="D1056">
-        <v>3003</v>
+        <v>3008</v>
       </c>
       <c r="I1056"/>
     </row>
@@ -22600,7 +22575,7 @@
         <v>1815</v>
       </c>
       <c r="D1057">
-        <v>3004</v>
+        <v>3009</v>
       </c>
       <c r="I1057"/>
     </row>
@@ -22615,7 +22590,7 @@
         <v>1817</v>
       </c>
       <c r="D1058">
-        <v>3005</v>
+        <v>3010</v>
       </c>
       <c r="I1058"/>
     </row>
@@ -22630,7 +22605,7 @@
         <v>1819</v>
       </c>
       <c r="D1059">
-        <v>3006</v>
+        <v>3011</v>
       </c>
       <c r="I1059"/>
     </row>
@@ -22645,7 +22620,7 @@
         <v>1821</v>
       </c>
       <c r="D1060">
-        <v>3007</v>
+        <v>3012</v>
       </c>
       <c r="I1060"/>
     </row>
@@ -22660,7 +22635,7 @@
         <v>1823</v>
       </c>
       <c r="D1061">
-        <v>3008</v>
+        <v>3013</v>
       </c>
       <c r="I1061"/>
     </row>
@@ -22675,7 +22650,7 @@
         <v>1825</v>
       </c>
       <c r="D1062">
-        <v>3009</v>
+        <v>3014</v>
       </c>
       <c r="I1062"/>
     </row>
@@ -22690,7 +22665,7 @@
         <v>1827</v>
       </c>
       <c r="D1063">
-        <v>3010</v>
+        <v>3015</v>
       </c>
       <c r="I1063"/>
     </row>
@@ -22705,7 +22680,7 @@
         <v>1829</v>
       </c>
       <c r="D1064">
-        <v>3011</v>
+        <v>3016</v>
       </c>
       <c r="I1064"/>
     </row>
@@ -22720,7 +22695,7 @@
         <v>1831</v>
       </c>
       <c r="D1065">
-        <v>3012</v>
+        <v>3017</v>
       </c>
       <c r="I1065"/>
     </row>
@@ -22735,7 +22710,7 @@
         <v>1833</v>
       </c>
       <c r="D1066">
-        <v>3013</v>
+        <v>3018</v>
       </c>
       <c r="I1066"/>
     </row>
@@ -22750,7 +22725,7 @@
         <v>1835</v>
       </c>
       <c r="D1067">
-        <v>3014</v>
+        <v>3019</v>
       </c>
       <c r="I1067"/>
     </row>
@@ -22765,7 +22740,7 @@
         <v>1837</v>
       </c>
       <c r="D1068">
-        <v>3015</v>
+        <v>3020</v>
       </c>
       <c r="I1068"/>
     </row>
@@ -22780,7 +22755,7 @@
         <v>1839</v>
       </c>
       <c r="D1069">
-        <v>3016</v>
+        <v>3021</v>
       </c>
       <c r="I1069"/>
     </row>
@@ -22795,7 +22770,7 @@
         <v>1841</v>
       </c>
       <c r="D1070">
-        <v>3017</v>
+        <v>3022</v>
       </c>
       <c r="I1070"/>
     </row>
@@ -22810,7 +22785,7 @@
         <v>1843</v>
       </c>
       <c r="D1071">
-        <v>3018</v>
+        <v>3023</v>
       </c>
       <c r="I1071"/>
     </row>
@@ -22825,7 +22800,7 @@
         <v>1845</v>
       </c>
       <c r="D1072">
-        <v>3019</v>
+        <v>3024</v>
       </c>
       <c r="I1072"/>
     </row>
@@ -22840,7 +22815,7 @@
         <v>1847</v>
       </c>
       <c r="D1073">
-        <v>3020</v>
+        <v>3025</v>
       </c>
       <c r="I1073"/>
     </row>
@@ -22855,7 +22830,7 @@
         <v>1849</v>
       </c>
       <c r="D1074">
-        <v>3021</v>
+        <v>3026</v>
       </c>
       <c r="I1074"/>
     </row>
@@ -22870,7 +22845,7 @@
         <v>1851</v>
       </c>
       <c r="D1075">
-        <v>3022</v>
+        <v>3027</v>
       </c>
       <c r="I1075"/>
     </row>
@@ -22885,84 +22860,9 @@
         <v>1853</v>
       </c>
       <c r="D1076">
-        <v>3023</v>
+        <v>3028</v>
       </c>
       <c r="I1076"/>
-    </row>
-    <row r="1077" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1077" t="s">
-        <v>1856</v>
-      </c>
-      <c r="B1077" t="s">
-        <v>1856</v>
-      </c>
-      <c r="C1077" t="s">
-        <v>1855</v>
-      </c>
-      <c r="D1077">
-        <v>3024</v>
-      </c>
-      <c r="I1077"/>
-    </row>
-    <row r="1078" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1078" t="s">
-        <v>1858</v>
-      </c>
-      <c r="B1078" t="s">
-        <v>1858</v>
-      </c>
-      <c r="C1078" t="s">
-        <v>1857</v>
-      </c>
-      <c r="D1078">
-        <v>3025</v>
-      </c>
-      <c r="I1078"/>
-    </row>
-    <row r="1079" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1079" t="s">
-        <v>1860</v>
-      </c>
-      <c r="B1079" t="s">
-        <v>1860</v>
-      </c>
-      <c r="C1079" t="s">
-        <v>1859</v>
-      </c>
-      <c r="D1079">
-        <v>3026</v>
-      </c>
-      <c r="I1079"/>
-    </row>
-    <row r="1080" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1080" t="s">
-        <v>1862</v>
-      </c>
-      <c r="B1080" t="s">
-        <v>1862</v>
-      </c>
-      <c r="C1080" t="s">
-        <v>1861</v>
-      </c>
-      <c r="D1080">
-        <v>3027</v>
-      </c>
-      <c r="I1080"/>
-    </row>
-    <row r="1081" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1081" t="s">
-        <v>1864</v>
-      </c>
-      <c r="B1081" t="s">
-        <v>1864</v>
-      </c>
-      <c r="C1081" t="s">
-        <v>1863</v>
-      </c>
-      <c r="D1081">
-        <v>3028</v>
-      </c>
-      <c r="I1081"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:J1">

--- a/source/glyph_data.xlsx
+++ b/source/glyph_data.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">glyph_data!$A$1:$J$1</definedName>
-    <definedName name="glyph_data" localSheetId="0">glyph_data!$A$1:$J$1043</definedName>
+    <definedName name="glyph_data" localSheetId="0">glyph_data!$A$1:$J$1023</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3475" uniqueCount="1964">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3415" uniqueCount="1944">
   <si>
     <t>USV</t>
   </si>
@@ -5682,66 +5682,6 @@
   </si>
   <si>
     <t>cv02</t>
-  </si>
-  <si>
-    <t>uni1369.isol</t>
-  </si>
-  <si>
-    <t>uni136A.isol</t>
-  </si>
-  <si>
-    <t>uni136B.isol</t>
-  </si>
-  <si>
-    <t>uni136C.isol</t>
-  </si>
-  <si>
-    <t>uni136D.isol</t>
-  </si>
-  <si>
-    <t>uni136E.isol</t>
-  </si>
-  <si>
-    <t>uni136F.isol</t>
-  </si>
-  <si>
-    <t>uni1370.isol</t>
-  </si>
-  <si>
-    <t>uni1371.isol</t>
-  </si>
-  <si>
-    <t>uni1372.isol</t>
-  </si>
-  <si>
-    <t>uni1373.isol</t>
-  </si>
-  <si>
-    <t>uni1374.isol</t>
-  </si>
-  <si>
-    <t>uni1375.isol</t>
-  </si>
-  <si>
-    <t>uni1376.isol</t>
-  </si>
-  <si>
-    <t>uni1377.isol</t>
-  </si>
-  <si>
-    <t>uni1378.isol</t>
-  </si>
-  <si>
-    <t>uni1379.isol</t>
-  </si>
-  <si>
-    <t>uni137A.isol</t>
-  </si>
-  <si>
-    <t>uni137B.isol</t>
-  </si>
-  <si>
-    <t>uni137C.isol</t>
   </si>
   <si>
     <t>uni1369.init</t>
@@ -6265,10 +6205,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1076"/>
+  <dimension ref="A1:J1056"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A663" workbookViewId="0">
-      <selection activeCell="A682" sqref="A682:XFD682"/>
+    <sheetView tabSelected="1" topLeftCell="A933" workbookViewId="0">
+      <selection activeCell="A951" sqref="A951"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15909,7 +15849,7 @@
         <v>1</v>
       </c>
       <c r="I611" s="1" t="s">
-        <v>1963</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="612" spans="1:9" x14ac:dyDescent="0.25">
@@ -20953,7 +20893,7 @@
         <v>1878</v>
       </c>
       <c r="D940">
-        <v>1020</v>
+        <v>1040</v>
       </c>
       <c r="G940" t="s">
         <v>1877</v>
@@ -20967,7 +20907,7 @@
         <v>1879</v>
       </c>
       <c r="D941">
-        <v>1021</v>
+        <v>1041</v>
       </c>
       <c r="G941" t="s">
         <v>1877</v>
@@ -20981,7 +20921,7 @@
         <v>1880</v>
       </c>
       <c r="D942">
-        <v>1022</v>
+        <v>1042</v>
       </c>
       <c r="G942" t="s">
         <v>1877</v>
@@ -20995,7 +20935,7 @@
         <v>1881</v>
       </c>
       <c r="D943">
-        <v>1023</v>
+        <v>1043</v>
       </c>
       <c r="G943" t="s">
         <v>1877</v>
@@ -21009,7 +20949,7 @@
         <v>1882</v>
       </c>
       <c r="D944">
-        <v>1024</v>
+        <v>1044</v>
       </c>
       <c r="G944" t="s">
         <v>1877</v>
@@ -21023,7 +20963,7 @@
         <v>1883</v>
       </c>
       <c r="D945">
-        <v>1025</v>
+        <v>1045</v>
       </c>
       <c r="G945" t="s">
         <v>1877</v>
@@ -21037,7 +20977,7 @@
         <v>1884</v>
       </c>
       <c r="D946">
-        <v>1026</v>
+        <v>1046</v>
       </c>
       <c r="G946" t="s">
         <v>1877</v>
@@ -21051,7 +20991,7 @@
         <v>1885</v>
       </c>
       <c r="D947">
-        <v>1027</v>
+        <v>1047</v>
       </c>
       <c r="G947" t="s">
         <v>1877</v>
@@ -21065,7 +21005,7 @@
         <v>1886</v>
       </c>
       <c r="D948">
-        <v>1028</v>
+        <v>1048</v>
       </c>
       <c r="G948" t="s">
         <v>1877</v>
@@ -21079,7 +21019,7 @@
         <v>1887</v>
       </c>
       <c r="D949">
-        <v>1029</v>
+        <v>1049</v>
       </c>
       <c r="G949" t="s">
         <v>1877</v>
@@ -21093,7 +21033,7 @@
         <v>1888</v>
       </c>
       <c r="D950">
-        <v>1030</v>
+        <v>1050</v>
       </c>
       <c r="G950" t="s">
         <v>1877</v>
@@ -21107,7 +21047,7 @@
         <v>1889</v>
       </c>
       <c r="D951">
-        <v>1031</v>
+        <v>1051</v>
       </c>
       <c r="G951" t="s">
         <v>1877</v>
@@ -21121,7 +21061,7 @@
         <v>1890</v>
       </c>
       <c r="D952">
-        <v>1032</v>
+        <v>1052</v>
       </c>
       <c r="G952" t="s">
         <v>1877</v>
@@ -21135,7 +21075,7 @@
         <v>1891</v>
       </c>
       <c r="D953">
-        <v>1033</v>
+        <v>1053</v>
       </c>
       <c r="G953" t="s">
         <v>1877</v>
@@ -21149,7 +21089,7 @@
         <v>1892</v>
       </c>
       <c r="D954">
-        <v>1034</v>
+        <v>1054</v>
       </c>
       <c r="G954" t="s">
         <v>1877</v>
@@ -21163,7 +21103,7 @@
         <v>1893</v>
       </c>
       <c r="D955">
-        <v>1035</v>
+        <v>1055</v>
       </c>
       <c r="G955" t="s">
         <v>1877</v>
@@ -21177,7 +21117,7 @@
         <v>1894</v>
       </c>
       <c r="D956">
-        <v>1036</v>
+        <v>1056</v>
       </c>
       <c r="G956" t="s">
         <v>1877</v>
@@ -21191,7 +21131,7 @@
         <v>1895</v>
       </c>
       <c r="D957">
-        <v>1037</v>
+        <v>1057</v>
       </c>
       <c r="G957" t="s">
         <v>1877</v>
@@ -21205,7 +21145,7 @@
         <v>1896</v>
       </c>
       <c r="D958">
-        <v>1038</v>
+        <v>1058</v>
       </c>
       <c r="G958" t="s">
         <v>1877</v>
@@ -21219,7 +21159,7 @@
         <v>1897</v>
       </c>
       <c r="D959">
-        <v>1039</v>
+        <v>1059</v>
       </c>
       <c r="G959" t="s">
         <v>1877</v>
@@ -21233,7 +21173,7 @@
         <v>1898</v>
       </c>
       <c r="D960">
-        <v>1040</v>
+        <v>1060</v>
       </c>
       <c r="G960" t="s">
         <v>1877</v>
@@ -21247,7 +21187,7 @@
         <v>1899</v>
       </c>
       <c r="D961">
-        <v>1041</v>
+        <v>1061</v>
       </c>
       <c r="G961" t="s">
         <v>1877</v>
@@ -21261,7 +21201,7 @@
         <v>1900</v>
       </c>
       <c r="D962">
-        <v>1042</v>
+        <v>1062</v>
       </c>
       <c r="G962" t="s">
         <v>1877</v>
@@ -21275,7 +21215,7 @@
         <v>1901</v>
       </c>
       <c r="D963">
-        <v>1043</v>
+        <v>1063</v>
       </c>
       <c r="G963" t="s">
         <v>1877</v>
@@ -21289,7 +21229,7 @@
         <v>1902</v>
       </c>
       <c r="D964">
-        <v>1044</v>
+        <v>1064</v>
       </c>
       <c r="G964" t="s">
         <v>1877</v>
@@ -21303,7 +21243,7 @@
         <v>1903</v>
       </c>
       <c r="D965">
-        <v>1045</v>
+        <v>1065</v>
       </c>
       <c r="G965" t="s">
         <v>1877</v>
@@ -21317,7 +21257,7 @@
         <v>1904</v>
       </c>
       <c r="D966">
-        <v>1046</v>
+        <v>1066</v>
       </c>
       <c r="G966" t="s">
         <v>1877</v>
@@ -21331,7 +21271,7 @@
         <v>1905</v>
       </c>
       <c r="D967">
-        <v>1047</v>
+        <v>1067</v>
       </c>
       <c r="G967" t="s">
         <v>1877</v>
@@ -21345,7 +21285,7 @@
         <v>1906</v>
       </c>
       <c r="D968">
-        <v>1048</v>
+        <v>1068</v>
       </c>
       <c r="G968" t="s">
         <v>1877</v>
@@ -21359,7 +21299,7 @@
         <v>1907</v>
       </c>
       <c r="D969">
-        <v>1049</v>
+        <v>1069</v>
       </c>
       <c r="G969" t="s">
         <v>1877</v>
@@ -21373,7 +21313,7 @@
         <v>1908</v>
       </c>
       <c r="D970">
-        <v>1050</v>
+        <v>1070</v>
       </c>
       <c r="G970" t="s">
         <v>1877</v>
@@ -21387,7 +21327,7 @@
         <v>1909</v>
       </c>
       <c r="D971">
-        <v>1051</v>
+        <v>1071</v>
       </c>
       <c r="G971" t="s">
         <v>1877</v>
@@ -21401,7 +21341,7 @@
         <v>1910</v>
       </c>
       <c r="D972">
-        <v>1052</v>
+        <v>1072</v>
       </c>
       <c r="G972" t="s">
         <v>1877</v>
@@ -21415,7 +21355,7 @@
         <v>1911</v>
       </c>
       <c r="D973">
-        <v>1053</v>
+        <v>1073</v>
       </c>
       <c r="G973" t="s">
         <v>1877</v>
@@ -21429,7 +21369,7 @@
         <v>1912</v>
       </c>
       <c r="D974">
-        <v>1054</v>
+        <v>1074</v>
       </c>
       <c r="G974" t="s">
         <v>1877</v>
@@ -21443,7 +21383,7 @@
         <v>1913</v>
       </c>
       <c r="D975">
-        <v>1055</v>
+        <v>1075</v>
       </c>
       <c r="G975" t="s">
         <v>1877</v>
@@ -21457,7 +21397,7 @@
         <v>1914</v>
       </c>
       <c r="D976">
-        <v>1056</v>
+        <v>1076</v>
       </c>
       <c r="G976" t="s">
         <v>1877</v>
@@ -21471,7 +21411,7 @@
         <v>1915</v>
       </c>
       <c r="D977">
-        <v>1057</v>
+        <v>1077</v>
       </c>
       <c r="G977" t="s">
         <v>1877</v>
@@ -21485,7 +21425,7 @@
         <v>1916</v>
       </c>
       <c r="D978">
-        <v>1058</v>
+        <v>1078</v>
       </c>
       <c r="G978" t="s">
         <v>1877</v>
@@ -21499,7 +21439,7 @@
         <v>1917</v>
       </c>
       <c r="D979">
-        <v>1059</v>
+        <v>1079</v>
       </c>
       <c r="G979" t="s">
         <v>1877</v>
@@ -21513,7 +21453,7 @@
         <v>1918</v>
       </c>
       <c r="D980">
-        <v>1060</v>
+        <v>1080</v>
       </c>
       <c r="G980" t="s">
         <v>1877</v>
@@ -21527,7 +21467,7 @@
         <v>1919</v>
       </c>
       <c r="D981">
-        <v>1061</v>
+        <v>1081</v>
       </c>
       <c r="G981" t="s">
         <v>1877</v>
@@ -21541,7 +21481,7 @@
         <v>1920</v>
       </c>
       <c r="D982">
-        <v>1062</v>
+        <v>1082</v>
       </c>
       <c r="G982" t="s">
         <v>1877</v>
@@ -21555,7 +21495,7 @@
         <v>1921</v>
       </c>
       <c r="D983">
-        <v>1063</v>
+        <v>1083</v>
       </c>
       <c r="G983" t="s">
         <v>1877</v>
@@ -21569,7 +21509,7 @@
         <v>1922</v>
       </c>
       <c r="D984">
-        <v>1064</v>
+        <v>1084</v>
       </c>
       <c r="G984" t="s">
         <v>1877</v>
@@ -21583,7 +21523,7 @@
         <v>1923</v>
       </c>
       <c r="D985">
-        <v>1065</v>
+        <v>1085</v>
       </c>
       <c r="G985" t="s">
         <v>1877</v>
@@ -21597,7 +21537,7 @@
         <v>1924</v>
       </c>
       <c r="D986">
-        <v>1066</v>
+        <v>1086</v>
       </c>
       <c r="G986" t="s">
         <v>1877</v>
@@ -21611,7 +21551,7 @@
         <v>1925</v>
       </c>
       <c r="D987">
-        <v>1067</v>
+        <v>1087</v>
       </c>
       <c r="G987" t="s">
         <v>1877</v>
@@ -21625,7 +21565,7 @@
         <v>1926</v>
       </c>
       <c r="D988">
-        <v>1068</v>
+        <v>1088</v>
       </c>
       <c r="G988" t="s">
         <v>1877</v>
@@ -21639,7 +21579,7 @@
         <v>1927</v>
       </c>
       <c r="D989">
-        <v>1069</v>
+        <v>1089</v>
       </c>
       <c r="G989" t="s">
         <v>1877</v>
@@ -21653,7 +21593,7 @@
         <v>1928</v>
       </c>
       <c r="D990">
-        <v>1070</v>
+        <v>1090</v>
       </c>
       <c r="G990" t="s">
         <v>1877</v>
@@ -21667,7 +21607,7 @@
         <v>1929</v>
       </c>
       <c r="D991">
-        <v>1071</v>
+        <v>1091</v>
       </c>
       <c r="G991" t="s">
         <v>1877</v>
@@ -21681,7 +21621,7 @@
         <v>1930</v>
       </c>
       <c r="D992">
-        <v>1072</v>
+        <v>1092</v>
       </c>
       <c r="G992" t="s">
         <v>1877</v>
@@ -21695,7 +21635,7 @@
         <v>1931</v>
       </c>
       <c r="D993">
-        <v>1073</v>
+        <v>1093</v>
       </c>
       <c r="G993" t="s">
         <v>1877</v>
@@ -21709,7 +21649,7 @@
         <v>1932</v>
       </c>
       <c r="D994">
-        <v>1074</v>
+        <v>1094</v>
       </c>
       <c r="G994" t="s">
         <v>1877</v>
@@ -21723,7 +21663,7 @@
         <v>1933</v>
       </c>
       <c r="D995">
-        <v>1075</v>
+        <v>1095</v>
       </c>
       <c r="G995" t="s">
         <v>1877</v>
@@ -21737,7 +21677,7 @@
         <v>1934</v>
       </c>
       <c r="D996">
-        <v>1076</v>
+        <v>1096</v>
       </c>
       <c r="G996" t="s">
         <v>1877</v>
@@ -21751,7 +21691,7 @@
         <v>1935</v>
       </c>
       <c r="D997">
-        <v>1077</v>
+        <v>1097</v>
       </c>
       <c r="G997" t="s">
         <v>1877</v>
@@ -21765,7 +21705,7 @@
         <v>1936</v>
       </c>
       <c r="D998">
-        <v>1078</v>
+        <v>1098</v>
       </c>
       <c r="G998" t="s">
         <v>1877</v>
@@ -21779,7 +21719,7 @@
         <v>1937</v>
       </c>
       <c r="D999">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="G999" t="s">
         <v>1877</v>
@@ -21787,13 +21727,13 @@
     </row>
     <row r="1000" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1000" t="s">
-        <v>1938</v>
+        <v>1855</v>
       </c>
       <c r="B1000" t="s">
-        <v>1938</v>
+        <v>1855</v>
       </c>
       <c r="D1000">
-        <v>1080</v>
+        <v>1100</v>
       </c>
       <c r="G1000" t="s">
         <v>1877</v>
@@ -21801,13 +21741,13 @@
     </row>
     <row r="1001" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1001" t="s">
-        <v>1939</v>
+        <v>1856</v>
       </c>
       <c r="B1001" t="s">
-        <v>1939</v>
+        <v>1856</v>
       </c>
       <c r="D1001">
-        <v>1081</v>
+        <v>1101</v>
       </c>
       <c r="G1001" t="s">
         <v>1877</v>
@@ -21815,13 +21755,13 @@
     </row>
     <row r="1002" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1002" t="s">
-        <v>1940</v>
+        <v>1857</v>
       </c>
       <c r="B1002" t="s">
-        <v>1940</v>
+        <v>1857</v>
       </c>
       <c r="D1002">
-        <v>1082</v>
+        <v>1102</v>
       </c>
       <c r="G1002" t="s">
         <v>1877</v>
@@ -21829,13 +21769,13 @@
     </row>
     <row r="1003" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1003" t="s">
-        <v>1941</v>
+        <v>1858</v>
       </c>
       <c r="B1003" t="s">
-        <v>1941</v>
+        <v>1858</v>
       </c>
       <c r="D1003">
-        <v>1083</v>
+        <v>1103</v>
       </c>
       <c r="G1003" t="s">
         <v>1877</v>
@@ -21843,13 +21783,13 @@
     </row>
     <row r="1004" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1004" t="s">
-        <v>1942</v>
+        <v>1859</v>
       </c>
       <c r="B1004" t="s">
-        <v>1942</v>
+        <v>1859</v>
       </c>
       <c r="D1004">
-        <v>1084</v>
+        <v>1104</v>
       </c>
       <c r="G1004" t="s">
         <v>1877</v>
@@ -21857,13 +21797,13 @@
     </row>
     <row r="1005" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1005" t="s">
-        <v>1943</v>
+        <v>1860</v>
       </c>
       <c r="B1005" t="s">
-        <v>1943</v>
+        <v>1860</v>
       </c>
       <c r="D1005">
-        <v>1085</v>
+        <v>1105</v>
       </c>
       <c r="G1005" t="s">
         <v>1877</v>
@@ -21871,13 +21811,13 @@
     </row>
     <row r="1006" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1006" t="s">
-        <v>1944</v>
+        <v>1861</v>
       </c>
       <c r="B1006" t="s">
-        <v>1944</v>
+        <v>1861</v>
       </c>
       <c r="D1006">
-        <v>1086</v>
+        <v>1106</v>
       </c>
       <c r="G1006" t="s">
         <v>1877</v>
@@ -21885,13 +21825,13 @@
     </row>
     <row r="1007" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1007" t="s">
-        <v>1945</v>
+        <v>1862</v>
       </c>
       <c r="B1007" t="s">
-        <v>1945</v>
+        <v>1862</v>
       </c>
       <c r="D1007">
-        <v>1087</v>
+        <v>1107</v>
       </c>
       <c r="G1007" t="s">
         <v>1877</v>
@@ -21899,13 +21839,13 @@
     </row>
     <row r="1008" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1008" t="s">
-        <v>1946</v>
+        <v>1863</v>
       </c>
       <c r="B1008" t="s">
-        <v>1946</v>
+        <v>1863</v>
       </c>
       <c r="D1008">
-        <v>1088</v>
+        <v>1108</v>
       </c>
       <c r="G1008" t="s">
         <v>1877</v>
@@ -21913,13 +21853,13 @@
     </row>
     <row r="1009" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1009" t="s">
-        <v>1947</v>
+        <v>1864</v>
       </c>
       <c r="B1009" t="s">
-        <v>1947</v>
+        <v>1864</v>
       </c>
       <c r="D1009">
-        <v>1089</v>
+        <v>1109</v>
       </c>
       <c r="G1009" t="s">
         <v>1877</v>
@@ -21927,13 +21867,13 @@
     </row>
     <row r="1010" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1010" t="s">
-        <v>1948</v>
+        <v>1865</v>
       </c>
       <c r="B1010" t="s">
-        <v>1948</v>
+        <v>1865</v>
       </c>
       <c r="D1010">
-        <v>1090</v>
+        <v>1110</v>
       </c>
       <c r="G1010" t="s">
         <v>1877</v>
@@ -21941,13 +21881,13 @@
     </row>
     <row r="1011" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1011" t="s">
-        <v>1949</v>
+        <v>1866</v>
       </c>
       <c r="B1011" t="s">
-        <v>1949</v>
+        <v>1866</v>
       </c>
       <c r="D1011">
-        <v>1091</v>
+        <v>1111</v>
       </c>
       <c r="G1011" t="s">
         <v>1877</v>
@@ -21955,13 +21895,13 @@
     </row>
     <row r="1012" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1012" t="s">
-        <v>1950</v>
+        <v>1867</v>
       </c>
       <c r="B1012" t="s">
-        <v>1950</v>
+        <v>1867</v>
       </c>
       <c r="D1012">
-        <v>1092</v>
+        <v>1112</v>
       </c>
       <c r="G1012" t="s">
         <v>1877</v>
@@ -21969,13 +21909,13 @@
     </row>
     <row r="1013" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1013" t="s">
-        <v>1951</v>
+        <v>1868</v>
       </c>
       <c r="B1013" t="s">
-        <v>1951</v>
+        <v>1868</v>
       </c>
       <c r="D1013">
-        <v>1093</v>
+        <v>1113</v>
       </c>
       <c r="G1013" t="s">
         <v>1877</v>
@@ -21983,13 +21923,13 @@
     </row>
     <row r="1014" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1014" t="s">
-        <v>1952</v>
+        <v>1869</v>
       </c>
       <c r="B1014" t="s">
-        <v>1952</v>
+        <v>1869</v>
       </c>
       <c r="D1014">
-        <v>1094</v>
+        <v>1114</v>
       </c>
       <c r="G1014" t="s">
         <v>1877</v>
@@ -21997,13 +21937,13 @@
     </row>
     <row r="1015" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1015" t="s">
-        <v>1953</v>
+        <v>1870</v>
       </c>
       <c r="B1015" t="s">
-        <v>1953</v>
+        <v>1870</v>
       </c>
       <c r="D1015">
-        <v>1095</v>
+        <v>1115</v>
       </c>
       <c r="G1015" t="s">
         <v>1877</v>
@@ -22011,13 +21951,13 @@
     </row>
     <row r="1016" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1016" t="s">
-        <v>1954</v>
+        <v>1871</v>
       </c>
       <c r="B1016" t="s">
-        <v>1954</v>
+        <v>1871</v>
       </c>
       <c r="D1016">
-        <v>1096</v>
+        <v>1116</v>
       </c>
       <c r="G1016" t="s">
         <v>1877</v>
@@ -22025,13 +21965,13 @@
     </row>
     <row r="1017" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1017" t="s">
-        <v>1955</v>
+        <v>1872</v>
       </c>
       <c r="B1017" t="s">
-        <v>1955</v>
+        <v>1872</v>
       </c>
       <c r="D1017">
-        <v>1097</v>
+        <v>1117</v>
       </c>
       <c r="G1017" t="s">
         <v>1877</v>
@@ -22039,13 +21979,13 @@
     </row>
     <row r="1018" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1018" t="s">
-        <v>1956</v>
+        <v>1873</v>
       </c>
       <c r="B1018" t="s">
-        <v>1956</v>
+        <v>1873</v>
       </c>
       <c r="D1018">
-        <v>1098</v>
+        <v>1118</v>
       </c>
       <c r="G1018" t="s">
         <v>1877</v>
@@ -22053,13 +21993,13 @@
     </row>
     <row r="1019" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1019" t="s">
-        <v>1957</v>
+        <v>1874</v>
       </c>
       <c r="B1019" t="s">
-        <v>1957</v>
+        <v>1874</v>
       </c>
       <c r="D1019">
-        <v>1099</v>
+        <v>1119</v>
       </c>
       <c r="G1019" t="s">
         <v>1877</v>
@@ -22067,802 +22007,522 @@
     </row>
     <row r="1020" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1020" t="s">
-        <v>1855</v>
+        <v>1701</v>
       </c>
       <c r="B1020" t="s">
-        <v>1855</v>
+        <v>1701</v>
       </c>
       <c r="D1020">
-        <v>1100</v>
-      </c>
-      <c r="G1020" t="s">
-        <v>1877</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="1021" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1021" t="s">
-        <v>1856</v>
+        <v>1702</v>
       </c>
       <c r="B1021" t="s">
-        <v>1856</v>
+        <v>1702</v>
       </c>
       <c r="D1021">
-        <v>1101</v>
-      </c>
-      <c r="G1021" t="s">
-        <v>1877</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="1022" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1022" t="s">
-        <v>1857</v>
+        <v>1703</v>
       </c>
       <c r="B1022" t="s">
-        <v>1857</v>
+        <v>1703</v>
       </c>
       <c r="D1022">
-        <v>1102</v>
-      </c>
-      <c r="G1022" t="s">
-        <v>1877</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="1023" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1023" t="s">
-        <v>1858</v>
+        <v>1704</v>
       </c>
       <c r="B1023" t="s">
-        <v>1858</v>
+        <v>1704</v>
       </c>
       <c r="D1023">
-        <v>1103</v>
-      </c>
-      <c r="G1023" t="s">
-        <v>1877</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="1024" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1024" t="s">
-        <v>1859</v>
+        <v>1938</v>
       </c>
       <c r="B1024" t="s">
-        <v>1859</v>
+        <v>1938</v>
       </c>
       <c r="D1024">
-        <v>1104</v>
-      </c>
-      <c r="G1024" t="s">
-        <v>1877</v>
-      </c>
-    </row>
-    <row r="1025" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1025" t="s">
-        <v>1860</v>
+        <v>1939</v>
       </c>
       <c r="B1025" t="s">
-        <v>1860</v>
+        <v>1939</v>
       </c>
       <c r="D1025">
-        <v>1105</v>
-      </c>
-      <c r="G1025" t="s">
-        <v>1877</v>
-      </c>
-    </row>
-    <row r="1026" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1026" t="s">
-        <v>1861</v>
+        <v>1940</v>
       </c>
       <c r="B1026" t="s">
-        <v>1861</v>
+        <v>1940</v>
       </c>
       <c r="D1026">
-        <v>1106</v>
-      </c>
-      <c r="G1026" t="s">
-        <v>1877</v>
-      </c>
-    </row>
-    <row r="1027" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2082</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1027" t="s">
-        <v>1862</v>
+        <v>1941</v>
       </c>
       <c r="B1027" t="s">
-        <v>1862</v>
+        <v>1941</v>
       </c>
       <c r="D1027">
-        <v>1107</v>
-      </c>
-      <c r="G1027" t="s">
-        <v>1877</v>
-      </c>
-    </row>
-    <row r="1028" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2083</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1028" t="s">
-        <v>1863</v>
+        <v>1942</v>
       </c>
       <c r="B1028" t="s">
-        <v>1863</v>
+        <v>1942</v>
       </c>
       <c r="D1028">
-        <v>1108</v>
-      </c>
-      <c r="G1028" t="s">
-        <v>1877</v>
-      </c>
-    </row>
-    <row r="1029" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1029" t="s">
-        <v>1864</v>
+        <v>1800</v>
       </c>
       <c r="B1029" t="s">
-        <v>1864</v>
+        <v>1800</v>
+      </c>
+      <c r="C1029" t="s">
+        <v>1799</v>
       </c>
       <c r="D1029">
-        <v>1109</v>
-      </c>
-      <c r="G1029" t="s">
-        <v>1877</v>
-      </c>
-    </row>
-    <row r="1030" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3001</v>
+      </c>
+      <c r="I1029"/>
+    </row>
+    <row r="1030" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1030" t="s">
-        <v>1865</v>
+        <v>1802</v>
       </c>
       <c r="B1030" t="s">
-        <v>1865</v>
+        <v>1802</v>
+      </c>
+      <c r="C1030" t="s">
+        <v>1801</v>
       </c>
       <c r="D1030">
-        <v>1110</v>
-      </c>
-      <c r="G1030" t="s">
-        <v>1877</v>
-      </c>
-    </row>
-    <row r="1031" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3002</v>
+      </c>
+      <c r="I1030"/>
+    </row>
+    <row r="1031" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1031" t="s">
-        <v>1866</v>
+        <v>1804</v>
       </c>
       <c r="B1031" t="s">
-        <v>1866</v>
+        <v>1804</v>
+      </c>
+      <c r="C1031" t="s">
+        <v>1803</v>
       </c>
       <c r="D1031">
-        <v>1111</v>
-      </c>
-      <c r="G1031" t="s">
-        <v>1877</v>
-      </c>
-    </row>
-    <row r="1032" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3003</v>
+      </c>
+      <c r="I1031"/>
+    </row>
+    <row r="1032" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1032" t="s">
-        <v>1867</v>
+        <v>1806</v>
       </c>
       <c r="B1032" t="s">
-        <v>1867</v>
+        <v>1806</v>
+      </c>
+      <c r="C1032" t="s">
+        <v>1805</v>
       </c>
       <c r="D1032">
-        <v>1112</v>
-      </c>
-      <c r="G1032" t="s">
-        <v>1877</v>
-      </c>
-    </row>
-    <row r="1033" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3004</v>
+      </c>
+      <c r="I1032"/>
+    </row>
+    <row r="1033" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1033" t="s">
-        <v>1868</v>
+        <v>1808</v>
       </c>
       <c r="B1033" t="s">
-        <v>1868</v>
+        <v>1808</v>
+      </c>
+      <c r="C1033" t="s">
+        <v>1807</v>
       </c>
       <c r="D1033">
-        <v>1113</v>
-      </c>
-      <c r="G1033" t="s">
-        <v>1877</v>
-      </c>
-    </row>
-    <row r="1034" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3005</v>
+      </c>
+      <c r="I1033"/>
+    </row>
+    <row r="1034" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1034" t="s">
-        <v>1869</v>
+        <v>1810</v>
       </c>
       <c r="B1034" t="s">
-        <v>1869</v>
+        <v>1810</v>
+      </c>
+      <c r="C1034" t="s">
+        <v>1809</v>
       </c>
       <c r="D1034">
-        <v>1114</v>
-      </c>
-      <c r="G1034" t="s">
-        <v>1877</v>
-      </c>
-    </row>
-    <row r="1035" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3006</v>
+      </c>
+      <c r="I1034"/>
+    </row>
+    <row r="1035" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1035" t="s">
-        <v>1870</v>
+        <v>1812</v>
       </c>
       <c r="B1035" t="s">
-        <v>1870</v>
+        <v>1812</v>
+      </c>
+      <c r="C1035" t="s">
+        <v>1811</v>
       </c>
       <c r="D1035">
-        <v>1115</v>
-      </c>
-      <c r="G1035" t="s">
-        <v>1877</v>
-      </c>
-    </row>
-    <row r="1036" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3007</v>
+      </c>
+      <c r="I1035"/>
+    </row>
+    <row r="1036" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1036" t="s">
-        <v>1871</v>
+        <v>1814</v>
       </c>
       <c r="B1036" t="s">
-        <v>1871</v>
+        <v>1814</v>
+      </c>
+      <c r="C1036" t="s">
+        <v>1813</v>
       </c>
       <c r="D1036">
-        <v>1116</v>
-      </c>
-      <c r="G1036" t="s">
-        <v>1877</v>
-      </c>
-    </row>
-    <row r="1037" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3008</v>
+      </c>
+      <c r="I1036"/>
+    </row>
+    <row r="1037" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1037" t="s">
-        <v>1872</v>
+        <v>1816</v>
       </c>
       <c r="B1037" t="s">
-        <v>1872</v>
+        <v>1816</v>
+      </c>
+      <c r="C1037" t="s">
+        <v>1815</v>
       </c>
       <c r="D1037">
-        <v>1117</v>
-      </c>
-      <c r="G1037" t="s">
-        <v>1877</v>
-      </c>
-    </row>
-    <row r="1038" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3009</v>
+      </c>
+      <c r="I1037"/>
+    </row>
+    <row r="1038" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1038" t="s">
-        <v>1873</v>
+        <v>1818</v>
       </c>
       <c r="B1038" t="s">
-        <v>1873</v>
+        <v>1818</v>
+      </c>
+      <c r="C1038" t="s">
+        <v>1817</v>
       </c>
       <c r="D1038">
-        <v>1118</v>
-      </c>
-      <c r="G1038" t="s">
-        <v>1877</v>
-      </c>
-    </row>
-    <row r="1039" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3010</v>
+      </c>
+      <c r="I1038"/>
+    </row>
+    <row r="1039" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1039" t="s">
-        <v>1874</v>
+        <v>1820</v>
       </c>
       <c r="B1039" t="s">
-        <v>1874</v>
+        <v>1820</v>
+      </c>
+      <c r="C1039" t="s">
+        <v>1819</v>
       </c>
       <c r="D1039">
-        <v>1119</v>
-      </c>
-      <c r="G1039" t="s">
-        <v>1877</v>
-      </c>
-    </row>
-    <row r="1040" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3011</v>
+      </c>
+      <c r="I1039"/>
+    </row>
+    <row r="1040" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1040" t="s">
-        <v>1701</v>
+        <v>1822</v>
       </c>
       <c r="B1040" t="s">
-        <v>1701</v>
+        <v>1822</v>
+      </c>
+      <c r="C1040" t="s">
+        <v>1821</v>
       </c>
       <c r="D1040">
-        <v>2007</v>
-      </c>
+        <v>3012</v>
+      </c>
+      <c r="I1040"/>
     </row>
     <row r="1041" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1041" t="s">
-        <v>1702</v>
+        <v>1824</v>
       </c>
       <c r="B1041" t="s">
-        <v>1702</v>
+        <v>1824</v>
+      </c>
+      <c r="C1041" t="s">
+        <v>1823</v>
       </c>
       <c r="D1041">
-        <v>2008</v>
-      </c>
+        <v>3013</v>
+      </c>
+      <c r="I1041"/>
     </row>
     <row r="1042" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1042" t="s">
-        <v>1703</v>
+        <v>1826</v>
       </c>
       <c r="B1042" t="s">
-        <v>1703</v>
+        <v>1826</v>
+      </c>
+      <c r="C1042" t="s">
+        <v>1825</v>
       </c>
       <c r="D1042">
-        <v>2009</v>
-      </c>
+        <v>3014</v>
+      </c>
+      <c r="I1042"/>
     </row>
     <row r="1043" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1043" t="s">
-        <v>1704</v>
+        <v>1828</v>
       </c>
       <c r="B1043" t="s">
-        <v>1704</v>
+        <v>1828</v>
+      </c>
+      <c r="C1043" t="s">
+        <v>1827</v>
       </c>
       <c r="D1043">
-        <v>2047</v>
-      </c>
+        <v>3015</v>
+      </c>
+      <c r="I1043"/>
     </row>
     <row r="1044" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1044" t="s">
-        <v>1958</v>
+        <v>1830</v>
       </c>
       <c r="B1044" t="s">
-        <v>1958</v>
+        <v>1830</v>
+      </c>
+      <c r="C1044" t="s">
+        <v>1829</v>
       </c>
       <c r="D1044">
-        <v>2080</v>
-      </c>
+        <v>3016</v>
+      </c>
+      <c r="I1044"/>
     </row>
     <row r="1045" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1045" t="s">
-        <v>1959</v>
+        <v>1832</v>
       </c>
       <c r="B1045" t="s">
-        <v>1959</v>
+        <v>1832</v>
+      </c>
+      <c r="C1045" t="s">
+        <v>1831</v>
       </c>
       <c r="D1045">
-        <v>2081</v>
-      </c>
+        <v>3017</v>
+      </c>
+      <c r="I1045"/>
     </row>
     <row r="1046" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1046" t="s">
-        <v>1960</v>
+        <v>1834</v>
       </c>
       <c r="B1046" t="s">
-        <v>1960</v>
+        <v>1834</v>
+      </c>
+      <c r="C1046" t="s">
+        <v>1833</v>
       </c>
       <c r="D1046">
-        <v>2082</v>
-      </c>
+        <v>3018</v>
+      </c>
+      <c r="I1046"/>
     </row>
     <row r="1047" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1047" t="s">
-        <v>1961</v>
+        <v>1836</v>
       </c>
       <c r="B1047" t="s">
-        <v>1961</v>
+        <v>1836</v>
+      </c>
+      <c r="C1047" t="s">
+        <v>1835</v>
       </c>
       <c r="D1047">
-        <v>2083</v>
-      </c>
+        <v>3019</v>
+      </c>
+      <c r="I1047"/>
     </row>
     <row r="1048" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1048" t="s">
-        <v>1962</v>
+        <v>1838</v>
       </c>
       <c r="B1048" t="s">
-        <v>1962</v>
+        <v>1838</v>
+      </c>
+      <c r="C1048" t="s">
+        <v>1837</v>
       </c>
       <c r="D1048">
-        <v>2084</v>
-      </c>
+        <v>3020</v>
+      </c>
+      <c r="I1048"/>
     </row>
     <row r="1049" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1049" t="s">
-        <v>1800</v>
+        <v>1840</v>
       </c>
       <c r="B1049" t="s">
-        <v>1800</v>
+        <v>1840</v>
       </c>
       <c r="C1049" t="s">
-        <v>1799</v>
+        <v>1839</v>
       </c>
       <c r="D1049">
-        <v>3001</v>
+        <v>3021</v>
       </c>
       <c r="I1049"/>
     </row>
     <row r="1050" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1050" t="s">
-        <v>1802</v>
+        <v>1842</v>
       </c>
       <c r="B1050" t="s">
-        <v>1802</v>
+        <v>1842</v>
       </c>
       <c r="C1050" t="s">
-        <v>1801</v>
+        <v>1841</v>
       </c>
       <c r="D1050">
-        <v>3002</v>
+        <v>3022</v>
       </c>
       <c r="I1050"/>
     </row>
     <row r="1051" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1051" t="s">
-        <v>1804</v>
+        <v>1844</v>
       </c>
       <c r="B1051" t="s">
-        <v>1804</v>
+        <v>1844</v>
       </c>
       <c r="C1051" t="s">
-        <v>1803</v>
+        <v>1843</v>
       </c>
       <c r="D1051">
-        <v>3003</v>
+        <v>3023</v>
       </c>
       <c r="I1051"/>
     </row>
     <row r="1052" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1052" t="s">
-        <v>1806</v>
+        <v>1846</v>
       </c>
       <c r="B1052" t="s">
-        <v>1806</v>
+        <v>1846</v>
       </c>
       <c r="C1052" t="s">
-        <v>1805</v>
+        <v>1845</v>
       </c>
       <c r="D1052">
-        <v>3004</v>
+        <v>3024</v>
       </c>
       <c r="I1052"/>
     </row>
     <row r="1053" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1053" t="s">
-        <v>1808</v>
+        <v>1848</v>
       </c>
       <c r="B1053" t="s">
-        <v>1808</v>
+        <v>1848</v>
       </c>
       <c r="C1053" t="s">
-        <v>1807</v>
+        <v>1847</v>
       </c>
       <c r="D1053">
-        <v>3005</v>
+        <v>3025</v>
       </c>
       <c r="I1053"/>
     </row>
     <row r="1054" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1054" t="s">
-        <v>1810</v>
+        <v>1850</v>
       </c>
       <c r="B1054" t="s">
-        <v>1810</v>
+        <v>1850</v>
       </c>
       <c r="C1054" t="s">
-        <v>1809</v>
+        <v>1849</v>
       </c>
       <c r="D1054">
-        <v>3006</v>
+        <v>3026</v>
       </c>
       <c r="I1054"/>
     </row>
     <row r="1055" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1055" t="s">
-        <v>1812</v>
+        <v>1852</v>
       </c>
       <c r="B1055" t="s">
-        <v>1812</v>
+        <v>1852</v>
       </c>
       <c r="C1055" t="s">
-        <v>1811</v>
+        <v>1851</v>
       </c>
       <c r="D1055">
-        <v>3007</v>
+        <v>3027</v>
       </c>
       <c r="I1055"/>
     </row>
     <row r="1056" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1056" t="s">
-        <v>1814</v>
+        <v>1854</v>
       </c>
       <c r="B1056" t="s">
-        <v>1814</v>
+        <v>1854</v>
       </c>
       <c r="C1056" t="s">
-        <v>1813</v>
+        <v>1853</v>
       </c>
       <c r="D1056">
-        <v>3008</v>
+        <v>3028</v>
       </c>
       <c r="I1056"/>
-    </row>
-    <row r="1057" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1057" t="s">
-        <v>1816</v>
-      </c>
-      <c r="B1057" t="s">
-        <v>1816</v>
-      </c>
-      <c r="C1057" t="s">
-        <v>1815</v>
-      </c>
-      <c r="D1057">
-        <v>3009</v>
-      </c>
-      <c r="I1057"/>
-    </row>
-    <row r="1058" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1058" t="s">
-        <v>1818</v>
-      </c>
-      <c r="B1058" t="s">
-        <v>1818</v>
-      </c>
-      <c r="C1058" t="s">
-        <v>1817</v>
-      </c>
-      <c r="D1058">
-        <v>3010</v>
-      </c>
-      <c r="I1058"/>
-    </row>
-    <row r="1059" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1059" t="s">
-        <v>1820</v>
-      </c>
-      <c r="B1059" t="s">
-        <v>1820</v>
-      </c>
-      <c r="C1059" t="s">
-        <v>1819</v>
-      </c>
-      <c r="D1059">
-        <v>3011</v>
-      </c>
-      <c r="I1059"/>
-    </row>
-    <row r="1060" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1060" t="s">
-        <v>1822</v>
-      </c>
-      <c r="B1060" t="s">
-        <v>1822</v>
-      </c>
-      <c r="C1060" t="s">
-        <v>1821</v>
-      </c>
-      <c r="D1060">
-        <v>3012</v>
-      </c>
-      <c r="I1060"/>
-    </row>
-    <row r="1061" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1061" t="s">
-        <v>1824</v>
-      </c>
-      <c r="B1061" t="s">
-        <v>1824</v>
-      </c>
-      <c r="C1061" t="s">
-        <v>1823</v>
-      </c>
-      <c r="D1061">
-        <v>3013</v>
-      </c>
-      <c r="I1061"/>
-    </row>
-    <row r="1062" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1062" t="s">
-        <v>1826</v>
-      </c>
-      <c r="B1062" t="s">
-        <v>1826</v>
-      </c>
-      <c r="C1062" t="s">
-        <v>1825</v>
-      </c>
-      <c r="D1062">
-        <v>3014</v>
-      </c>
-      <c r="I1062"/>
-    </row>
-    <row r="1063" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1063" t="s">
-        <v>1828</v>
-      </c>
-      <c r="B1063" t="s">
-        <v>1828</v>
-      </c>
-      <c r="C1063" t="s">
-        <v>1827</v>
-      </c>
-      <c r="D1063">
-        <v>3015</v>
-      </c>
-      <c r="I1063"/>
-    </row>
-    <row r="1064" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1064" t="s">
-        <v>1830</v>
-      </c>
-      <c r="B1064" t="s">
-        <v>1830</v>
-      </c>
-      <c r="C1064" t="s">
-        <v>1829</v>
-      </c>
-      <c r="D1064">
-        <v>3016</v>
-      </c>
-      <c r="I1064"/>
-    </row>
-    <row r="1065" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1065" t="s">
-        <v>1832</v>
-      </c>
-      <c r="B1065" t="s">
-        <v>1832</v>
-      </c>
-      <c r="C1065" t="s">
-        <v>1831</v>
-      </c>
-      <c r="D1065">
-        <v>3017</v>
-      </c>
-      <c r="I1065"/>
-    </row>
-    <row r="1066" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1066" t="s">
-        <v>1834</v>
-      </c>
-      <c r="B1066" t="s">
-        <v>1834</v>
-      </c>
-      <c r="C1066" t="s">
-        <v>1833</v>
-      </c>
-      <c r="D1066">
-        <v>3018</v>
-      </c>
-      <c r="I1066"/>
-    </row>
-    <row r="1067" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1067" t="s">
-        <v>1836</v>
-      </c>
-      <c r="B1067" t="s">
-        <v>1836</v>
-      </c>
-      <c r="C1067" t="s">
-        <v>1835</v>
-      </c>
-      <c r="D1067">
-        <v>3019</v>
-      </c>
-      <c r="I1067"/>
-    </row>
-    <row r="1068" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1068" t="s">
-        <v>1838</v>
-      </c>
-      <c r="B1068" t="s">
-        <v>1838</v>
-      </c>
-      <c r="C1068" t="s">
-        <v>1837</v>
-      </c>
-      <c r="D1068">
-        <v>3020</v>
-      </c>
-      <c r="I1068"/>
-    </row>
-    <row r="1069" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1069" t="s">
-        <v>1840</v>
-      </c>
-      <c r="B1069" t="s">
-        <v>1840</v>
-      </c>
-      <c r="C1069" t="s">
-        <v>1839</v>
-      </c>
-      <c r="D1069">
-        <v>3021</v>
-      </c>
-      <c r="I1069"/>
-    </row>
-    <row r="1070" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1070" t="s">
-        <v>1842</v>
-      </c>
-      <c r="B1070" t="s">
-        <v>1842</v>
-      </c>
-      <c r="C1070" t="s">
-        <v>1841</v>
-      </c>
-      <c r="D1070">
-        <v>3022</v>
-      </c>
-      <c r="I1070"/>
-    </row>
-    <row r="1071" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1071" t="s">
-        <v>1844</v>
-      </c>
-      <c r="B1071" t="s">
-        <v>1844</v>
-      </c>
-      <c r="C1071" t="s">
-        <v>1843</v>
-      </c>
-      <c r="D1071">
-        <v>3023</v>
-      </c>
-      <c r="I1071"/>
-    </row>
-    <row r="1072" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1072" t="s">
-        <v>1846</v>
-      </c>
-      <c r="B1072" t="s">
-        <v>1846</v>
-      </c>
-      <c r="C1072" t="s">
-        <v>1845</v>
-      </c>
-      <c r="D1072">
-        <v>3024</v>
-      </c>
-      <c r="I1072"/>
-    </row>
-    <row r="1073" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1073" t="s">
-        <v>1848</v>
-      </c>
-      <c r="B1073" t="s">
-        <v>1848</v>
-      </c>
-      <c r="C1073" t="s">
-        <v>1847</v>
-      </c>
-      <c r="D1073">
-        <v>3025</v>
-      </c>
-      <c r="I1073"/>
-    </row>
-    <row r="1074" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1074" t="s">
-        <v>1850</v>
-      </c>
-      <c r="B1074" t="s">
-        <v>1850</v>
-      </c>
-      <c r="C1074" t="s">
-        <v>1849</v>
-      </c>
-      <c r="D1074">
-        <v>3026</v>
-      </c>
-      <c r="I1074"/>
-    </row>
-    <row r="1075" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1075" t="s">
-        <v>1852</v>
-      </c>
-      <c r="B1075" t="s">
-        <v>1852</v>
-      </c>
-      <c r="C1075" t="s">
-        <v>1851</v>
-      </c>
-      <c r="D1075">
-        <v>3027</v>
-      </c>
-      <c r="I1075"/>
-    </row>
-    <row r="1076" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1076" t="s">
-        <v>1854</v>
-      </c>
-      <c r="B1076" t="s">
-        <v>1854</v>
-      </c>
-      <c r="C1076" t="s">
-        <v>1853</v>
-      </c>
-      <c r="D1076">
-        <v>3028</v>
-      </c>
-      <c r="I1076"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:J1">

--- a/source/glyph_data.xlsx
+++ b/source/glyph_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\home\evansl\repos\wstechfonts\font-abyssinica\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E4BCCCF-922E-4095-A910-D7B5D503ED77}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B6AED67-9C17-4D17-8E92-10D0086557B8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23520" windowHeight="7860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">glyph_data!$A$1:$J$1</definedName>
-    <definedName name="glyph_data" localSheetId="0">glyph_data!$A$1:$J$1024</definedName>
+    <definedName name="glyph_data" localSheetId="0">glyph_data!$A$1:$J$1043</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3417" uniqueCount="1946">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3455" uniqueCount="1983">
   <si>
     <t>USV</t>
   </si>
@@ -5887,6 +5887,117 @@
   </si>
   <si>
     <t>gzi.ligature</t>
+  </si>
+  <si>
+    <t>zero.inferior</t>
+  </si>
+  <si>
+    <t>one.inferior</t>
+  </si>
+  <si>
+    <t>two.inferior</t>
+  </si>
+  <si>
+    <t>three.inferior</t>
+  </si>
+  <si>
+    <t>four.inferior</t>
+  </si>
+  <si>
+    <t>five.inferior</t>
+  </si>
+  <si>
+    <t>six.inferior</t>
+  </si>
+  <si>
+    <t>seven.inferior</t>
+  </si>
+  <si>
+    <t>eight.inferior</t>
+  </si>
+  <si>
+    <t>nine.inferior</t>
+  </si>
+  <si>
+    <t>onecircle</t>
+  </si>
+  <si>
+    <t>twocircle</t>
+  </si>
+  <si>
+    <t>threecircle</t>
+  </si>
+  <si>
+    <t>fourcircle</t>
+  </si>
+  <si>
+    <t>fivecircle</t>
+  </si>
+  <si>
+    <t>sixcircle</t>
+  </si>
+  <si>
+    <t>sevencircle</t>
+  </si>
+  <si>
+    <t>eightcircle</t>
+  </si>
+  <si>
+    <t>ninecircle</t>
+  </si>
+  <si>
+    <t>uni2080</t>
+  </si>
+  <si>
+    <t>uni2081</t>
+  </si>
+  <si>
+    <t>uni2082</t>
+  </si>
+  <si>
+    <t>uni2083</t>
+  </si>
+  <si>
+    <t>uni2084</t>
+  </si>
+  <si>
+    <t>uni2085</t>
+  </si>
+  <si>
+    <t>uni2086</t>
+  </si>
+  <si>
+    <t>uni2087</t>
+  </si>
+  <si>
+    <t>uni2088</t>
+  </si>
+  <si>
+    <t>uni2460</t>
+  </si>
+  <si>
+    <t>uni2461</t>
+  </si>
+  <si>
+    <t>uni2462</t>
+  </si>
+  <si>
+    <t>uni2463</t>
+  </si>
+  <si>
+    <t>uni2464</t>
+  </si>
+  <si>
+    <t>uni2465</t>
+  </si>
+  <si>
+    <t>uni2466</t>
+  </si>
+  <si>
+    <t>uni2467</t>
+  </si>
+  <si>
+    <t>uni2468</t>
   </si>
 </sst>
 </file>
@@ -6212,10 +6323,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J1057"/>
+  <dimension ref="A1:J1076"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A567" workbookViewId="0">
-      <selection activeCell="B552" sqref="B552"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19940,964 +20051,907 @@
     </row>
     <row r="877" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A877" t="s">
-        <v>1616</v>
+        <v>1946</v>
       </c>
       <c r="B877" t="s">
-        <v>1616</v>
-      </c>
-      <c r="C877" s="2" t="s">
-        <v>1615</v>
+        <v>1965</v>
+      </c>
+      <c r="C877">
+        <v>2080</v>
       </c>
       <c r="D877">
-        <v>885</v>
-      </c>
-      <c r="G877" t="s">
-        <v>14</v>
-      </c>
-      <c r="H877">
-        <v>0</v>
+        <v>885.01</v>
       </c>
     </row>
     <row r="878" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A878" t="s">
-        <v>1617</v>
+        <v>1947</v>
       </c>
       <c r="B878" t="s">
-        <v>1617</v>
+        <v>1966</v>
+      </c>
+      <c r="C878">
+        <v>2081</v>
       </c>
       <c r="D878">
-        <v>886</v>
-      </c>
-      <c r="G878" t="s">
-        <v>14</v>
-      </c>
-      <c r="H878">
-        <v>1</v>
-      </c>
-      <c r="I878" s="1" t="s">
-        <v>1615</v>
+        <v>885.02</v>
       </c>
     </row>
     <row r="879" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A879" t="s">
-        <v>1619</v>
+        <v>1948</v>
       </c>
       <c r="B879" t="s">
-        <v>1619</v>
-      </c>
-      <c r="C879" s="2" t="s">
-        <v>1618</v>
+        <v>1967</v>
+      </c>
+      <c r="C879">
+        <v>2082</v>
       </c>
       <c r="D879">
-        <v>887</v>
+        <v>885.03</v>
       </c>
     </row>
     <row r="880" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A880" t="s">
+        <v>1949</v>
+      </c>
+      <c r="B880" t="s">
+        <v>1968</v>
+      </c>
+      <c r="C880">
+        <v>2083</v>
+      </c>
+      <c r="D880">
+        <v>885.04</v>
+      </c>
+    </row>
+    <row r="881" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A881" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B881" t="s">
+        <v>1969</v>
+      </c>
+      <c r="C881">
+        <v>2084</v>
+      </c>
+      <c r="D881">
+        <v>885.05</v>
+      </c>
+    </row>
+    <row r="882" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A882" t="s">
+        <v>1951</v>
+      </c>
+      <c r="B882" t="s">
+        <v>1970</v>
+      </c>
+      <c r="C882">
+        <v>2085</v>
+      </c>
+      <c r="D882">
+        <v>885.06</v>
+      </c>
+    </row>
+    <row r="883" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A883" t="s">
+        <v>1952</v>
+      </c>
+      <c r="B883" t="s">
+        <v>1971</v>
+      </c>
+      <c r="C883">
+        <v>2086</v>
+      </c>
+      <c r="D883">
+        <v>885.07</v>
+      </c>
+    </row>
+    <row r="884" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A884" t="s">
+        <v>1953</v>
+      </c>
+      <c r="B884" t="s">
+        <v>1972</v>
+      </c>
+      <c r="C884">
+        <v>2087</v>
+      </c>
+      <c r="D884">
+        <v>885.08</v>
+      </c>
+    </row>
+    <row r="885" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A885" t="s">
+        <v>1954</v>
+      </c>
+      <c r="B885" t="s">
+        <v>1973</v>
+      </c>
+      <c r="C885">
+        <v>2088</v>
+      </c>
+      <c r="D885">
+        <v>885.09</v>
+      </c>
+    </row>
+    <row r="886" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A886" t="s">
+        <v>1955</v>
+      </c>
+      <c r="B886" t="s">
+        <v>1973</v>
+      </c>
+      <c r="C886">
+        <v>2088</v>
+      </c>
+      <c r="D886">
+        <v>885.11</v>
+      </c>
+    </row>
+    <row r="887" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A887" t="s">
+        <v>1956</v>
+      </c>
+      <c r="B887" t="s">
+        <v>1974</v>
+      </c>
+      <c r="C887">
+        <v>2460</v>
+      </c>
+      <c r="D887">
+        <v>885.12</v>
+      </c>
+    </row>
+    <row r="888" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A888" t="s">
+        <v>1957</v>
+      </c>
+      <c r="B888" t="s">
+        <v>1975</v>
+      </c>
+      <c r="C888">
+        <v>2461</v>
+      </c>
+      <c r="D888">
+        <v>885.13</v>
+      </c>
+    </row>
+    <row r="889" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A889" t="s">
+        <v>1958</v>
+      </c>
+      <c r="B889" t="s">
+        <v>1976</v>
+      </c>
+      <c r="C889">
+        <v>2462</v>
+      </c>
+      <c r="D889">
+        <v>885.14</v>
+      </c>
+    </row>
+    <row r="890" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A890" t="s">
+        <v>1959</v>
+      </c>
+      <c r="B890" t="s">
+        <v>1977</v>
+      </c>
+      <c r="C890">
+        <v>2463</v>
+      </c>
+      <c r="D890">
+        <v>885.15</v>
+      </c>
+    </row>
+    <row r="891" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A891" t="s">
+        <v>1960</v>
+      </c>
+      <c r="B891" t="s">
+        <v>1978</v>
+      </c>
+      <c r="C891">
+        <v>2464</v>
+      </c>
+      <c r="D891">
+        <v>885.16</v>
+      </c>
+    </row>
+    <row r="892" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A892" t="s">
+        <v>1961</v>
+      </c>
+      <c r="B892" t="s">
+        <v>1979</v>
+      </c>
+      <c r="C892">
+        <v>2465</v>
+      </c>
+      <c r="D892">
+        <v>885.17</v>
+      </c>
+    </row>
+    <row r="893" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A893" t="s">
+        <v>1962</v>
+      </c>
+      <c r="B893" t="s">
+        <v>1980</v>
+      </c>
+      <c r="C893">
+        <v>2466</v>
+      </c>
+      <c r="D893">
+        <v>885.18</v>
+      </c>
+    </row>
+    <row r="894" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A894" t="s">
+        <v>1963</v>
+      </c>
+      <c r="B894" t="s">
+        <v>1981</v>
+      </c>
+      <c r="C894">
+        <v>2467</v>
+      </c>
+      <c r="D894">
+        <v>885.19</v>
+      </c>
+    </row>
+    <row r="895" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A895" t="s">
+        <v>1964</v>
+      </c>
+      <c r="B895" t="s">
+        <v>1982</v>
+      </c>
+      <c r="C895">
+        <v>2468</v>
+      </c>
+      <c r="D895">
+        <v>885.21</v>
+      </c>
+    </row>
+    <row r="896" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A896" t="s">
+        <v>1616</v>
+      </c>
+      <c r="B896" t="s">
+        <v>1616</v>
+      </c>
+      <c r="C896" s="2" t="s">
+        <v>1615</v>
+      </c>
+      <c r="D896">
+        <v>885</v>
+      </c>
+      <c r="G896" t="s">
+        <v>14</v>
+      </c>
+      <c r="H896">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="897" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A897" t="s">
+        <v>1617</v>
+      </c>
+      <c r="B897" t="s">
+        <v>1617</v>
+      </c>
+      <c r="D897">
+        <v>886</v>
+      </c>
+      <c r="G897" t="s">
+        <v>14</v>
+      </c>
+      <c r="H897">
+        <v>1</v>
+      </c>
+      <c r="I897" s="1" t="s">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="898" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A898" t="s">
+        <v>1619</v>
+      </c>
+      <c r="B898" t="s">
+        <v>1619</v>
+      </c>
+      <c r="C898" s="2" t="s">
+        <v>1618</v>
+      </c>
+      <c r="D898">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="899" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A899" t="s">
         <v>1621</v>
       </c>
-      <c r="B880" t="s">
+      <c r="B899" t="s">
         <v>1621</v>
       </c>
-      <c r="C880" s="2" t="s">
+      <c r="C899" s="2" t="s">
         <v>1620</v>
       </c>
-      <c r="D880">
+      <c r="D899">
         <v>888</v>
       </c>
     </row>
-    <row r="881" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A881" t="s">
+    <row r="900" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A900" t="s">
         <v>1623</v>
       </c>
-      <c r="B881" t="s">
+      <c r="B900" t="s">
         <v>1623</v>
       </c>
-      <c r="C881" s="2" t="s">
+      <c r="C900" s="2" t="s">
         <v>1622</v>
       </c>
-      <c r="D881">
+      <c r="D900">
         <v>889</v>
       </c>
     </row>
-    <row r="882" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A882" t="s">
+    <row r="901" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A901" t="s">
         <v>1625</v>
       </c>
-      <c r="B882" t="s">
+      <c r="B901" t="s">
         <v>1625</v>
       </c>
-      <c r="C882" s="2" t="s">
+      <c r="C901" s="2" t="s">
         <v>1624</v>
       </c>
-      <c r="D882">
+      <c r="D901">
         <v>890</v>
       </c>
     </row>
-    <row r="883" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A883" t="s">
+    <row r="902" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A902" t="s">
         <v>1627</v>
       </c>
-      <c r="B883" t="s">
+      <c r="B902" t="s">
         <v>1627</v>
       </c>
-      <c r="C883" s="2" t="s">
+      <c r="C902" s="2" t="s">
         <v>1626</v>
       </c>
-      <c r="D883">
+      <c r="D902">
         <v>891</v>
       </c>
     </row>
-    <row r="884" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A884" t="s">
+    <row r="903" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A903" t="s">
         <v>1629</v>
       </c>
-      <c r="B884" t="s">
+      <c r="B903" t="s">
         <v>1629</v>
       </c>
-      <c r="C884" s="2" t="s">
+      <c r="C903" s="2" t="s">
         <v>1628</v>
       </c>
-      <c r="D884">
+      <c r="D903">
         <v>892</v>
       </c>
     </row>
-    <row r="885" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A885" t="s">
+    <row r="904" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A904" t="s">
         <v>1631</v>
       </c>
-      <c r="B885" t="s">
+      <c r="B904" t="s">
         <v>1631</v>
       </c>
-      <c r="C885" s="2" t="s">
+      <c r="C904" s="2" t="s">
         <v>1630</v>
       </c>
-      <c r="D885">
+      <c r="D904">
         <v>893</v>
       </c>
     </row>
-    <row r="886" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A886" t="s">
+    <row r="905" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A905" t="s">
         <v>1633</v>
       </c>
-      <c r="B886" t="s">
+      <c r="B905" t="s">
         <v>1633</v>
       </c>
-      <c r="C886" s="2" t="s">
+      <c r="C905" s="2" t="s">
         <v>1632</v>
       </c>
-      <c r="D886">
+      <c r="D905">
         <v>894</v>
       </c>
     </row>
-    <row r="887" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A887" t="s">
+    <row r="906" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A906" t="s">
         <v>1635</v>
       </c>
-      <c r="B887" t="s">
+      <c r="B906" t="s">
         <v>1635</v>
       </c>
-      <c r="C887" s="2" t="s">
+      <c r="C906" s="2" t="s">
         <v>1634</v>
       </c>
-      <c r="D887">
+      <c r="D906">
         <v>895</v>
       </c>
     </row>
-    <row r="888" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A888" t="s">
+    <row r="907" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A907" t="s">
         <v>1637</v>
       </c>
-      <c r="B888" t="s">
+      <c r="B907" t="s">
         <v>1637</v>
       </c>
-      <c r="C888" s="2" t="s">
+      <c r="C907" s="2" t="s">
         <v>1636</v>
       </c>
-      <c r="D888">
+      <c r="D907">
         <v>896</v>
       </c>
     </row>
-    <row r="889" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A889" t="s">
+    <row r="908" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A908" t="s">
         <v>1639</v>
       </c>
-      <c r="B889" t="s">
+      <c r="B908" t="s">
         <v>1639</v>
       </c>
-      <c r="C889" s="2" t="s">
+      <c r="C908" s="2" t="s">
         <v>1638</v>
       </c>
-      <c r="D889">
+      <c r="D908">
         <v>897</v>
       </c>
     </row>
-    <row r="890" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A890" t="s">
+    <row r="909" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A909" t="s">
         <v>1641</v>
       </c>
-      <c r="B890" t="s">
+      <c r="B909" t="s">
         <v>1641</v>
       </c>
-      <c r="C890" s="2" t="s">
+      <c r="C909" s="2" t="s">
         <v>1640</v>
       </c>
-      <c r="D890">
+      <c r="D909">
         <v>898</v>
       </c>
     </row>
-    <row r="891" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A891" t="s">
+    <row r="910" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A910" t="s">
         <v>1643</v>
       </c>
-      <c r="B891" t="s">
+      <c r="B910" t="s">
         <v>1643</v>
       </c>
-      <c r="C891" s="2" t="s">
+      <c r="C910" s="2" t="s">
         <v>1642</v>
       </c>
-      <c r="D891">
+      <c r="D910">
         <v>899</v>
       </c>
     </row>
-    <row r="892" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A892" t="s">
+    <row r="911" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A911" t="s">
         <v>1647</v>
       </c>
-      <c r="B892" t="s">
+      <c r="B911" t="s">
         <v>1647</v>
       </c>
-      <c r="C892" s="2" t="s">
+      <c r="C911" s="2" t="s">
         <v>1646</v>
       </c>
-      <c r="D892">
+      <c r="D911">
         <v>900</v>
       </c>
     </row>
-    <row r="893" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A893" t="s">
+    <row r="912" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A912" t="s">
         <v>1649</v>
       </c>
-      <c r="B893" t="s">
+      <c r="B912" t="s">
         <v>1649</v>
       </c>
-      <c r="C893" s="2" t="s">
+      <c r="C912" s="2" t="s">
         <v>1648</v>
       </c>
-      <c r="D893">
+      <c r="D912">
         <v>901</v>
       </c>
     </row>
-    <row r="894" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A894" t="s">
+    <row r="913" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A913" t="s">
         <v>1651</v>
       </c>
-      <c r="B894" t="s">
+      <c r="B913" t="s">
         <v>1651</v>
       </c>
-      <c r="C894" s="2" t="s">
+      <c r="C913" s="2" t="s">
         <v>1650</v>
       </c>
-      <c r="D894">
+      <c r="D913">
         <v>902</v>
       </c>
     </row>
-    <row r="895" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A895" t="s">
+    <row r="914" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A914" t="s">
         <v>1653</v>
       </c>
-      <c r="B895" t="s">
+      <c r="B914" t="s">
         <v>1653</v>
       </c>
-      <c r="C895" s="2" t="s">
+      <c r="C914" s="2" t="s">
         <v>1652</v>
       </c>
-      <c r="D895">
+      <c r="D914">
         <v>903</v>
       </c>
     </row>
-    <row r="896" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A896" t="s">
+    <row r="915" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A915" t="s">
         <v>1645</v>
       </c>
-      <c r="B896" t="s">
+      <c r="B915" t="s">
         <v>1645</v>
       </c>
-      <c r="C896" s="2" t="s">
+      <c r="C915" s="2" t="s">
         <v>1644</v>
       </c>
-      <c r="D896">
+      <c r="D915">
         <v>904</v>
       </c>
     </row>
-    <row r="897" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A897" t="s">
+    <row r="916" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A916" t="s">
         <v>1655</v>
       </c>
-      <c r="B897" t="s">
+      <c r="B916" t="s">
         <v>1655</v>
       </c>
-      <c r="C897" s="2" t="s">
+      <c r="C916" s="2" t="s">
         <v>1654</v>
       </c>
-      <c r="D897">
+      <c r="D916">
         <v>905</v>
       </c>
     </row>
-    <row r="898" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A898" t="s">
+    <row r="917" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A917" t="s">
         <v>1657</v>
       </c>
-      <c r="B898" t="s">
+      <c r="B917" t="s">
         <v>1657</v>
       </c>
-      <c r="C898" s="2" t="s">
+      <c r="C917" s="2" t="s">
         <v>1656</v>
       </c>
-      <c r="D898">
+      <c r="D917">
         <v>906</v>
       </c>
     </row>
-    <row r="899" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A899" t="s">
+    <row r="918" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A918" t="s">
         <v>1659</v>
       </c>
-      <c r="B899" t="s">
+      <c r="B918" t="s">
         <v>1659</v>
       </c>
-      <c r="C899" s="2" t="s">
+      <c r="C918" s="2" t="s">
         <v>1658</v>
       </c>
-      <c r="D899">
+      <c r="D918">
         <v>907</v>
       </c>
     </row>
-    <row r="900" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A900" t="s">
+    <row r="919" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A919" t="s">
         <v>1661</v>
       </c>
-      <c r="B900" t="s">
+      <c r="B919" t="s">
         <v>1661</v>
       </c>
-      <c r="C900" s="2" t="s">
+      <c r="C919" s="2" t="s">
         <v>1660</v>
       </c>
-      <c r="D900">
+      <c r="D919">
         <v>908</v>
       </c>
     </row>
-    <row r="901" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A901" t="s">
+    <row r="920" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A920" t="s">
         <v>1663</v>
       </c>
-      <c r="B901" t="s">
+      <c r="B920" t="s">
         <v>1663</v>
       </c>
-      <c r="C901" s="2" t="s">
+      <c r="C920" s="2" t="s">
         <v>1662</v>
       </c>
-      <c r="D901">
+      <c r="D920">
         <v>909</v>
       </c>
     </row>
-    <row r="902" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A902" t="s">
+    <row r="921" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A921" t="s">
         <v>1665</v>
       </c>
-      <c r="B902" t="s">
+      <c r="B921" t="s">
         <v>1665</v>
       </c>
-      <c r="C902" s="2" t="s">
+      <c r="C921" s="2" t="s">
         <v>1664</v>
       </c>
-      <c r="D902">
+      <c r="D921">
         <v>910</v>
       </c>
     </row>
-    <row r="903" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A903" t="s">
+    <row r="922" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A922" t="s">
         <v>1667</v>
       </c>
-      <c r="B903" t="s">
+      <c r="B922" t="s">
         <v>1667</v>
       </c>
-      <c r="C903" s="2" t="s">
+      <c r="C922" s="2" t="s">
         <v>1666</v>
       </c>
-      <c r="D903">
+      <c r="D922">
         <v>911</v>
       </c>
     </row>
-    <row r="904" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A904" t="s">
+    <row r="923" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A923" t="s">
         <v>1669</v>
       </c>
-      <c r="B904" t="s">
+      <c r="B923" t="s">
         <v>1669</v>
       </c>
-      <c r="C904" s="2" t="s">
+      <c r="C923" s="2" t="s">
         <v>1668</v>
       </c>
-      <c r="D904">
+      <c r="D923">
         <v>912</v>
       </c>
     </row>
-    <row r="905" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A905" t="s">
+    <row r="924" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A924" t="s">
         <v>1671</v>
       </c>
-      <c r="B905" t="s">
+      <c r="B924" t="s">
         <v>1671</v>
       </c>
-      <c r="C905" s="2" t="s">
+      <c r="C924" s="2" t="s">
         <v>1670</v>
       </c>
-      <c r="D905">
+      <c r="D924">
         <v>913</v>
       </c>
     </row>
-    <row r="906" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A906" t="s">
+    <row r="925" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A925" t="s">
         <v>1673</v>
       </c>
-      <c r="B906" t="s">
+      <c r="B925" t="s">
         <v>1673</v>
       </c>
-      <c r="C906" s="2" t="s">
+      <c r="C925" s="2" t="s">
         <v>1672</v>
       </c>
-      <c r="D906">
+      <c r="D925">
         <v>914</v>
       </c>
     </row>
-    <row r="907" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A907" t="s">
+    <row r="926" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A926" t="s">
         <v>1675</v>
       </c>
-      <c r="B907" t="s">
+      <c r="B926" t="s">
         <v>1675</v>
       </c>
-      <c r="C907" s="2" t="s">
+      <c r="C926" s="2" t="s">
         <v>1674</v>
       </c>
-      <c r="D907">
+      <c r="D926">
         <v>915</v>
       </c>
     </row>
-    <row r="908" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A908" t="s">
+    <row r="927" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A927" t="s">
         <v>1677</v>
       </c>
-      <c r="B908" t="s">
+      <c r="B927" t="s">
         <v>1677</v>
       </c>
-      <c r="C908" s="2" t="s">
+      <c r="C927" s="2" t="s">
         <v>1676</v>
       </c>
-      <c r="D908">
+      <c r="D927">
         <v>916</v>
       </c>
     </row>
-    <row r="909" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A909" t="s">
+    <row r="928" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A928" t="s">
         <v>1679</v>
       </c>
-      <c r="B909" t="s">
+      <c r="B928" t="s">
         <v>1679</v>
       </c>
-      <c r="C909" s="2" t="s">
+      <c r="C928" s="2" t="s">
         <v>1678</v>
       </c>
-      <c r="D909">
+      <c r="D928">
         <v>917</v>
-      </c>
-    </row>
-    <row r="910" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A910" t="s">
-        <v>1681</v>
-      </c>
-      <c r="B910" t="s">
-        <v>1681</v>
-      </c>
-      <c r="C910" s="2" t="s">
-        <v>1680</v>
-      </c>
-      <c r="D910">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="911" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A911" t="s">
-        <v>1683</v>
-      </c>
-      <c r="B911" t="s">
-        <v>1683</v>
-      </c>
-      <c r="C911" s="2" t="s">
-        <v>1682</v>
-      </c>
-      <c r="D911">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="912" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A912" t="s">
-        <v>1685</v>
-      </c>
-      <c r="B912" t="s">
-        <v>1685</v>
-      </c>
-      <c r="C912" s="2" t="s">
-        <v>1684</v>
-      </c>
-      <c r="D912">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="913" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A913" t="s">
-        <v>1687</v>
-      </c>
-      <c r="B913" t="s">
-        <v>1687</v>
-      </c>
-      <c r="C913" s="2" t="s">
-        <v>1686</v>
-      </c>
-      <c r="D913">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="914" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A914" t="s">
-        <v>1689</v>
-      </c>
-      <c r="B914" t="s">
-        <v>1689</v>
-      </c>
-      <c r="C914" s="2" t="s">
-        <v>1688</v>
-      </c>
-      <c r="D914">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="915" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A915" t="s">
-        <v>1691</v>
-      </c>
-      <c r="B915" t="s">
-        <v>1691</v>
-      </c>
-      <c r="C915" s="2" t="s">
-        <v>1690</v>
-      </c>
-      <c r="D915">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="916" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A916" t="s">
-        <v>1693</v>
-      </c>
-      <c r="B916" t="s">
-        <v>1693</v>
-      </c>
-      <c r="C916" s="2" t="s">
-        <v>1692</v>
-      </c>
-      <c r="D916">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="917" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A917" t="s">
-        <v>1695</v>
-      </c>
-      <c r="B917" t="s">
-        <v>1695</v>
-      </c>
-      <c r="C917" s="2" t="s">
-        <v>1694</v>
-      </c>
-      <c r="D917">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="918" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A918" t="s">
-        <v>1697</v>
-      </c>
-      <c r="B918" t="s">
-        <v>1697</v>
-      </c>
-      <c r="C918" s="2" t="s">
-        <v>1696</v>
-      </c>
-      <c r="D918">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="919" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A919" t="s">
-        <v>1699</v>
-      </c>
-      <c r="B919" t="s">
-        <v>1699</v>
-      </c>
-      <c r="C919" s="2" t="s">
-        <v>1698</v>
-      </c>
-      <c r="D919">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="920" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A920" t="s">
-        <v>1700</v>
-      </c>
-      <c r="B920" t="s">
-        <v>1700</v>
-      </c>
-      <c r="D920">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="921" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A921" t="s">
-        <v>1154</v>
-      </c>
-      <c r="B921" t="s">
-        <v>1154</v>
-      </c>
-      <c r="C921" s="2" t="s">
-        <v>1153</v>
-      </c>
-      <c r="D921">
-        <v>1000</v>
-      </c>
-      <c r="G921" t="s">
-        <v>1877</v>
-      </c>
-    </row>
-    <row r="922" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A922" t="s">
-        <v>1156</v>
-      </c>
-      <c r="B922" t="s">
-        <v>1156</v>
-      </c>
-      <c r="C922" s="2" t="s">
-        <v>1155</v>
-      </c>
-      <c r="D922">
-        <v>1001</v>
-      </c>
-      <c r="G922" t="s">
-        <v>1877</v>
-      </c>
-    </row>
-    <row r="923" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A923" t="s">
-        <v>1158</v>
-      </c>
-      <c r="B923" t="s">
-        <v>1158</v>
-      </c>
-      <c r="C923" s="2" t="s">
-        <v>1157</v>
-      </c>
-      <c r="D923">
-        <v>1002</v>
-      </c>
-      <c r="G923" t="s">
-        <v>1877</v>
-      </c>
-    </row>
-    <row r="924" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A924" t="s">
-        <v>1160</v>
-      </c>
-      <c r="B924" t="s">
-        <v>1160</v>
-      </c>
-      <c r="C924" s="2" t="s">
-        <v>1159</v>
-      </c>
-      <c r="D924">
-        <v>1003</v>
-      </c>
-      <c r="G924" t="s">
-        <v>1877</v>
-      </c>
-    </row>
-    <row r="925" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A925" t="s">
-        <v>1162</v>
-      </c>
-      <c r="B925" t="s">
-        <v>1162</v>
-      </c>
-      <c r="C925" s="2" t="s">
-        <v>1161</v>
-      </c>
-      <c r="D925">
-        <v>1004</v>
-      </c>
-      <c r="G925" t="s">
-        <v>1877</v>
-      </c>
-    </row>
-    <row r="926" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A926" t="s">
-        <v>1164</v>
-      </c>
-      <c r="B926" t="s">
-        <v>1164</v>
-      </c>
-      <c r="C926" s="2" t="s">
-        <v>1163</v>
-      </c>
-      <c r="D926">
-        <v>1005</v>
-      </c>
-      <c r="G926" t="s">
-        <v>1877</v>
-      </c>
-    </row>
-    <row r="927" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A927" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B927" t="s">
-        <v>1166</v>
-      </c>
-      <c r="C927" s="2" t="s">
-        <v>1165</v>
-      </c>
-      <c r="D927">
-        <v>1006</v>
-      </c>
-      <c r="G927" t="s">
-        <v>1877</v>
-      </c>
-    </row>
-    <row r="928" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A928" t="s">
-        <v>1168</v>
-      </c>
-      <c r="B928" t="s">
-        <v>1168</v>
-      </c>
-      <c r="C928" s="2" t="s">
-        <v>1167</v>
-      </c>
-      <c r="D928">
-        <v>1007</v>
-      </c>
-      <c r="G928" t="s">
-        <v>1877</v>
       </c>
     </row>
     <row r="929" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A929" t="s">
-        <v>1170</v>
+        <v>1681</v>
       </c>
       <c r="B929" t="s">
-        <v>1170</v>
+        <v>1681</v>
       </c>
       <c r="C929" s="2" t="s">
-        <v>1169</v>
+        <v>1680</v>
       </c>
       <c r="D929">
-        <v>1008</v>
-      </c>
-      <c r="G929" t="s">
-        <v>1877</v>
+        <v>918</v>
       </c>
     </row>
     <row r="930" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A930" t="s">
-        <v>1172</v>
+        <v>1683</v>
       </c>
       <c r="B930" t="s">
-        <v>1172</v>
+        <v>1683</v>
       </c>
       <c r="C930" s="2" t="s">
-        <v>1171</v>
+        <v>1682</v>
       </c>
       <c r="D930">
-        <v>1009</v>
-      </c>
-      <c r="G930" t="s">
-        <v>1877</v>
+        <v>919</v>
       </c>
     </row>
     <row r="931" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A931" t="s">
-        <v>1174</v>
+        <v>1685</v>
       </c>
       <c r="B931" t="s">
-        <v>1174</v>
+        <v>1685</v>
       </c>
       <c r="C931" s="2" t="s">
-        <v>1173</v>
+        <v>1684</v>
       </c>
       <c r="D931">
-        <v>1010</v>
-      </c>
-      <c r="G931" t="s">
-        <v>1877</v>
+        <v>920</v>
       </c>
     </row>
     <row r="932" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A932" t="s">
-        <v>1176</v>
+        <v>1687</v>
       </c>
       <c r="B932" t="s">
-        <v>1176</v>
+        <v>1687</v>
       </c>
       <c r="C932" s="2" t="s">
-        <v>1175</v>
+        <v>1686</v>
       </c>
       <c r="D932">
-        <v>1011</v>
-      </c>
-      <c r="G932" t="s">
-        <v>1877</v>
+        <v>921</v>
       </c>
     </row>
     <row r="933" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A933" t="s">
-        <v>1178</v>
+        <v>1689</v>
       </c>
       <c r="B933" t="s">
-        <v>1178</v>
+        <v>1689</v>
       </c>
       <c r="C933" s="2" t="s">
-        <v>1177</v>
+        <v>1688</v>
       </c>
       <c r="D933">
-        <v>1012</v>
-      </c>
-      <c r="G933" t="s">
-        <v>1877</v>
+        <v>922</v>
       </c>
     </row>
     <row r="934" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A934" t="s">
-        <v>1180</v>
+        <v>1691</v>
       </c>
       <c r="B934" t="s">
-        <v>1180</v>
+        <v>1691</v>
       </c>
       <c r="C934" s="2" t="s">
-        <v>1179</v>
+        <v>1690</v>
       </c>
       <c r="D934">
-        <v>1013</v>
-      </c>
-      <c r="G934" t="s">
-        <v>1877</v>
+        <v>923</v>
       </c>
     </row>
     <row r="935" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A935" t="s">
-        <v>1182</v>
+        <v>1693</v>
       </c>
       <c r="B935" t="s">
-        <v>1182</v>
+        <v>1693</v>
       </c>
       <c r="C935" s="2" t="s">
-        <v>1181</v>
+        <v>1692</v>
       </c>
       <c r="D935">
-        <v>1014</v>
-      </c>
-      <c r="G935" t="s">
-        <v>1877</v>
+        <v>924</v>
       </c>
     </row>
     <row r="936" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A936" t="s">
-        <v>1184</v>
+        <v>1695</v>
       </c>
       <c r="B936" t="s">
-        <v>1184</v>
+        <v>1695</v>
       </c>
       <c r="C936" s="2" t="s">
-        <v>1183</v>
+        <v>1694</v>
       </c>
       <c r="D936">
-        <v>1015</v>
-      </c>
-      <c r="G936" t="s">
-        <v>1877</v>
+        <v>925</v>
       </c>
     </row>
     <row r="937" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A937" t="s">
-        <v>1186</v>
+        <v>1697</v>
       </c>
       <c r="B937" t="s">
-        <v>1186</v>
+        <v>1697</v>
       </c>
       <c r="C937" s="2" t="s">
-        <v>1185</v>
+        <v>1696</v>
       </c>
       <c r="D937">
-        <v>1016</v>
-      </c>
-      <c r="G937" t="s">
-        <v>1877</v>
+        <v>926</v>
       </c>
     </row>
     <row r="938" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A938" t="s">
-        <v>1188</v>
+        <v>1699</v>
       </c>
       <c r="B938" t="s">
-        <v>1188</v>
+        <v>1699</v>
       </c>
       <c r="C938" s="2" t="s">
-        <v>1187</v>
+        <v>1698</v>
       </c>
       <c r="D938">
-        <v>1017</v>
-      </c>
-      <c r="G938" t="s">
-        <v>1877</v>
+        <v>927</v>
       </c>
     </row>
     <row r="939" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A939" t="s">
-        <v>1190</v>
+        <v>1700</v>
       </c>
       <c r="B939" t="s">
-        <v>1190</v>
-      </c>
-      <c r="C939" s="2" t="s">
-        <v>1189</v>
+        <v>1700</v>
       </c>
       <c r="D939">
-        <v>1018</v>
-      </c>
-      <c r="G939" t="s">
-        <v>1877</v>
+        <v>928</v>
       </c>
     </row>
     <row r="940" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A940" t="s">
-        <v>1192</v>
+        <v>1154</v>
       </c>
       <c r="B940" t="s">
-        <v>1192</v>
+        <v>1154</v>
       </c>
       <c r="C940" s="2" t="s">
-        <v>1191</v>
+        <v>1153</v>
       </c>
       <c r="D940">
-        <v>1019</v>
+        <v>1000</v>
       </c>
       <c r="G940" t="s">
         <v>1877</v>
@@ -20905,13 +20959,16 @@
     </row>
     <row r="941" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A941" t="s">
-        <v>1878</v>
+        <v>1156</v>
       </c>
       <c r="B941" t="s">
-        <v>1878</v>
+        <v>1156</v>
+      </c>
+      <c r="C941" s="2" t="s">
+        <v>1155</v>
       </c>
       <c r="D941">
-        <v>1040</v>
+        <v>1001</v>
       </c>
       <c r="G941" t="s">
         <v>1877</v>
@@ -20919,13 +20976,16 @@
     </row>
     <row r="942" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A942" t="s">
-        <v>1879</v>
+        <v>1158</v>
       </c>
       <c r="B942" t="s">
-        <v>1879</v>
+        <v>1158</v>
+      </c>
+      <c r="C942" s="2" t="s">
+        <v>1157</v>
       </c>
       <c r="D942">
-        <v>1041</v>
+        <v>1002</v>
       </c>
       <c r="G942" t="s">
         <v>1877</v>
@@ -20933,13 +20993,16 @@
     </row>
     <row r="943" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A943" t="s">
-        <v>1880</v>
+        <v>1160</v>
       </c>
       <c r="B943" t="s">
-        <v>1880</v>
+        <v>1160</v>
+      </c>
+      <c r="C943" s="2" t="s">
+        <v>1159</v>
       </c>
       <c r="D943">
-        <v>1042</v>
+        <v>1003</v>
       </c>
       <c r="G943" t="s">
         <v>1877</v>
@@ -20947,13 +21010,16 @@
     </row>
     <row r="944" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A944" t="s">
-        <v>1881</v>
+        <v>1162</v>
       </c>
       <c r="B944" t="s">
-        <v>1881</v>
+        <v>1162</v>
+      </c>
+      <c r="C944" s="2" t="s">
+        <v>1161</v>
       </c>
       <c r="D944">
-        <v>1043</v>
+        <v>1004</v>
       </c>
       <c r="G944" t="s">
         <v>1877</v>
@@ -20961,13 +21027,16 @@
     </row>
     <row r="945" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A945" t="s">
-        <v>1882</v>
+        <v>1164</v>
       </c>
       <c r="B945" t="s">
-        <v>1882</v>
+        <v>1164</v>
+      </c>
+      <c r="C945" s="2" t="s">
+        <v>1163</v>
       </c>
       <c r="D945">
-        <v>1044</v>
+        <v>1005</v>
       </c>
       <c r="G945" t="s">
         <v>1877</v>
@@ -20975,13 +21044,16 @@
     </row>
     <row r="946" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A946" t="s">
-        <v>1883</v>
+        <v>1166</v>
       </c>
       <c r="B946" t="s">
-        <v>1883</v>
+        <v>1166</v>
+      </c>
+      <c r="C946" s="2" t="s">
+        <v>1165</v>
       </c>
       <c r="D946">
-        <v>1045</v>
+        <v>1006</v>
       </c>
       <c r="G946" t="s">
         <v>1877</v>
@@ -20989,13 +21061,16 @@
     </row>
     <row r="947" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A947" t="s">
-        <v>1884</v>
+        <v>1168</v>
       </c>
       <c r="B947" t="s">
-        <v>1884</v>
+        <v>1168</v>
+      </c>
+      <c r="C947" s="2" t="s">
+        <v>1167</v>
       </c>
       <c r="D947">
-        <v>1046</v>
+        <v>1007</v>
       </c>
       <c r="G947" t="s">
         <v>1877</v>
@@ -21003,13 +21078,16 @@
     </row>
     <row r="948" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A948" t="s">
-        <v>1885</v>
+        <v>1170</v>
       </c>
       <c r="B948" t="s">
-        <v>1885</v>
+        <v>1170</v>
+      </c>
+      <c r="C948" s="2" t="s">
+        <v>1169</v>
       </c>
       <c r="D948">
-        <v>1047</v>
+        <v>1008</v>
       </c>
       <c r="G948" t="s">
         <v>1877</v>
@@ -21017,13 +21095,16 @@
     </row>
     <row r="949" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A949" t="s">
-        <v>1886</v>
+        <v>1172</v>
       </c>
       <c r="B949" t="s">
-        <v>1886</v>
+        <v>1172</v>
+      </c>
+      <c r="C949" s="2" t="s">
+        <v>1171</v>
       </c>
       <c r="D949">
-        <v>1048</v>
+        <v>1009</v>
       </c>
       <c r="G949" t="s">
         <v>1877</v>
@@ -21031,13 +21112,16 @@
     </row>
     <row r="950" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A950" t="s">
-        <v>1887</v>
+        <v>1174</v>
       </c>
       <c r="B950" t="s">
-        <v>1887</v>
+        <v>1174</v>
+      </c>
+      <c r="C950" s="2" t="s">
+        <v>1173</v>
       </c>
       <c r="D950">
-        <v>1049</v>
+        <v>1010</v>
       </c>
       <c r="G950" t="s">
         <v>1877</v>
@@ -21045,13 +21129,16 @@
     </row>
     <row r="951" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A951" t="s">
-        <v>1888</v>
+        <v>1176</v>
       </c>
       <c r="B951" t="s">
-        <v>1888</v>
+        <v>1176</v>
+      </c>
+      <c r="C951" s="2" t="s">
+        <v>1175</v>
       </c>
       <c r="D951">
-        <v>1050</v>
+        <v>1011</v>
       </c>
       <c r="G951" t="s">
         <v>1877</v>
@@ -21059,13 +21146,16 @@
     </row>
     <row r="952" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A952" t="s">
-        <v>1889</v>
+        <v>1178</v>
       </c>
       <c r="B952" t="s">
-        <v>1889</v>
+        <v>1178</v>
+      </c>
+      <c r="C952" s="2" t="s">
+        <v>1177</v>
       </c>
       <c r="D952">
-        <v>1051</v>
+        <v>1012</v>
       </c>
       <c r="G952" t="s">
         <v>1877</v>
@@ -21073,13 +21163,16 @@
     </row>
     <row r="953" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A953" t="s">
-        <v>1890</v>
+        <v>1180</v>
       </c>
       <c r="B953" t="s">
-        <v>1890</v>
+        <v>1180</v>
+      </c>
+      <c r="C953" s="2" t="s">
+        <v>1179</v>
       </c>
       <c r="D953">
-        <v>1052</v>
+        <v>1013</v>
       </c>
       <c r="G953" t="s">
         <v>1877</v>
@@ -21087,13 +21180,16 @@
     </row>
     <row r="954" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A954" t="s">
-        <v>1891</v>
+        <v>1182</v>
       </c>
       <c r="B954" t="s">
-        <v>1891</v>
+        <v>1182</v>
+      </c>
+      <c r="C954" s="2" t="s">
+        <v>1181</v>
       </c>
       <c r="D954">
-        <v>1053</v>
+        <v>1014</v>
       </c>
       <c r="G954" t="s">
         <v>1877</v>
@@ -21101,13 +21197,16 @@
     </row>
     <row r="955" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A955" t="s">
-        <v>1892</v>
+        <v>1184</v>
       </c>
       <c r="B955" t="s">
-        <v>1892</v>
+        <v>1184</v>
+      </c>
+      <c r="C955" s="2" t="s">
+        <v>1183</v>
       </c>
       <c r="D955">
-        <v>1054</v>
+        <v>1015</v>
       </c>
       <c r="G955" t="s">
         <v>1877</v>
@@ -21115,13 +21214,16 @@
     </row>
     <row r="956" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A956" t="s">
-        <v>1893</v>
+        <v>1186</v>
       </c>
       <c r="B956" t="s">
-        <v>1893</v>
+        <v>1186</v>
+      </c>
+      <c r="C956" s="2" t="s">
+        <v>1185</v>
       </c>
       <c r="D956">
-        <v>1055</v>
+        <v>1016</v>
       </c>
       <c r="G956" t="s">
         <v>1877</v>
@@ -21129,13 +21231,16 @@
     </row>
     <row r="957" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A957" t="s">
-        <v>1894</v>
+        <v>1188</v>
       </c>
       <c r="B957" t="s">
-        <v>1894</v>
+        <v>1188</v>
+      </c>
+      <c r="C957" s="2" t="s">
+        <v>1187</v>
       </c>
       <c r="D957">
-        <v>1056</v>
+        <v>1017</v>
       </c>
       <c r="G957" t="s">
         <v>1877</v>
@@ -21143,13 +21248,16 @@
     </row>
     <row r="958" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A958" t="s">
-        <v>1895</v>
+        <v>1190</v>
       </c>
       <c r="B958" t="s">
-        <v>1895</v>
+        <v>1190</v>
+      </c>
+      <c r="C958" s="2" t="s">
+        <v>1189</v>
       </c>
       <c r="D958">
-        <v>1057</v>
+        <v>1018</v>
       </c>
       <c r="G958" t="s">
         <v>1877</v>
@@ -21157,13 +21265,16 @@
     </row>
     <row r="959" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A959" t="s">
-        <v>1896</v>
+        <v>1192</v>
       </c>
       <c r="B959" t="s">
-        <v>1896</v>
+        <v>1192</v>
+      </c>
+      <c r="C959" s="2" t="s">
+        <v>1191</v>
       </c>
       <c r="D959">
-        <v>1058</v>
+        <v>1019</v>
       </c>
       <c r="G959" t="s">
         <v>1877</v>
@@ -21171,13 +21282,13 @@
     </row>
     <row r="960" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A960" t="s">
-        <v>1897</v>
+        <v>1878</v>
       </c>
       <c r="B960" t="s">
-        <v>1897</v>
+        <v>1878</v>
       </c>
       <c r="D960">
-        <v>1059</v>
+        <v>1040</v>
       </c>
       <c r="G960" t="s">
         <v>1877</v>
@@ -21185,13 +21296,13 @@
     </row>
     <row r="961" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A961" t="s">
-        <v>1898</v>
+        <v>1879</v>
       </c>
       <c r="B961" t="s">
-        <v>1898</v>
+        <v>1879</v>
       </c>
       <c r="D961">
-        <v>1060</v>
+        <v>1041</v>
       </c>
       <c r="G961" t="s">
         <v>1877</v>
@@ -21199,13 +21310,13 @@
     </row>
     <row r="962" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A962" t="s">
-        <v>1899</v>
+        <v>1880</v>
       </c>
       <c r="B962" t="s">
-        <v>1899</v>
+        <v>1880</v>
       </c>
       <c r="D962">
-        <v>1061</v>
+        <v>1042</v>
       </c>
       <c r="G962" t="s">
         <v>1877</v>
@@ -21213,13 +21324,13 @@
     </row>
     <row r="963" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A963" t="s">
-        <v>1900</v>
+        <v>1881</v>
       </c>
       <c r="B963" t="s">
-        <v>1900</v>
+        <v>1881</v>
       </c>
       <c r="D963">
-        <v>1062</v>
+        <v>1043</v>
       </c>
       <c r="G963" t="s">
         <v>1877</v>
@@ -21227,13 +21338,13 @@
     </row>
     <row r="964" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A964" t="s">
-        <v>1901</v>
+        <v>1882</v>
       </c>
       <c r="B964" t="s">
-        <v>1901</v>
+        <v>1882</v>
       </c>
       <c r="D964">
-        <v>1063</v>
+        <v>1044</v>
       </c>
       <c r="G964" t="s">
         <v>1877</v>
@@ -21241,13 +21352,13 @@
     </row>
     <row r="965" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A965" t="s">
-        <v>1902</v>
+        <v>1883</v>
       </c>
       <c r="B965" t="s">
-        <v>1902</v>
+        <v>1883</v>
       </c>
       <c r="D965">
-        <v>1064</v>
+        <v>1045</v>
       </c>
       <c r="G965" t="s">
         <v>1877</v>
@@ -21255,13 +21366,13 @@
     </row>
     <row r="966" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A966" t="s">
-        <v>1903</v>
+        <v>1884</v>
       </c>
       <c r="B966" t="s">
-        <v>1903</v>
+        <v>1884</v>
       </c>
       <c r="D966">
-        <v>1065</v>
+        <v>1046</v>
       </c>
       <c r="G966" t="s">
         <v>1877</v>
@@ -21269,13 +21380,13 @@
     </row>
     <row r="967" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A967" t="s">
-        <v>1904</v>
+        <v>1885</v>
       </c>
       <c r="B967" t="s">
-        <v>1904</v>
+        <v>1885</v>
       </c>
       <c r="D967">
-        <v>1066</v>
+        <v>1047</v>
       </c>
       <c r="G967" t="s">
         <v>1877</v>
@@ -21283,13 +21394,13 @@
     </row>
     <row r="968" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A968" t="s">
-        <v>1905</v>
+        <v>1886</v>
       </c>
       <c r="B968" t="s">
-        <v>1905</v>
+        <v>1886</v>
       </c>
       <c r="D968">
-        <v>1067</v>
+        <v>1048</v>
       </c>
       <c r="G968" t="s">
         <v>1877</v>
@@ -21297,13 +21408,13 @@
     </row>
     <row r="969" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A969" t="s">
-        <v>1906</v>
+        <v>1887</v>
       </c>
       <c r="B969" t="s">
-        <v>1906</v>
+        <v>1887</v>
       </c>
       <c r="D969">
-        <v>1068</v>
+        <v>1049</v>
       </c>
       <c r="G969" t="s">
         <v>1877</v>
@@ -21311,13 +21422,13 @@
     </row>
     <row r="970" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A970" t="s">
-        <v>1907</v>
+        <v>1888</v>
       </c>
       <c r="B970" t="s">
-        <v>1907</v>
+        <v>1888</v>
       </c>
       <c r="D970">
-        <v>1069</v>
+        <v>1050</v>
       </c>
       <c r="G970" t="s">
         <v>1877</v>
@@ -21325,13 +21436,13 @@
     </row>
     <row r="971" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A971" t="s">
-        <v>1908</v>
+        <v>1889</v>
       </c>
       <c r="B971" t="s">
-        <v>1908</v>
+        <v>1889</v>
       </c>
       <c r="D971">
-        <v>1070</v>
+        <v>1051</v>
       </c>
       <c r="G971" t="s">
         <v>1877</v>
@@ -21339,13 +21450,13 @@
     </row>
     <row r="972" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A972" t="s">
-        <v>1909</v>
+        <v>1890</v>
       </c>
       <c r="B972" t="s">
-        <v>1909</v>
+        <v>1890</v>
       </c>
       <c r="D972">
-        <v>1071</v>
+        <v>1052</v>
       </c>
       <c r="G972" t="s">
         <v>1877</v>
@@ -21353,13 +21464,13 @@
     </row>
     <row r="973" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A973" t="s">
-        <v>1910</v>
+        <v>1891</v>
       </c>
       <c r="B973" t="s">
-        <v>1910</v>
+        <v>1891</v>
       </c>
       <c r="D973">
-        <v>1072</v>
+        <v>1053</v>
       </c>
       <c r="G973" t="s">
         <v>1877</v>
@@ -21367,13 +21478,13 @@
     </row>
     <row r="974" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A974" t="s">
-        <v>1911</v>
+        <v>1892</v>
       </c>
       <c r="B974" t="s">
-        <v>1911</v>
+        <v>1892</v>
       </c>
       <c r="D974">
-        <v>1073</v>
+        <v>1054</v>
       </c>
       <c r="G974" t="s">
         <v>1877</v>
@@ -21381,13 +21492,13 @@
     </row>
     <row r="975" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A975" t="s">
-        <v>1912</v>
+        <v>1893</v>
       </c>
       <c r="B975" t="s">
-        <v>1912</v>
+        <v>1893</v>
       </c>
       <c r="D975">
-        <v>1074</v>
+        <v>1055</v>
       </c>
       <c r="G975" t="s">
         <v>1877</v>
@@ -21395,13 +21506,13 @@
     </row>
     <row r="976" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A976" t="s">
-        <v>1913</v>
+        <v>1894</v>
       </c>
       <c r="B976" t="s">
-        <v>1913</v>
+        <v>1894</v>
       </c>
       <c r="D976">
-        <v>1075</v>
+        <v>1056</v>
       </c>
       <c r="G976" t="s">
         <v>1877</v>
@@ -21409,13 +21520,13 @@
     </row>
     <row r="977" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A977" t="s">
-        <v>1914</v>
+        <v>1895</v>
       </c>
       <c r="B977" t="s">
-        <v>1914</v>
+        <v>1895</v>
       </c>
       <c r="D977">
-        <v>1076</v>
+        <v>1057</v>
       </c>
       <c r="G977" t="s">
         <v>1877</v>
@@ -21423,13 +21534,13 @@
     </row>
     <row r="978" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A978" t="s">
-        <v>1915</v>
+        <v>1896</v>
       </c>
       <c r="B978" t="s">
-        <v>1915</v>
+        <v>1896</v>
       </c>
       <c r="D978">
-        <v>1077</v>
+        <v>1058</v>
       </c>
       <c r="G978" t="s">
         <v>1877</v>
@@ -21437,13 +21548,13 @@
     </row>
     <row r="979" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A979" t="s">
-        <v>1916</v>
+        <v>1897</v>
       </c>
       <c r="B979" t="s">
-        <v>1916</v>
+        <v>1897</v>
       </c>
       <c r="D979">
-        <v>1078</v>
+        <v>1059</v>
       </c>
       <c r="G979" t="s">
         <v>1877</v>
@@ -21451,13 +21562,13 @@
     </row>
     <row r="980" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A980" t="s">
-        <v>1917</v>
+        <v>1898</v>
       </c>
       <c r="B980" t="s">
-        <v>1917</v>
+        <v>1898</v>
       </c>
       <c r="D980">
-        <v>1079</v>
+        <v>1060</v>
       </c>
       <c r="G980" t="s">
         <v>1877</v>
@@ -21465,13 +21576,13 @@
     </row>
     <row r="981" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A981" t="s">
-        <v>1918</v>
+        <v>1899</v>
       </c>
       <c r="B981" t="s">
-        <v>1918</v>
+        <v>1899</v>
       </c>
       <c r="D981">
-        <v>1080</v>
+        <v>1061</v>
       </c>
       <c r="G981" t="s">
         <v>1877</v>
@@ -21479,13 +21590,13 @@
     </row>
     <row r="982" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A982" t="s">
-        <v>1919</v>
+        <v>1900</v>
       </c>
       <c r="B982" t="s">
-        <v>1919</v>
+        <v>1900</v>
       </c>
       <c r="D982">
-        <v>1081</v>
+        <v>1062</v>
       </c>
       <c r="G982" t="s">
         <v>1877</v>
@@ -21493,13 +21604,13 @@
     </row>
     <row r="983" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A983" t="s">
-        <v>1920</v>
+        <v>1901</v>
       </c>
       <c r="B983" t="s">
-        <v>1920</v>
+        <v>1901</v>
       </c>
       <c r="D983">
-        <v>1082</v>
+        <v>1063</v>
       </c>
       <c r="G983" t="s">
         <v>1877</v>
@@ -21507,13 +21618,13 @@
     </row>
     <row r="984" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A984" t="s">
-        <v>1921</v>
+        <v>1902</v>
       </c>
       <c r="B984" t="s">
-        <v>1921</v>
+        <v>1902</v>
       </c>
       <c r="D984">
-        <v>1083</v>
+        <v>1064</v>
       </c>
       <c r="G984" t="s">
         <v>1877</v>
@@ -21521,13 +21632,13 @@
     </row>
     <row r="985" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A985" t="s">
-        <v>1922</v>
+        <v>1903</v>
       </c>
       <c r="B985" t="s">
-        <v>1922</v>
+        <v>1903</v>
       </c>
       <c r="D985">
-        <v>1084</v>
+        <v>1065</v>
       </c>
       <c r="G985" t="s">
         <v>1877</v>
@@ -21535,13 +21646,13 @@
     </row>
     <row r="986" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A986" t="s">
-        <v>1923</v>
+        <v>1904</v>
       </c>
       <c r="B986" t="s">
-        <v>1923</v>
+        <v>1904</v>
       </c>
       <c r="D986">
-        <v>1085</v>
+        <v>1066</v>
       </c>
       <c r="G986" t="s">
         <v>1877</v>
@@ -21549,13 +21660,13 @@
     </row>
     <row r="987" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A987" t="s">
-        <v>1924</v>
+        <v>1905</v>
       </c>
       <c r="B987" t="s">
-        <v>1924</v>
+        <v>1905</v>
       </c>
       <c r="D987">
-        <v>1086</v>
+        <v>1067</v>
       </c>
       <c r="G987" t="s">
         <v>1877</v>
@@ -21563,13 +21674,13 @@
     </row>
     <row r="988" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A988" t="s">
-        <v>1925</v>
+        <v>1906</v>
       </c>
       <c r="B988" t="s">
-        <v>1925</v>
+        <v>1906</v>
       </c>
       <c r="D988">
-        <v>1087</v>
+        <v>1068</v>
       </c>
       <c r="G988" t="s">
         <v>1877</v>
@@ -21577,13 +21688,13 @@
     </row>
     <row r="989" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A989" t="s">
-        <v>1926</v>
+        <v>1907</v>
       </c>
       <c r="B989" t="s">
-        <v>1926</v>
+        <v>1907</v>
       </c>
       <c r="D989">
-        <v>1088</v>
+        <v>1069</v>
       </c>
       <c r="G989" t="s">
         <v>1877</v>
@@ -21591,13 +21702,13 @@
     </row>
     <row r="990" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A990" t="s">
-        <v>1927</v>
+        <v>1908</v>
       </c>
       <c r="B990" t="s">
-        <v>1927</v>
+        <v>1908</v>
       </c>
       <c r="D990">
-        <v>1089</v>
+        <v>1070</v>
       </c>
       <c r="G990" t="s">
         <v>1877</v>
@@ -21605,13 +21716,13 @@
     </row>
     <row r="991" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A991" t="s">
-        <v>1928</v>
+        <v>1909</v>
       </c>
       <c r="B991" t="s">
-        <v>1928</v>
+        <v>1909</v>
       </c>
       <c r="D991">
-        <v>1090</v>
+        <v>1071</v>
       </c>
       <c r="G991" t="s">
         <v>1877</v>
@@ -21619,13 +21730,13 @@
     </row>
     <row r="992" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A992" t="s">
-        <v>1929</v>
+        <v>1910</v>
       </c>
       <c r="B992" t="s">
-        <v>1929</v>
+        <v>1910</v>
       </c>
       <c r="D992">
-        <v>1091</v>
+        <v>1072</v>
       </c>
       <c r="G992" t="s">
         <v>1877</v>
@@ -21633,13 +21744,13 @@
     </row>
     <row r="993" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A993" t="s">
-        <v>1930</v>
+        <v>1911</v>
       </c>
       <c r="B993" t="s">
-        <v>1930</v>
+        <v>1911</v>
       </c>
       <c r="D993">
-        <v>1092</v>
+        <v>1073</v>
       </c>
       <c r="G993" t="s">
         <v>1877</v>
@@ -21647,13 +21758,13 @@
     </row>
     <row r="994" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A994" t="s">
-        <v>1931</v>
+        <v>1912</v>
       </c>
       <c r="B994" t="s">
-        <v>1931</v>
+        <v>1912</v>
       </c>
       <c r="D994">
-        <v>1093</v>
+        <v>1074</v>
       </c>
       <c r="G994" t="s">
         <v>1877</v>
@@ -21661,13 +21772,13 @@
     </row>
     <row r="995" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A995" t="s">
-        <v>1932</v>
+        <v>1913</v>
       </c>
       <c r="B995" t="s">
-        <v>1932</v>
+        <v>1913</v>
       </c>
       <c r="D995">
-        <v>1094</v>
+        <v>1075</v>
       </c>
       <c r="G995" t="s">
         <v>1877</v>
@@ -21675,13 +21786,13 @@
     </row>
     <row r="996" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A996" t="s">
-        <v>1933</v>
+        <v>1914</v>
       </c>
       <c r="B996" t="s">
-        <v>1933</v>
+        <v>1914</v>
       </c>
       <c r="D996">
-        <v>1095</v>
+        <v>1076</v>
       </c>
       <c r="G996" t="s">
         <v>1877</v>
@@ -21689,13 +21800,13 @@
     </row>
     <row r="997" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A997" t="s">
-        <v>1934</v>
+        <v>1915</v>
       </c>
       <c r="B997" t="s">
-        <v>1934</v>
+        <v>1915</v>
       </c>
       <c r="D997">
-        <v>1096</v>
+        <v>1077</v>
       </c>
       <c r="G997" t="s">
         <v>1877</v>
@@ -21703,13 +21814,13 @@
     </row>
     <row r="998" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A998" t="s">
-        <v>1935</v>
+        <v>1916</v>
       </c>
       <c r="B998" t="s">
-        <v>1935</v>
+        <v>1916</v>
       </c>
       <c r="D998">
-        <v>1097</v>
+        <v>1078</v>
       </c>
       <c r="G998" t="s">
         <v>1877</v>
@@ -21717,13 +21828,13 @@
     </row>
     <row r="999" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A999" t="s">
-        <v>1936</v>
+        <v>1917</v>
       </c>
       <c r="B999" t="s">
-        <v>1936</v>
+        <v>1917</v>
       </c>
       <c r="D999">
-        <v>1098</v>
+        <v>1079</v>
       </c>
       <c r="G999" t="s">
         <v>1877</v>
@@ -21731,13 +21842,13 @@
     </row>
     <row r="1000" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1000" t="s">
-        <v>1937</v>
+        <v>1918</v>
       </c>
       <c r="B1000" t="s">
-        <v>1937</v>
+        <v>1918</v>
       </c>
       <c r="D1000">
-        <v>1099</v>
+        <v>1080</v>
       </c>
       <c r="G1000" t="s">
         <v>1877</v>
@@ -21745,13 +21856,13 @@
     </row>
     <row r="1001" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1001" t="s">
-        <v>1855</v>
+        <v>1919</v>
       </c>
       <c r="B1001" t="s">
-        <v>1855</v>
+        <v>1919</v>
       </c>
       <c r="D1001">
-        <v>1100</v>
+        <v>1081</v>
       </c>
       <c r="G1001" t="s">
         <v>1877</v>
@@ -21759,13 +21870,13 @@
     </row>
     <row r="1002" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1002" t="s">
-        <v>1856</v>
+        <v>1920</v>
       </c>
       <c r="B1002" t="s">
-        <v>1856</v>
+        <v>1920</v>
       </c>
       <c r="D1002">
-        <v>1101</v>
+        <v>1082</v>
       </c>
       <c r="G1002" t="s">
         <v>1877</v>
@@ -21773,13 +21884,13 @@
     </row>
     <row r="1003" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1003" t="s">
-        <v>1857</v>
+        <v>1921</v>
       </c>
       <c r="B1003" t="s">
-        <v>1857</v>
+        <v>1921</v>
       </c>
       <c r="D1003">
-        <v>1102</v>
+        <v>1083</v>
       </c>
       <c r="G1003" t="s">
         <v>1877</v>
@@ -21787,13 +21898,13 @@
     </row>
     <row r="1004" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1004" t="s">
-        <v>1858</v>
+        <v>1922</v>
       </c>
       <c r="B1004" t="s">
-        <v>1858</v>
+        <v>1922</v>
       </c>
       <c r="D1004">
-        <v>1103</v>
+        <v>1084</v>
       </c>
       <c r="G1004" t="s">
         <v>1877</v>
@@ -21801,13 +21912,13 @@
     </row>
     <row r="1005" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1005" t="s">
-        <v>1859</v>
+        <v>1923</v>
       </c>
       <c r="B1005" t="s">
-        <v>1859</v>
+        <v>1923</v>
       </c>
       <c r="D1005">
-        <v>1104</v>
+        <v>1085</v>
       </c>
       <c r="G1005" t="s">
         <v>1877</v>
@@ -21815,13 +21926,13 @@
     </row>
     <row r="1006" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1006" t="s">
-        <v>1860</v>
+        <v>1924</v>
       </c>
       <c r="B1006" t="s">
-        <v>1860</v>
+        <v>1924</v>
       </c>
       <c r="D1006">
-        <v>1105</v>
+        <v>1086</v>
       </c>
       <c r="G1006" t="s">
         <v>1877</v>
@@ -21829,13 +21940,13 @@
     </row>
     <row r="1007" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1007" t="s">
-        <v>1861</v>
+        <v>1925</v>
       </c>
       <c r="B1007" t="s">
-        <v>1861</v>
+        <v>1925</v>
       </c>
       <c r="D1007">
-        <v>1106</v>
+        <v>1087</v>
       </c>
       <c r="G1007" t="s">
         <v>1877</v>
@@ -21843,13 +21954,13 @@
     </row>
     <row r="1008" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1008" t="s">
-        <v>1862</v>
+        <v>1926</v>
       </c>
       <c r="B1008" t="s">
-        <v>1862</v>
+        <v>1926</v>
       </c>
       <c r="D1008">
-        <v>1107</v>
+        <v>1088</v>
       </c>
       <c r="G1008" t="s">
         <v>1877</v>
@@ -21857,13 +21968,13 @@
     </row>
     <row r="1009" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1009" t="s">
-        <v>1863</v>
+        <v>1927</v>
       </c>
       <c r="B1009" t="s">
-        <v>1863</v>
+        <v>1927</v>
       </c>
       <c r="D1009">
-        <v>1108</v>
+        <v>1089</v>
       </c>
       <c r="G1009" t="s">
         <v>1877</v>
@@ -21871,13 +21982,13 @@
     </row>
     <row r="1010" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1010" t="s">
-        <v>1864</v>
+        <v>1928</v>
       </c>
       <c r="B1010" t="s">
-        <v>1864</v>
+        <v>1928</v>
       </c>
       <c r="D1010">
-        <v>1109</v>
+        <v>1090</v>
       </c>
       <c r="G1010" t="s">
         <v>1877</v>
@@ -21885,13 +21996,13 @@
     </row>
     <row r="1011" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1011" t="s">
-        <v>1865</v>
+        <v>1929</v>
       </c>
       <c r="B1011" t="s">
-        <v>1865</v>
+        <v>1929</v>
       </c>
       <c r="D1011">
-        <v>1110</v>
+        <v>1091</v>
       </c>
       <c r="G1011" t="s">
         <v>1877</v>
@@ -21899,13 +22010,13 @@
     </row>
     <row r="1012" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1012" t="s">
-        <v>1866</v>
+        <v>1930</v>
       </c>
       <c r="B1012" t="s">
-        <v>1866</v>
+        <v>1930</v>
       </c>
       <c r="D1012">
-        <v>1111</v>
+        <v>1092</v>
       </c>
       <c r="G1012" t="s">
         <v>1877</v>
@@ -21913,13 +22024,13 @@
     </row>
     <row r="1013" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1013" t="s">
-        <v>1867</v>
+        <v>1931</v>
       </c>
       <c r="B1013" t="s">
-        <v>1867</v>
+        <v>1931</v>
       </c>
       <c r="D1013">
-        <v>1112</v>
+        <v>1093</v>
       </c>
       <c r="G1013" t="s">
         <v>1877</v>
@@ -21927,13 +22038,13 @@
     </row>
     <row r="1014" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1014" t="s">
-        <v>1868</v>
+        <v>1932</v>
       </c>
       <c r="B1014" t="s">
-        <v>1868</v>
+        <v>1932</v>
       </c>
       <c r="D1014">
-        <v>1113</v>
+        <v>1094</v>
       </c>
       <c r="G1014" t="s">
         <v>1877</v>
@@ -21941,13 +22052,13 @@
     </row>
     <row r="1015" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1015" t="s">
-        <v>1869</v>
+        <v>1933</v>
       </c>
       <c r="B1015" t="s">
-        <v>1869</v>
+        <v>1933</v>
       </c>
       <c r="D1015">
-        <v>1114</v>
+        <v>1095</v>
       </c>
       <c r="G1015" t="s">
         <v>1877</v>
@@ -21955,13 +22066,13 @@
     </row>
     <row r="1016" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1016" t="s">
-        <v>1870</v>
+        <v>1934</v>
       </c>
       <c r="B1016" t="s">
-        <v>1870</v>
+        <v>1934</v>
       </c>
       <c r="D1016">
-        <v>1115</v>
+        <v>1096</v>
       </c>
       <c r="G1016" t="s">
         <v>1877</v>
@@ -21969,13 +22080,13 @@
     </row>
     <row r="1017" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1017" t="s">
-        <v>1871</v>
+        <v>1935</v>
       </c>
       <c r="B1017" t="s">
-        <v>1871</v>
+        <v>1935</v>
       </c>
       <c r="D1017">
-        <v>1116</v>
+        <v>1097</v>
       </c>
       <c r="G1017" t="s">
         <v>1877</v>
@@ -21983,13 +22094,13 @@
     </row>
     <row r="1018" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1018" t="s">
-        <v>1872</v>
+        <v>1936</v>
       </c>
       <c r="B1018" t="s">
-        <v>1872</v>
+        <v>1936</v>
       </c>
       <c r="D1018">
-        <v>1117</v>
+        <v>1098</v>
       </c>
       <c r="G1018" t="s">
         <v>1877</v>
@@ -21997,13 +22108,13 @@
     </row>
     <row r="1019" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1019" t="s">
-        <v>1873</v>
+        <v>1937</v>
       </c>
       <c r="B1019" t="s">
-        <v>1873</v>
+        <v>1937</v>
       </c>
       <c r="D1019">
-        <v>1118</v>
+        <v>1099</v>
       </c>
       <c r="G1019" t="s">
         <v>1877</v>
@@ -22011,13 +22122,13 @@
     </row>
     <row r="1020" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1020" t="s">
-        <v>1874</v>
+        <v>1855</v>
       </c>
       <c r="B1020" t="s">
-        <v>1874</v>
+        <v>1855</v>
       </c>
       <c r="D1020">
-        <v>1119</v>
+        <v>1100</v>
       </c>
       <c r="G1020" t="s">
         <v>1877</v>
@@ -22025,526 +22136,792 @@
     </row>
     <row r="1021" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1021" t="s">
-        <v>1701</v>
+        <v>1856</v>
       </c>
       <c r="B1021" t="s">
-        <v>1701</v>
+        <v>1856</v>
       </c>
       <c r="D1021">
-        <v>2007</v>
+        <v>1101</v>
+      </c>
+      <c r="G1021" t="s">
+        <v>1877</v>
       </c>
     </row>
     <row r="1022" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1022" t="s">
-        <v>1702</v>
+        <v>1857</v>
       </c>
       <c r="B1022" t="s">
-        <v>1702</v>
+        <v>1857</v>
       </c>
       <c r="D1022">
-        <v>2008</v>
+        <v>1102</v>
+      </c>
+      <c r="G1022" t="s">
+        <v>1877</v>
       </c>
     </row>
     <row r="1023" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1023" t="s">
-        <v>1703</v>
+        <v>1858</v>
       </c>
       <c r="B1023" t="s">
-        <v>1703</v>
+        <v>1858</v>
       </c>
       <c r="D1023">
-        <v>2009</v>
+        <v>1103</v>
+      </c>
+      <c r="G1023" t="s">
+        <v>1877</v>
       </c>
     </row>
     <row r="1024" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1024" t="s">
-        <v>1704</v>
+        <v>1859</v>
       </c>
       <c r="B1024" t="s">
-        <v>1704</v>
+        <v>1859</v>
       </c>
       <c r="D1024">
-        <v>2047</v>
-      </c>
-    </row>
-    <row r="1025" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1104</v>
+      </c>
+      <c r="G1024" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1025" t="s">
-        <v>1938</v>
+        <v>1860</v>
       </c>
       <c r="B1025" t="s">
-        <v>1938</v>
+        <v>1860</v>
       </c>
       <c r="D1025">
-        <v>2080</v>
-      </c>
-    </row>
-    <row r="1026" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1105</v>
+      </c>
+      <c r="G1025" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1026" t="s">
-        <v>1939</v>
+        <v>1861</v>
       </c>
       <c r="B1026" t="s">
-        <v>1939</v>
+        <v>1861</v>
       </c>
       <c r="D1026">
-        <v>2081</v>
-      </c>
-    </row>
-    <row r="1027" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1106</v>
+      </c>
+      <c r="G1026" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1027" t="s">
-        <v>1940</v>
+        <v>1862</v>
       </c>
       <c r="B1027" t="s">
-        <v>1940</v>
+        <v>1862</v>
       </c>
       <c r="D1027">
-        <v>2082</v>
-      </c>
-    </row>
-    <row r="1028" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1107</v>
+      </c>
+      <c r="G1027" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1028" t="s">
-        <v>1941</v>
+        <v>1863</v>
       </c>
       <c r="B1028" t="s">
-        <v>1941</v>
+        <v>1863</v>
       </c>
       <c r="D1028">
-        <v>2083</v>
-      </c>
-    </row>
-    <row r="1029" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1108</v>
+      </c>
+      <c r="G1028" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1029" t="s">
-        <v>1942</v>
+        <v>1864</v>
       </c>
       <c r="B1029" t="s">
-        <v>1942</v>
+        <v>1864</v>
       </c>
       <c r="D1029">
-        <v>2084</v>
-      </c>
-    </row>
-    <row r="1030" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1109</v>
+      </c>
+      <c r="G1029" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1030" t="s">
-        <v>1800</v>
+        <v>1865</v>
       </c>
       <c r="B1030" t="s">
-        <v>1800</v>
-      </c>
-      <c r="C1030" t="s">
-        <v>1799</v>
+        <v>1865</v>
       </c>
       <c r="D1030">
-        <v>3001</v>
-      </c>
-      <c r="I1030"/>
-    </row>
-    <row r="1031" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1110</v>
+      </c>
+      <c r="G1030" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1031" t="s">
-        <v>1802</v>
+        <v>1866</v>
       </c>
       <c r="B1031" t="s">
-        <v>1802</v>
-      </c>
-      <c r="C1031" t="s">
-        <v>1801</v>
+        <v>1866</v>
       </c>
       <c r="D1031">
-        <v>3002</v>
-      </c>
-      <c r="I1031"/>
-    </row>
-    <row r="1032" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1111</v>
+      </c>
+      <c r="G1031" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1032" t="s">
-        <v>1804</v>
+        <v>1867</v>
       </c>
       <c r="B1032" t="s">
-        <v>1804</v>
-      </c>
-      <c r="C1032" t="s">
-        <v>1803</v>
+        <v>1867</v>
       </c>
       <c r="D1032">
-        <v>3003</v>
-      </c>
-      <c r="I1032"/>
-    </row>
-    <row r="1033" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1112</v>
+      </c>
+      <c r="G1032" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1033" t="s">
-        <v>1806</v>
+        <v>1868</v>
       </c>
       <c r="B1033" t="s">
-        <v>1806</v>
-      </c>
-      <c r="C1033" t="s">
-        <v>1805</v>
+        <v>1868</v>
       </c>
       <c r="D1033">
-        <v>3004</v>
-      </c>
-      <c r="I1033"/>
-    </row>
-    <row r="1034" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1113</v>
+      </c>
+      <c r="G1033" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1034" t="s">
-        <v>1808</v>
+        <v>1869</v>
       </c>
       <c r="B1034" t="s">
-        <v>1808</v>
-      </c>
-      <c r="C1034" t="s">
-        <v>1807</v>
+        <v>1869</v>
       </c>
       <c r="D1034">
-        <v>3005</v>
-      </c>
-      <c r="I1034"/>
-    </row>
-    <row r="1035" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1114</v>
+      </c>
+      <c r="G1034" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1035" t="s">
-        <v>1810</v>
+        <v>1870</v>
       </c>
       <c r="B1035" t="s">
-        <v>1810</v>
-      </c>
-      <c r="C1035" t="s">
-        <v>1809</v>
+        <v>1870</v>
       </c>
       <c r="D1035">
-        <v>3006</v>
-      </c>
-      <c r="I1035"/>
-    </row>
-    <row r="1036" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1115</v>
+      </c>
+      <c r="G1035" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1036" t="s">
-        <v>1812</v>
+        <v>1871</v>
       </c>
       <c r="B1036" t="s">
-        <v>1812</v>
-      </c>
-      <c r="C1036" t="s">
-        <v>1811</v>
+        <v>1871</v>
       </c>
       <c r="D1036">
-        <v>3007</v>
-      </c>
-      <c r="I1036"/>
-    </row>
-    <row r="1037" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1116</v>
+      </c>
+      <c r="G1036" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1037" t="s">
-        <v>1814</v>
+        <v>1872</v>
       </c>
       <c r="B1037" t="s">
-        <v>1814</v>
-      </c>
-      <c r="C1037" t="s">
-        <v>1813</v>
+        <v>1872</v>
       </c>
       <c r="D1037">
-        <v>3008</v>
-      </c>
-      <c r="I1037"/>
-    </row>
-    <row r="1038" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1117</v>
+      </c>
+      <c r="G1037" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1038" t="s">
-        <v>1816</v>
+        <v>1873</v>
       </c>
       <c r="B1038" t="s">
-        <v>1816</v>
-      </c>
-      <c r="C1038" t="s">
-        <v>1815</v>
+        <v>1873</v>
       </c>
       <c r="D1038">
-        <v>3009</v>
-      </c>
-      <c r="I1038"/>
-    </row>
-    <row r="1039" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1118</v>
+      </c>
+      <c r="G1038" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1039" t="s">
-        <v>1818</v>
+        <v>1874</v>
       </c>
       <c r="B1039" t="s">
-        <v>1818</v>
-      </c>
-      <c r="C1039" t="s">
-        <v>1817</v>
+        <v>1874</v>
       </c>
       <c r="D1039">
-        <v>3010</v>
-      </c>
-      <c r="I1039"/>
-    </row>
-    <row r="1040" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1119</v>
+      </c>
+      <c r="G1039" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1040" t="s">
-        <v>1820</v>
+        <v>1701</v>
       </c>
       <c r="B1040" t="s">
-        <v>1820</v>
-      </c>
-      <c r="C1040" t="s">
-        <v>1819</v>
+        <v>1701</v>
       </c>
       <c r="D1040">
-        <v>3011</v>
-      </c>
-      <c r="I1040"/>
+        <v>2007</v>
+      </c>
     </row>
     <row r="1041" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1041" t="s">
-        <v>1822</v>
+        <v>1702</v>
       </c>
       <c r="B1041" t="s">
-        <v>1822</v>
-      </c>
-      <c r="C1041" t="s">
-        <v>1821</v>
+        <v>1702</v>
       </c>
       <c r="D1041">
-        <v>3012</v>
-      </c>
-      <c r="I1041"/>
+        <v>2008</v>
+      </c>
     </row>
     <row r="1042" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1042" t="s">
-        <v>1824</v>
+        <v>1703</v>
       </c>
       <c r="B1042" t="s">
-        <v>1824</v>
-      </c>
-      <c r="C1042" t="s">
-        <v>1823</v>
+        <v>1703</v>
       </c>
       <c r="D1042">
-        <v>3013</v>
-      </c>
-      <c r="I1042"/>
+        <v>2009</v>
+      </c>
     </row>
     <row r="1043" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1043" t="s">
-        <v>1826</v>
+        <v>1704</v>
       </c>
       <c r="B1043" t="s">
-        <v>1826</v>
-      </c>
-      <c r="C1043" t="s">
-        <v>1825</v>
+        <v>1704</v>
       </c>
       <c r="D1043">
-        <v>3014</v>
-      </c>
-      <c r="I1043"/>
+        <v>2047</v>
+      </c>
     </row>
     <row r="1044" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1044" t="s">
-        <v>1828</v>
+        <v>1938</v>
       </c>
       <c r="B1044" t="s">
-        <v>1828</v>
-      </c>
-      <c r="C1044" t="s">
-        <v>1827</v>
+        <v>1938</v>
       </c>
       <c r="D1044">
-        <v>3015</v>
-      </c>
-      <c r="I1044"/>
+        <v>2080</v>
+      </c>
     </row>
     <row r="1045" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1045" t="s">
-        <v>1830</v>
+        <v>1939</v>
       </c>
       <c r="B1045" t="s">
-        <v>1830</v>
-      </c>
-      <c r="C1045" t="s">
-        <v>1829</v>
+        <v>1939</v>
       </c>
       <c r="D1045">
-        <v>3016</v>
-      </c>
-      <c r="I1045"/>
+        <v>2081</v>
+      </c>
     </row>
     <row r="1046" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1046" t="s">
-        <v>1832</v>
+        <v>1940</v>
       </c>
       <c r="B1046" t="s">
-        <v>1832</v>
-      </c>
-      <c r="C1046" t="s">
-        <v>1831</v>
+        <v>1940</v>
       </c>
       <c r="D1046">
-        <v>3017</v>
-      </c>
-      <c r="I1046"/>
+        <v>2082</v>
+      </c>
     </row>
     <row r="1047" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1047" t="s">
-        <v>1834</v>
+        <v>1941</v>
       </c>
       <c r="B1047" t="s">
-        <v>1834</v>
-      </c>
-      <c r="C1047" t="s">
-        <v>1833</v>
+        <v>1941</v>
       </c>
       <c r="D1047">
-        <v>3018</v>
-      </c>
-      <c r="I1047"/>
+        <v>2083</v>
+      </c>
     </row>
     <row r="1048" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1048" t="s">
-        <v>1836</v>
+        <v>1942</v>
       </c>
       <c r="B1048" t="s">
-        <v>1836</v>
-      </c>
-      <c r="C1048" t="s">
-        <v>1835</v>
+        <v>1942</v>
       </c>
       <c r="D1048">
-        <v>3019</v>
-      </c>
-      <c r="I1048"/>
+        <v>2084</v>
+      </c>
     </row>
     <row r="1049" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1049" t="s">
-        <v>1838</v>
+        <v>1800</v>
       </c>
       <c r="B1049" t="s">
-        <v>1838</v>
+        <v>1800</v>
       </c>
       <c r="C1049" t="s">
-        <v>1837</v>
+        <v>1799</v>
       </c>
       <c r="D1049">
-        <v>3020</v>
+        <v>3001</v>
       </c>
       <c r="I1049"/>
     </row>
     <row r="1050" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1050" t="s">
-        <v>1840</v>
+        <v>1802</v>
       </c>
       <c r="B1050" t="s">
-        <v>1840</v>
+        <v>1802</v>
       </c>
       <c r="C1050" t="s">
-        <v>1839</v>
+        <v>1801</v>
       </c>
       <c r="D1050">
-        <v>3021</v>
+        <v>3002</v>
       </c>
       <c r="I1050"/>
     </row>
     <row r="1051" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1051" t="s">
-        <v>1842</v>
+        <v>1804</v>
       </c>
       <c r="B1051" t="s">
-        <v>1842</v>
+        <v>1804</v>
       </c>
       <c r="C1051" t="s">
-        <v>1841</v>
+        <v>1803</v>
       </c>
       <c r="D1051">
-        <v>3022</v>
+        <v>3003</v>
       </c>
       <c r="I1051"/>
     </row>
     <row r="1052" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1052" t="s">
-        <v>1844</v>
+        <v>1806</v>
       </c>
       <c r="B1052" t="s">
-        <v>1844</v>
+        <v>1806</v>
       </c>
       <c r="C1052" t="s">
-        <v>1843</v>
+        <v>1805</v>
       </c>
       <c r="D1052">
-        <v>3023</v>
+        <v>3004</v>
       </c>
       <c r="I1052"/>
     </row>
     <row r="1053" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1053" t="s">
-        <v>1846</v>
+        <v>1808</v>
       </c>
       <c r="B1053" t="s">
-        <v>1846</v>
+        <v>1808</v>
       </c>
       <c r="C1053" t="s">
-        <v>1845</v>
+        <v>1807</v>
       </c>
       <c r="D1053">
-        <v>3024</v>
+        <v>3005</v>
       </c>
       <c r="I1053"/>
     </row>
     <row r="1054" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1054" t="s">
-        <v>1848</v>
+        <v>1810</v>
       </c>
       <c r="B1054" t="s">
-        <v>1848</v>
+        <v>1810</v>
       </c>
       <c r="C1054" t="s">
-        <v>1847</v>
+        <v>1809</v>
       </c>
       <c r="D1054">
-        <v>3025</v>
+        <v>3006</v>
       </c>
       <c r="I1054"/>
     </row>
     <row r="1055" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1055" t="s">
-        <v>1850</v>
+        <v>1812</v>
       </c>
       <c r="B1055" t="s">
-        <v>1850</v>
+        <v>1812</v>
       </c>
       <c r="C1055" t="s">
-        <v>1849</v>
+        <v>1811</v>
       </c>
       <c r="D1055">
-        <v>3026</v>
+        <v>3007</v>
       </c>
       <c r="I1055"/>
     </row>
     <row r="1056" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1056" t="s">
-        <v>1852</v>
+        <v>1814</v>
       </c>
       <c r="B1056" t="s">
-        <v>1852</v>
+        <v>1814</v>
       </c>
       <c r="C1056" t="s">
-        <v>1851</v>
+        <v>1813</v>
       </c>
       <c r="D1056">
-        <v>3027</v>
+        <v>3008</v>
       </c>
       <c r="I1056"/>
     </row>
     <row r="1057" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1057" t="s">
+        <v>1816</v>
+      </c>
+      <c r="B1057" t="s">
+        <v>1816</v>
+      </c>
+      <c r="C1057" t="s">
+        <v>1815</v>
+      </c>
+      <c r="D1057">
+        <v>3009</v>
+      </c>
+      <c r="I1057"/>
+    </row>
+    <row r="1058" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1058" t="s">
+        <v>1818</v>
+      </c>
+      <c r="B1058" t="s">
+        <v>1818</v>
+      </c>
+      <c r="C1058" t="s">
+        <v>1817</v>
+      </c>
+      <c r="D1058">
+        <v>3010</v>
+      </c>
+      <c r="I1058"/>
+    </row>
+    <row r="1059" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1059" t="s">
+        <v>1820</v>
+      </c>
+      <c r="B1059" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C1059" t="s">
+        <v>1819</v>
+      </c>
+      <c r="D1059">
+        <v>3011</v>
+      </c>
+      <c r="I1059"/>
+    </row>
+    <row r="1060" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1060" t="s">
+        <v>1822</v>
+      </c>
+      <c r="B1060" t="s">
+        <v>1822</v>
+      </c>
+      <c r="C1060" t="s">
+        <v>1821</v>
+      </c>
+      <c r="D1060">
+        <v>3012</v>
+      </c>
+      <c r="I1060"/>
+    </row>
+    <row r="1061" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1061" t="s">
+        <v>1824</v>
+      </c>
+      <c r="B1061" t="s">
+        <v>1824</v>
+      </c>
+      <c r="C1061" t="s">
+        <v>1823</v>
+      </c>
+      <c r="D1061">
+        <v>3013</v>
+      </c>
+      <c r="I1061"/>
+    </row>
+    <row r="1062" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1062" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B1062" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C1062" t="s">
+        <v>1825</v>
+      </c>
+      <c r="D1062">
+        <v>3014</v>
+      </c>
+      <c r="I1062"/>
+    </row>
+    <row r="1063" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1063" t="s">
+        <v>1828</v>
+      </c>
+      <c r="B1063" t="s">
+        <v>1828</v>
+      </c>
+      <c r="C1063" t="s">
+        <v>1827</v>
+      </c>
+      <c r="D1063">
+        <v>3015</v>
+      </c>
+      <c r="I1063"/>
+    </row>
+    <row r="1064" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1064" t="s">
+        <v>1830</v>
+      </c>
+      <c r="B1064" t="s">
+        <v>1830</v>
+      </c>
+      <c r="C1064" t="s">
+        <v>1829</v>
+      </c>
+      <c r="D1064">
+        <v>3016</v>
+      </c>
+      <c r="I1064"/>
+    </row>
+    <row r="1065" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1065" t="s">
+        <v>1832</v>
+      </c>
+      <c r="B1065" t="s">
+        <v>1832</v>
+      </c>
+      <c r="C1065" t="s">
+        <v>1831</v>
+      </c>
+      <c r="D1065">
+        <v>3017</v>
+      </c>
+      <c r="I1065"/>
+    </row>
+    <row r="1066" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1066" t="s">
+        <v>1834</v>
+      </c>
+      <c r="B1066" t="s">
+        <v>1834</v>
+      </c>
+      <c r="C1066" t="s">
+        <v>1833</v>
+      </c>
+      <c r="D1066">
+        <v>3018</v>
+      </c>
+      <c r="I1066"/>
+    </row>
+    <row r="1067" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1067" t="s">
+        <v>1836</v>
+      </c>
+      <c r="B1067" t="s">
+        <v>1836</v>
+      </c>
+      <c r="C1067" t="s">
+        <v>1835</v>
+      </c>
+      <c r="D1067">
+        <v>3019</v>
+      </c>
+      <c r="I1067"/>
+    </row>
+    <row r="1068" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1068" t="s">
+        <v>1838</v>
+      </c>
+      <c r="B1068" t="s">
+        <v>1838</v>
+      </c>
+      <c r="C1068" t="s">
+        <v>1837</v>
+      </c>
+      <c r="D1068">
+        <v>3020</v>
+      </c>
+      <c r="I1068"/>
+    </row>
+    <row r="1069" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1069" t="s">
+        <v>1840</v>
+      </c>
+      <c r="B1069" t="s">
+        <v>1840</v>
+      </c>
+      <c r="C1069" t="s">
+        <v>1839</v>
+      </c>
+      <c r="D1069">
+        <v>3021</v>
+      </c>
+      <c r="I1069"/>
+    </row>
+    <row r="1070" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1070" t="s">
+        <v>1842</v>
+      </c>
+      <c r="B1070" t="s">
+        <v>1842</v>
+      </c>
+      <c r="C1070" t="s">
+        <v>1841</v>
+      </c>
+      <c r="D1070">
+        <v>3022</v>
+      </c>
+      <c r="I1070"/>
+    </row>
+    <row r="1071" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1071" t="s">
+        <v>1844</v>
+      </c>
+      <c r="B1071" t="s">
+        <v>1844</v>
+      </c>
+      <c r="C1071" t="s">
+        <v>1843</v>
+      </c>
+      <c r="D1071">
+        <v>3023</v>
+      </c>
+      <c r="I1071"/>
+    </row>
+    <row r="1072" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1072" t="s">
+        <v>1846</v>
+      </c>
+      <c r="B1072" t="s">
+        <v>1846</v>
+      </c>
+      <c r="C1072" t="s">
+        <v>1845</v>
+      </c>
+      <c r="D1072">
+        <v>3024</v>
+      </c>
+      <c r="I1072"/>
+    </row>
+    <row r="1073" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1073" t="s">
+        <v>1848</v>
+      </c>
+      <c r="B1073" t="s">
+        <v>1848</v>
+      </c>
+      <c r="C1073" t="s">
+        <v>1847</v>
+      </c>
+      <c r="D1073">
+        <v>3025</v>
+      </c>
+      <c r="I1073"/>
+    </row>
+    <row r="1074" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1074" t="s">
+        <v>1850</v>
+      </c>
+      <c r="B1074" t="s">
+        <v>1850</v>
+      </c>
+      <c r="C1074" t="s">
+        <v>1849</v>
+      </c>
+      <c r="D1074">
+        <v>3026</v>
+      </c>
+      <c r="I1074"/>
+    </row>
+    <row r="1075" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1075" t="s">
+        <v>1852</v>
+      </c>
+      <c r="B1075" t="s">
+        <v>1852</v>
+      </c>
+      <c r="C1075" t="s">
+        <v>1851</v>
+      </c>
+      <c r="D1075">
+        <v>3027</v>
+      </c>
+      <c r="I1075"/>
+    </row>
+    <row r="1076" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1076" t="s">
         <v>1854</v>
       </c>
-      <c r="B1057" t="s">
+      <c r="B1076" t="s">
         <v>1854</v>
       </c>
-      <c r="C1057" t="s">
+      <c r="C1076" t="s">
         <v>1853</v>
       </c>
-      <c r="D1057">
+      <c r="D1076">
         <v>3028</v>
       </c>
-      <c r="I1057"/>
+      <c r="I1076"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:J1" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState ref="A2:J1164">
+    <sortState ref="A2:J1183">
       <sortCondition ref="D1"/>
     </sortState>
   </autoFilter>

--- a/source/glyph_data.xlsx
+++ b/source/glyph_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20415"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\home\evansl\repos\wstechfonts\font-abyssinica\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B6AED67-9C17-4D17-8E92-10D0086557B8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E07EE9-8D63-4EC6-8BB2-7C6C7BA8DDDF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23520" windowHeight="7860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3455" uniqueCount="1983">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3455" uniqueCount="1984">
   <si>
     <t>USV</t>
   </si>
@@ -5998,6 +5998,9 @@
   </si>
   <si>
     <t>uni2468</t>
+  </si>
+  <si>
+    <t>12E2</t>
   </si>
 </sst>
 </file>
@@ -6325,8 +6328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J1076"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="H56" sqref="H56"/>
+    <sheetView tabSelected="1" topLeftCell="A481" workbookViewId="0">
+      <selection activeCell="C492" sqref="C492"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13968,7 +13971,7 @@
         <v>859</v>
       </c>
       <c r="C492" s="2" t="s">
-        <v>398</v>
+        <v>1983</v>
       </c>
       <c r="D492">
         <v>492</v>

--- a/source/glyph_data.xlsx
+++ b/source/glyph_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\home\evansl\repos\wstechfonts\font-abyssinica\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E07EE9-8D63-4EC6-8BB2-7C6C7BA8DDDF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1BD1A22-50C8-4FD6-8096-C3CE3C747294}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23520" windowHeight="7860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3455" uniqueCount="1984">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3455" uniqueCount="1989">
   <si>
     <t>USV</t>
   </si>
@@ -6001,6 +6001,21 @@
   </si>
   <si>
     <t>12E2</t>
+  </si>
+  <si>
+    <t>_numeral</t>
+  </si>
+  <si>
+    <t>_numeralnarrow</t>
+  </si>
+  <si>
+    <t>_numeralinit</t>
+  </si>
+  <si>
+    <t>_numeralmedi</t>
+  </si>
+  <si>
+    <t>_numeralfina</t>
   </si>
 </sst>
 </file>
@@ -6328,8 +6343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J1076"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A481" workbookViewId="0">
-      <selection activeCell="C492" sqref="C492"/>
+    <sheetView tabSelected="1" topLeftCell="A1055" workbookViewId="0">
+      <selection activeCell="A1077" sqref="A1077"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12525,39 +12540,33 @@
     </row>
     <row r="408" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
       <c r="B408" t="s">
-        <v>706</v>
+        <v>710</v>
+      </c>
+      <c r="C408" s="2" t="s">
+        <v>709</v>
       </c>
       <c r="D408">
         <v>407</v>
       </c>
-      <c r="E408" t="s">
-        <v>707</v>
-      </c>
-      <c r="F408" t="s">
-        <v>708</v>
-      </c>
       <c r="G408" t="s">
         <v>705</v>
       </c>
       <c r="H408">
-        <v>1</v>
-      </c>
-      <c r="I408" s="1">
-        <v>1298</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="B409" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="C409" s="2" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="D409">
         <v>408</v>
@@ -12571,39 +12580,33 @@
     </row>
     <row r="410" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="B410" t="s">
-        <v>711</v>
+        <v>716</v>
+      </c>
+      <c r="C410" s="2" t="s">
+        <v>715</v>
       </c>
       <c r="D410">
         <v>409</v>
       </c>
-      <c r="E410" t="s">
-        <v>707</v>
-      </c>
-      <c r="F410" t="s">
-        <v>708</v>
-      </c>
       <c r="G410" t="s">
         <v>705</v>
       </c>
       <c r="H410">
-        <v>1</v>
-      </c>
-      <c r="I410" s="1">
-        <v>1299</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
       <c r="B411" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
       <c r="C411" s="2" t="s">
-        <v>712</v>
+        <v>718</v>
       </c>
       <c r="D411">
         <v>410</v>
@@ -12617,39 +12620,33 @@
     </row>
     <row r="412" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>714</v>
+        <v>722</v>
       </c>
       <c r="B412" t="s">
-        <v>714</v>
+        <v>722</v>
+      </c>
+      <c r="C412" s="2" t="s">
+        <v>721</v>
       </c>
       <c r="D412">
         <v>411</v>
       </c>
-      <c r="E412" t="s">
-        <v>707</v>
-      </c>
-      <c r="F412" t="s">
-        <v>708</v>
-      </c>
       <c r="G412" t="s">
         <v>705</v>
       </c>
       <c r="H412">
-        <v>1</v>
-      </c>
-      <c r="I412" s="1" t="s">
-        <v>712</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>716</v>
+        <v>725</v>
       </c>
       <c r="B413" t="s">
-        <v>716</v>
+        <v>725</v>
       </c>
       <c r="C413" s="2" t="s">
-        <v>715</v>
+        <v>724</v>
       </c>
       <c r="D413">
         <v>412</v>
@@ -12663,56 +12660,56 @@
     </row>
     <row r="414" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>717</v>
+        <v>728</v>
       </c>
       <c r="B414" t="s">
-        <v>717</v>
+        <v>728</v>
+      </c>
+      <c r="C414" s="2" t="s">
+        <v>727</v>
       </c>
       <c r="D414">
         <v>413</v>
       </c>
-      <c r="E414" t="s">
-        <v>707</v>
-      </c>
-      <c r="F414" t="s">
-        <v>708</v>
-      </c>
       <c r="G414" t="s">
-        <v>705</v>
+        <v>729</v>
       </c>
       <c r="H414">
-        <v>1</v>
-      </c>
-      <c r="I414" s="1" t="s">
-        <v>715</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>719</v>
+        <v>706</v>
       </c>
       <c r="B415" t="s">
-        <v>719</v>
-      </c>
-      <c r="C415" s="2" t="s">
-        <v>718</v>
+        <v>706</v>
       </c>
       <c r="D415">
         <v>414</v>
       </c>
+      <c r="E415" t="s">
+        <v>707</v>
+      </c>
+      <c r="F415" t="s">
+        <v>708</v>
+      </c>
       <c r="G415" t="s">
         <v>705</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I415" s="1">
+        <v>1298</v>
       </c>
     </row>
     <row r="416" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="B416" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="D416">
         <v>415</v>
@@ -12729,36 +12726,42 @@
       <c r="H416">
         <v>1</v>
       </c>
-      <c r="I416" s="1" t="s">
-        <v>718</v>
+      <c r="I416" s="1">
+        <v>1299</v>
       </c>
     </row>
     <row r="417" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
       <c r="B417" t="s">
-        <v>722</v>
-      </c>
-      <c r="C417" s="2" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="D417">
         <v>416</v>
       </c>
+      <c r="E417" t="s">
+        <v>707</v>
+      </c>
+      <c r="F417" t="s">
+        <v>708</v>
+      </c>
       <c r="G417" t="s">
         <v>705</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I417" s="1" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="418" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="B418" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="D418">
         <v>417</v>
@@ -12776,35 +12779,41 @@
         <v>1</v>
       </c>
       <c r="I418" s="1" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
     </row>
     <row r="419" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="B419" t="s">
-        <v>725</v>
-      </c>
-      <c r="C419" s="2" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="D419">
         <v>418</v>
       </c>
+      <c r="E419" t="s">
+        <v>707</v>
+      </c>
+      <c r="F419" t="s">
+        <v>708</v>
+      </c>
       <c r="G419" t="s">
         <v>705</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I419" s="1" t="s">
+        <v>718</v>
       </c>
     </row>
     <row r="420" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="B420" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="D420">
         <v>419</v>
@@ -12822,27 +12831,33 @@
         <v>1</v>
       </c>
       <c r="I420" s="1" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
     </row>
     <row r="421" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B421" t="s">
-        <v>728</v>
-      </c>
-      <c r="C421" s="2" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D421">
         <v>420</v>
       </c>
+      <c r="E421" t="s">
+        <v>707</v>
+      </c>
+      <c r="F421" t="s">
+        <v>708</v>
+      </c>
       <c r="G421" t="s">
-        <v>729</v>
+        <v>705</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I421" s="1" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="422" spans="1:10" x14ac:dyDescent="0.25">
@@ -15186,10 +15201,13 @@
     </row>
     <row r="564" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="B564" t="s">
-        <v>977</v>
+        <v>979</v>
+      </c>
+      <c r="C564" s="2" t="s">
+        <v>978</v>
       </c>
       <c r="D564">
         <v>565</v>
@@ -15198,21 +15216,18 @@
         <v>976</v>
       </c>
       <c r="H564">
-        <v>1</v>
-      </c>
-      <c r="I564" s="1">
-        <v>1318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
-        <v>979</v>
+        <v>982</v>
       </c>
       <c r="B565" t="s">
-        <v>979</v>
+        <v>982</v>
       </c>
       <c r="C565" s="2" t="s">
-        <v>978</v>
+        <v>981</v>
       </c>
       <c r="D565">
         <v>566</v>
@@ -15226,10 +15241,13 @@
     </row>
     <row r="566" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
-        <v>980</v>
+        <v>985</v>
       </c>
       <c r="B566" t="s">
-        <v>980</v>
+        <v>985</v>
+      </c>
+      <c r="C566" s="2" t="s">
+        <v>984</v>
       </c>
       <c r="D566">
         <v>567</v>
@@ -15238,21 +15256,18 @@
         <v>976</v>
       </c>
       <c r="H566">
-        <v>1</v>
-      </c>
-      <c r="I566" s="1">
-        <v>1319</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
-        <v>982</v>
+        <v>988</v>
       </c>
       <c r="B567" t="s">
-        <v>982</v>
+        <v>988</v>
       </c>
       <c r="C567" s="2" t="s">
-        <v>981</v>
+        <v>987</v>
       </c>
       <c r="D567">
         <v>568</v>
@@ -15266,10 +15281,13 @@
     </row>
     <row r="568" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
-        <v>983</v>
+        <v>991</v>
       </c>
       <c r="B568" t="s">
-        <v>983</v>
+        <v>991</v>
+      </c>
+      <c r="C568" s="2" t="s">
+        <v>990</v>
       </c>
       <c r="D568">
         <v>569</v>
@@ -15278,21 +15296,18 @@
         <v>976</v>
       </c>
       <c r="H568">
-        <v>1</v>
-      </c>
-      <c r="I568" s="1" t="s">
-        <v>981</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
-        <v>985</v>
+        <v>994</v>
       </c>
       <c r="B569" t="s">
-        <v>985</v>
+        <v>994</v>
       </c>
       <c r="C569" s="2" t="s">
-        <v>984</v>
+        <v>993</v>
       </c>
       <c r="D569">
         <v>570</v>
@@ -15306,33 +15321,30 @@
     </row>
     <row r="570" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
-        <v>986</v>
+        <v>997</v>
       </c>
       <c r="B570" t="s">
-        <v>986</v>
+        <v>997</v>
+      </c>
+      <c r="C570" s="2" t="s">
+        <v>996</v>
       </c>
       <c r="D570">
         <v>571</v>
       </c>
       <c r="G570" t="s">
-        <v>976</v>
+        <v>998</v>
       </c>
       <c r="H570">
-        <v>1</v>
-      </c>
-      <c r="I570" s="1" t="s">
-        <v>984</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
-        <v>988</v>
+        <v>977</v>
       </c>
       <c r="B571" t="s">
-        <v>988</v>
-      </c>
-      <c r="C571" s="2" t="s">
-        <v>987</v>
+        <v>977</v>
       </c>
       <c r="D571">
         <v>572</v>
@@ -15341,15 +15353,18 @@
         <v>976</v>
       </c>
       <c r="H571">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I571" s="1">
+        <v>1318</v>
       </c>
     </row>
     <row r="572" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
-        <v>989</v>
+        <v>980</v>
       </c>
       <c r="B572" t="s">
-        <v>989</v>
+        <v>980</v>
       </c>
       <c r="D572">
         <v>573</v>
@@ -15360,19 +15375,16 @@
       <c r="H572">
         <v>1</v>
       </c>
-      <c r="I572" s="1" t="s">
-        <v>987</v>
+      <c r="I572" s="1">
+        <v>1319</v>
       </c>
     </row>
     <row r="573" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
-        <v>991</v>
+        <v>983</v>
       </c>
       <c r="B573" t="s">
-        <v>991</v>
-      </c>
-      <c r="C573" s="2" t="s">
-        <v>990</v>
+        <v>983</v>
       </c>
       <c r="D573">
         <v>574</v>
@@ -15381,15 +15393,18 @@
         <v>976</v>
       </c>
       <c r="H573">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I573" s="1" t="s">
+        <v>981</v>
       </c>
     </row>
     <row r="574" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
       <c r="B574" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
       <c r="D574">
         <v>575</v>
@@ -15401,18 +15416,15 @@
         <v>1</v>
       </c>
       <c r="I574" s="1" t="s">
-        <v>990</v>
+        <v>984</v>
       </c>
     </row>
     <row r="575" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="B575" t="s">
-        <v>994</v>
-      </c>
-      <c r="C575" s="2" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="D575">
         <v>576</v>
@@ -15421,15 +15433,18 @@
         <v>976</v>
       </c>
       <c r="H575">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I575" s="1" t="s">
+        <v>987</v>
       </c>
     </row>
     <row r="576" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="B576" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="D576">
         <v>577</v>
@@ -15441,27 +15456,27 @@
         <v>1</v>
       </c>
       <c r="I576" s="1" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
     </row>
     <row r="577" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="B577" t="s">
-        <v>997</v>
-      </c>
-      <c r="C577" s="2" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="D577">
         <v>578</v>
       </c>
       <c r="G577" t="s">
-        <v>998</v>
+        <v>976</v>
       </c>
       <c r="H577">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I577" s="1" t="s">
+        <v>993</v>
       </c>
     </row>
     <row r="578" spans="1:9" x14ac:dyDescent="0.25">
@@ -17580,42 +17595,42 @@
     </row>
     <row r="714" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="B714" t="s">
-        <v>1306</v>
-      </c>
-      <c r="C714" s="2" t="s">
-        <v>1305</v>
+        <v>1307</v>
       </c>
       <c r="D714">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G714" t="s">
         <v>1303</v>
       </c>
       <c r="H714">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I714" s="1" t="s">
+        <v>1305</v>
       </c>
     </row>
     <row r="715" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="B715" t="s">
-        <v>1307</v>
+        <v>1306</v>
+      </c>
+      <c r="C715" s="2" t="s">
+        <v>1305</v>
       </c>
       <c r="D715">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G715" t="s">
         <v>1303</v>
       </c>
       <c r="H715">
-        <v>1</v>
-      </c>
-      <c r="I715" s="1" t="s">
-        <v>1305</v>
+        <v>0</v>
       </c>
     </row>
     <row r="716" spans="1:9" x14ac:dyDescent="0.25">
@@ -17629,7 +17644,7 @@
         <v>1308</v>
       </c>
       <c r="D716">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G716" t="s">
         <v>1303</v>
@@ -18832,7 +18847,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="801" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A801" t="s">
         <v>1477</v>
       </c>
@@ -18846,7 +18861,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="802" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A802" t="s">
         <v>1479</v>
       </c>
@@ -18860,7 +18875,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="803" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A803" t="s">
         <v>1481</v>
       </c>
@@ -18874,7 +18889,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="804" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A804" t="s">
         <v>1483</v>
       </c>
@@ -18888,7 +18903,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="805" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A805" t="s">
         <v>1485</v>
       </c>
@@ -18902,7 +18917,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="806" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A806" t="s">
         <v>1487</v>
       </c>
@@ -18916,7 +18931,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="807" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A807" t="s">
         <v>1489</v>
       </c>
@@ -18930,7 +18945,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="808" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A808" t="s">
         <v>1491</v>
       </c>
@@ -18944,7 +18959,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="809" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A809" t="s">
         <v>1493</v>
       </c>
@@ -18958,872 +18973,840 @@
         <v>817</v>
       </c>
     </row>
-    <row r="810" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A810" t="s">
-        <v>1495</v>
+        <v>1800</v>
       </c>
       <c r="B810" t="s">
-        <v>1495</v>
-      </c>
-      <c r="C810" s="2" t="s">
-        <v>1494</v>
+        <v>1800</v>
+      </c>
+      <c r="C810" t="s">
+        <v>1799</v>
       </c>
       <c r="D810">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="811" spans="1:4" x14ac:dyDescent="0.25">
+        <v>819</v>
+      </c>
+      <c r="I810"/>
+    </row>
+    <row r="811" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A811" t="s">
-        <v>1497</v>
+        <v>1802</v>
       </c>
       <c r="B811" t="s">
-        <v>1497</v>
-      </c>
-      <c r="C811" s="2" t="s">
-        <v>1496</v>
+        <v>1802</v>
+      </c>
+      <c r="C811" t="s">
+        <v>1801</v>
       </c>
       <c r="D811">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="812" spans="1:4" x14ac:dyDescent="0.25">
+        <v>820</v>
+      </c>
+      <c r="I811"/>
+    </row>
+    <row r="812" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A812" t="s">
-        <v>1499</v>
+        <v>1804</v>
       </c>
       <c r="B812" t="s">
-        <v>1499</v>
-      </c>
-      <c r="C812" s="2" t="s">
-        <v>1498</v>
+        <v>1804</v>
+      </c>
+      <c r="C812" t="s">
+        <v>1803</v>
       </c>
       <c r="D812">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="813" spans="1:4" x14ac:dyDescent="0.25">
+        <v>821</v>
+      </c>
+      <c r="I812"/>
+    </row>
+    <row r="813" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A813" t="s">
-        <v>1501</v>
+        <v>1806</v>
       </c>
       <c r="B813" t="s">
-        <v>1501</v>
-      </c>
-      <c r="C813" s="2" t="s">
-        <v>1500</v>
+        <v>1806</v>
+      </c>
+      <c r="C813" t="s">
+        <v>1805</v>
       </c>
       <c r="D813">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="814" spans="1:4" x14ac:dyDescent="0.25">
+        <v>822</v>
+      </c>
+      <c r="I813"/>
+    </row>
+    <row r="814" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A814" t="s">
-        <v>1503</v>
+        <v>1808</v>
       </c>
       <c r="B814" t="s">
-        <v>1503</v>
-      </c>
-      <c r="C814" s="2" t="s">
-        <v>1502</v>
+        <v>1808</v>
+      </c>
+      <c r="C814" t="s">
+        <v>1807</v>
       </c>
       <c r="D814">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="815" spans="1:4" x14ac:dyDescent="0.25">
+        <v>823</v>
+      </c>
+      <c r="I814"/>
+    </row>
+    <row r="815" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A815" t="s">
-        <v>1505</v>
+        <v>1810</v>
       </c>
       <c r="B815" t="s">
-        <v>1505</v>
-      </c>
-      <c r="C815" s="2" t="s">
-        <v>1504</v>
+        <v>1810</v>
+      </c>
+      <c r="C815" t="s">
+        <v>1809</v>
       </c>
       <c r="D815">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="816" spans="1:4" x14ac:dyDescent="0.25">
+        <v>824</v>
+      </c>
+      <c r="I815"/>
+    </row>
+    <row r="816" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A816" t="s">
-        <v>1507</v>
+        <v>1812</v>
       </c>
       <c r="B816" t="s">
-        <v>1507</v>
-      </c>
-      <c r="C816" s="2" t="s">
-        <v>1506</v>
+        <v>1812</v>
+      </c>
+      <c r="C816" t="s">
+        <v>1811</v>
       </c>
       <c r="D816">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="817" spans="1:8" x14ac:dyDescent="0.25">
+        <v>825</v>
+      </c>
+      <c r="I816"/>
+    </row>
+    <row r="817" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A817" t="s">
-        <v>1509</v>
+        <v>1814</v>
       </c>
       <c r="B817" t="s">
-        <v>1509</v>
-      </c>
-      <c r="C817" s="2" t="s">
-        <v>1508</v>
+        <v>1814</v>
+      </c>
+      <c r="C817" t="s">
+        <v>1813</v>
       </c>
       <c r="D817">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="818" spans="1:8" x14ac:dyDescent="0.25">
+        <v>826</v>
+      </c>
+      <c r="I817"/>
+    </row>
+    <row r="818" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A818" t="s">
-        <v>1511</v>
+        <v>1816</v>
       </c>
       <c r="B818" t="s">
-        <v>1511</v>
-      </c>
-      <c r="C818" s="2" t="s">
-        <v>1510</v>
+        <v>1816</v>
+      </c>
+      <c r="C818" t="s">
+        <v>1815</v>
       </c>
       <c r="D818">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="819" spans="1:8" x14ac:dyDescent="0.25">
+        <v>827</v>
+      </c>
+      <c r="I818"/>
+    </row>
+    <row r="819" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A819" t="s">
-        <v>1513</v>
+        <v>1818</v>
       </c>
       <c r="B819" t="s">
-        <v>1513</v>
-      </c>
-      <c r="C819" s="2" t="s">
-        <v>1512</v>
+        <v>1818</v>
+      </c>
+      <c r="C819" t="s">
+        <v>1817</v>
       </c>
       <c r="D819">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="820" spans="1:8" x14ac:dyDescent="0.25">
+        <v>828</v>
+      </c>
+      <c r="I819"/>
+    </row>
+    <row r="820" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A820" t="s">
-        <v>1515</v>
+        <v>1820</v>
       </c>
       <c r="B820" t="s">
-        <v>1515</v>
-      </c>
-      <c r="C820" s="2" t="s">
-        <v>1514</v>
+        <v>1820</v>
+      </c>
+      <c r="C820" t="s">
+        <v>1819</v>
       </c>
       <c r="D820">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="821" spans="1:8" x14ac:dyDescent="0.25">
+        <v>829</v>
+      </c>
+      <c r="I820"/>
+    </row>
+    <row r="821" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A821" t="s">
-        <v>1517</v>
+        <v>1822</v>
       </c>
       <c r="B821" t="s">
-        <v>1517</v>
-      </c>
-      <c r="C821" s="2" t="s">
-        <v>1516</v>
+        <v>1822</v>
+      </c>
+      <c r="C821" t="s">
+        <v>1821</v>
       </c>
       <c r="D821">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="822" spans="1:8" x14ac:dyDescent="0.25">
+        <v>830</v>
+      </c>
+      <c r="I821"/>
+    </row>
+    <row r="822" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A822" t="s">
-        <v>1519</v>
+        <v>1824</v>
       </c>
       <c r="B822" t="s">
-        <v>1519</v>
-      </c>
-      <c r="C822" s="2" t="s">
-        <v>1518</v>
+        <v>1824</v>
+      </c>
+      <c r="C822" t="s">
+        <v>1823</v>
       </c>
       <c r="D822">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="823" spans="1:8" x14ac:dyDescent="0.25">
+        <v>831</v>
+      </c>
+      <c r="I822"/>
+    </row>
+    <row r="823" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A823" t="s">
-        <v>1521</v>
+        <v>1826</v>
       </c>
       <c r="B823" t="s">
-        <v>1521</v>
-      </c>
-      <c r="C823" s="2" t="s">
-        <v>1520</v>
+        <v>1826</v>
+      </c>
+      <c r="C823" t="s">
+        <v>1825</v>
       </c>
       <c r="D823">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="824" spans="1:8" x14ac:dyDescent="0.25">
+        <v>832</v>
+      </c>
+      <c r="I823"/>
+    </row>
+    <row r="824" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A824" t="s">
-        <v>1523</v>
+        <v>1828</v>
       </c>
       <c r="B824" t="s">
-        <v>1523</v>
-      </c>
-      <c r="C824" s="2" t="s">
-        <v>1522</v>
+        <v>1828</v>
+      </c>
+      <c r="C824" t="s">
+        <v>1827</v>
       </c>
       <c r="D824">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="825" spans="1:8" x14ac:dyDescent="0.25">
+        <v>833</v>
+      </c>
+      <c r="I824"/>
+    </row>
+    <row r="825" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A825" t="s">
-        <v>1525</v>
+        <v>1830</v>
       </c>
       <c r="B825" t="s">
-        <v>1525</v>
-      </c>
-      <c r="C825" s="2" t="s">
-        <v>1524</v>
+        <v>1830</v>
+      </c>
+      <c r="C825" t="s">
+        <v>1829</v>
       </c>
       <c r="D825">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="826" spans="1:8" x14ac:dyDescent="0.25">
+        <v>834</v>
+      </c>
+      <c r="I825"/>
+    </row>
+    <row r="826" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A826" t="s">
-        <v>1527</v>
+        <v>1832</v>
       </c>
       <c r="B826" t="s">
-        <v>1527</v>
-      </c>
-      <c r="C826" s="2" t="s">
-        <v>1526</v>
+        <v>1832</v>
+      </c>
+      <c r="C826" t="s">
+        <v>1831</v>
       </c>
       <c r="D826">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="827" spans="1:8" x14ac:dyDescent="0.25">
+        <v>835</v>
+      </c>
+      <c r="I826"/>
+    </row>
+    <row r="827" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A827" t="s">
-        <v>1529</v>
+        <v>1834</v>
       </c>
       <c r="B827" t="s">
-        <v>1529</v>
-      </c>
-      <c r="C827" s="2" t="s">
-        <v>1528</v>
+        <v>1834</v>
+      </c>
+      <c r="C827" t="s">
+        <v>1833</v>
       </c>
       <c r="D827">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="828" spans="1:8" x14ac:dyDescent="0.25">
+        <v>836</v>
+      </c>
+      <c r="I827"/>
+    </row>
+    <row r="828" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A828" t="s">
-        <v>1531</v>
+        <v>1836</v>
       </c>
       <c r="B828" t="s">
-        <v>1531</v>
-      </c>
-      <c r="C828" s="2" t="s">
-        <v>1530</v>
+        <v>1836</v>
+      </c>
+      <c r="C828" t="s">
+        <v>1835</v>
       </c>
       <c r="D828">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="829" spans="1:8" x14ac:dyDescent="0.25">
+        <v>837</v>
+      </c>
+      <c r="I828"/>
+    </row>
+    <row r="829" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A829" t="s">
-        <v>1533</v>
+        <v>1838</v>
       </c>
       <c r="B829" t="s">
-        <v>1533</v>
-      </c>
-      <c r="C829" s="2" t="s">
-        <v>1532</v>
+        <v>1838</v>
+      </c>
+      <c r="C829" t="s">
+        <v>1837</v>
       </c>
       <c r="D829">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="830" spans="1:8" x14ac:dyDescent="0.25">
+        <v>838</v>
+      </c>
+      <c r="I829"/>
+    </row>
+    <row r="830" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A830" t="s">
-        <v>1535</v>
+        <v>1840</v>
       </c>
       <c r="B830" t="s">
-        <v>1535</v>
-      </c>
-      <c r="C830" s="2" t="s">
-        <v>1534</v>
+        <v>1840</v>
+      </c>
+      <c r="C830" t="s">
+        <v>1839</v>
       </c>
       <c r="D830">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="831" spans="1:8" x14ac:dyDescent="0.25">
+        <v>839</v>
+      </c>
+      <c r="I830"/>
+    </row>
+    <row r="831" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A831" t="s">
-        <v>1537</v>
+        <v>1842</v>
       </c>
       <c r="B831" t="s">
-        <v>1537</v>
-      </c>
-      <c r="C831" s="2" t="s">
-        <v>1536</v>
+        <v>1842</v>
+      </c>
+      <c r="C831" t="s">
+        <v>1841</v>
       </c>
       <c r="D831">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="832" spans="1:8" x14ac:dyDescent="0.25">
+        <v>840</v>
+      </c>
+      <c r="I831"/>
+    </row>
+    <row r="832" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A832" t="s">
-        <v>1539</v>
+        <v>1844</v>
       </c>
       <c r="B832" t="s">
-        <v>1539</v>
-      </c>
-      <c r="C832" s="2" t="s">
-        <v>1538</v>
+        <v>1844</v>
+      </c>
+      <c r="C832" t="s">
+        <v>1843</v>
       </c>
       <c r="D832">
-        <v>840</v>
-      </c>
-      <c r="G832" t="s">
-        <v>14</v>
-      </c>
-      <c r="H832">
-        <v>0</v>
-      </c>
+        <v>841</v>
+      </c>
+      <c r="I832"/>
     </row>
     <row r="833" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A833" t="s">
-        <v>1540</v>
+        <v>1846</v>
       </c>
       <c r="B833" t="s">
-        <v>1540</v>
+        <v>1846</v>
+      </c>
+      <c r="C833" t="s">
+        <v>1845</v>
       </c>
       <c r="D833">
-        <v>841</v>
-      </c>
-      <c r="G833" t="s">
-        <v>14</v>
-      </c>
-      <c r="H833">
-        <v>1</v>
-      </c>
-      <c r="I833" s="1">
-        <v>2018</v>
-      </c>
+        <v>842</v>
+      </c>
+      <c r="I833"/>
     </row>
     <row r="834" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A834" t="s">
-        <v>1542</v>
+        <v>1848</v>
       </c>
       <c r="B834" t="s">
-        <v>1542</v>
-      </c>
-      <c r="C834" s="2" t="s">
-        <v>1541</v>
+        <v>1848</v>
+      </c>
+      <c r="C834" t="s">
+        <v>1847</v>
       </c>
       <c r="D834">
-        <v>842</v>
-      </c>
-      <c r="G834" t="s">
-        <v>14</v>
-      </c>
-      <c r="H834">
-        <v>0</v>
-      </c>
+        <v>843</v>
+      </c>
+      <c r="I834"/>
     </row>
     <row r="835" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A835" t="s">
-        <v>1543</v>
+        <v>1850</v>
       </c>
       <c r="B835" t="s">
-        <v>1543</v>
+        <v>1850</v>
+      </c>
+      <c r="C835" t="s">
+        <v>1849</v>
       </c>
       <c r="D835">
-        <v>843</v>
-      </c>
-      <c r="G835" t="s">
-        <v>14</v>
-      </c>
-      <c r="H835">
-        <v>1</v>
-      </c>
-      <c r="I835" s="1">
-        <v>2019</v>
-      </c>
+        <v>844</v>
+      </c>
+      <c r="I835"/>
     </row>
     <row r="836" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A836" t="s">
-        <v>1545</v>
+        <v>1852</v>
       </c>
       <c r="B836" t="s">
-        <v>1545</v>
-      </c>
-      <c r="C836" s="2" t="s">
-        <v>1544</v>
+        <v>1852</v>
+      </c>
+      <c r="C836" t="s">
+        <v>1851</v>
       </c>
       <c r="D836">
-        <v>844</v>
-      </c>
+        <v>845</v>
+      </c>
+      <c r="I836"/>
     </row>
     <row r="837" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A837" t="s">
-        <v>1547</v>
+        <v>1854</v>
       </c>
       <c r="B837" t="s">
-        <v>1547</v>
-      </c>
-      <c r="C837" s="2" t="s">
-        <v>1546</v>
+        <v>1854</v>
+      </c>
+      <c r="C837" t="s">
+        <v>1853</v>
       </c>
       <c r="D837">
-        <v>845</v>
-      </c>
-      <c r="G837" t="s">
-        <v>14</v>
-      </c>
-      <c r="H837">
-        <v>0</v>
-      </c>
+        <v>846</v>
+      </c>
+      <c r="I837"/>
     </row>
     <row r="838" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A838" t="s">
-        <v>1548</v>
+        <v>1495</v>
       </c>
       <c r="B838" t="s">
-        <v>1548</v>
+        <v>1495</v>
+      </c>
+      <c r="C838" s="2" t="s">
+        <v>1494</v>
       </c>
       <c r="D838">
-        <v>846</v>
-      </c>
-      <c r="G838" t="s">
-        <v>14</v>
-      </c>
-      <c r="H838">
-        <v>1</v>
-      </c>
-      <c r="I838" s="1" t="s">
-        <v>1546</v>
+        <v>847</v>
       </c>
     </row>
     <row r="839" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A839" t="s">
-        <v>1550</v>
+        <v>1497</v>
       </c>
       <c r="B839" t="s">
-        <v>1550</v>
+        <v>1497</v>
       </c>
       <c r="C839" s="2" t="s">
-        <v>1549</v>
+        <v>1496</v>
       </c>
       <c r="D839">
-        <v>847</v>
-      </c>
-      <c r="G839" t="s">
-        <v>14</v>
-      </c>
-      <c r="H839">
-        <v>0</v>
+        <v>848</v>
       </c>
     </row>
     <row r="840" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A840" t="s">
-        <v>1551</v>
+        <v>1499</v>
       </c>
       <c r="B840" t="s">
-        <v>1551</v>
+        <v>1499</v>
+      </c>
+      <c r="C840" s="2" t="s">
+        <v>1498</v>
       </c>
       <c r="D840">
-        <v>848</v>
-      </c>
-      <c r="G840" t="s">
-        <v>14</v>
-      </c>
-      <c r="H840">
-        <v>1</v>
-      </c>
-      <c r="I840" s="1" t="s">
-        <v>1549</v>
+        <v>849</v>
       </c>
     </row>
     <row r="841" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A841" t="s">
-        <v>1553</v>
+        <v>1501</v>
       </c>
       <c r="B841" t="s">
-        <v>1553</v>
+        <v>1501</v>
       </c>
       <c r="C841" s="2" t="s">
-        <v>1552</v>
+        <v>1500</v>
       </c>
       <c r="D841">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="842" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A842" t="s">
-        <v>1555</v>
+        <v>1503</v>
       </c>
       <c r="B842" t="s">
-        <v>1555</v>
+        <v>1503</v>
       </c>
       <c r="C842" s="2" t="s">
-        <v>1554</v>
+        <v>1502</v>
       </c>
       <c r="D842">
-        <v>850</v>
+        <v>851</v>
       </c>
     </row>
     <row r="843" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A843" t="s">
-        <v>1557</v>
+        <v>1505</v>
       </c>
       <c r="B843" t="s">
-        <v>1557</v>
+        <v>1505</v>
       </c>
       <c r="C843" s="2" t="s">
-        <v>1556</v>
+        <v>1504</v>
       </c>
       <c r="D843">
-        <v>851</v>
+        <v>852</v>
       </c>
     </row>
     <row r="844" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A844" t="s">
-        <v>1559</v>
+        <v>1507</v>
       </c>
       <c r="B844" t="s">
-        <v>1559</v>
+        <v>1507</v>
       </c>
       <c r="C844" s="2" t="s">
-        <v>1558</v>
+        <v>1506</v>
       </c>
       <c r="D844">
-        <v>852</v>
+        <v>853</v>
       </c>
     </row>
     <row r="845" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A845" t="s">
-        <v>1561</v>
+        <v>1509</v>
       </c>
       <c r="B845" t="s">
-        <v>1561</v>
+        <v>1509</v>
       </c>
       <c r="C845" s="2" t="s">
-        <v>1560</v>
+        <v>1508</v>
       </c>
       <c r="D845">
-        <v>853</v>
+        <v>854</v>
       </c>
     </row>
     <row r="846" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A846" t="s">
-        <v>1563</v>
+        <v>1511</v>
       </c>
       <c r="B846" t="s">
-        <v>1563</v>
+        <v>1511</v>
       </c>
       <c r="C846" s="2" t="s">
-        <v>1562</v>
+        <v>1510</v>
       </c>
       <c r="D846">
-        <v>854</v>
+        <v>855</v>
       </c>
     </row>
     <row r="847" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A847" t="s">
-        <v>1565</v>
+        <v>1513</v>
       </c>
       <c r="B847" t="s">
-        <v>1565</v>
+        <v>1513</v>
       </c>
       <c r="C847" s="2" t="s">
-        <v>1564</v>
+        <v>1512</v>
       </c>
       <c r="D847">
-        <v>855</v>
+        <v>856</v>
       </c>
     </row>
     <row r="848" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A848" t="s">
-        <v>1567</v>
+        <v>1515</v>
       </c>
       <c r="B848" t="s">
-        <v>1567</v>
+        <v>1515</v>
       </c>
       <c r="C848" s="2" t="s">
-        <v>1566</v>
+        <v>1514</v>
       </c>
       <c r="D848">
-        <v>856</v>
+        <v>857</v>
       </c>
     </row>
     <row r="849" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A849" t="s">
-        <v>1569</v>
+        <v>1517</v>
       </c>
       <c r="B849" t="s">
-        <v>1569</v>
+        <v>1517</v>
       </c>
       <c r="C849" s="2" t="s">
-        <v>1568</v>
+        <v>1516</v>
       </c>
       <c r="D849">
-        <v>857</v>
+        <v>858</v>
       </c>
     </row>
     <row r="850" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A850" t="s">
-        <v>1571</v>
+        <v>1519</v>
       </c>
       <c r="B850" t="s">
-        <v>1571</v>
+        <v>1519</v>
       </c>
       <c r="C850" s="2" t="s">
-        <v>1570</v>
+        <v>1518</v>
       </c>
       <c r="D850">
-        <v>858</v>
+        <v>859</v>
       </c>
     </row>
     <row r="851" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A851" t="s">
-        <v>1573</v>
+        <v>1521</v>
       </c>
       <c r="B851" t="s">
-        <v>1573</v>
+        <v>1521</v>
       </c>
       <c r="C851" s="2" t="s">
-        <v>1572</v>
+        <v>1520</v>
       </c>
       <c r="D851">
-        <v>859</v>
+        <v>860</v>
       </c>
     </row>
     <row r="852" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A852" t="s">
-        <v>1575</v>
+        <v>1523</v>
       </c>
       <c r="B852" t="s">
-        <v>1575</v>
+        <v>1523</v>
       </c>
       <c r="C852" s="2" t="s">
-        <v>1574</v>
+        <v>1522</v>
       </c>
       <c r="D852">
-        <v>860</v>
+        <v>861</v>
       </c>
     </row>
     <row r="853" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A853" t="s">
-        <v>1577</v>
+        <v>1525</v>
       </c>
       <c r="B853" t="s">
-        <v>1577</v>
+        <v>1525</v>
       </c>
       <c r="C853" s="2" t="s">
-        <v>1576</v>
+        <v>1524</v>
       </c>
       <c r="D853">
-        <v>861</v>
+        <v>862</v>
       </c>
     </row>
     <row r="854" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A854" t="s">
-        <v>1579</v>
+        <v>1527</v>
       </c>
       <c r="B854" t="s">
-        <v>1579</v>
+        <v>1527</v>
       </c>
       <c r="C854" s="2" t="s">
-        <v>1578</v>
+        <v>1526</v>
       </c>
       <c r="D854">
-        <v>862</v>
+        <v>863</v>
       </c>
     </row>
     <row r="855" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A855" t="s">
-        <v>1581</v>
+        <v>1529</v>
       </c>
       <c r="B855" t="s">
-        <v>1581</v>
+        <v>1529</v>
       </c>
       <c r="C855" s="2" t="s">
-        <v>1580</v>
+        <v>1528</v>
       </c>
       <c r="D855">
-        <v>863</v>
+        <v>864</v>
       </c>
     </row>
     <row r="856" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A856" t="s">
-        <v>1583</v>
+        <v>1531</v>
       </c>
       <c r="B856" t="s">
-        <v>1583</v>
+        <v>1531</v>
       </c>
       <c r="C856" s="2" t="s">
-        <v>1582</v>
+        <v>1530</v>
       </c>
       <c r="D856">
-        <v>864</v>
-      </c>
-      <c r="G856" t="s">
-        <v>14</v>
-      </c>
-      <c r="H856">
-        <v>0</v>
+        <v>865</v>
       </c>
     </row>
     <row r="857" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A857" t="s">
-        <v>1584</v>
+        <v>1533</v>
       </c>
       <c r="B857" t="s">
-        <v>1584</v>
+        <v>1533</v>
+      </c>
+      <c r="C857" s="2" t="s">
+        <v>1532</v>
       </c>
       <c r="D857">
-        <v>865</v>
-      </c>
-      <c r="G857" t="s">
-        <v>14</v>
-      </c>
-      <c r="H857">
-        <v>1</v>
-      </c>
-      <c r="I857" s="1">
-        <v>2039</v>
+        <v>866</v>
       </c>
     </row>
     <row r="858" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A858" t="s">
-        <v>1586</v>
+        <v>1535</v>
       </c>
       <c r="B858" t="s">
-        <v>1586</v>
+        <v>1535</v>
       </c>
       <c r="C858" s="2" t="s">
-        <v>1585</v>
+        <v>1534</v>
       </c>
       <c r="D858">
-        <v>866</v>
-      </c>
-      <c r="G858" t="s">
-        <v>14</v>
-      </c>
-      <c r="H858">
-        <v>0</v>
+        <v>867</v>
       </c>
     </row>
     <row r="859" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A859" t="s">
-        <v>1587</v>
+        <v>1537</v>
       </c>
       <c r="B859" t="s">
-        <v>1587</v>
+        <v>1537</v>
+      </c>
+      <c r="C859" s="2" t="s">
+        <v>1536</v>
       </c>
       <c r="D859">
-        <v>867</v>
-      </c>
-      <c r="G859" t="s">
-        <v>14</v>
-      </c>
-      <c r="H859">
-        <v>1</v>
-      </c>
-      <c r="I859" s="1" t="s">
-        <v>1585</v>
+        <v>868</v>
       </c>
     </row>
     <row r="860" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A860" t="s">
-        <v>1589</v>
+        <v>1539</v>
       </c>
       <c r="B860" t="s">
-        <v>1589</v>
+        <v>1539</v>
       </c>
       <c r="C860" s="2" t="s">
-        <v>1588</v>
+        <v>1538</v>
       </c>
       <c r="D860">
-        <v>868</v>
+        <v>869</v>
+      </c>
+      <c r="G860" t="s">
+        <v>14</v>
+      </c>
+      <c r="H860">
+        <v>0</v>
       </c>
     </row>
     <row r="861" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A861" t="s">
-        <v>1591</v>
+        <v>1540</v>
       </c>
       <c r="B861" t="s">
-        <v>1591</v>
-      </c>
-      <c r="C861" s="2" t="s">
-        <v>1590</v>
+        <v>1540</v>
       </c>
       <c r="D861">
-        <v>869</v>
+        <v>870</v>
+      </c>
+      <c r="G861" t="s">
+        <v>14</v>
+      </c>
+      <c r="H861">
+        <v>1</v>
+      </c>
+      <c r="I861" s="1">
+        <v>2018</v>
       </c>
     </row>
     <row r="862" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A862" t="s">
-        <v>1593</v>
+        <v>1542</v>
       </c>
       <c r="B862" t="s">
-        <v>1593</v>
+        <v>1542</v>
       </c>
       <c r="C862" s="2" t="s">
-        <v>1592</v>
+        <v>1541</v>
       </c>
       <c r="D862">
-        <v>870</v>
+        <v>871</v>
+      </c>
+      <c r="G862" t="s">
+        <v>14</v>
+      </c>
+      <c r="H862">
+        <v>0</v>
       </c>
     </row>
     <row r="863" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A863" t="s">
-        <v>1595</v>
+        <v>1543</v>
       </c>
       <c r="B863" t="s">
-        <v>1595</v>
-      </c>
-      <c r="C863" s="2" t="s">
-        <v>1594</v>
+        <v>1543</v>
       </c>
       <c r="D863">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="G863" t="s">
         <v>14</v>
       </c>
       <c r="H863">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I863" s="1">
+        <v>2019</v>
       </c>
     </row>
     <row r="864" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A864" t="s">
-        <v>1598</v>
+        <v>1545</v>
       </c>
       <c r="B864" t="s">
-        <v>1598</v>
+        <v>1545</v>
       </c>
       <c r="C864" s="2" t="s">
-        <v>1597</v>
+        <v>1544</v>
       </c>
       <c r="D864">
-        <v>872</v>
-      </c>
-      <c r="G864" t="s">
-        <v>14</v>
-      </c>
-      <c r="H864">
-        <v>0</v>
+        <v>873</v>
       </c>
     </row>
     <row r="865" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A865" t="s">
-        <v>1601</v>
+        <v>1547</v>
       </c>
       <c r="B865" t="s">
-        <v>1601</v>
+        <v>1547</v>
       </c>
       <c r="C865" s="2" t="s">
-        <v>1600</v>
+        <v>1546</v>
       </c>
       <c r="D865">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="G865" t="s">
         <v>14</v>
@@ -19834,36 +19817,36 @@
     </row>
     <row r="866" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A866" t="s">
-        <v>1604</v>
+        <v>1548</v>
       </c>
       <c r="B866" t="s">
-        <v>1604</v>
-      </c>
-      <c r="C866" s="2" t="s">
-        <v>1603</v>
+        <v>1548</v>
       </c>
       <c r="D866">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="G866" t="s">
         <v>14</v>
       </c>
       <c r="H866">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I866" s="1" t="s">
+        <v>1546</v>
       </c>
     </row>
     <row r="867" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A867" t="s">
-        <v>1607</v>
+        <v>1550</v>
       </c>
       <c r="B867" t="s">
-        <v>1607</v>
+        <v>1550</v>
       </c>
       <c r="C867" s="2" t="s">
-        <v>1606</v>
+        <v>1549</v>
       </c>
       <c r="D867">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="G867" t="s">
         <v>14</v>
@@ -19874,462 +19857,468 @@
     </row>
     <row r="868" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A868" t="s">
-        <v>1610</v>
+        <v>1551</v>
       </c>
       <c r="B868" t="s">
-        <v>1610</v>
-      </c>
-      <c r="C868" s="2" t="s">
-        <v>1609</v>
+        <v>1551</v>
       </c>
       <c r="D868">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="G868" t="s">
         <v>14</v>
       </c>
       <c r="H868">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I868" s="1" t="s">
+        <v>1549</v>
       </c>
     </row>
     <row r="869" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A869" t="s">
-        <v>1613</v>
+        <v>1553</v>
       </c>
       <c r="B869" t="s">
-        <v>1613</v>
+        <v>1553</v>
       </c>
       <c r="C869" s="2" t="s">
-        <v>1612</v>
+        <v>1552</v>
       </c>
       <c r="D869">
-        <v>877</v>
-      </c>
-      <c r="G869" t="s">
-        <v>14</v>
-      </c>
-      <c r="H869">
-        <v>0</v>
+        <v>878</v>
       </c>
     </row>
     <row r="870" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A870" t="s">
-        <v>1596</v>
+        <v>1555</v>
       </c>
       <c r="B870" t="s">
-        <v>1596</v>
+        <v>1555</v>
+      </c>
+      <c r="C870" s="2" t="s">
+        <v>1554</v>
       </c>
       <c r="D870">
-        <v>878</v>
-      </c>
-      <c r="G870" t="s">
-        <v>14</v>
-      </c>
-      <c r="H870">
-        <v>1</v>
-      </c>
-      <c r="I870" s="1">
-        <v>2070</v>
+        <v>879</v>
       </c>
     </row>
     <row r="871" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A871" t="s">
-        <v>1599</v>
+        <v>1557</v>
       </c>
       <c r="B871" t="s">
-        <v>1599</v>
+        <v>1557</v>
+      </c>
+      <c r="C871" s="2" t="s">
+        <v>1556</v>
       </c>
       <c r="D871">
-        <v>879</v>
-      </c>
-      <c r="G871" t="s">
-        <v>14</v>
-      </c>
-      <c r="H871">
-        <v>1</v>
-      </c>
-      <c r="I871" s="1">
-        <v>2074</v>
+        <v>880</v>
       </c>
     </row>
     <row r="872" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A872" t="s">
-        <v>1602</v>
+        <v>1559</v>
       </c>
       <c r="B872" t="s">
-        <v>1602</v>
+        <v>1559</v>
+      </c>
+      <c r="C872" s="2" t="s">
+        <v>1558</v>
       </c>
       <c r="D872">
-        <v>880</v>
-      </c>
-      <c r="G872" t="s">
-        <v>14</v>
-      </c>
-      <c r="H872">
-        <v>1</v>
-      </c>
-      <c r="I872" s="1">
-        <v>2075</v>
+        <v>881</v>
       </c>
     </row>
     <row r="873" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A873" t="s">
-        <v>1605</v>
+        <v>1561</v>
       </c>
       <c r="B873" t="s">
-        <v>1605</v>
+        <v>1561</v>
+      </c>
+      <c r="C873" s="2" t="s">
+        <v>1560</v>
       </c>
       <c r="D873">
-        <v>881</v>
-      </c>
-      <c r="G873" t="s">
-        <v>14</v>
-      </c>
-      <c r="H873">
-        <v>1</v>
-      </c>
-      <c r="I873" s="1">
-        <v>2076</v>
+        <v>882</v>
       </c>
     </row>
     <row r="874" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A874" t="s">
-        <v>1608</v>
+        <v>1563</v>
       </c>
       <c r="B874" t="s">
-        <v>1608</v>
+        <v>1563</v>
+      </c>
+      <c r="C874" s="2" t="s">
+        <v>1562</v>
       </c>
       <c r="D874">
-        <v>882</v>
-      </c>
-      <c r="G874" t="s">
-        <v>14</v>
-      </c>
-      <c r="H874">
-        <v>1</v>
-      </c>
-      <c r="I874" s="1">
-        <v>2077</v>
+        <v>883</v>
       </c>
     </row>
     <row r="875" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A875" t="s">
-        <v>1611</v>
+        <v>1565</v>
       </c>
       <c r="B875" t="s">
-        <v>1611</v>
+        <v>1565</v>
+      </c>
+      <c r="C875" s="2" t="s">
+        <v>1564</v>
       </c>
       <c r="D875">
-        <v>883</v>
-      </c>
-      <c r="G875" t="s">
-        <v>14</v>
-      </c>
-      <c r="H875">
-        <v>1</v>
-      </c>
-      <c r="I875" s="1">
-        <v>2078</v>
+        <v>884</v>
       </c>
     </row>
     <row r="876" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A876" t="s">
-        <v>1614</v>
+        <v>1567</v>
       </c>
       <c r="B876" t="s">
-        <v>1614</v>
+        <v>1567</v>
+      </c>
+      <c r="C876" s="2" t="s">
+        <v>1566</v>
       </c>
       <c r="D876">
-        <v>884</v>
-      </c>
-      <c r="G876" t="s">
-        <v>14</v>
-      </c>
-      <c r="H876">
-        <v>1</v>
-      </c>
-      <c r="I876" s="1">
-        <v>2079</v>
+        <v>885</v>
       </c>
     </row>
     <row r="877" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A877" t="s">
-        <v>1946</v>
+        <v>1569</v>
       </c>
       <c r="B877" t="s">
-        <v>1965</v>
-      </c>
-      <c r="C877">
-        <v>2080</v>
+        <v>1569</v>
+      </c>
+      <c r="C877" s="2" t="s">
+        <v>1568</v>
       </c>
       <c r="D877">
-        <v>885.01</v>
+        <v>886</v>
       </c>
     </row>
     <row r="878" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A878" t="s">
-        <v>1947</v>
+        <v>1571</v>
       </c>
       <c r="B878" t="s">
-        <v>1966</v>
-      </c>
-      <c r="C878">
-        <v>2081</v>
+        <v>1571</v>
+      </c>
+      <c r="C878" s="2" t="s">
+        <v>1570</v>
       </c>
       <c r="D878">
-        <v>885.02</v>
+        <v>887</v>
       </c>
     </row>
     <row r="879" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A879" t="s">
-        <v>1948</v>
+        <v>1573</v>
       </c>
       <c r="B879" t="s">
-        <v>1967</v>
-      </c>
-      <c r="C879">
-        <v>2082</v>
+        <v>1573</v>
+      </c>
+      <c r="C879" s="2" t="s">
+        <v>1572</v>
       </c>
       <c r="D879">
-        <v>885.03</v>
+        <v>888</v>
       </c>
     </row>
     <row r="880" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A880" t="s">
-        <v>1949</v>
+        <v>1575</v>
       </c>
       <c r="B880" t="s">
-        <v>1968</v>
-      </c>
-      <c r="C880">
-        <v>2083</v>
+        <v>1575</v>
+      </c>
+      <c r="C880" s="2" t="s">
+        <v>1574</v>
       </c>
       <c r="D880">
-        <v>885.04</v>
-      </c>
-    </row>
-    <row r="881" spans="1:8" x14ac:dyDescent="0.25">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="881" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A881" t="s">
-        <v>1950</v>
+        <v>1577</v>
       </c>
       <c r="B881" t="s">
-        <v>1969</v>
-      </c>
-      <c r="C881">
-        <v>2084</v>
+        <v>1577</v>
+      </c>
+      <c r="C881" s="2" t="s">
+        <v>1576</v>
       </c>
       <c r="D881">
-        <v>885.05</v>
-      </c>
-    </row>
-    <row r="882" spans="1:8" x14ac:dyDescent="0.25">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="882" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A882" t="s">
-        <v>1951</v>
+        <v>1579</v>
       </c>
       <c r="B882" t="s">
-        <v>1970</v>
-      </c>
-      <c r="C882">
-        <v>2085</v>
+        <v>1579</v>
+      </c>
+      <c r="C882" s="2" t="s">
+        <v>1578</v>
       </c>
       <c r="D882">
-        <v>885.06</v>
-      </c>
-    </row>
-    <row r="883" spans="1:8" x14ac:dyDescent="0.25">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="883" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A883" t="s">
-        <v>1952</v>
+        <v>1581</v>
       </c>
       <c r="B883" t="s">
-        <v>1971</v>
-      </c>
-      <c r="C883">
-        <v>2086</v>
+        <v>1581</v>
+      </c>
+      <c r="C883" s="2" t="s">
+        <v>1580</v>
       </c>
       <c r="D883">
-        <v>885.07</v>
-      </c>
-    </row>
-    <row r="884" spans="1:8" x14ac:dyDescent="0.25">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="884" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A884" t="s">
-        <v>1953</v>
+        <v>1583</v>
       </c>
       <c r="B884" t="s">
-        <v>1972</v>
-      </c>
-      <c r="C884">
-        <v>2087</v>
+        <v>1583</v>
+      </c>
+      <c r="C884" s="2" t="s">
+        <v>1582</v>
       </c>
       <c r="D884">
-        <v>885.08</v>
-      </c>
-    </row>
-    <row r="885" spans="1:8" x14ac:dyDescent="0.25">
+        <v>893</v>
+      </c>
+      <c r="G884" t="s">
+        <v>14</v>
+      </c>
+      <c r="H884">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="885" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A885" t="s">
-        <v>1954</v>
+        <v>1584</v>
       </c>
       <c r="B885" t="s">
-        <v>1973</v>
-      </c>
-      <c r="C885">
-        <v>2088</v>
+        <v>1584</v>
       </c>
       <c r="D885">
-        <v>885.09</v>
-      </c>
-    </row>
-    <row r="886" spans="1:8" x14ac:dyDescent="0.25">
+        <v>894</v>
+      </c>
+      <c r="G885" t="s">
+        <v>14</v>
+      </c>
+      <c r="H885">
+        <v>1</v>
+      </c>
+      <c r="I885" s="1">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="886" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A886" t="s">
-        <v>1955</v>
+        <v>1586</v>
       </c>
       <c r="B886" t="s">
-        <v>1973</v>
-      </c>
-      <c r="C886">
-        <v>2088</v>
+        <v>1586</v>
+      </c>
+      <c r="C886" s="2" t="s">
+        <v>1585</v>
       </c>
       <c r="D886">
-        <v>885.11</v>
-      </c>
-    </row>
-    <row r="887" spans="1:8" x14ac:dyDescent="0.25">
+        <v>895</v>
+      </c>
+      <c r="G886" t="s">
+        <v>14</v>
+      </c>
+      <c r="H886">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="887" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A887" t="s">
-        <v>1956</v>
+        <v>1587</v>
       </c>
       <c r="B887" t="s">
-        <v>1974</v>
-      </c>
-      <c r="C887">
-        <v>2460</v>
+        <v>1587</v>
       </c>
       <c r="D887">
-        <v>885.12</v>
-      </c>
-    </row>
-    <row r="888" spans="1:8" x14ac:dyDescent="0.25">
+        <v>896</v>
+      </c>
+      <c r="G887" t="s">
+        <v>14</v>
+      </c>
+      <c r="H887">
+        <v>1</v>
+      </c>
+      <c r="I887" s="1" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="888" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A888" t="s">
-        <v>1957</v>
+        <v>1589</v>
       </c>
       <c r="B888" t="s">
-        <v>1975</v>
-      </c>
-      <c r="C888">
-        <v>2461</v>
+        <v>1589</v>
+      </c>
+      <c r="C888" s="2" t="s">
+        <v>1588</v>
       </c>
       <c r="D888">
-        <v>885.13</v>
-      </c>
-    </row>
-    <row r="889" spans="1:8" x14ac:dyDescent="0.25">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="889" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A889" t="s">
-        <v>1958</v>
+        <v>1591</v>
       </c>
       <c r="B889" t="s">
-        <v>1976</v>
-      </c>
-      <c r="C889">
-        <v>2462</v>
+        <v>1591</v>
+      </c>
+      <c r="C889" s="2" t="s">
+        <v>1590</v>
       </c>
       <c r="D889">
-        <v>885.14</v>
-      </c>
-    </row>
-    <row r="890" spans="1:8" x14ac:dyDescent="0.25">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="890" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A890" t="s">
-        <v>1959</v>
+        <v>1593</v>
       </c>
       <c r="B890" t="s">
-        <v>1977</v>
-      </c>
-      <c r="C890">
-        <v>2463</v>
+        <v>1593</v>
+      </c>
+      <c r="C890" s="2" t="s">
+        <v>1592</v>
       </c>
       <c r="D890">
-        <v>885.15</v>
-      </c>
-    </row>
-    <row r="891" spans="1:8" x14ac:dyDescent="0.25">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="891" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A891" t="s">
-        <v>1960</v>
+        <v>1595</v>
       </c>
       <c r="B891" t="s">
-        <v>1978</v>
-      </c>
-      <c r="C891">
-        <v>2464</v>
+        <v>1595</v>
+      </c>
+      <c r="C891" s="2" t="s">
+        <v>1594</v>
       </c>
       <c r="D891">
-        <v>885.16</v>
-      </c>
-    </row>
-    <row r="892" spans="1:8" x14ac:dyDescent="0.25">
+        <v>900</v>
+      </c>
+      <c r="G891" t="s">
+        <v>14</v>
+      </c>
+      <c r="H891">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="892" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A892" t="s">
-        <v>1961</v>
+        <v>1598</v>
       </c>
       <c r="B892" t="s">
-        <v>1979</v>
-      </c>
-      <c r="C892">
-        <v>2465</v>
+        <v>1598</v>
+      </c>
+      <c r="C892" s="2" t="s">
+        <v>1597</v>
       </c>
       <c r="D892">
-        <v>885.17</v>
-      </c>
-    </row>
-    <row r="893" spans="1:8" x14ac:dyDescent="0.25">
+        <v>901</v>
+      </c>
+      <c r="G892" t="s">
+        <v>14</v>
+      </c>
+      <c r="H892">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="893" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A893" t="s">
-        <v>1962</v>
+        <v>1601</v>
       </c>
       <c r="B893" t="s">
-        <v>1980</v>
-      </c>
-      <c r="C893">
-        <v>2466</v>
+        <v>1601</v>
+      </c>
+      <c r="C893" s="2" t="s">
+        <v>1600</v>
       </c>
       <c r="D893">
-        <v>885.18</v>
-      </c>
-    </row>
-    <row r="894" spans="1:8" x14ac:dyDescent="0.25">
+        <v>902</v>
+      </c>
+      <c r="G893" t="s">
+        <v>14</v>
+      </c>
+      <c r="H893">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="894" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A894" t="s">
-        <v>1963</v>
+        <v>1604</v>
       </c>
       <c r="B894" t="s">
-        <v>1981</v>
-      </c>
-      <c r="C894">
-        <v>2467</v>
+        <v>1604</v>
+      </c>
+      <c r="C894" s="2" t="s">
+        <v>1603</v>
       </c>
       <c r="D894">
-        <v>885.19</v>
-      </c>
-    </row>
-    <row r="895" spans="1:8" x14ac:dyDescent="0.25">
+        <v>903</v>
+      </c>
+      <c r="G894" t="s">
+        <v>14</v>
+      </c>
+      <c r="H894">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="895" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A895" t="s">
-        <v>1964</v>
+        <v>1607</v>
       </c>
       <c r="B895" t="s">
-        <v>1982</v>
-      </c>
-      <c r="C895">
-        <v>2468</v>
+        <v>1607</v>
+      </c>
+      <c r="C895" s="2" t="s">
+        <v>1606</v>
       </c>
       <c r="D895">
-        <v>885.21</v>
-      </c>
-    </row>
-    <row r="896" spans="1:8" x14ac:dyDescent="0.25">
+        <v>904</v>
+      </c>
+      <c r="G895" t="s">
+        <v>14</v>
+      </c>
+      <c r="H895">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="896" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A896" t="s">
-        <v>1616</v>
+        <v>1610</v>
       </c>
       <c r="B896" t="s">
-        <v>1616</v>
+        <v>1610</v>
       </c>
       <c r="C896" s="2" t="s">
-        <v>1615</v>
+        <v>1609</v>
       </c>
       <c r="D896">
-        <v>885</v>
+        <v>905</v>
       </c>
       <c r="G896" t="s">
         <v>14</v>
@@ -20340,1070 +20329,1067 @@
     </row>
     <row r="897" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A897" t="s">
-        <v>1617</v>
+        <v>1613</v>
       </c>
       <c r="B897" t="s">
-        <v>1617</v>
+        <v>1613</v>
+      </c>
+      <c r="C897" s="2" t="s">
+        <v>1612</v>
       </c>
       <c r="D897">
-        <v>886</v>
+        <v>906</v>
       </c>
       <c r="G897" t="s">
         <v>14</v>
       </c>
       <c r="H897">
-        <v>1</v>
-      </c>
-      <c r="I897" s="1" t="s">
-        <v>1615</v>
+        <v>0</v>
       </c>
     </row>
     <row r="898" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A898" t="s">
-        <v>1619</v>
+        <v>1596</v>
       </c>
       <c r="B898" t="s">
-        <v>1619</v>
-      </c>
-      <c r="C898" s="2" t="s">
-        <v>1618</v>
+        <v>1596</v>
       </c>
       <c r="D898">
-        <v>887</v>
+        <v>907</v>
+      </c>
+      <c r="G898" t="s">
+        <v>14</v>
+      </c>
+      <c r="H898">
+        <v>1</v>
+      </c>
+      <c r="I898" s="1">
+        <v>2070</v>
       </c>
     </row>
     <row r="899" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A899" t="s">
-        <v>1621</v>
+        <v>1599</v>
       </c>
       <c r="B899" t="s">
-        <v>1621</v>
-      </c>
-      <c r="C899" s="2" t="s">
-        <v>1620</v>
+        <v>1599</v>
       </c>
       <c r="D899">
-        <v>888</v>
+        <v>908</v>
+      </c>
+      <c r="G899" t="s">
+        <v>14</v>
+      </c>
+      <c r="H899">
+        <v>1</v>
+      </c>
+      <c r="I899" s="1">
+        <v>2074</v>
       </c>
     </row>
     <row r="900" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A900" t="s">
-        <v>1623</v>
+        <v>1602</v>
       </c>
       <c r="B900" t="s">
-        <v>1623</v>
-      </c>
-      <c r="C900" s="2" t="s">
-        <v>1622</v>
+        <v>1602</v>
       </c>
       <c r="D900">
-        <v>889</v>
+        <v>909</v>
+      </c>
+      <c r="G900" t="s">
+        <v>14</v>
+      </c>
+      <c r="H900">
+        <v>1</v>
+      </c>
+      <c r="I900" s="1">
+        <v>2075</v>
       </c>
     </row>
     <row r="901" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A901" t="s">
-        <v>1625</v>
+        <v>1605</v>
       </c>
       <c r="B901" t="s">
-        <v>1625</v>
-      </c>
-      <c r="C901" s="2" t="s">
-        <v>1624</v>
+        <v>1605</v>
       </c>
       <c r="D901">
-        <v>890</v>
+        <v>910</v>
+      </c>
+      <c r="G901" t="s">
+        <v>14</v>
+      </c>
+      <c r="H901">
+        <v>1</v>
+      </c>
+      <c r="I901" s="1">
+        <v>2076</v>
       </c>
     </row>
     <row r="902" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A902" t="s">
-        <v>1627</v>
+        <v>1608</v>
       </c>
       <c r="B902" t="s">
-        <v>1627</v>
-      </c>
-      <c r="C902" s="2" t="s">
-        <v>1626</v>
+        <v>1608</v>
       </c>
       <c r="D902">
-        <v>891</v>
+        <v>911</v>
+      </c>
+      <c r="G902" t="s">
+        <v>14</v>
+      </c>
+      <c r="H902">
+        <v>1</v>
+      </c>
+      <c r="I902" s="1">
+        <v>2077</v>
       </c>
     </row>
     <row r="903" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A903" t="s">
-        <v>1629</v>
+        <v>1611</v>
       </c>
       <c r="B903" t="s">
-        <v>1629</v>
-      </c>
-      <c r="C903" s="2" t="s">
-        <v>1628</v>
+        <v>1611</v>
       </c>
       <c r="D903">
-        <v>892</v>
+        <v>912</v>
+      </c>
+      <c r="G903" t="s">
+        <v>14</v>
+      </c>
+      <c r="H903">
+        <v>1</v>
+      </c>
+      <c r="I903" s="1">
+        <v>2078</v>
       </c>
     </row>
     <row r="904" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A904" t="s">
-        <v>1631</v>
+        <v>1614</v>
       </c>
       <c r="B904" t="s">
-        <v>1631</v>
-      </c>
-      <c r="C904" s="2" t="s">
-        <v>1630</v>
+        <v>1614</v>
       </c>
       <c r="D904">
-        <v>893</v>
+        <v>913</v>
+      </c>
+      <c r="G904" t="s">
+        <v>14</v>
+      </c>
+      <c r="H904">
+        <v>1</v>
+      </c>
+      <c r="I904" s="1">
+        <v>2079</v>
       </c>
     </row>
     <row r="905" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A905" t="s">
-        <v>1633</v>
+        <v>1946</v>
       </c>
       <c r="B905" t="s">
-        <v>1633</v>
-      </c>
-      <c r="C905" s="2" t="s">
-        <v>1632</v>
+        <v>1965</v>
+      </c>
+      <c r="C905">
+        <v>2080</v>
       </c>
       <c r="D905">
-        <v>894</v>
+        <v>914</v>
       </c>
     </row>
     <row r="906" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A906" t="s">
-        <v>1635</v>
+        <v>1947</v>
       </c>
       <c r="B906" t="s">
-        <v>1635</v>
-      </c>
-      <c r="C906" s="2" t="s">
-        <v>1634</v>
+        <v>1966</v>
+      </c>
+      <c r="C906">
+        <v>2081</v>
       </c>
       <c r="D906">
-        <v>895</v>
+        <v>915</v>
       </c>
     </row>
     <row r="907" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A907" t="s">
-        <v>1637</v>
+        <v>1948</v>
       </c>
       <c r="B907" t="s">
-        <v>1637</v>
-      </c>
-      <c r="C907" s="2" t="s">
-        <v>1636</v>
+        <v>1967</v>
+      </c>
+      <c r="C907">
+        <v>2082</v>
       </c>
       <c r="D907">
-        <v>896</v>
+        <v>916</v>
       </c>
     </row>
     <row r="908" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A908" t="s">
-        <v>1639</v>
+        <v>1949</v>
       </c>
       <c r="B908" t="s">
-        <v>1639</v>
-      </c>
-      <c r="C908" s="2" t="s">
-        <v>1638</v>
+        <v>1968</v>
+      </c>
+      <c r="C908">
+        <v>2083</v>
       </c>
       <c r="D908">
-        <v>897</v>
+        <v>917</v>
       </c>
     </row>
     <row r="909" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A909" t="s">
-        <v>1641</v>
+        <v>1950</v>
       </c>
       <c r="B909" t="s">
-        <v>1641</v>
-      </c>
-      <c r="C909" s="2" t="s">
-        <v>1640</v>
+        <v>1969</v>
+      </c>
+      <c r="C909">
+        <v>2084</v>
       </c>
       <c r="D909">
-        <v>898</v>
+        <v>918</v>
       </c>
     </row>
     <row r="910" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A910" t="s">
-        <v>1643</v>
+        <v>1951</v>
       </c>
       <c r="B910" t="s">
-        <v>1643</v>
-      </c>
-      <c r="C910" s="2" t="s">
-        <v>1642</v>
+        <v>1970</v>
+      </c>
+      <c r="C910">
+        <v>2085</v>
       </c>
       <c r="D910">
-        <v>899</v>
+        <v>919</v>
       </c>
     </row>
     <row r="911" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A911" t="s">
-        <v>1647</v>
+        <v>1952</v>
       </c>
       <c r="B911" t="s">
-        <v>1647</v>
-      </c>
-      <c r="C911" s="2" t="s">
-        <v>1646</v>
+        <v>1971</v>
+      </c>
+      <c r="C911">
+        <v>2086</v>
       </c>
       <c r="D911">
-        <v>900</v>
+        <v>920</v>
       </c>
     </row>
     <row r="912" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A912" t="s">
+        <v>1953</v>
+      </c>
+      <c r="B912" t="s">
+        <v>1972</v>
+      </c>
+      <c r="C912">
+        <v>2087</v>
+      </c>
+      <c r="D912">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="913" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A913" t="s">
+        <v>1954</v>
+      </c>
+      <c r="B913" t="s">
+        <v>1973</v>
+      </c>
+      <c r="C913">
+        <v>2088</v>
+      </c>
+      <c r="D913">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="914" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A914" t="s">
+        <v>1955</v>
+      </c>
+      <c r="B914" t="s">
+        <v>1973</v>
+      </c>
+      <c r="C914">
+        <v>2088</v>
+      </c>
+      <c r="D914">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="915" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A915" t="s">
+        <v>1956</v>
+      </c>
+      <c r="B915" t="s">
+        <v>1974</v>
+      </c>
+      <c r="C915">
+        <v>2460</v>
+      </c>
+      <c r="D915">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="916" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A916" t="s">
+        <v>1957</v>
+      </c>
+      <c r="B916" t="s">
+        <v>1975</v>
+      </c>
+      <c r="C916">
+        <v>2461</v>
+      </c>
+      <c r="D916">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="917" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A917" t="s">
+        <v>1958</v>
+      </c>
+      <c r="B917" t="s">
+        <v>1976</v>
+      </c>
+      <c r="C917">
+        <v>2462</v>
+      </c>
+      <c r="D917">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="918" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A918" t="s">
+        <v>1959</v>
+      </c>
+      <c r="B918" t="s">
+        <v>1977</v>
+      </c>
+      <c r="C918">
+        <v>2463</v>
+      </c>
+      <c r="D918">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="919" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A919" t="s">
+        <v>1960</v>
+      </c>
+      <c r="B919" t="s">
+        <v>1978</v>
+      </c>
+      <c r="C919">
+        <v>2464</v>
+      </c>
+      <c r="D919">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="920" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A920" t="s">
+        <v>1961</v>
+      </c>
+      <c r="B920" t="s">
+        <v>1979</v>
+      </c>
+      <c r="C920">
+        <v>2465</v>
+      </c>
+      <c r="D920">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="921" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A921" t="s">
+        <v>1962</v>
+      </c>
+      <c r="B921" t="s">
+        <v>1980</v>
+      </c>
+      <c r="C921">
+        <v>2466</v>
+      </c>
+      <c r="D921">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="922" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A922" t="s">
+        <v>1963</v>
+      </c>
+      <c r="B922" t="s">
+        <v>1981</v>
+      </c>
+      <c r="C922">
+        <v>2467</v>
+      </c>
+      <c r="D922">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="923" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A923" t="s">
+        <v>1964</v>
+      </c>
+      <c r="B923" t="s">
+        <v>1982</v>
+      </c>
+      <c r="C923">
+        <v>2468</v>
+      </c>
+      <c r="D923">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="924" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A924" t="s">
+        <v>1616</v>
+      </c>
+      <c r="B924" t="s">
+        <v>1616</v>
+      </c>
+      <c r="C924" s="2" t="s">
+        <v>1615</v>
+      </c>
+      <c r="D924">
+        <v>933</v>
+      </c>
+      <c r="G924" t="s">
+        <v>14</v>
+      </c>
+      <c r="H924">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="925" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A925" t="s">
+        <v>1617</v>
+      </c>
+      <c r="B925" t="s">
+        <v>1617</v>
+      </c>
+      <c r="D925">
+        <v>934</v>
+      </c>
+      <c r="G925" t="s">
+        <v>14</v>
+      </c>
+      <c r="H925">
+        <v>1</v>
+      </c>
+      <c r="I925" s="1" t="s">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="926" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A926" t="s">
+        <v>1619</v>
+      </c>
+      <c r="B926" t="s">
+        <v>1619</v>
+      </c>
+      <c r="C926" s="2" t="s">
+        <v>1618</v>
+      </c>
+      <c r="D926">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="927" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A927" t="s">
+        <v>1621</v>
+      </c>
+      <c r="B927" t="s">
+        <v>1621</v>
+      </c>
+      <c r="C927" s="2" t="s">
+        <v>1620</v>
+      </c>
+      <c r="D927">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="928" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A928" t="s">
+        <v>1623</v>
+      </c>
+      <c r="B928" t="s">
+        <v>1623</v>
+      </c>
+      <c r="C928" s="2" t="s">
+        <v>1622</v>
+      </c>
+      <c r="D928">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="929" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A929" t="s">
+        <v>1625</v>
+      </c>
+      <c r="B929" t="s">
+        <v>1625</v>
+      </c>
+      <c r="C929" s="2" t="s">
+        <v>1624</v>
+      </c>
+      <c r="D929">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="930" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A930" t="s">
+        <v>1627</v>
+      </c>
+      <c r="B930" t="s">
+        <v>1627</v>
+      </c>
+      <c r="C930" s="2" t="s">
+        <v>1626</v>
+      </c>
+      <c r="D930">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="931" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A931" t="s">
+        <v>1629</v>
+      </c>
+      <c r="B931" t="s">
+        <v>1629</v>
+      </c>
+      <c r="C931" s="2" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D931">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="932" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A932" t="s">
+        <v>1631</v>
+      </c>
+      <c r="B932" t="s">
+        <v>1631</v>
+      </c>
+      <c r="C932" s="2" t="s">
+        <v>1630</v>
+      </c>
+      <c r="D932">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="933" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A933" t="s">
+        <v>1633</v>
+      </c>
+      <c r="B933" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C933" s="2" t="s">
+        <v>1632</v>
+      </c>
+      <c r="D933">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="934" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A934" t="s">
+        <v>1635</v>
+      </c>
+      <c r="B934" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C934" s="2" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D934">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="935" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A935" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B935" t="s">
+        <v>1637</v>
+      </c>
+      <c r="C935" s="2" t="s">
+        <v>1636</v>
+      </c>
+      <c r="D935">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="936" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A936" t="s">
+        <v>1639</v>
+      </c>
+      <c r="B936" t="s">
+        <v>1639</v>
+      </c>
+      <c r="C936" s="2" t="s">
+        <v>1638</v>
+      </c>
+      <c r="D936">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="937" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A937" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B937" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C937" s="2" t="s">
+        <v>1640</v>
+      </c>
+      <c r="D937">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="938" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A938" t="s">
+        <v>1643</v>
+      </c>
+      <c r="B938" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C938" s="2" t="s">
+        <v>1642</v>
+      </c>
+      <c r="D938">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="939" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A939" t="s">
+        <v>1647</v>
+      </c>
+      <c r="B939" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C939" s="2" t="s">
+        <v>1646</v>
+      </c>
+      <c r="D939">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="940" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A940" t="s">
         <v>1649</v>
       </c>
-      <c r="B912" t="s">
+      <c r="B940" t="s">
         <v>1649</v>
       </c>
-      <c r="C912" s="2" t="s">
+      <c r="C940" s="2" t="s">
         <v>1648</v>
       </c>
-      <c r="D912">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="913" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A913" t="s">
+      <c r="D940">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="941" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A941" t="s">
         <v>1651</v>
       </c>
-      <c r="B913" t="s">
+      <c r="B941" t="s">
         <v>1651</v>
       </c>
-      <c r="C913" s="2" t="s">
+      <c r="C941" s="2" t="s">
         <v>1650</v>
       </c>
-      <c r="D913">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="914" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A914" t="s">
+      <c r="D941">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="942" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A942" t="s">
         <v>1653</v>
       </c>
-      <c r="B914" t="s">
+      <c r="B942" t="s">
         <v>1653</v>
       </c>
-      <c r="C914" s="2" t="s">
+      <c r="C942" s="2" t="s">
         <v>1652</v>
       </c>
-      <c r="D914">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="915" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A915" t="s">
+      <c r="D942">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="943" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A943" t="s">
         <v>1645</v>
       </c>
-      <c r="B915" t="s">
+      <c r="B943" t="s">
         <v>1645</v>
       </c>
-      <c r="C915" s="2" t="s">
+      <c r="C943" s="2" t="s">
         <v>1644</v>
       </c>
-      <c r="D915">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="916" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A916" t="s">
+      <c r="D943">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="944" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A944" t="s">
         <v>1655</v>
       </c>
-      <c r="B916" t="s">
+      <c r="B944" t="s">
         <v>1655</v>
       </c>
-      <c r="C916" s="2" t="s">
+      <c r="C944" s="2" t="s">
         <v>1654</v>
       </c>
-      <c r="D916">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="917" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A917" t="s">
+      <c r="D944">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="945" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A945" t="s">
         <v>1657</v>
       </c>
-      <c r="B917" t="s">
+      <c r="B945" t="s">
         <v>1657</v>
       </c>
-      <c r="C917" s="2" t="s">
+      <c r="C945" s="2" t="s">
         <v>1656</v>
       </c>
-      <c r="D917">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="918" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A918" t="s">
+      <c r="D945">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="946" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A946" t="s">
         <v>1659</v>
       </c>
-      <c r="B918" t="s">
+      <c r="B946" t="s">
         <v>1659</v>
       </c>
-      <c r="C918" s="2" t="s">
+      <c r="C946" s="2" t="s">
         <v>1658</v>
       </c>
-      <c r="D918">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="919" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A919" t="s">
+      <c r="D946">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="947" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A947" t="s">
         <v>1661</v>
       </c>
-      <c r="B919" t="s">
+      <c r="B947" t="s">
         <v>1661</v>
       </c>
-      <c r="C919" s="2" t="s">
+      <c r="C947" s="2" t="s">
         <v>1660</v>
       </c>
-      <c r="D919">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="920" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A920" t="s">
+      <c r="D947">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="948" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A948" t="s">
         <v>1663</v>
       </c>
-      <c r="B920" t="s">
+      <c r="B948" t="s">
         <v>1663</v>
       </c>
-      <c r="C920" s="2" t="s">
+      <c r="C948" s="2" t="s">
         <v>1662</v>
       </c>
-      <c r="D920">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="921" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A921" t="s">
+      <c r="D948">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="949" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A949" t="s">
         <v>1665</v>
       </c>
-      <c r="B921" t="s">
+      <c r="B949" t="s">
         <v>1665</v>
       </c>
-      <c r="C921" s="2" t="s">
+      <c r="C949" s="2" t="s">
         <v>1664</v>
       </c>
-      <c r="D921">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="922" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A922" t="s">
+      <c r="D949">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="950" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A950" t="s">
         <v>1667</v>
       </c>
-      <c r="B922" t="s">
+      <c r="B950" t="s">
         <v>1667</v>
       </c>
-      <c r="C922" s="2" t="s">
+      <c r="C950" s="2" t="s">
         <v>1666</v>
       </c>
-      <c r="D922">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="923" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A923" t="s">
+      <c r="D950">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="951" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A951" t="s">
         <v>1669</v>
       </c>
-      <c r="B923" t="s">
+      <c r="B951" t="s">
         <v>1669</v>
       </c>
-      <c r="C923" s="2" t="s">
+      <c r="C951" s="2" t="s">
         <v>1668</v>
       </c>
-      <c r="D923">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="924" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A924" t="s">
+      <c r="D951">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="952" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A952" t="s">
         <v>1671</v>
       </c>
-      <c r="B924" t="s">
+      <c r="B952" t="s">
         <v>1671</v>
       </c>
-      <c r="C924" s="2" t="s">
+      <c r="C952" s="2" t="s">
         <v>1670</v>
       </c>
-      <c r="D924">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="925" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A925" t="s">
+      <c r="D952">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="953" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A953" t="s">
         <v>1673</v>
       </c>
-      <c r="B925" t="s">
+      <c r="B953" t="s">
         <v>1673</v>
       </c>
-      <c r="C925" s="2" t="s">
+      <c r="C953" s="2" t="s">
         <v>1672</v>
       </c>
-      <c r="D925">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="926" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A926" t="s">
+      <c r="D953">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="954" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A954" t="s">
         <v>1675</v>
       </c>
-      <c r="B926" t="s">
+      <c r="B954" t="s">
         <v>1675</v>
       </c>
-      <c r="C926" s="2" t="s">
+      <c r="C954" s="2" t="s">
         <v>1674</v>
       </c>
-      <c r="D926">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="927" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A927" t="s">
+      <c r="D954">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="955" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A955" t="s">
         <v>1677</v>
       </c>
-      <c r="B927" t="s">
+      <c r="B955" t="s">
         <v>1677</v>
       </c>
-      <c r="C927" s="2" t="s">
+      <c r="C955" s="2" t="s">
         <v>1676</v>
       </c>
-      <c r="D927">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="928" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A928" t="s">
+      <c r="D955">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="956" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A956" t="s">
         <v>1679</v>
       </c>
-      <c r="B928" t="s">
+      <c r="B956" t="s">
         <v>1679</v>
       </c>
-      <c r="C928" s="2" t="s">
+      <c r="C956" s="2" t="s">
         <v>1678</v>
       </c>
-      <c r="D928">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="929" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A929" t="s">
+      <c r="D956">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="957" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A957" t="s">
         <v>1681</v>
       </c>
-      <c r="B929" t="s">
+      <c r="B957" t="s">
         <v>1681</v>
       </c>
-      <c r="C929" s="2" t="s">
+      <c r="C957" s="2" t="s">
         <v>1680</v>
       </c>
-      <c r="D929">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="930" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A930" t="s">
+      <c r="D957">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="958" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A958" t="s">
         <v>1683</v>
       </c>
-      <c r="B930" t="s">
+      <c r="B958" t="s">
         <v>1683</v>
       </c>
-      <c r="C930" s="2" t="s">
+      <c r="C958" s="2" t="s">
         <v>1682</v>
       </c>
-      <c r="D930">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="931" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A931" t="s">
+      <c r="D958">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="959" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A959" t="s">
         <v>1685</v>
       </c>
-      <c r="B931" t="s">
+      <c r="B959" t="s">
         <v>1685</v>
       </c>
-      <c r="C931" s="2" t="s">
+      <c r="C959" s="2" t="s">
         <v>1684</v>
       </c>
-      <c r="D931">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="932" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A932" t="s">
+      <c r="D959">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="960" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A960" t="s">
         <v>1687</v>
       </c>
-      <c r="B932" t="s">
+      <c r="B960" t="s">
         <v>1687</v>
       </c>
-      <c r="C932" s="2" t="s">
+      <c r="C960" s="2" t="s">
         <v>1686</v>
       </c>
-      <c r="D932">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="933" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A933" t="s">
-        <v>1689</v>
-      </c>
-      <c r="B933" t="s">
-        <v>1689</v>
-      </c>
-      <c r="C933" s="2" t="s">
-        <v>1688</v>
-      </c>
-      <c r="D933">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="934" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A934" t="s">
-        <v>1691</v>
-      </c>
-      <c r="B934" t="s">
-        <v>1691</v>
-      </c>
-      <c r="C934" s="2" t="s">
-        <v>1690</v>
-      </c>
-      <c r="D934">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="935" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A935" t="s">
-        <v>1693</v>
-      </c>
-      <c r="B935" t="s">
-        <v>1693</v>
-      </c>
-      <c r="C935" s="2" t="s">
-        <v>1692</v>
-      </c>
-      <c r="D935">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="936" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A936" t="s">
-        <v>1695</v>
-      </c>
-      <c r="B936" t="s">
-        <v>1695</v>
-      </c>
-      <c r="C936" s="2" t="s">
-        <v>1694</v>
-      </c>
-      <c r="D936">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="937" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A937" t="s">
-        <v>1697</v>
-      </c>
-      <c r="B937" t="s">
-        <v>1697</v>
-      </c>
-      <c r="C937" s="2" t="s">
-        <v>1696</v>
-      </c>
-      <c r="D937">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="938" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A938" t="s">
-        <v>1699</v>
-      </c>
-      <c r="B938" t="s">
-        <v>1699</v>
-      </c>
-      <c r="C938" s="2" t="s">
-        <v>1698</v>
-      </c>
-      <c r="D938">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="939" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A939" t="s">
-        <v>1700</v>
-      </c>
-      <c r="B939" t="s">
-        <v>1700</v>
-      </c>
-      <c r="D939">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="940" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A940" t="s">
-        <v>1154</v>
-      </c>
-      <c r="B940" t="s">
-        <v>1154</v>
-      </c>
-      <c r="C940" s="2" t="s">
-        <v>1153</v>
-      </c>
-      <c r="D940">
-        <v>1000</v>
-      </c>
-      <c r="G940" t="s">
-        <v>1877</v>
-      </c>
-    </row>
-    <row r="941" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A941" t="s">
-        <v>1156</v>
-      </c>
-      <c r="B941" t="s">
-        <v>1156</v>
-      </c>
-      <c r="C941" s="2" t="s">
-        <v>1155</v>
-      </c>
-      <c r="D941">
-        <v>1001</v>
-      </c>
-      <c r="G941" t="s">
-        <v>1877</v>
-      </c>
-    </row>
-    <row r="942" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A942" t="s">
-        <v>1158</v>
-      </c>
-      <c r="B942" t="s">
-        <v>1158</v>
-      </c>
-      <c r="C942" s="2" t="s">
-        <v>1157</v>
-      </c>
-      <c r="D942">
-        <v>1002</v>
-      </c>
-      <c r="G942" t="s">
-        <v>1877</v>
-      </c>
-    </row>
-    <row r="943" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A943" t="s">
-        <v>1160</v>
-      </c>
-      <c r="B943" t="s">
-        <v>1160</v>
-      </c>
-      <c r="C943" s="2" t="s">
-        <v>1159</v>
-      </c>
-      <c r="D943">
-        <v>1003</v>
-      </c>
-      <c r="G943" t="s">
-        <v>1877</v>
-      </c>
-    </row>
-    <row r="944" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A944" t="s">
-        <v>1162</v>
-      </c>
-      <c r="B944" t="s">
-        <v>1162</v>
-      </c>
-      <c r="C944" s="2" t="s">
-        <v>1161</v>
-      </c>
-      <c r="D944">
-        <v>1004</v>
-      </c>
-      <c r="G944" t="s">
-        <v>1877</v>
-      </c>
-    </row>
-    <row r="945" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A945" t="s">
-        <v>1164</v>
-      </c>
-      <c r="B945" t="s">
-        <v>1164</v>
-      </c>
-      <c r="C945" s="2" t="s">
-        <v>1163</v>
-      </c>
-      <c r="D945">
-        <v>1005</v>
-      </c>
-      <c r="G945" t="s">
-        <v>1877</v>
-      </c>
-    </row>
-    <row r="946" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A946" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B946" t="s">
-        <v>1166</v>
-      </c>
-      <c r="C946" s="2" t="s">
-        <v>1165</v>
-      </c>
-      <c r="D946">
-        <v>1006</v>
-      </c>
-      <c r="G946" t="s">
-        <v>1877</v>
-      </c>
-    </row>
-    <row r="947" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A947" t="s">
-        <v>1168</v>
-      </c>
-      <c r="B947" t="s">
-        <v>1168</v>
-      </c>
-      <c r="C947" s="2" t="s">
-        <v>1167</v>
-      </c>
-      <c r="D947">
-        <v>1007</v>
-      </c>
-      <c r="G947" t="s">
-        <v>1877</v>
-      </c>
-    </row>
-    <row r="948" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A948" t="s">
-        <v>1170</v>
-      </c>
-      <c r="B948" t="s">
-        <v>1170</v>
-      </c>
-      <c r="C948" s="2" t="s">
-        <v>1169</v>
-      </c>
-      <c r="D948">
-        <v>1008</v>
-      </c>
-      <c r="G948" t="s">
-        <v>1877</v>
-      </c>
-    </row>
-    <row r="949" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A949" t="s">
-        <v>1172</v>
-      </c>
-      <c r="B949" t="s">
-        <v>1172</v>
-      </c>
-      <c r="C949" s="2" t="s">
-        <v>1171</v>
-      </c>
-      <c r="D949">
-        <v>1009</v>
-      </c>
-      <c r="G949" t="s">
-        <v>1877</v>
-      </c>
-    </row>
-    <row r="950" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A950" t="s">
-        <v>1174</v>
-      </c>
-      <c r="B950" t="s">
-        <v>1174</v>
-      </c>
-      <c r="C950" s="2" t="s">
-        <v>1173</v>
-      </c>
-      <c r="D950">
-        <v>1010</v>
-      </c>
-      <c r="G950" t="s">
-        <v>1877</v>
-      </c>
-    </row>
-    <row r="951" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A951" t="s">
-        <v>1176</v>
-      </c>
-      <c r="B951" t="s">
-        <v>1176</v>
-      </c>
-      <c r="C951" s="2" t="s">
-        <v>1175</v>
-      </c>
-      <c r="D951">
-        <v>1011</v>
-      </c>
-      <c r="G951" t="s">
-        <v>1877</v>
-      </c>
-    </row>
-    <row r="952" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A952" t="s">
-        <v>1178</v>
-      </c>
-      <c r="B952" t="s">
-        <v>1178</v>
-      </c>
-      <c r="C952" s="2" t="s">
-        <v>1177</v>
-      </c>
-      <c r="D952">
-        <v>1012</v>
-      </c>
-      <c r="G952" t="s">
-        <v>1877</v>
-      </c>
-    </row>
-    <row r="953" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A953" t="s">
-        <v>1180</v>
-      </c>
-      <c r="B953" t="s">
-        <v>1180</v>
-      </c>
-      <c r="C953" s="2" t="s">
-        <v>1179</v>
-      </c>
-      <c r="D953">
-        <v>1013</v>
-      </c>
-      <c r="G953" t="s">
-        <v>1877</v>
-      </c>
-    </row>
-    <row r="954" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A954" t="s">
-        <v>1182</v>
-      </c>
-      <c r="B954" t="s">
-        <v>1182</v>
-      </c>
-      <c r="C954" s="2" t="s">
-        <v>1181</v>
-      </c>
-      <c r="D954">
-        <v>1014</v>
-      </c>
-      <c r="G954" t="s">
-        <v>1877</v>
-      </c>
-    </row>
-    <row r="955" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A955" t="s">
-        <v>1184</v>
-      </c>
-      <c r="B955" t="s">
-        <v>1184</v>
-      </c>
-      <c r="C955" s="2" t="s">
-        <v>1183</v>
-      </c>
-      <c r="D955">
-        <v>1015</v>
-      </c>
-      <c r="G955" t="s">
-        <v>1877</v>
-      </c>
-    </row>
-    <row r="956" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A956" t="s">
-        <v>1186</v>
-      </c>
-      <c r="B956" t="s">
-        <v>1186</v>
-      </c>
-      <c r="C956" s="2" t="s">
-        <v>1185</v>
-      </c>
-      <c r="D956">
-        <v>1016</v>
-      </c>
-      <c r="G956" t="s">
-        <v>1877</v>
-      </c>
-    </row>
-    <row r="957" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A957" t="s">
-        <v>1188</v>
-      </c>
-      <c r="B957" t="s">
-        <v>1188</v>
-      </c>
-      <c r="C957" s="2" t="s">
-        <v>1187</v>
-      </c>
-      <c r="D957">
-        <v>1017</v>
-      </c>
-      <c r="G957" t="s">
-        <v>1877</v>
-      </c>
-    </row>
-    <row r="958" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A958" t="s">
-        <v>1190</v>
-      </c>
-      <c r="B958" t="s">
-        <v>1190</v>
-      </c>
-      <c r="C958" s="2" t="s">
-        <v>1189</v>
-      </c>
-      <c r="D958">
-        <v>1018</v>
-      </c>
-      <c r="G958" t="s">
-        <v>1877</v>
-      </c>
-    </row>
-    <row r="959" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A959" t="s">
-        <v>1192</v>
-      </c>
-      <c r="B959" t="s">
-        <v>1192</v>
-      </c>
-      <c r="C959" s="2" t="s">
-        <v>1191</v>
-      </c>
-      <c r="D959">
-        <v>1019</v>
-      </c>
-      <c r="G959" t="s">
-        <v>1877</v>
-      </c>
-    </row>
-    <row r="960" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A960" t="s">
-        <v>1878</v>
-      </c>
-      <c r="B960" t="s">
-        <v>1878</v>
-      </c>
       <c r="D960">
-        <v>1040</v>
-      </c>
-      <c r="G960" t="s">
-        <v>1877</v>
+        <v>969</v>
       </c>
     </row>
     <row r="961" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A961" t="s">
-        <v>1879</v>
+        <v>1689</v>
       </c>
       <c r="B961" t="s">
-        <v>1879</v>
+        <v>1689</v>
+      </c>
+      <c r="C961" s="2" t="s">
+        <v>1688</v>
       </c>
       <c r="D961">
-        <v>1041</v>
-      </c>
-      <c r="G961" t="s">
-        <v>1877</v>
+        <v>970</v>
       </c>
     </row>
     <row r="962" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A962" t="s">
-        <v>1880</v>
+        <v>1691</v>
       </c>
       <c r="B962" t="s">
-        <v>1880</v>
+        <v>1691</v>
+      </c>
+      <c r="C962" s="2" t="s">
+        <v>1690</v>
       </c>
       <c r="D962">
-        <v>1042</v>
-      </c>
-      <c r="G962" t="s">
-        <v>1877</v>
+        <v>971</v>
       </c>
     </row>
     <row r="963" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A963" t="s">
-        <v>1881</v>
+        <v>1693</v>
       </c>
       <c r="B963" t="s">
-        <v>1881</v>
+        <v>1693</v>
+      </c>
+      <c r="C963" s="2" t="s">
+        <v>1692</v>
       </c>
       <c r="D963">
-        <v>1043</v>
-      </c>
-      <c r="G963" t="s">
-        <v>1877</v>
+        <v>972</v>
       </c>
     </row>
     <row r="964" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A964" t="s">
-        <v>1882</v>
+        <v>1695</v>
       </c>
       <c r="B964" t="s">
-        <v>1882</v>
+        <v>1695</v>
+      </c>
+      <c r="C964" s="2" t="s">
+        <v>1694</v>
       </c>
       <c r="D964">
-        <v>1044</v>
-      </c>
-      <c r="G964" t="s">
-        <v>1877</v>
+        <v>973</v>
       </c>
     </row>
     <row r="965" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A965" t="s">
-        <v>1883</v>
+        <v>1697</v>
       </c>
       <c r="B965" t="s">
-        <v>1883</v>
+        <v>1697</v>
+      </c>
+      <c r="C965" s="2" t="s">
+        <v>1696</v>
       </c>
       <c r="D965">
-        <v>1045</v>
-      </c>
-      <c r="G965" t="s">
-        <v>1877</v>
+        <v>974</v>
       </c>
     </row>
     <row r="966" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A966" t="s">
-        <v>1884</v>
+        <v>1699</v>
       </c>
       <c r="B966" t="s">
-        <v>1884</v>
+        <v>1699</v>
+      </c>
+      <c r="C966" s="2" t="s">
+        <v>1698</v>
       </c>
       <c r="D966">
-        <v>1046</v>
-      </c>
-      <c r="G966" t="s">
-        <v>1877</v>
+        <v>975</v>
       </c>
     </row>
     <row r="967" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A967" t="s">
-        <v>1885</v>
+        <v>1700</v>
       </c>
       <c r="B967" t="s">
-        <v>1885</v>
+        <v>1700</v>
       </c>
       <c r="D967">
-        <v>1047</v>
-      </c>
-      <c r="G967" t="s">
-        <v>1877</v>
+        <v>976</v>
       </c>
     </row>
     <row r="968" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A968" t="s">
-        <v>1886</v>
+        <v>1154</v>
       </c>
       <c r="B968" t="s">
-        <v>1886</v>
+        <v>1154</v>
+      </c>
+      <c r="C968" s="2" t="s">
+        <v>1153</v>
       </c>
       <c r="D968">
-        <v>1048</v>
+        <v>977</v>
       </c>
       <c r="G968" t="s">
         <v>1877</v>
@@ -21411,13 +21397,16 @@
     </row>
     <row r="969" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A969" t="s">
-        <v>1887</v>
+        <v>1156</v>
       </c>
       <c r="B969" t="s">
-        <v>1887</v>
+        <v>1156</v>
+      </c>
+      <c r="C969" s="2" t="s">
+        <v>1155</v>
       </c>
       <c r="D969">
-        <v>1049</v>
+        <v>978</v>
       </c>
       <c r="G969" t="s">
         <v>1877</v>
@@ -21425,13 +21414,16 @@
     </row>
     <row r="970" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A970" t="s">
-        <v>1888</v>
+        <v>1158</v>
       </c>
       <c r="B970" t="s">
-        <v>1888</v>
+        <v>1158</v>
+      </c>
+      <c r="C970" s="2" t="s">
+        <v>1157</v>
       </c>
       <c r="D970">
-        <v>1050</v>
+        <v>979</v>
       </c>
       <c r="G970" t="s">
         <v>1877</v>
@@ -21439,13 +21431,16 @@
     </row>
     <row r="971" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A971" t="s">
-        <v>1889</v>
+        <v>1160</v>
       </c>
       <c r="B971" t="s">
-        <v>1889</v>
+        <v>1160</v>
+      </c>
+      <c r="C971" s="2" t="s">
+        <v>1159</v>
       </c>
       <c r="D971">
-        <v>1051</v>
+        <v>980</v>
       </c>
       <c r="G971" t="s">
         <v>1877</v>
@@ -21453,13 +21448,16 @@
     </row>
     <row r="972" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A972" t="s">
-        <v>1890</v>
+        <v>1162</v>
       </c>
       <c r="B972" t="s">
-        <v>1890</v>
+        <v>1162</v>
+      </c>
+      <c r="C972" s="2" t="s">
+        <v>1161</v>
       </c>
       <c r="D972">
-        <v>1052</v>
+        <v>981</v>
       </c>
       <c r="G972" t="s">
         <v>1877</v>
@@ -21467,13 +21465,16 @@
     </row>
     <row r="973" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A973" t="s">
-        <v>1891</v>
+        <v>1164</v>
       </c>
       <c r="B973" t="s">
-        <v>1891</v>
+        <v>1164</v>
+      </c>
+      <c r="C973" s="2" t="s">
+        <v>1163</v>
       </c>
       <c r="D973">
-        <v>1053</v>
+        <v>982</v>
       </c>
       <c r="G973" t="s">
         <v>1877</v>
@@ -21481,13 +21482,16 @@
     </row>
     <row r="974" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A974" t="s">
-        <v>1892</v>
+        <v>1166</v>
       </c>
       <c r="B974" t="s">
-        <v>1892</v>
+        <v>1166</v>
+      </c>
+      <c r="C974" s="2" t="s">
+        <v>1165</v>
       </c>
       <c r="D974">
-        <v>1054</v>
+        <v>983</v>
       </c>
       <c r="G974" t="s">
         <v>1877</v>
@@ -21495,13 +21499,16 @@
     </row>
     <row r="975" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A975" t="s">
-        <v>1893</v>
+        <v>1168</v>
       </c>
       <c r="B975" t="s">
-        <v>1893</v>
+        <v>1168</v>
+      </c>
+      <c r="C975" s="2" t="s">
+        <v>1167</v>
       </c>
       <c r="D975">
-        <v>1055</v>
+        <v>984</v>
       </c>
       <c r="G975" t="s">
         <v>1877</v>
@@ -21509,13 +21516,16 @@
     </row>
     <row r="976" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A976" t="s">
-        <v>1894</v>
+        <v>1170</v>
       </c>
       <c r="B976" t="s">
-        <v>1894</v>
+        <v>1170</v>
+      </c>
+      <c r="C976" s="2" t="s">
+        <v>1169</v>
       </c>
       <c r="D976">
-        <v>1056</v>
+        <v>985</v>
       </c>
       <c r="G976" t="s">
         <v>1877</v>
@@ -21523,13 +21533,16 @@
     </row>
     <row r="977" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A977" t="s">
-        <v>1895</v>
+        <v>1172</v>
       </c>
       <c r="B977" t="s">
-        <v>1895</v>
+        <v>1172</v>
+      </c>
+      <c r="C977" s="2" t="s">
+        <v>1171</v>
       </c>
       <c r="D977">
-        <v>1057</v>
+        <v>986</v>
       </c>
       <c r="G977" t="s">
         <v>1877</v>
@@ -21537,13 +21550,16 @@
     </row>
     <row r="978" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A978" t="s">
-        <v>1896</v>
+        <v>1174</v>
       </c>
       <c r="B978" t="s">
-        <v>1896</v>
+        <v>1174</v>
+      </c>
+      <c r="C978" s="2" t="s">
+        <v>1173</v>
       </c>
       <c r="D978">
-        <v>1058</v>
+        <v>987</v>
       </c>
       <c r="G978" t="s">
         <v>1877</v>
@@ -21551,13 +21567,16 @@
     </row>
     <row r="979" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A979" t="s">
-        <v>1897</v>
+        <v>1176</v>
       </c>
       <c r="B979" t="s">
-        <v>1897</v>
+        <v>1176</v>
+      </c>
+      <c r="C979" s="2" t="s">
+        <v>1175</v>
       </c>
       <c r="D979">
-        <v>1059</v>
+        <v>988</v>
       </c>
       <c r="G979" t="s">
         <v>1877</v>
@@ -21565,13 +21584,16 @@
     </row>
     <row r="980" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A980" t="s">
-        <v>1898</v>
+        <v>1178</v>
       </c>
       <c r="B980" t="s">
-        <v>1898</v>
+        <v>1178</v>
+      </c>
+      <c r="C980" s="2" t="s">
+        <v>1177</v>
       </c>
       <c r="D980">
-        <v>1060</v>
+        <v>989</v>
       </c>
       <c r="G980" t="s">
         <v>1877</v>
@@ -21579,13 +21601,16 @@
     </row>
     <row r="981" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A981" t="s">
-        <v>1899</v>
+        <v>1180</v>
       </c>
       <c r="B981" t="s">
-        <v>1899</v>
+        <v>1180</v>
+      </c>
+      <c r="C981" s="2" t="s">
+        <v>1179</v>
       </c>
       <c r="D981">
-        <v>1061</v>
+        <v>990</v>
       </c>
       <c r="G981" t="s">
         <v>1877</v>
@@ -21593,13 +21618,16 @@
     </row>
     <row r="982" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A982" t="s">
-        <v>1900</v>
+        <v>1182</v>
       </c>
       <c r="B982" t="s">
-        <v>1900</v>
+        <v>1182</v>
+      </c>
+      <c r="C982" s="2" t="s">
+        <v>1181</v>
       </c>
       <c r="D982">
-        <v>1062</v>
+        <v>991</v>
       </c>
       <c r="G982" t="s">
         <v>1877</v>
@@ -21607,13 +21635,16 @@
     </row>
     <row r="983" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A983" t="s">
-        <v>1901</v>
+        <v>1184</v>
       </c>
       <c r="B983" t="s">
-        <v>1901</v>
+        <v>1184</v>
+      </c>
+      <c r="C983" s="2" t="s">
+        <v>1183</v>
       </c>
       <c r="D983">
-        <v>1063</v>
+        <v>992</v>
       </c>
       <c r="G983" t="s">
         <v>1877</v>
@@ -21621,13 +21652,16 @@
     </row>
     <row r="984" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A984" t="s">
-        <v>1902</v>
+        <v>1186</v>
       </c>
       <c r="B984" t="s">
-        <v>1902</v>
+        <v>1186</v>
+      </c>
+      <c r="C984" s="2" t="s">
+        <v>1185</v>
       </c>
       <c r="D984">
-        <v>1064</v>
+        <v>993</v>
       </c>
       <c r="G984" t="s">
         <v>1877</v>
@@ -21635,13 +21669,16 @@
     </row>
     <row r="985" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A985" t="s">
-        <v>1903</v>
+        <v>1188</v>
       </c>
       <c r="B985" t="s">
-        <v>1903</v>
+        <v>1188</v>
+      </c>
+      <c r="C985" s="2" t="s">
+        <v>1187</v>
       </c>
       <c r="D985">
-        <v>1065</v>
+        <v>994</v>
       </c>
       <c r="G985" t="s">
         <v>1877</v>
@@ -21649,13 +21686,16 @@
     </row>
     <row r="986" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A986" t="s">
-        <v>1904</v>
+        <v>1190</v>
       </c>
       <c r="B986" t="s">
-        <v>1904</v>
+        <v>1190</v>
+      </c>
+      <c r="C986" s="2" t="s">
+        <v>1189</v>
       </c>
       <c r="D986">
-        <v>1066</v>
+        <v>995</v>
       </c>
       <c r="G986" t="s">
         <v>1877</v>
@@ -21663,13 +21703,16 @@
     </row>
     <row r="987" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A987" t="s">
-        <v>1905</v>
+        <v>1192</v>
       </c>
       <c r="B987" t="s">
-        <v>1905</v>
+        <v>1192</v>
+      </c>
+      <c r="C987" s="2" t="s">
+        <v>1191</v>
       </c>
       <c r="D987">
-        <v>1067</v>
+        <v>996</v>
       </c>
       <c r="G987" t="s">
         <v>1877</v>
@@ -21677,13 +21720,13 @@
     </row>
     <row r="988" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A988" t="s">
-        <v>1906</v>
+        <v>1878</v>
       </c>
       <c r="B988" t="s">
-        <v>1906</v>
+        <v>1878</v>
       </c>
       <c r="D988">
-        <v>1068</v>
+        <v>997</v>
       </c>
       <c r="G988" t="s">
         <v>1877</v>
@@ -21691,13 +21734,13 @@
     </row>
     <row r="989" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A989" t="s">
-        <v>1907</v>
+        <v>1879</v>
       </c>
       <c r="B989" t="s">
-        <v>1907</v>
+        <v>1879</v>
       </c>
       <c r="D989">
-        <v>1069</v>
+        <v>998</v>
       </c>
       <c r="G989" t="s">
         <v>1877</v>
@@ -21705,13 +21748,13 @@
     </row>
     <row r="990" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A990" t="s">
-        <v>1908</v>
+        <v>1880</v>
       </c>
       <c r="B990" t="s">
-        <v>1908</v>
+        <v>1880</v>
       </c>
       <c r="D990">
-        <v>1070</v>
+        <v>999</v>
       </c>
       <c r="G990" t="s">
         <v>1877</v>
@@ -21719,13 +21762,13 @@
     </row>
     <row r="991" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A991" t="s">
-        <v>1909</v>
+        <v>1881</v>
       </c>
       <c r="B991" t="s">
-        <v>1909</v>
+        <v>1881</v>
       </c>
       <c r="D991">
-        <v>1071</v>
+        <v>1000</v>
       </c>
       <c r="G991" t="s">
         <v>1877</v>
@@ -21733,13 +21776,13 @@
     </row>
     <row r="992" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A992" t="s">
-        <v>1910</v>
+        <v>1882</v>
       </c>
       <c r="B992" t="s">
-        <v>1910</v>
+        <v>1882</v>
       </c>
       <c r="D992">
-        <v>1072</v>
+        <v>1001</v>
       </c>
       <c r="G992" t="s">
         <v>1877</v>
@@ -21747,13 +21790,13 @@
     </row>
     <row r="993" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A993" t="s">
-        <v>1911</v>
+        <v>1883</v>
       </c>
       <c r="B993" t="s">
-        <v>1911</v>
+        <v>1883</v>
       </c>
       <c r="D993">
-        <v>1073</v>
+        <v>1002</v>
       </c>
       <c r="G993" t="s">
         <v>1877</v>
@@ -21761,13 +21804,13 @@
     </row>
     <row r="994" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A994" t="s">
-        <v>1912</v>
+        <v>1884</v>
       </c>
       <c r="B994" t="s">
-        <v>1912</v>
+        <v>1884</v>
       </c>
       <c r="D994">
-        <v>1074</v>
+        <v>1003</v>
       </c>
       <c r="G994" t="s">
         <v>1877</v>
@@ -21775,13 +21818,13 @@
     </row>
     <row r="995" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A995" t="s">
-        <v>1913</v>
+        <v>1885</v>
       </c>
       <c r="B995" t="s">
-        <v>1913</v>
+        <v>1885</v>
       </c>
       <c r="D995">
-        <v>1075</v>
+        <v>1004</v>
       </c>
       <c r="G995" t="s">
         <v>1877</v>
@@ -21789,13 +21832,13 @@
     </row>
     <row r="996" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A996" t="s">
-        <v>1914</v>
+        <v>1886</v>
       </c>
       <c r="B996" t="s">
-        <v>1914</v>
+        <v>1886</v>
       </c>
       <c r="D996">
-        <v>1076</v>
+        <v>1005</v>
       </c>
       <c r="G996" t="s">
         <v>1877</v>
@@ -21803,13 +21846,13 @@
     </row>
     <row r="997" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A997" t="s">
-        <v>1915</v>
+        <v>1887</v>
       </c>
       <c r="B997" t="s">
-        <v>1915</v>
+        <v>1887</v>
       </c>
       <c r="D997">
-        <v>1077</v>
+        <v>1006</v>
       </c>
       <c r="G997" t="s">
         <v>1877</v>
@@ -21817,13 +21860,13 @@
     </row>
     <row r="998" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A998" t="s">
-        <v>1916</v>
+        <v>1888</v>
       </c>
       <c r="B998" t="s">
-        <v>1916</v>
+        <v>1888</v>
       </c>
       <c r="D998">
-        <v>1078</v>
+        <v>1007</v>
       </c>
       <c r="G998" t="s">
         <v>1877</v>
@@ -21831,13 +21874,13 @@
     </row>
     <row r="999" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A999" t="s">
-        <v>1917</v>
+        <v>1889</v>
       </c>
       <c r="B999" t="s">
-        <v>1917</v>
+        <v>1889</v>
       </c>
       <c r="D999">
-        <v>1079</v>
+        <v>1008</v>
       </c>
       <c r="G999" t="s">
         <v>1877</v>
@@ -21845,13 +21888,13 @@
     </row>
     <row r="1000" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1000" t="s">
-        <v>1918</v>
+        <v>1890</v>
       </c>
       <c r="B1000" t="s">
-        <v>1918</v>
+        <v>1890</v>
       </c>
       <c r="D1000">
-        <v>1080</v>
+        <v>1009</v>
       </c>
       <c r="G1000" t="s">
         <v>1877</v>
@@ -21859,13 +21902,13 @@
     </row>
     <row r="1001" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1001" t="s">
-        <v>1919</v>
+        <v>1891</v>
       </c>
       <c r="B1001" t="s">
-        <v>1919</v>
+        <v>1891</v>
       </c>
       <c r="D1001">
-        <v>1081</v>
+        <v>1010</v>
       </c>
       <c r="G1001" t="s">
         <v>1877</v>
@@ -21873,13 +21916,13 @@
     </row>
     <row r="1002" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1002" t="s">
-        <v>1920</v>
+        <v>1892</v>
       </c>
       <c r="B1002" t="s">
-        <v>1920</v>
+        <v>1892</v>
       </c>
       <c r="D1002">
-        <v>1082</v>
+        <v>1011</v>
       </c>
       <c r="G1002" t="s">
         <v>1877</v>
@@ -21887,13 +21930,13 @@
     </row>
     <row r="1003" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1003" t="s">
-        <v>1921</v>
+        <v>1893</v>
       </c>
       <c r="B1003" t="s">
-        <v>1921</v>
+        <v>1893</v>
       </c>
       <c r="D1003">
-        <v>1083</v>
+        <v>1012</v>
       </c>
       <c r="G1003" t="s">
         <v>1877</v>
@@ -21901,13 +21944,13 @@
     </row>
     <row r="1004" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1004" t="s">
-        <v>1922</v>
+        <v>1894</v>
       </c>
       <c r="B1004" t="s">
-        <v>1922</v>
+        <v>1894</v>
       </c>
       <c r="D1004">
-        <v>1084</v>
+        <v>1013</v>
       </c>
       <c r="G1004" t="s">
         <v>1877</v>
@@ -21915,13 +21958,13 @@
     </row>
     <row r="1005" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1005" t="s">
-        <v>1923</v>
+        <v>1895</v>
       </c>
       <c r="B1005" t="s">
-        <v>1923</v>
+        <v>1895</v>
       </c>
       <c r="D1005">
-        <v>1085</v>
+        <v>1014</v>
       </c>
       <c r="G1005" t="s">
         <v>1877</v>
@@ -21929,13 +21972,13 @@
     </row>
     <row r="1006" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1006" t="s">
-        <v>1924</v>
+        <v>1896</v>
       </c>
       <c r="B1006" t="s">
-        <v>1924</v>
+        <v>1896</v>
       </c>
       <c r="D1006">
-        <v>1086</v>
+        <v>1015</v>
       </c>
       <c r="G1006" t="s">
         <v>1877</v>
@@ -21943,13 +21986,13 @@
     </row>
     <row r="1007" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1007" t="s">
-        <v>1925</v>
+        <v>1897</v>
       </c>
       <c r="B1007" t="s">
-        <v>1925</v>
+        <v>1897</v>
       </c>
       <c r="D1007">
-        <v>1087</v>
+        <v>1016</v>
       </c>
       <c r="G1007" t="s">
         <v>1877</v>
@@ -21957,13 +22000,13 @@
     </row>
     <row r="1008" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1008" t="s">
-        <v>1926</v>
+        <v>1898</v>
       </c>
       <c r="B1008" t="s">
-        <v>1926</v>
+        <v>1898</v>
       </c>
       <c r="D1008">
-        <v>1088</v>
+        <v>1017</v>
       </c>
       <c r="G1008" t="s">
         <v>1877</v>
@@ -21971,13 +22014,13 @@
     </row>
     <row r="1009" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1009" t="s">
-        <v>1927</v>
+        <v>1899</v>
       </c>
       <c r="B1009" t="s">
-        <v>1927</v>
+        <v>1899</v>
       </c>
       <c r="D1009">
-        <v>1089</v>
+        <v>1018</v>
       </c>
       <c r="G1009" t="s">
         <v>1877</v>
@@ -21985,13 +22028,13 @@
     </row>
     <row r="1010" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1010" t="s">
-        <v>1928</v>
+        <v>1900</v>
       </c>
       <c r="B1010" t="s">
-        <v>1928</v>
+        <v>1900</v>
       </c>
       <c r="D1010">
-        <v>1090</v>
+        <v>1019</v>
       </c>
       <c r="G1010" t="s">
         <v>1877</v>
@@ -21999,13 +22042,13 @@
     </row>
     <row r="1011" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1011" t="s">
-        <v>1929</v>
+        <v>1901</v>
       </c>
       <c r="B1011" t="s">
-        <v>1929</v>
+        <v>1901</v>
       </c>
       <c r="D1011">
-        <v>1091</v>
+        <v>1020</v>
       </c>
       <c r="G1011" t="s">
         <v>1877</v>
@@ -22013,13 +22056,13 @@
     </row>
     <row r="1012" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1012" t="s">
-        <v>1930</v>
+        <v>1902</v>
       </c>
       <c r="B1012" t="s">
-        <v>1930</v>
+        <v>1902</v>
       </c>
       <c r="D1012">
-        <v>1092</v>
+        <v>1021</v>
       </c>
       <c r="G1012" t="s">
         <v>1877</v>
@@ -22027,13 +22070,13 @@
     </row>
     <row r="1013" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1013" t="s">
-        <v>1931</v>
+        <v>1903</v>
       </c>
       <c r="B1013" t="s">
-        <v>1931</v>
+        <v>1903</v>
       </c>
       <c r="D1013">
-        <v>1093</v>
+        <v>1022</v>
       </c>
       <c r="G1013" t="s">
         <v>1877</v>
@@ -22041,13 +22084,13 @@
     </row>
     <row r="1014" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1014" t="s">
-        <v>1932</v>
+        <v>1904</v>
       </c>
       <c r="B1014" t="s">
-        <v>1932</v>
+        <v>1904</v>
       </c>
       <c r="D1014">
-        <v>1094</v>
+        <v>1023</v>
       </c>
       <c r="G1014" t="s">
         <v>1877</v>
@@ -22055,13 +22098,13 @@
     </row>
     <row r="1015" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1015" t="s">
-        <v>1933</v>
+        <v>1905</v>
       </c>
       <c r="B1015" t="s">
-        <v>1933</v>
+        <v>1905</v>
       </c>
       <c r="D1015">
-        <v>1095</v>
+        <v>1024</v>
       </c>
       <c r="G1015" t="s">
         <v>1877</v>
@@ -22069,13 +22112,13 @@
     </row>
     <row r="1016" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1016" t="s">
-        <v>1934</v>
+        <v>1906</v>
       </c>
       <c r="B1016" t="s">
-        <v>1934</v>
+        <v>1906</v>
       </c>
       <c r="D1016">
-        <v>1096</v>
+        <v>1025</v>
       </c>
       <c r="G1016" t="s">
         <v>1877</v>
@@ -22083,13 +22126,13 @@
     </row>
     <row r="1017" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1017" t="s">
-        <v>1935</v>
+        <v>1907</v>
       </c>
       <c r="B1017" t="s">
-        <v>1935</v>
+        <v>1907</v>
       </c>
       <c r="D1017">
-        <v>1097</v>
+        <v>1026</v>
       </c>
       <c r="G1017" t="s">
         <v>1877</v>
@@ -22097,13 +22140,13 @@
     </row>
     <row r="1018" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1018" t="s">
-        <v>1936</v>
+        <v>1908</v>
       </c>
       <c r="B1018" t="s">
-        <v>1936</v>
+        <v>1908</v>
       </c>
       <c r="D1018">
-        <v>1098</v>
+        <v>1027</v>
       </c>
       <c r="G1018" t="s">
         <v>1877</v>
@@ -22111,13 +22154,13 @@
     </row>
     <row r="1019" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1019" t="s">
-        <v>1937</v>
+        <v>1909</v>
       </c>
       <c r="B1019" t="s">
-        <v>1937</v>
+        <v>1909</v>
       </c>
       <c r="D1019">
-        <v>1099</v>
+        <v>1028</v>
       </c>
       <c r="G1019" t="s">
         <v>1877</v>
@@ -22125,13 +22168,13 @@
     </row>
     <row r="1020" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1020" t="s">
-        <v>1855</v>
+        <v>1910</v>
       </c>
       <c r="B1020" t="s">
-        <v>1855</v>
+        <v>1910</v>
       </c>
       <c r="D1020">
-        <v>1100</v>
+        <v>1029</v>
       </c>
       <c r="G1020" t="s">
         <v>1877</v>
@@ -22139,13 +22182,13 @@
     </row>
     <row r="1021" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1021" t="s">
-        <v>1856</v>
+        <v>1911</v>
       </c>
       <c r="B1021" t="s">
-        <v>1856</v>
+        <v>1911</v>
       </c>
       <c r="D1021">
-        <v>1101</v>
+        <v>1030</v>
       </c>
       <c r="G1021" t="s">
         <v>1877</v>
@@ -22153,13 +22196,13 @@
     </row>
     <row r="1022" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1022" t="s">
-        <v>1857</v>
+        <v>1912</v>
       </c>
       <c r="B1022" t="s">
-        <v>1857</v>
+        <v>1912</v>
       </c>
       <c r="D1022">
-        <v>1102</v>
+        <v>1031</v>
       </c>
       <c r="G1022" t="s">
         <v>1877</v>
@@ -22167,13 +22210,13 @@
     </row>
     <row r="1023" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1023" t="s">
-        <v>1858</v>
+        <v>1913</v>
       </c>
       <c r="B1023" t="s">
-        <v>1858</v>
+        <v>1913</v>
       </c>
       <c r="D1023">
-        <v>1103</v>
+        <v>1032</v>
       </c>
       <c r="G1023" t="s">
         <v>1877</v>
@@ -22181,13 +22224,13 @@
     </row>
     <row r="1024" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1024" t="s">
-        <v>1859</v>
+        <v>1914</v>
       </c>
       <c r="B1024" t="s">
-        <v>1859</v>
+        <v>1914</v>
       </c>
       <c r="D1024">
-        <v>1104</v>
+        <v>1033</v>
       </c>
       <c r="G1024" t="s">
         <v>1877</v>
@@ -22195,13 +22238,13 @@
     </row>
     <row r="1025" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1025" t="s">
-        <v>1860</v>
+        <v>1915</v>
       </c>
       <c r="B1025" t="s">
-        <v>1860</v>
+        <v>1915</v>
       </c>
       <c r="D1025">
-        <v>1105</v>
+        <v>1034</v>
       </c>
       <c r="G1025" t="s">
         <v>1877</v>
@@ -22209,13 +22252,13 @@
     </row>
     <row r="1026" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1026" t="s">
-        <v>1861</v>
+        <v>1916</v>
       </c>
       <c r="B1026" t="s">
-        <v>1861</v>
+        <v>1916</v>
       </c>
       <c r="D1026">
-        <v>1106</v>
+        <v>1035</v>
       </c>
       <c r="G1026" t="s">
         <v>1877</v>
@@ -22223,13 +22266,13 @@
     </row>
     <row r="1027" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1027" t="s">
-        <v>1862</v>
+        <v>1917</v>
       </c>
       <c r="B1027" t="s">
-        <v>1862</v>
+        <v>1917</v>
       </c>
       <c r="D1027">
-        <v>1107</v>
+        <v>1036</v>
       </c>
       <c r="G1027" t="s">
         <v>1877</v>
@@ -22237,13 +22280,13 @@
     </row>
     <row r="1028" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1028" t="s">
-        <v>1863</v>
+        <v>1918</v>
       </c>
       <c r="B1028" t="s">
-        <v>1863</v>
+        <v>1918</v>
       </c>
       <c r="D1028">
-        <v>1108</v>
+        <v>1037</v>
       </c>
       <c r="G1028" t="s">
         <v>1877</v>
@@ -22251,13 +22294,13 @@
     </row>
     <row r="1029" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1029" t="s">
-        <v>1864</v>
+        <v>1919</v>
       </c>
       <c r="B1029" t="s">
-        <v>1864</v>
+        <v>1919</v>
       </c>
       <c r="D1029">
-        <v>1109</v>
+        <v>1038</v>
       </c>
       <c r="G1029" t="s">
         <v>1877</v>
@@ -22265,13 +22308,13 @@
     </row>
     <row r="1030" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1030" t="s">
-        <v>1865</v>
+        <v>1920</v>
       </c>
       <c r="B1030" t="s">
-        <v>1865</v>
+        <v>1920</v>
       </c>
       <c r="D1030">
-        <v>1110</v>
+        <v>1039</v>
       </c>
       <c r="G1030" t="s">
         <v>1877</v>
@@ -22279,13 +22322,13 @@
     </row>
     <row r="1031" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1031" t="s">
-        <v>1866</v>
+        <v>1921</v>
       </c>
       <c r="B1031" t="s">
-        <v>1866</v>
+        <v>1921</v>
       </c>
       <c r="D1031">
-        <v>1111</v>
+        <v>1040</v>
       </c>
       <c r="G1031" t="s">
         <v>1877</v>
@@ -22293,13 +22336,13 @@
     </row>
     <row r="1032" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1032" t="s">
-        <v>1867</v>
+        <v>1922</v>
       </c>
       <c r="B1032" t="s">
-        <v>1867</v>
+        <v>1922</v>
       </c>
       <c r="D1032">
-        <v>1112</v>
+        <v>1041</v>
       </c>
       <c r="G1032" t="s">
         <v>1877</v>
@@ -22307,13 +22350,13 @@
     </row>
     <row r="1033" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1033" t="s">
-        <v>1868</v>
+        <v>1923</v>
       </c>
       <c r="B1033" t="s">
-        <v>1868</v>
+        <v>1923</v>
       </c>
       <c r="D1033">
-        <v>1113</v>
+        <v>1042</v>
       </c>
       <c r="G1033" t="s">
         <v>1877</v>
@@ -22321,13 +22364,13 @@
     </row>
     <row r="1034" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1034" t="s">
-        <v>1869</v>
+        <v>1924</v>
       </c>
       <c r="B1034" t="s">
-        <v>1869</v>
+        <v>1924</v>
       </c>
       <c r="D1034">
-        <v>1114</v>
+        <v>1043</v>
       </c>
       <c r="G1034" t="s">
         <v>1877</v>
@@ -22335,13 +22378,13 @@
     </row>
     <row r="1035" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1035" t="s">
-        <v>1870</v>
+        <v>1925</v>
       </c>
       <c r="B1035" t="s">
-        <v>1870</v>
+        <v>1925</v>
       </c>
       <c r="D1035">
-        <v>1115</v>
+        <v>1044</v>
       </c>
       <c r="G1035" t="s">
         <v>1877</v>
@@ -22349,13 +22392,13 @@
     </row>
     <row r="1036" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1036" t="s">
-        <v>1871</v>
+        <v>1926</v>
       </c>
       <c r="B1036" t="s">
-        <v>1871</v>
+        <v>1926</v>
       </c>
       <c r="D1036">
-        <v>1116</v>
+        <v>1045</v>
       </c>
       <c r="G1036" t="s">
         <v>1877</v>
@@ -22363,13 +22406,13 @@
     </row>
     <row r="1037" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1037" t="s">
-        <v>1872</v>
+        <v>1927</v>
       </c>
       <c r="B1037" t="s">
-        <v>1872</v>
+        <v>1927</v>
       </c>
       <c r="D1037">
-        <v>1117</v>
+        <v>1046</v>
       </c>
       <c r="G1037" t="s">
         <v>1877</v>
@@ -22377,13 +22420,13 @@
     </row>
     <row r="1038" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1038" t="s">
-        <v>1873</v>
+        <v>1928</v>
       </c>
       <c r="B1038" t="s">
-        <v>1873</v>
+        <v>1928</v>
       </c>
       <c r="D1038">
-        <v>1118</v>
+        <v>1047</v>
       </c>
       <c r="G1038" t="s">
         <v>1877</v>
@@ -22391,13 +22434,13 @@
     </row>
     <row r="1039" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1039" t="s">
-        <v>1874</v>
+        <v>1929</v>
       </c>
       <c r="B1039" t="s">
-        <v>1874</v>
+        <v>1929</v>
       </c>
       <c r="D1039">
-        <v>1119</v>
+        <v>1048</v>
       </c>
       <c r="G1039" t="s">
         <v>1877</v>
@@ -22405,526 +22448,498 @@
     </row>
     <row r="1040" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1040" t="s">
+        <v>1930</v>
+      </c>
+      <c r="B1040" t="s">
+        <v>1930</v>
+      </c>
+      <c r="D1040">
+        <v>1049</v>
+      </c>
+      <c r="G1040" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1041" t="s">
+        <v>1931</v>
+      </c>
+      <c r="B1041" t="s">
+        <v>1931</v>
+      </c>
+      <c r="D1041">
+        <v>1050</v>
+      </c>
+      <c r="G1041" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1042" t="s">
+        <v>1932</v>
+      </c>
+      <c r="B1042" t="s">
+        <v>1932</v>
+      </c>
+      <c r="D1042">
+        <v>1051</v>
+      </c>
+      <c r="G1042" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1043" t="s">
+        <v>1933</v>
+      </c>
+      <c r="B1043" t="s">
+        <v>1933</v>
+      </c>
+      <c r="D1043">
+        <v>1052</v>
+      </c>
+      <c r="G1043" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1044" t="s">
+        <v>1934</v>
+      </c>
+      <c r="B1044" t="s">
+        <v>1934</v>
+      </c>
+      <c r="D1044">
+        <v>1053</v>
+      </c>
+      <c r="G1044" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1045" t="s">
+        <v>1935</v>
+      </c>
+      <c r="B1045" t="s">
+        <v>1935</v>
+      </c>
+      <c r="D1045">
+        <v>1054</v>
+      </c>
+      <c r="G1045" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1046" t="s">
+        <v>1936</v>
+      </c>
+      <c r="B1046" t="s">
+        <v>1936</v>
+      </c>
+      <c r="D1046">
+        <v>1055</v>
+      </c>
+      <c r="G1046" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1047" t="s">
+        <v>1937</v>
+      </c>
+      <c r="B1047" t="s">
+        <v>1937</v>
+      </c>
+      <c r="D1047">
+        <v>1056</v>
+      </c>
+      <c r="G1047" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1048" t="s">
+        <v>1855</v>
+      </c>
+      <c r="B1048" t="s">
+        <v>1855</v>
+      </c>
+      <c r="D1048">
+        <v>1057</v>
+      </c>
+      <c r="G1048" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1049" t="s">
+        <v>1856</v>
+      </c>
+      <c r="B1049" t="s">
+        <v>1856</v>
+      </c>
+      <c r="D1049">
+        <v>1058</v>
+      </c>
+      <c r="G1049" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1050" t="s">
+        <v>1857</v>
+      </c>
+      <c r="B1050" t="s">
+        <v>1857</v>
+      </c>
+      <c r="D1050">
+        <v>1059</v>
+      </c>
+      <c r="G1050" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1051" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B1051" t="s">
+        <v>1858</v>
+      </c>
+      <c r="D1051">
+        <v>1060</v>
+      </c>
+      <c r="G1051" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1052" t="s">
+        <v>1859</v>
+      </c>
+      <c r="B1052" t="s">
+        <v>1859</v>
+      </c>
+      <c r="D1052">
+        <v>1061</v>
+      </c>
+      <c r="G1052" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1053" t="s">
+        <v>1860</v>
+      </c>
+      <c r="B1053" t="s">
+        <v>1860</v>
+      </c>
+      <c r="D1053">
+        <v>1062</v>
+      </c>
+      <c r="G1053" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1054" t="s">
+        <v>1861</v>
+      </c>
+      <c r="B1054" t="s">
+        <v>1861</v>
+      </c>
+      <c r="D1054">
+        <v>1063</v>
+      </c>
+      <c r="G1054" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1055" t="s">
+        <v>1862</v>
+      </c>
+      <c r="B1055" t="s">
+        <v>1862</v>
+      </c>
+      <c r="D1055">
+        <v>1064</v>
+      </c>
+      <c r="G1055" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1056" t="s">
+        <v>1863</v>
+      </c>
+      <c r="B1056" t="s">
+        <v>1863</v>
+      </c>
+      <c r="D1056">
+        <v>1065</v>
+      </c>
+      <c r="G1056" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1057" t="s">
+        <v>1864</v>
+      </c>
+      <c r="B1057" t="s">
+        <v>1864</v>
+      </c>
+      <c r="D1057">
+        <v>1066</v>
+      </c>
+      <c r="G1057" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1058" t="s">
+        <v>1865</v>
+      </c>
+      <c r="B1058" t="s">
+        <v>1865</v>
+      </c>
+      <c r="D1058">
+        <v>1067</v>
+      </c>
+      <c r="G1058" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1059" t="s">
+        <v>1866</v>
+      </c>
+      <c r="B1059" t="s">
+        <v>1866</v>
+      </c>
+      <c r="D1059">
+        <v>1068</v>
+      </c>
+      <c r="G1059" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1060" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B1060" t="s">
+        <v>1867</v>
+      </c>
+      <c r="D1060">
+        <v>1069</v>
+      </c>
+      <c r="G1060" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1061" t="s">
+        <v>1868</v>
+      </c>
+      <c r="B1061" t="s">
+        <v>1868</v>
+      </c>
+      <c r="D1061">
+        <v>1070</v>
+      </c>
+      <c r="G1061" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1062" t="s">
+        <v>1869</v>
+      </c>
+      <c r="B1062" t="s">
+        <v>1869</v>
+      </c>
+      <c r="D1062">
+        <v>1071</v>
+      </c>
+      <c r="G1062" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1063" t="s">
+        <v>1870</v>
+      </c>
+      <c r="B1063" t="s">
+        <v>1870</v>
+      </c>
+      <c r="D1063">
+        <v>1072</v>
+      </c>
+      <c r="G1063" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1064" t="s">
+        <v>1871</v>
+      </c>
+      <c r="B1064" t="s">
+        <v>1871</v>
+      </c>
+      <c r="D1064">
+        <v>1073</v>
+      </c>
+      <c r="G1064" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1065" t="s">
+        <v>1872</v>
+      </c>
+      <c r="B1065" t="s">
+        <v>1872</v>
+      </c>
+      <c r="D1065">
+        <v>1074</v>
+      </c>
+      <c r="G1065" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1066" t="s">
+        <v>1873</v>
+      </c>
+      <c r="B1066" t="s">
+        <v>1873</v>
+      </c>
+      <c r="D1066">
+        <v>1075</v>
+      </c>
+      <c r="G1066" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1067" t="s">
+        <v>1874</v>
+      </c>
+      <c r="B1067" t="s">
+        <v>1874</v>
+      </c>
+      <c r="D1067">
+        <v>1076</v>
+      </c>
+      <c r="G1067" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1068" t="s">
         <v>1701</v>
       </c>
-      <c r="B1040" t="s">
+      <c r="B1068" t="s">
         <v>1701</v>
       </c>
-      <c r="D1040">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="1041" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1041" t="s">
+      <c r="D1068">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1069" t="s">
         <v>1702</v>
       </c>
-      <c r="B1041" t="s">
+      <c r="B1069" t="s">
         <v>1702</v>
       </c>
-      <c r="D1041">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="1042" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1042" t="s">
+      <c r="D1069">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1070" t="s">
         <v>1703</v>
       </c>
-      <c r="B1042" t="s">
+      <c r="B1070" t="s">
         <v>1703</v>
       </c>
-      <c r="D1042">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="1043" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1043" t="s">
+      <c r="D1070">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1071" t="s">
         <v>1704</v>
       </c>
-      <c r="B1043" t="s">
+      <c r="B1071" t="s">
         <v>1704</v>
       </c>
-      <c r="D1043">
-        <v>2047</v>
-      </c>
-    </row>
-    <row r="1044" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1044" t="s">
+      <c r="D1071">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1072" t="s">
+        <v>1984</v>
+      </c>
+      <c r="B1072" t="s">
         <v>1938</v>
       </c>
-      <c r="B1044" t="s">
-        <v>1938</v>
-      </c>
-      <c r="D1044">
-        <v>2080</v>
-      </c>
-    </row>
-    <row r="1045" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1045" t="s">
+      <c r="D1072">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1073" t="s">
+        <v>1985</v>
+      </c>
+      <c r="B1073" t="s">
         <v>1939</v>
       </c>
-      <c r="B1045" t="s">
-        <v>1939</v>
-      </c>
-      <c r="D1045">
-        <v>2081</v>
-      </c>
-    </row>
-    <row r="1046" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1046" t="s">
+      <c r="D1073">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1074" t="s">
+        <v>1986</v>
+      </c>
+      <c r="B1074" t="s">
         <v>1940</v>
       </c>
-      <c r="B1046" t="s">
-        <v>1940</v>
-      </c>
-      <c r="D1046">
-        <v>2082</v>
-      </c>
-    </row>
-    <row r="1047" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1047" t="s">
+      <c r="D1074">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1075" t="s">
+        <v>1987</v>
+      </c>
+      <c r="B1075" t="s">
         <v>1941</v>
       </c>
-      <c r="B1047" t="s">
-        <v>1941</v>
-      </c>
-      <c r="D1047">
-        <v>2083</v>
-      </c>
-    </row>
-    <row r="1048" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1048" t="s">
+      <c r="D1075">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1076" t="s">
+        <v>1988</v>
+      </c>
+      <c r="B1076" t="s">
         <v>1942</v>
       </c>
-      <c r="B1048" t="s">
-        <v>1942</v>
-      </c>
-      <c r="D1048">
-        <v>2084</v>
-      </c>
-    </row>
-    <row r="1049" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1049" t="s">
-        <v>1800</v>
-      </c>
-      <c r="B1049" t="s">
-        <v>1800</v>
-      </c>
-      <c r="C1049" t="s">
-        <v>1799</v>
-      </c>
-      <c r="D1049">
-        <v>3001</v>
-      </c>
-      <c r="I1049"/>
-    </row>
-    <row r="1050" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1050" t="s">
-        <v>1802</v>
-      </c>
-      <c r="B1050" t="s">
-        <v>1802</v>
-      </c>
-      <c r="C1050" t="s">
-        <v>1801</v>
-      </c>
-      <c r="D1050">
-        <v>3002</v>
-      </c>
-      <c r="I1050"/>
-    </row>
-    <row r="1051" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1051" t="s">
-        <v>1804</v>
-      </c>
-      <c r="B1051" t="s">
-        <v>1804</v>
-      </c>
-      <c r="C1051" t="s">
-        <v>1803</v>
-      </c>
-      <c r="D1051">
-        <v>3003</v>
-      </c>
-      <c r="I1051"/>
-    </row>
-    <row r="1052" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1052" t="s">
-        <v>1806</v>
-      </c>
-      <c r="B1052" t="s">
-        <v>1806</v>
-      </c>
-      <c r="C1052" t="s">
-        <v>1805</v>
-      </c>
-      <c r="D1052">
-        <v>3004</v>
-      </c>
-      <c r="I1052"/>
-    </row>
-    <row r="1053" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1053" t="s">
-        <v>1808</v>
-      </c>
-      <c r="B1053" t="s">
-        <v>1808</v>
-      </c>
-      <c r="C1053" t="s">
-        <v>1807</v>
-      </c>
-      <c r="D1053">
-        <v>3005</v>
-      </c>
-      <c r="I1053"/>
-    </row>
-    <row r="1054" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1054" t="s">
-        <v>1810</v>
-      </c>
-      <c r="B1054" t="s">
-        <v>1810</v>
-      </c>
-      <c r="C1054" t="s">
-        <v>1809</v>
-      </c>
-      <c r="D1054">
-        <v>3006</v>
-      </c>
-      <c r="I1054"/>
-    </row>
-    <row r="1055" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1055" t="s">
-        <v>1812</v>
-      </c>
-      <c r="B1055" t="s">
-        <v>1812</v>
-      </c>
-      <c r="C1055" t="s">
-        <v>1811</v>
-      </c>
-      <c r="D1055">
-        <v>3007</v>
-      </c>
-      <c r="I1055"/>
-    </row>
-    <row r="1056" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1056" t="s">
-        <v>1814</v>
-      </c>
-      <c r="B1056" t="s">
-        <v>1814</v>
-      </c>
-      <c r="C1056" t="s">
-        <v>1813</v>
-      </c>
-      <c r="D1056">
-        <v>3008</v>
-      </c>
-      <c r="I1056"/>
-    </row>
-    <row r="1057" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1057" t="s">
-        <v>1816</v>
-      </c>
-      <c r="B1057" t="s">
-        <v>1816</v>
-      </c>
-      <c r="C1057" t="s">
-        <v>1815</v>
-      </c>
-      <c r="D1057">
-        <v>3009</v>
-      </c>
-      <c r="I1057"/>
-    </row>
-    <row r="1058" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1058" t="s">
-        <v>1818</v>
-      </c>
-      <c r="B1058" t="s">
-        <v>1818</v>
-      </c>
-      <c r="C1058" t="s">
-        <v>1817</v>
-      </c>
-      <c r="D1058">
-        <v>3010</v>
-      </c>
-      <c r="I1058"/>
-    </row>
-    <row r="1059" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1059" t="s">
-        <v>1820</v>
-      </c>
-      <c r="B1059" t="s">
-        <v>1820</v>
-      </c>
-      <c r="C1059" t="s">
-        <v>1819</v>
-      </c>
-      <c r="D1059">
-        <v>3011</v>
-      </c>
-      <c r="I1059"/>
-    </row>
-    <row r="1060" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1060" t="s">
-        <v>1822</v>
-      </c>
-      <c r="B1060" t="s">
-        <v>1822</v>
-      </c>
-      <c r="C1060" t="s">
-        <v>1821</v>
-      </c>
-      <c r="D1060">
-        <v>3012</v>
-      </c>
-      <c r="I1060"/>
-    </row>
-    <row r="1061" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1061" t="s">
-        <v>1824</v>
-      </c>
-      <c r="B1061" t="s">
-        <v>1824</v>
-      </c>
-      <c r="C1061" t="s">
-        <v>1823</v>
-      </c>
-      <c r="D1061">
-        <v>3013</v>
-      </c>
-      <c r="I1061"/>
-    </row>
-    <row r="1062" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1062" t="s">
-        <v>1826</v>
-      </c>
-      <c r="B1062" t="s">
-        <v>1826</v>
-      </c>
-      <c r="C1062" t="s">
-        <v>1825</v>
-      </c>
-      <c r="D1062">
-        <v>3014</v>
-      </c>
-      <c r="I1062"/>
-    </row>
-    <row r="1063" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1063" t="s">
-        <v>1828</v>
-      </c>
-      <c r="B1063" t="s">
-        <v>1828</v>
-      </c>
-      <c r="C1063" t="s">
-        <v>1827</v>
-      </c>
-      <c r="D1063">
-        <v>3015</v>
-      </c>
-      <c r="I1063"/>
-    </row>
-    <row r="1064" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1064" t="s">
-        <v>1830</v>
-      </c>
-      <c r="B1064" t="s">
-        <v>1830</v>
-      </c>
-      <c r="C1064" t="s">
-        <v>1829</v>
-      </c>
-      <c r="D1064">
-        <v>3016</v>
-      </c>
-      <c r="I1064"/>
-    </row>
-    <row r="1065" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1065" t="s">
-        <v>1832</v>
-      </c>
-      <c r="B1065" t="s">
-        <v>1832</v>
-      </c>
-      <c r="C1065" t="s">
-        <v>1831</v>
-      </c>
-      <c r="D1065">
-        <v>3017</v>
-      </c>
-      <c r="I1065"/>
-    </row>
-    <row r="1066" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1066" t="s">
-        <v>1834</v>
-      </c>
-      <c r="B1066" t="s">
-        <v>1834</v>
-      </c>
-      <c r="C1066" t="s">
-        <v>1833</v>
-      </c>
-      <c r="D1066">
-        <v>3018</v>
-      </c>
-      <c r="I1066"/>
-    </row>
-    <row r="1067" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1067" t="s">
-        <v>1836</v>
-      </c>
-      <c r="B1067" t="s">
-        <v>1836</v>
-      </c>
-      <c r="C1067" t="s">
-        <v>1835</v>
-      </c>
-      <c r="D1067">
-        <v>3019</v>
-      </c>
-      <c r="I1067"/>
-    </row>
-    <row r="1068" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1068" t="s">
-        <v>1838</v>
-      </c>
-      <c r="B1068" t="s">
-        <v>1838</v>
-      </c>
-      <c r="C1068" t="s">
-        <v>1837</v>
-      </c>
-      <c r="D1068">
-        <v>3020</v>
-      </c>
-      <c r="I1068"/>
-    </row>
-    <row r="1069" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1069" t="s">
-        <v>1840</v>
-      </c>
-      <c r="B1069" t="s">
-        <v>1840</v>
-      </c>
-      <c r="C1069" t="s">
-        <v>1839</v>
-      </c>
-      <c r="D1069">
-        <v>3021</v>
-      </c>
-      <c r="I1069"/>
-    </row>
-    <row r="1070" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1070" t="s">
-        <v>1842</v>
-      </c>
-      <c r="B1070" t="s">
-        <v>1842</v>
-      </c>
-      <c r="C1070" t="s">
-        <v>1841</v>
-      </c>
-      <c r="D1070">
-        <v>3022</v>
-      </c>
-      <c r="I1070"/>
-    </row>
-    <row r="1071" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1071" t="s">
-        <v>1844</v>
-      </c>
-      <c r="B1071" t="s">
-        <v>1844</v>
-      </c>
-      <c r="C1071" t="s">
-        <v>1843</v>
-      </c>
-      <c r="D1071">
-        <v>3023</v>
-      </c>
-      <c r="I1071"/>
-    </row>
-    <row r="1072" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1072" t="s">
-        <v>1846</v>
-      </c>
-      <c r="B1072" t="s">
-        <v>1846</v>
-      </c>
-      <c r="C1072" t="s">
-        <v>1845</v>
-      </c>
-      <c r="D1072">
-        <v>3024</v>
-      </c>
-      <c r="I1072"/>
-    </row>
-    <row r="1073" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1073" t="s">
-        <v>1848</v>
-      </c>
-      <c r="B1073" t="s">
-        <v>1848</v>
-      </c>
-      <c r="C1073" t="s">
-        <v>1847</v>
-      </c>
-      <c r="D1073">
-        <v>3025</v>
-      </c>
-      <c r="I1073"/>
-    </row>
-    <row r="1074" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1074" t="s">
-        <v>1850</v>
-      </c>
-      <c r="B1074" t="s">
-        <v>1850</v>
-      </c>
-      <c r="C1074" t="s">
-        <v>1849</v>
-      </c>
-      <c r="D1074">
-        <v>3026</v>
-      </c>
-      <c r="I1074"/>
-    </row>
-    <row r="1075" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1075" t="s">
-        <v>1852</v>
-      </c>
-      <c r="B1075" t="s">
-        <v>1852</v>
-      </c>
-      <c r="C1075" t="s">
-        <v>1851</v>
-      </c>
-      <c r="D1075">
-        <v>3027</v>
-      </c>
-      <c r="I1075"/>
-    </row>
-    <row r="1076" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1076" t="s">
-        <v>1854</v>
-      </c>
-      <c r="B1076" t="s">
-        <v>1854</v>
-      </c>
-      <c r="C1076" t="s">
-        <v>1853</v>
-      </c>
       <c r="D1076">
-        <v>3028</v>
-      </c>
-      <c r="I1076"/>
+        <v>1085</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:J1" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState ref="A2:J1183">
+    <sortState ref="A2:J1076">
       <sortCondition ref="D1"/>
     </sortState>
   </autoFilter>
